--- a/meta/alignment-matrix.xlsx
+++ b/meta/alignment-matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>GRADE BAND 5-6</t>
   </si>
@@ -35,7 +35,7 @@
     <t>C3 Social Studies</t>
   </si>
   <si>
-    <t>Learning Targets (I Can):</t>
+    <t>Learning Targets (SWBAT):</t>
   </si>
   <si>
     <t>Target?</t>
@@ -56,9 +56,6 @@
     <t>GRADE BAND 9-12</t>
   </si>
   <si>
-    <t>Learning Targets:</t>
-  </si>
-  <si>
     <t>Explain how variation affects evolution.</t>
   </si>
   <si>
@@ -75,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -124,10 +121,6 @@
     <font>
       <sz val="14.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -223,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,7 +244,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -336,22 +329,19 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2626,8 +2616,8 @@
       <c r="Z1" s="39"/>
     </row>
     <row r="2" ht="51.0" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>12</v>
+      <c r="A2" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
@@ -2681,25 +2671,25 @@
       <c r="U2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="2"/>
@@ -3536,2908 +3526,2908 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="45"/>
+      <c r="A33" s="44"/>
     </row>
     <row r="34">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
     </row>
     <row r="35">
-      <c r="A35" s="45"/>
+      <c r="A35" s="44"/>
     </row>
     <row r="36">
-      <c r="A36" s="45"/>
+      <c r="A36" s="44"/>
     </row>
     <row r="37">
-      <c r="A37" s="45"/>
+      <c r="A37" s="44"/>
     </row>
     <row r="38">
-      <c r="A38" s="45"/>
+      <c r="A38" s="44"/>
     </row>
     <row r="39">
-      <c r="A39" s="45"/>
+      <c r="A39" s="44"/>
     </row>
     <row r="40">
-      <c r="A40" s="45"/>
+      <c r="A40" s="44"/>
     </row>
     <row r="41">
-      <c r="A41" s="45"/>
+      <c r="A41" s="44"/>
     </row>
     <row r="42">
-      <c r="A42" s="45"/>
+      <c r="A42" s="44"/>
     </row>
     <row r="43">
-      <c r="A43" s="45"/>
+      <c r="A43" s="44"/>
     </row>
     <row r="44">
-      <c r="A44" s="45"/>
+      <c r="A44" s="44"/>
     </row>
     <row r="45">
-      <c r="A45" s="45"/>
+      <c r="A45" s="44"/>
     </row>
     <row r="46">
-      <c r="A46" s="45"/>
+      <c r="A46" s="44"/>
     </row>
     <row r="47">
-      <c r="A47" s="45"/>
+      <c r="A47" s="44"/>
     </row>
     <row r="48">
-      <c r="A48" s="45"/>
+      <c r="A48" s="44"/>
     </row>
     <row r="49">
-      <c r="A49" s="45"/>
+      <c r="A49" s="44"/>
     </row>
     <row r="50">
-      <c r="A50" s="45"/>
+      <c r="A50" s="44"/>
     </row>
     <row r="51">
-      <c r="A51" s="45"/>
+      <c r="A51" s="44"/>
     </row>
     <row r="52">
-      <c r="A52" s="45"/>
+      <c r="A52" s="44"/>
     </row>
     <row r="53">
-      <c r="A53" s="45"/>
+      <c r="A53" s="44"/>
     </row>
     <row r="54">
-      <c r="A54" s="45"/>
+      <c r="A54" s="44"/>
     </row>
     <row r="55">
-      <c r="A55" s="45"/>
+      <c r="A55" s="44"/>
     </row>
     <row r="56">
-      <c r="A56" s="45"/>
+      <c r="A56" s="44"/>
     </row>
     <row r="57">
-      <c r="A57" s="45"/>
+      <c r="A57" s="44"/>
     </row>
     <row r="58">
-      <c r="A58" s="45"/>
+      <c r="A58" s="44"/>
     </row>
     <row r="59">
-      <c r="A59" s="45"/>
+      <c r="A59" s="44"/>
     </row>
     <row r="60">
-      <c r="A60" s="45"/>
+      <c r="A60" s="44"/>
     </row>
     <row r="61">
-      <c r="A61" s="45"/>
+      <c r="A61" s="44"/>
     </row>
     <row r="62">
-      <c r="A62" s="45"/>
+      <c r="A62" s="44"/>
     </row>
     <row r="63">
-      <c r="A63" s="45"/>
+      <c r="A63" s="44"/>
     </row>
     <row r="64">
-      <c r="A64" s="45"/>
+      <c r="A64" s="44"/>
     </row>
     <row r="65">
-      <c r="A65" s="45"/>
+      <c r="A65" s="44"/>
     </row>
     <row r="66">
-      <c r="A66" s="45"/>
+      <c r="A66" s="44"/>
     </row>
     <row r="67">
-      <c r="A67" s="45"/>
+      <c r="A67" s="44"/>
     </row>
     <row r="68">
-      <c r="A68" s="45"/>
+      <c r="A68" s="44"/>
     </row>
     <row r="69">
-      <c r="A69" s="45"/>
+      <c r="A69" s="44"/>
     </row>
     <row r="70">
-      <c r="A70" s="45"/>
+      <c r="A70" s="44"/>
     </row>
     <row r="71">
-      <c r="A71" s="45"/>
+      <c r="A71" s="44"/>
     </row>
     <row r="72">
-      <c r="A72" s="45"/>
+      <c r="A72" s="44"/>
     </row>
     <row r="73">
-      <c r="A73" s="45"/>
+      <c r="A73" s="44"/>
     </row>
     <row r="74">
-      <c r="A74" s="45"/>
+      <c r="A74" s="44"/>
     </row>
     <row r="75">
-      <c r="A75" s="45"/>
+      <c r="A75" s="44"/>
     </row>
     <row r="76">
-      <c r="A76" s="45"/>
+      <c r="A76" s="44"/>
     </row>
     <row r="77">
-      <c r="A77" s="45"/>
+      <c r="A77" s="44"/>
     </row>
     <row r="78">
-      <c r="A78" s="45"/>
+      <c r="A78" s="44"/>
     </row>
     <row r="79">
-      <c r="A79" s="45"/>
+      <c r="A79" s="44"/>
     </row>
     <row r="80">
-      <c r="A80" s="45"/>
+      <c r="A80" s="44"/>
     </row>
     <row r="81">
-      <c r="A81" s="45"/>
+      <c r="A81" s="44"/>
     </row>
     <row r="82">
-      <c r="A82" s="45"/>
+      <c r="A82" s="44"/>
     </row>
     <row r="83">
-      <c r="A83" s="45"/>
+      <c r="A83" s="44"/>
     </row>
     <row r="84">
-      <c r="A84" s="45"/>
+      <c r="A84" s="44"/>
     </row>
     <row r="85">
-      <c r="A85" s="45"/>
+      <c r="A85" s="44"/>
     </row>
     <row r="86">
-      <c r="A86" s="45"/>
+      <c r="A86" s="44"/>
     </row>
     <row r="87">
-      <c r="A87" s="45"/>
+      <c r="A87" s="44"/>
     </row>
     <row r="88">
-      <c r="A88" s="45"/>
+      <c r="A88" s="44"/>
     </row>
     <row r="89">
-      <c r="A89" s="45"/>
+      <c r="A89" s="44"/>
     </row>
     <row r="90">
-      <c r="A90" s="45"/>
+      <c r="A90" s="44"/>
     </row>
     <row r="91">
-      <c r="A91" s="45"/>
+      <c r="A91" s="44"/>
     </row>
     <row r="92">
-      <c r="A92" s="45"/>
+      <c r="A92" s="44"/>
     </row>
     <row r="93">
-      <c r="A93" s="45"/>
+      <c r="A93" s="44"/>
     </row>
     <row r="94">
-      <c r="A94" s="45"/>
+      <c r="A94" s="44"/>
     </row>
     <row r="95">
-      <c r="A95" s="45"/>
+      <c r="A95" s="44"/>
     </row>
     <row r="96">
-      <c r="A96" s="45"/>
+      <c r="A96" s="44"/>
     </row>
     <row r="97">
-      <c r="A97" s="45"/>
+      <c r="A97" s="44"/>
     </row>
     <row r="98">
-      <c r="A98" s="45"/>
+      <c r="A98" s="44"/>
     </row>
     <row r="99">
-      <c r="A99" s="45"/>
+      <c r="A99" s="44"/>
     </row>
     <row r="100">
-      <c r="A100" s="45"/>
+      <c r="A100" s="44"/>
     </row>
     <row r="101">
-      <c r="A101" s="45"/>
+      <c r="A101" s="44"/>
     </row>
     <row r="102">
-      <c r="A102" s="45"/>
+      <c r="A102" s="44"/>
     </row>
     <row r="103">
-      <c r="A103" s="45"/>
+      <c r="A103" s="44"/>
     </row>
     <row r="104">
-      <c r="A104" s="45"/>
+      <c r="A104" s="44"/>
     </row>
     <row r="105">
-      <c r="A105" s="45"/>
+      <c r="A105" s="44"/>
     </row>
     <row r="106">
-      <c r="A106" s="45"/>
+      <c r="A106" s="44"/>
     </row>
     <row r="107">
-      <c r="A107" s="45"/>
+      <c r="A107" s="44"/>
     </row>
     <row r="108">
-      <c r="A108" s="45"/>
+      <c r="A108" s="44"/>
     </row>
     <row r="109">
-      <c r="A109" s="45"/>
+      <c r="A109" s="44"/>
     </row>
     <row r="110">
-      <c r="A110" s="45"/>
+      <c r="A110" s="44"/>
     </row>
     <row r="111">
-      <c r="A111" s="45"/>
+      <c r="A111" s="44"/>
     </row>
     <row r="112">
-      <c r="A112" s="45"/>
+      <c r="A112" s="44"/>
     </row>
     <row r="113">
-      <c r="A113" s="45"/>
+      <c r="A113" s="44"/>
     </row>
     <row r="114">
-      <c r="A114" s="45"/>
+      <c r="A114" s="44"/>
     </row>
     <row r="115">
-      <c r="A115" s="45"/>
+      <c r="A115" s="44"/>
     </row>
     <row r="116">
-      <c r="A116" s="45"/>
+      <c r="A116" s="44"/>
     </row>
     <row r="117">
-      <c r="A117" s="45"/>
+      <c r="A117" s="44"/>
     </row>
     <row r="118">
-      <c r="A118" s="45"/>
+      <c r="A118" s="44"/>
     </row>
     <row r="119">
-      <c r="A119" s="45"/>
+      <c r="A119" s="44"/>
     </row>
     <row r="120">
-      <c r="A120" s="45"/>
+      <c r="A120" s="44"/>
     </row>
     <row r="121">
-      <c r="A121" s="45"/>
+      <c r="A121" s="44"/>
     </row>
     <row r="122">
-      <c r="A122" s="45"/>
+      <c r="A122" s="44"/>
     </row>
     <row r="123">
-      <c r="A123" s="45"/>
+      <c r="A123" s="44"/>
     </row>
     <row r="124">
-      <c r="A124" s="45"/>
+      <c r="A124" s="44"/>
     </row>
     <row r="125">
-      <c r="A125" s="45"/>
+      <c r="A125" s="44"/>
     </row>
     <row r="126">
-      <c r="A126" s="45"/>
+      <c r="A126" s="44"/>
     </row>
     <row r="127">
-      <c r="A127" s="45"/>
+      <c r="A127" s="44"/>
     </row>
     <row r="128">
-      <c r="A128" s="45"/>
+      <c r="A128" s="44"/>
     </row>
     <row r="129">
-      <c r="A129" s="45"/>
+      <c r="A129" s="44"/>
     </row>
     <row r="130">
-      <c r="A130" s="45"/>
+      <c r="A130" s="44"/>
     </row>
     <row r="131">
-      <c r="A131" s="45"/>
+      <c r="A131" s="44"/>
     </row>
     <row r="132">
-      <c r="A132" s="45"/>
+      <c r="A132" s="44"/>
     </row>
     <row r="133">
-      <c r="A133" s="45"/>
+      <c r="A133" s="44"/>
     </row>
     <row r="134">
-      <c r="A134" s="45"/>
+      <c r="A134" s="44"/>
     </row>
     <row r="135">
-      <c r="A135" s="45"/>
+      <c r="A135" s="44"/>
     </row>
     <row r="136">
-      <c r="A136" s="45"/>
+      <c r="A136" s="44"/>
     </row>
     <row r="137">
-      <c r="A137" s="45"/>
+      <c r="A137" s="44"/>
     </row>
     <row r="138">
-      <c r="A138" s="45"/>
+      <c r="A138" s="44"/>
     </row>
     <row r="139">
-      <c r="A139" s="45"/>
+      <c r="A139" s="44"/>
     </row>
     <row r="140">
-      <c r="A140" s="45"/>
+      <c r="A140" s="44"/>
     </row>
     <row r="141">
-      <c r="A141" s="45"/>
+      <c r="A141" s="44"/>
     </row>
     <row r="142">
-      <c r="A142" s="45"/>
+      <c r="A142" s="44"/>
     </row>
     <row r="143">
-      <c r="A143" s="45"/>
+      <c r="A143" s="44"/>
     </row>
     <row r="144">
-      <c r="A144" s="45"/>
+      <c r="A144" s="44"/>
     </row>
     <row r="145">
-      <c r="A145" s="45"/>
+      <c r="A145" s="44"/>
     </row>
     <row r="146">
-      <c r="A146" s="45"/>
+      <c r="A146" s="44"/>
     </row>
     <row r="147">
-      <c r="A147" s="45"/>
+      <c r="A147" s="44"/>
     </row>
     <row r="148">
-      <c r="A148" s="45"/>
+      <c r="A148" s="44"/>
     </row>
     <row r="149">
-      <c r="A149" s="45"/>
+      <c r="A149" s="44"/>
     </row>
     <row r="150">
-      <c r="A150" s="45"/>
+      <c r="A150" s="44"/>
     </row>
     <row r="151">
-      <c r="A151" s="45"/>
+      <c r="A151" s="44"/>
     </row>
     <row r="152">
-      <c r="A152" s="45"/>
+      <c r="A152" s="44"/>
     </row>
     <row r="153">
-      <c r="A153" s="45"/>
+      <c r="A153" s="44"/>
     </row>
     <row r="154">
-      <c r="A154" s="45"/>
+      <c r="A154" s="44"/>
     </row>
     <row r="155">
-      <c r="A155" s="45"/>
+      <c r="A155" s="44"/>
     </row>
     <row r="156">
-      <c r="A156" s="45"/>
+      <c r="A156" s="44"/>
     </row>
     <row r="157">
-      <c r="A157" s="45"/>
+      <c r="A157" s="44"/>
     </row>
     <row r="158">
-      <c r="A158" s="45"/>
+      <c r="A158" s="44"/>
     </row>
     <row r="159">
-      <c r="A159" s="45"/>
+      <c r="A159" s="44"/>
     </row>
     <row r="160">
-      <c r="A160" s="45"/>
+      <c r="A160" s="44"/>
     </row>
     <row r="161">
-      <c r="A161" s="45"/>
+      <c r="A161" s="44"/>
     </row>
     <row r="162">
-      <c r="A162" s="45"/>
+      <c r="A162" s="44"/>
     </row>
     <row r="163">
-      <c r="A163" s="45"/>
+      <c r="A163" s="44"/>
     </row>
     <row r="164">
-      <c r="A164" s="45"/>
+      <c r="A164" s="44"/>
     </row>
     <row r="165">
-      <c r="A165" s="45"/>
+      <c r="A165" s="44"/>
     </row>
     <row r="166">
-      <c r="A166" s="45"/>
+      <c r="A166" s="44"/>
     </row>
     <row r="167">
-      <c r="A167" s="45"/>
+      <c r="A167" s="44"/>
     </row>
     <row r="168">
-      <c r="A168" s="45"/>
+      <c r="A168" s="44"/>
     </row>
     <row r="169">
-      <c r="A169" s="45"/>
+      <c r="A169" s="44"/>
     </row>
     <row r="170">
-      <c r="A170" s="45"/>
+      <c r="A170" s="44"/>
     </row>
     <row r="171">
-      <c r="A171" s="45"/>
+      <c r="A171" s="44"/>
     </row>
     <row r="172">
-      <c r="A172" s="45"/>
+      <c r="A172" s="44"/>
     </row>
     <row r="173">
-      <c r="A173" s="45"/>
+      <c r="A173" s="44"/>
     </row>
     <row r="174">
-      <c r="A174" s="45"/>
+      <c r="A174" s="44"/>
     </row>
     <row r="175">
-      <c r="A175" s="45"/>
+      <c r="A175" s="44"/>
     </row>
     <row r="176">
-      <c r="A176" s="45"/>
+      <c r="A176" s="44"/>
     </row>
     <row r="177">
-      <c r="A177" s="45"/>
+      <c r="A177" s="44"/>
     </row>
     <row r="178">
-      <c r="A178" s="45"/>
+      <c r="A178" s="44"/>
     </row>
     <row r="179">
-      <c r="A179" s="45"/>
+      <c r="A179" s="44"/>
     </row>
     <row r="180">
-      <c r="A180" s="45"/>
+      <c r="A180" s="44"/>
     </row>
     <row r="181">
-      <c r="A181" s="45"/>
+      <c r="A181" s="44"/>
     </row>
     <row r="182">
-      <c r="A182" s="45"/>
+      <c r="A182" s="44"/>
     </row>
     <row r="183">
-      <c r="A183" s="45"/>
+      <c r="A183" s="44"/>
     </row>
     <row r="184">
-      <c r="A184" s="45"/>
+      <c r="A184" s="44"/>
     </row>
     <row r="185">
-      <c r="A185" s="45"/>
+      <c r="A185" s="44"/>
     </row>
     <row r="186">
-      <c r="A186" s="45"/>
+      <c r="A186" s="44"/>
     </row>
     <row r="187">
-      <c r="A187" s="45"/>
+      <c r="A187" s="44"/>
     </row>
     <row r="188">
-      <c r="A188" s="45"/>
+      <c r="A188" s="44"/>
     </row>
     <row r="189">
-      <c r="A189" s="45"/>
+      <c r="A189" s="44"/>
     </row>
     <row r="190">
-      <c r="A190" s="45"/>
+      <c r="A190" s="44"/>
     </row>
     <row r="191">
-      <c r="A191" s="45"/>
+      <c r="A191" s="44"/>
     </row>
     <row r="192">
-      <c r="A192" s="45"/>
+      <c r="A192" s="44"/>
     </row>
     <row r="193">
-      <c r="A193" s="45"/>
+      <c r="A193" s="44"/>
     </row>
     <row r="194">
-      <c r="A194" s="45"/>
+      <c r="A194" s="44"/>
     </row>
     <row r="195">
-      <c r="A195" s="45"/>
+      <c r="A195" s="44"/>
     </row>
     <row r="196">
-      <c r="A196" s="45"/>
+      <c r="A196" s="44"/>
     </row>
     <row r="197">
-      <c r="A197" s="45"/>
+      <c r="A197" s="44"/>
     </row>
     <row r="198">
-      <c r="A198" s="45"/>
+      <c r="A198" s="44"/>
     </row>
     <row r="199">
-      <c r="A199" s="45"/>
+      <c r="A199" s="44"/>
     </row>
     <row r="200">
-      <c r="A200" s="45"/>
+      <c r="A200" s="44"/>
     </row>
     <row r="201">
-      <c r="A201" s="45"/>
+      <c r="A201" s="44"/>
     </row>
     <row r="202">
-      <c r="A202" s="45"/>
+      <c r="A202" s="44"/>
     </row>
     <row r="203">
-      <c r="A203" s="45"/>
+      <c r="A203" s="44"/>
     </row>
     <row r="204">
-      <c r="A204" s="45"/>
+      <c r="A204" s="44"/>
     </row>
     <row r="205">
-      <c r="A205" s="45"/>
+      <c r="A205" s="44"/>
     </row>
     <row r="206">
-      <c r="A206" s="45"/>
+      <c r="A206" s="44"/>
     </row>
     <row r="207">
-      <c r="A207" s="45"/>
+      <c r="A207" s="44"/>
     </row>
     <row r="208">
-      <c r="A208" s="45"/>
+      <c r="A208" s="44"/>
     </row>
     <row r="209">
-      <c r="A209" s="45"/>
+      <c r="A209" s="44"/>
     </row>
     <row r="210">
-      <c r="A210" s="45"/>
+      <c r="A210" s="44"/>
     </row>
     <row r="211">
-      <c r="A211" s="45"/>
+      <c r="A211" s="44"/>
     </row>
     <row r="212">
-      <c r="A212" s="45"/>
+      <c r="A212" s="44"/>
     </row>
     <row r="213">
-      <c r="A213" s="45"/>
+      <c r="A213" s="44"/>
     </row>
     <row r="214">
-      <c r="A214" s="45"/>
+      <c r="A214" s="44"/>
     </row>
     <row r="215">
-      <c r="A215" s="45"/>
+      <c r="A215" s="44"/>
     </row>
     <row r="216">
-      <c r="A216" s="45"/>
+      <c r="A216" s="44"/>
     </row>
     <row r="217">
-      <c r="A217" s="45"/>
+      <c r="A217" s="44"/>
     </row>
     <row r="218">
-      <c r="A218" s="45"/>
+      <c r="A218" s="44"/>
     </row>
     <row r="219">
-      <c r="A219" s="45"/>
+      <c r="A219" s="44"/>
     </row>
     <row r="220">
-      <c r="A220" s="45"/>
+      <c r="A220" s="44"/>
     </row>
     <row r="221">
-      <c r="A221" s="45"/>
+      <c r="A221" s="44"/>
     </row>
     <row r="222">
-      <c r="A222" s="45"/>
+      <c r="A222" s="44"/>
     </row>
     <row r="223">
-      <c r="A223" s="45"/>
+      <c r="A223" s="44"/>
     </row>
     <row r="224">
-      <c r="A224" s="45"/>
+      <c r="A224" s="44"/>
     </row>
     <row r="225">
-      <c r="A225" s="45"/>
+      <c r="A225" s="44"/>
     </row>
     <row r="226">
-      <c r="A226" s="45"/>
+      <c r="A226" s="44"/>
     </row>
     <row r="227">
-      <c r="A227" s="45"/>
+      <c r="A227" s="44"/>
     </row>
     <row r="228">
-      <c r="A228" s="45"/>
+      <c r="A228" s="44"/>
     </row>
     <row r="229">
-      <c r="A229" s="45"/>
+      <c r="A229" s="44"/>
     </row>
     <row r="230">
-      <c r="A230" s="45"/>
+      <c r="A230" s="44"/>
     </row>
     <row r="231">
-      <c r="A231" s="45"/>
+      <c r="A231" s="44"/>
     </row>
     <row r="232">
-      <c r="A232" s="45"/>
+      <c r="A232" s="44"/>
     </row>
     <row r="233">
-      <c r="A233" s="45"/>
+      <c r="A233" s="44"/>
     </row>
     <row r="234">
-      <c r="A234" s="45"/>
+      <c r="A234" s="44"/>
     </row>
     <row r="235">
-      <c r="A235" s="45"/>
+      <c r="A235" s="44"/>
     </row>
     <row r="236">
-      <c r="A236" s="45"/>
+      <c r="A236" s="44"/>
     </row>
     <row r="237">
-      <c r="A237" s="45"/>
+      <c r="A237" s="44"/>
     </row>
     <row r="238">
-      <c r="A238" s="45"/>
+      <c r="A238" s="44"/>
     </row>
     <row r="239">
-      <c r="A239" s="45"/>
+      <c r="A239" s="44"/>
     </row>
     <row r="240">
-      <c r="A240" s="45"/>
+      <c r="A240" s="44"/>
     </row>
     <row r="241">
-      <c r="A241" s="45"/>
+      <c r="A241" s="44"/>
     </row>
     <row r="242">
-      <c r="A242" s="45"/>
+      <c r="A242" s="44"/>
     </row>
     <row r="243">
-      <c r="A243" s="45"/>
+      <c r="A243" s="44"/>
     </row>
     <row r="244">
-      <c r="A244" s="45"/>
+      <c r="A244" s="44"/>
     </row>
     <row r="245">
-      <c r="A245" s="45"/>
+      <c r="A245" s="44"/>
     </row>
     <row r="246">
-      <c r="A246" s="45"/>
+      <c r="A246" s="44"/>
     </row>
     <row r="247">
-      <c r="A247" s="45"/>
+      <c r="A247" s="44"/>
     </row>
     <row r="248">
-      <c r="A248" s="45"/>
+      <c r="A248" s="44"/>
     </row>
     <row r="249">
-      <c r="A249" s="45"/>
+      <c r="A249" s="44"/>
     </row>
     <row r="250">
-      <c r="A250" s="45"/>
+      <c r="A250" s="44"/>
     </row>
     <row r="251">
-      <c r="A251" s="45"/>
+      <c r="A251" s="44"/>
     </row>
     <row r="252">
-      <c r="A252" s="45"/>
+      <c r="A252" s="44"/>
     </row>
     <row r="253">
-      <c r="A253" s="45"/>
+      <c r="A253" s="44"/>
     </row>
     <row r="254">
-      <c r="A254" s="45"/>
+      <c r="A254" s="44"/>
     </row>
     <row r="255">
-      <c r="A255" s="45"/>
+      <c r="A255" s="44"/>
     </row>
     <row r="256">
-      <c r="A256" s="45"/>
+      <c r="A256" s="44"/>
     </row>
     <row r="257">
-      <c r="A257" s="45"/>
+      <c r="A257" s="44"/>
     </row>
     <row r="258">
-      <c r="A258" s="45"/>
+      <c r="A258" s="44"/>
     </row>
     <row r="259">
-      <c r="A259" s="45"/>
+      <c r="A259" s="44"/>
     </row>
     <row r="260">
-      <c r="A260" s="45"/>
+      <c r="A260" s="44"/>
     </row>
     <row r="261">
-      <c r="A261" s="45"/>
+      <c r="A261" s="44"/>
     </row>
     <row r="262">
-      <c r="A262" s="45"/>
+      <c r="A262" s="44"/>
     </row>
     <row r="263">
-      <c r="A263" s="45"/>
+      <c r="A263" s="44"/>
     </row>
     <row r="264">
-      <c r="A264" s="45"/>
+      <c r="A264" s="44"/>
     </row>
     <row r="265">
-      <c r="A265" s="45"/>
+      <c r="A265" s="44"/>
     </row>
     <row r="266">
-      <c r="A266" s="45"/>
+      <c r="A266" s="44"/>
     </row>
     <row r="267">
-      <c r="A267" s="45"/>
+      <c r="A267" s="44"/>
     </row>
     <row r="268">
-      <c r="A268" s="45"/>
+      <c r="A268" s="44"/>
     </row>
     <row r="269">
-      <c r="A269" s="45"/>
+      <c r="A269" s="44"/>
     </row>
     <row r="270">
-      <c r="A270" s="45"/>
+      <c r="A270" s="44"/>
     </row>
     <row r="271">
-      <c r="A271" s="45"/>
+      <c r="A271" s="44"/>
     </row>
     <row r="272">
-      <c r="A272" s="45"/>
+      <c r="A272" s="44"/>
     </row>
     <row r="273">
-      <c r="A273" s="45"/>
+      <c r="A273" s="44"/>
     </row>
     <row r="274">
-      <c r="A274" s="45"/>
+      <c r="A274" s="44"/>
     </row>
     <row r="275">
-      <c r="A275" s="45"/>
+      <c r="A275" s="44"/>
     </row>
     <row r="276">
-      <c r="A276" s="45"/>
+      <c r="A276" s="44"/>
     </row>
     <row r="277">
-      <c r="A277" s="45"/>
+      <c r="A277" s="44"/>
     </row>
     <row r="278">
-      <c r="A278" s="45"/>
+      <c r="A278" s="44"/>
     </row>
     <row r="279">
-      <c r="A279" s="45"/>
+      <c r="A279" s="44"/>
     </row>
     <row r="280">
-      <c r="A280" s="45"/>
+      <c r="A280" s="44"/>
     </row>
     <row r="281">
-      <c r="A281" s="45"/>
+      <c r="A281" s="44"/>
     </row>
     <row r="282">
-      <c r="A282" s="45"/>
+      <c r="A282" s="44"/>
     </row>
     <row r="283">
-      <c r="A283" s="45"/>
+      <c r="A283" s="44"/>
     </row>
     <row r="284">
-      <c r="A284" s="45"/>
+      <c r="A284" s="44"/>
     </row>
     <row r="285">
-      <c r="A285" s="45"/>
+      <c r="A285" s="44"/>
     </row>
     <row r="286">
-      <c r="A286" s="45"/>
+      <c r="A286" s="44"/>
     </row>
     <row r="287">
-      <c r="A287" s="45"/>
+      <c r="A287" s="44"/>
     </row>
     <row r="288">
-      <c r="A288" s="45"/>
+      <c r="A288" s="44"/>
     </row>
     <row r="289">
-      <c r="A289" s="45"/>
+      <c r="A289" s="44"/>
     </row>
     <row r="290">
-      <c r="A290" s="45"/>
+      <c r="A290" s="44"/>
     </row>
     <row r="291">
-      <c r="A291" s="45"/>
+      <c r="A291" s="44"/>
     </row>
     <row r="292">
-      <c r="A292" s="45"/>
+      <c r="A292" s="44"/>
     </row>
     <row r="293">
-      <c r="A293" s="45"/>
+      <c r="A293" s="44"/>
     </row>
     <row r="294">
-      <c r="A294" s="45"/>
+      <c r="A294" s="44"/>
     </row>
     <row r="295">
-      <c r="A295" s="45"/>
+      <c r="A295" s="44"/>
     </row>
     <row r="296">
-      <c r="A296" s="45"/>
+      <c r="A296" s="44"/>
     </row>
     <row r="297">
-      <c r="A297" s="45"/>
+      <c r="A297" s="44"/>
     </row>
     <row r="298">
-      <c r="A298" s="45"/>
+      <c r="A298" s="44"/>
     </row>
     <row r="299">
-      <c r="A299" s="45"/>
+      <c r="A299" s="44"/>
     </row>
     <row r="300">
-      <c r="A300" s="45"/>
+      <c r="A300" s="44"/>
     </row>
     <row r="301">
-      <c r="A301" s="45"/>
+      <c r="A301" s="44"/>
     </row>
     <row r="302">
-      <c r="A302" s="45"/>
+      <c r="A302" s="44"/>
     </row>
     <row r="303">
-      <c r="A303" s="45"/>
+      <c r="A303" s="44"/>
     </row>
     <row r="304">
-      <c r="A304" s="45"/>
+      <c r="A304" s="44"/>
     </row>
     <row r="305">
-      <c r="A305" s="45"/>
+      <c r="A305" s="44"/>
     </row>
     <row r="306">
-      <c r="A306" s="45"/>
+      <c r="A306" s="44"/>
     </row>
     <row r="307">
-      <c r="A307" s="45"/>
+      <c r="A307" s="44"/>
     </row>
     <row r="308">
-      <c r="A308" s="45"/>
+      <c r="A308" s="44"/>
     </row>
     <row r="309">
-      <c r="A309" s="45"/>
+      <c r="A309" s="44"/>
     </row>
     <row r="310">
-      <c r="A310" s="45"/>
+      <c r="A310" s="44"/>
     </row>
     <row r="311">
-      <c r="A311" s="45"/>
+      <c r="A311" s="44"/>
     </row>
     <row r="312">
-      <c r="A312" s="45"/>
+      <c r="A312" s="44"/>
     </row>
     <row r="313">
-      <c r="A313" s="45"/>
+      <c r="A313" s="44"/>
     </row>
     <row r="314">
-      <c r="A314" s="45"/>
+      <c r="A314" s="44"/>
     </row>
     <row r="315">
-      <c r="A315" s="45"/>
+      <c r="A315" s="44"/>
     </row>
     <row r="316">
-      <c r="A316" s="45"/>
+      <c r="A316" s="44"/>
     </row>
     <row r="317">
-      <c r="A317" s="45"/>
+      <c r="A317" s="44"/>
     </row>
     <row r="318">
-      <c r="A318" s="45"/>
+      <c r="A318" s="44"/>
     </row>
     <row r="319">
-      <c r="A319" s="45"/>
+      <c r="A319" s="44"/>
     </row>
     <row r="320">
-      <c r="A320" s="45"/>
+      <c r="A320" s="44"/>
     </row>
     <row r="321">
-      <c r="A321" s="45"/>
+      <c r="A321" s="44"/>
     </row>
     <row r="322">
-      <c r="A322" s="45"/>
+      <c r="A322" s="44"/>
     </row>
     <row r="323">
-      <c r="A323" s="45"/>
+      <c r="A323" s="44"/>
     </row>
     <row r="324">
-      <c r="A324" s="45"/>
+      <c r="A324" s="44"/>
     </row>
     <row r="325">
-      <c r="A325" s="45"/>
+      <c r="A325" s="44"/>
     </row>
     <row r="326">
-      <c r="A326" s="45"/>
+      <c r="A326" s="44"/>
     </row>
     <row r="327">
-      <c r="A327" s="45"/>
+      <c r="A327" s="44"/>
     </row>
     <row r="328">
-      <c r="A328" s="45"/>
+      <c r="A328" s="44"/>
     </row>
     <row r="329">
-      <c r="A329" s="45"/>
+      <c r="A329" s="44"/>
     </row>
     <row r="330">
-      <c r="A330" s="45"/>
+      <c r="A330" s="44"/>
     </row>
     <row r="331">
-      <c r="A331" s="45"/>
+      <c r="A331" s="44"/>
     </row>
     <row r="332">
-      <c r="A332" s="45"/>
+      <c r="A332" s="44"/>
     </row>
     <row r="333">
-      <c r="A333" s="45"/>
+      <c r="A333" s="44"/>
     </row>
     <row r="334">
-      <c r="A334" s="45"/>
+      <c r="A334" s="44"/>
     </row>
     <row r="335">
-      <c r="A335" s="45"/>
+      <c r="A335" s="44"/>
     </row>
     <row r="336">
-      <c r="A336" s="45"/>
+      <c r="A336" s="44"/>
     </row>
     <row r="337">
-      <c r="A337" s="45"/>
+      <c r="A337" s="44"/>
     </row>
     <row r="338">
-      <c r="A338" s="45"/>
+      <c r="A338" s="44"/>
     </row>
     <row r="339">
-      <c r="A339" s="45"/>
+      <c r="A339" s="44"/>
     </row>
     <row r="340">
-      <c r="A340" s="45"/>
+      <c r="A340" s="44"/>
     </row>
     <row r="341">
-      <c r="A341" s="45"/>
+      <c r="A341" s="44"/>
     </row>
     <row r="342">
-      <c r="A342" s="45"/>
+      <c r="A342" s="44"/>
     </row>
     <row r="343">
-      <c r="A343" s="45"/>
+      <c r="A343" s="44"/>
     </row>
     <row r="344">
-      <c r="A344" s="45"/>
+      <c r="A344" s="44"/>
     </row>
     <row r="345">
-      <c r="A345" s="45"/>
+      <c r="A345" s="44"/>
     </row>
     <row r="346">
-      <c r="A346" s="45"/>
+      <c r="A346" s="44"/>
     </row>
     <row r="347">
-      <c r="A347" s="45"/>
+      <c r="A347" s="44"/>
     </row>
     <row r="348">
-      <c r="A348" s="45"/>
+      <c r="A348" s="44"/>
     </row>
     <row r="349">
-      <c r="A349" s="45"/>
+      <c r="A349" s="44"/>
     </row>
     <row r="350">
-      <c r="A350" s="45"/>
+      <c r="A350" s="44"/>
     </row>
     <row r="351">
-      <c r="A351" s="45"/>
+      <c r="A351" s="44"/>
     </row>
     <row r="352">
-      <c r="A352" s="45"/>
+      <c r="A352" s="44"/>
     </row>
     <row r="353">
-      <c r="A353" s="45"/>
+      <c r="A353" s="44"/>
     </row>
     <row r="354">
-      <c r="A354" s="45"/>
+      <c r="A354" s="44"/>
     </row>
     <row r="355">
-      <c r="A355" s="45"/>
+      <c r="A355" s="44"/>
     </row>
     <row r="356">
-      <c r="A356" s="45"/>
+      <c r="A356" s="44"/>
     </row>
     <row r="357">
-      <c r="A357" s="45"/>
+      <c r="A357" s="44"/>
     </row>
     <row r="358">
-      <c r="A358" s="45"/>
+      <c r="A358" s="44"/>
     </row>
     <row r="359">
-      <c r="A359" s="45"/>
+      <c r="A359" s="44"/>
     </row>
     <row r="360">
-      <c r="A360" s="45"/>
+      <c r="A360" s="44"/>
     </row>
     <row r="361">
-      <c r="A361" s="45"/>
+      <c r="A361" s="44"/>
     </row>
     <row r="362">
-      <c r="A362" s="45"/>
+      <c r="A362" s="44"/>
     </row>
     <row r="363">
-      <c r="A363" s="45"/>
+      <c r="A363" s="44"/>
     </row>
     <row r="364">
-      <c r="A364" s="45"/>
+      <c r="A364" s="44"/>
     </row>
     <row r="365">
-      <c r="A365" s="45"/>
+      <c r="A365" s="44"/>
     </row>
     <row r="366">
-      <c r="A366" s="45"/>
+      <c r="A366" s="44"/>
     </row>
     <row r="367">
-      <c r="A367" s="45"/>
+      <c r="A367" s="44"/>
     </row>
     <row r="368">
-      <c r="A368" s="45"/>
+      <c r="A368" s="44"/>
     </row>
     <row r="369">
-      <c r="A369" s="45"/>
+      <c r="A369" s="44"/>
     </row>
     <row r="370">
-      <c r="A370" s="45"/>
+      <c r="A370" s="44"/>
     </row>
     <row r="371">
-      <c r="A371" s="45"/>
+      <c r="A371" s="44"/>
     </row>
     <row r="372">
-      <c r="A372" s="45"/>
+      <c r="A372" s="44"/>
     </row>
     <row r="373">
-      <c r="A373" s="45"/>
+      <c r="A373" s="44"/>
     </row>
     <row r="374">
-      <c r="A374" s="45"/>
+      <c r="A374" s="44"/>
     </row>
     <row r="375">
-      <c r="A375" s="45"/>
+      <c r="A375" s="44"/>
     </row>
     <row r="376">
-      <c r="A376" s="45"/>
+      <c r="A376" s="44"/>
     </row>
     <row r="377">
-      <c r="A377" s="45"/>
+      <c r="A377" s="44"/>
     </row>
     <row r="378">
-      <c r="A378" s="45"/>
+      <c r="A378" s="44"/>
     </row>
     <row r="379">
-      <c r="A379" s="45"/>
+      <c r="A379" s="44"/>
     </row>
     <row r="380">
-      <c r="A380" s="45"/>
+      <c r="A380" s="44"/>
     </row>
     <row r="381">
-      <c r="A381" s="45"/>
+      <c r="A381" s="44"/>
     </row>
     <row r="382">
-      <c r="A382" s="45"/>
+      <c r="A382" s="44"/>
     </row>
     <row r="383">
-      <c r="A383" s="45"/>
+      <c r="A383" s="44"/>
     </row>
     <row r="384">
-      <c r="A384" s="45"/>
+      <c r="A384" s="44"/>
     </row>
     <row r="385">
-      <c r="A385" s="45"/>
+      <c r="A385" s="44"/>
     </row>
     <row r="386">
-      <c r="A386" s="45"/>
+      <c r="A386" s="44"/>
     </row>
     <row r="387">
-      <c r="A387" s="45"/>
+      <c r="A387" s="44"/>
     </row>
     <row r="388">
-      <c r="A388" s="45"/>
+      <c r="A388" s="44"/>
     </row>
     <row r="389">
-      <c r="A389" s="45"/>
+      <c r="A389" s="44"/>
     </row>
     <row r="390">
-      <c r="A390" s="45"/>
+      <c r="A390" s="44"/>
     </row>
     <row r="391">
-      <c r="A391" s="45"/>
+      <c r="A391" s="44"/>
     </row>
     <row r="392">
-      <c r="A392" s="45"/>
+      <c r="A392" s="44"/>
     </row>
     <row r="393">
-      <c r="A393" s="45"/>
+      <c r="A393" s="44"/>
     </row>
     <row r="394">
-      <c r="A394" s="45"/>
+      <c r="A394" s="44"/>
     </row>
     <row r="395">
-      <c r="A395" s="45"/>
+      <c r="A395" s="44"/>
     </row>
     <row r="396">
-      <c r="A396" s="45"/>
+      <c r="A396" s="44"/>
     </row>
     <row r="397">
-      <c r="A397" s="45"/>
+      <c r="A397" s="44"/>
     </row>
     <row r="398">
-      <c r="A398" s="45"/>
+      <c r="A398" s="44"/>
     </row>
     <row r="399">
-      <c r="A399" s="45"/>
+      <c r="A399" s="44"/>
     </row>
     <row r="400">
-      <c r="A400" s="45"/>
+      <c r="A400" s="44"/>
     </row>
     <row r="401">
-      <c r="A401" s="45"/>
+      <c r="A401" s="44"/>
     </row>
     <row r="402">
-      <c r="A402" s="45"/>
+      <c r="A402" s="44"/>
     </row>
     <row r="403">
-      <c r="A403" s="45"/>
+      <c r="A403" s="44"/>
     </row>
     <row r="404">
-      <c r="A404" s="45"/>
+      <c r="A404" s="44"/>
     </row>
     <row r="405">
-      <c r="A405" s="45"/>
+      <c r="A405" s="44"/>
     </row>
     <row r="406">
-      <c r="A406" s="45"/>
+      <c r="A406" s="44"/>
     </row>
     <row r="407">
-      <c r="A407" s="45"/>
+      <c r="A407" s="44"/>
     </row>
     <row r="408">
-      <c r="A408" s="45"/>
+      <c r="A408" s="44"/>
     </row>
     <row r="409">
-      <c r="A409" s="45"/>
+      <c r="A409" s="44"/>
     </row>
     <row r="410">
-      <c r="A410" s="45"/>
+      <c r="A410" s="44"/>
     </row>
     <row r="411">
-      <c r="A411" s="45"/>
+      <c r="A411" s="44"/>
     </row>
     <row r="412">
-      <c r="A412" s="45"/>
+      <c r="A412" s="44"/>
     </row>
     <row r="413">
-      <c r="A413" s="45"/>
+      <c r="A413" s="44"/>
     </row>
     <row r="414">
-      <c r="A414" s="45"/>
+      <c r="A414" s="44"/>
     </row>
     <row r="415">
-      <c r="A415" s="45"/>
+      <c r="A415" s="44"/>
     </row>
     <row r="416">
-      <c r="A416" s="45"/>
+      <c r="A416" s="44"/>
     </row>
     <row r="417">
-      <c r="A417" s="45"/>
+      <c r="A417" s="44"/>
     </row>
     <row r="418">
-      <c r="A418" s="45"/>
+      <c r="A418" s="44"/>
     </row>
     <row r="419">
-      <c r="A419" s="45"/>
+      <c r="A419" s="44"/>
     </row>
     <row r="420">
-      <c r="A420" s="45"/>
+      <c r="A420" s="44"/>
     </row>
     <row r="421">
-      <c r="A421" s="45"/>
+      <c r="A421" s="44"/>
     </row>
     <row r="422">
-      <c r="A422" s="45"/>
+      <c r="A422" s="44"/>
     </row>
     <row r="423">
-      <c r="A423" s="45"/>
+      <c r="A423" s="44"/>
     </row>
     <row r="424">
-      <c r="A424" s="45"/>
+      <c r="A424" s="44"/>
     </row>
     <row r="425">
-      <c r="A425" s="45"/>
+      <c r="A425" s="44"/>
     </row>
     <row r="426">
-      <c r="A426" s="45"/>
+      <c r="A426" s="44"/>
     </row>
     <row r="427">
-      <c r="A427" s="45"/>
+      <c r="A427" s="44"/>
     </row>
     <row r="428">
-      <c r="A428" s="45"/>
+      <c r="A428" s="44"/>
     </row>
     <row r="429">
-      <c r="A429" s="45"/>
+      <c r="A429" s="44"/>
     </row>
     <row r="430">
-      <c r="A430" s="45"/>
+      <c r="A430" s="44"/>
     </row>
     <row r="431">
-      <c r="A431" s="45"/>
+      <c r="A431" s="44"/>
     </row>
     <row r="432">
-      <c r="A432" s="45"/>
+      <c r="A432" s="44"/>
     </row>
     <row r="433">
-      <c r="A433" s="45"/>
+      <c r="A433" s="44"/>
     </row>
     <row r="434">
-      <c r="A434" s="45"/>
+      <c r="A434" s="44"/>
     </row>
     <row r="435">
-      <c r="A435" s="45"/>
+      <c r="A435" s="44"/>
     </row>
     <row r="436">
-      <c r="A436" s="45"/>
+      <c r="A436" s="44"/>
     </row>
     <row r="437">
-      <c r="A437" s="45"/>
+      <c r="A437" s="44"/>
     </row>
     <row r="438">
-      <c r="A438" s="45"/>
+      <c r="A438" s="44"/>
     </row>
     <row r="439">
-      <c r="A439" s="45"/>
+      <c r="A439" s="44"/>
     </row>
     <row r="440">
-      <c r="A440" s="45"/>
+      <c r="A440" s="44"/>
     </row>
     <row r="441">
-      <c r="A441" s="45"/>
+      <c r="A441" s="44"/>
     </row>
     <row r="442">
-      <c r="A442" s="45"/>
+      <c r="A442" s="44"/>
     </row>
     <row r="443">
-      <c r="A443" s="45"/>
+      <c r="A443" s="44"/>
     </row>
     <row r="444">
-      <c r="A444" s="45"/>
+      <c r="A444" s="44"/>
     </row>
     <row r="445">
-      <c r="A445" s="45"/>
+      <c r="A445" s="44"/>
     </row>
     <row r="446">
-      <c r="A446" s="45"/>
+      <c r="A446" s="44"/>
     </row>
     <row r="447">
-      <c r="A447" s="45"/>
+      <c r="A447" s="44"/>
     </row>
     <row r="448">
-      <c r="A448" s="45"/>
+      <c r="A448" s="44"/>
     </row>
     <row r="449">
-      <c r="A449" s="45"/>
+      <c r="A449" s="44"/>
     </row>
     <row r="450">
-      <c r="A450" s="45"/>
+      <c r="A450" s="44"/>
     </row>
     <row r="451">
-      <c r="A451" s="45"/>
+      <c r="A451" s="44"/>
     </row>
     <row r="452">
-      <c r="A452" s="45"/>
+      <c r="A452" s="44"/>
     </row>
     <row r="453">
-      <c r="A453" s="45"/>
+      <c r="A453" s="44"/>
     </row>
     <row r="454">
-      <c r="A454" s="45"/>
+      <c r="A454" s="44"/>
     </row>
     <row r="455">
-      <c r="A455" s="45"/>
+      <c r="A455" s="44"/>
     </row>
     <row r="456">
-      <c r="A456" s="45"/>
+      <c r="A456" s="44"/>
     </row>
     <row r="457">
-      <c r="A457" s="45"/>
+      <c r="A457" s="44"/>
     </row>
     <row r="458">
-      <c r="A458" s="45"/>
+      <c r="A458" s="44"/>
     </row>
     <row r="459">
-      <c r="A459" s="45"/>
+      <c r="A459" s="44"/>
     </row>
     <row r="460">
-      <c r="A460" s="45"/>
+      <c r="A460" s="44"/>
     </row>
     <row r="461">
-      <c r="A461" s="45"/>
+      <c r="A461" s="44"/>
     </row>
     <row r="462">
-      <c r="A462" s="45"/>
+      <c r="A462" s="44"/>
     </row>
     <row r="463">
-      <c r="A463" s="45"/>
+      <c r="A463" s="44"/>
     </row>
     <row r="464">
-      <c r="A464" s="45"/>
+      <c r="A464" s="44"/>
     </row>
     <row r="465">
-      <c r="A465" s="45"/>
+      <c r="A465" s="44"/>
     </row>
     <row r="466">
-      <c r="A466" s="45"/>
+      <c r="A466" s="44"/>
     </row>
     <row r="467">
-      <c r="A467" s="45"/>
+      <c r="A467" s="44"/>
     </row>
     <row r="468">
-      <c r="A468" s="45"/>
+      <c r="A468" s="44"/>
     </row>
     <row r="469">
-      <c r="A469" s="45"/>
+      <c r="A469" s="44"/>
     </row>
     <row r="470">
-      <c r="A470" s="45"/>
+      <c r="A470" s="44"/>
     </row>
     <row r="471">
-      <c r="A471" s="45"/>
+      <c r="A471" s="44"/>
     </row>
     <row r="472">
-      <c r="A472" s="45"/>
+      <c r="A472" s="44"/>
     </row>
     <row r="473">
-      <c r="A473" s="45"/>
+      <c r="A473" s="44"/>
     </row>
     <row r="474">
-      <c r="A474" s="45"/>
+      <c r="A474" s="44"/>
     </row>
     <row r="475">
-      <c r="A475" s="45"/>
+      <c r="A475" s="44"/>
     </row>
     <row r="476">
-      <c r="A476" s="45"/>
+      <c r="A476" s="44"/>
     </row>
     <row r="477">
-      <c r="A477" s="45"/>
+      <c r="A477" s="44"/>
     </row>
     <row r="478">
-      <c r="A478" s="45"/>
+      <c r="A478" s="44"/>
     </row>
     <row r="479">
-      <c r="A479" s="45"/>
+      <c r="A479" s="44"/>
     </row>
     <row r="480">
-      <c r="A480" s="45"/>
+      <c r="A480" s="44"/>
     </row>
     <row r="481">
-      <c r="A481" s="45"/>
+      <c r="A481" s="44"/>
     </row>
     <row r="482">
-      <c r="A482" s="45"/>
+      <c r="A482" s="44"/>
     </row>
     <row r="483">
-      <c r="A483" s="45"/>
+      <c r="A483" s="44"/>
     </row>
     <row r="484">
-      <c r="A484" s="45"/>
+      <c r="A484" s="44"/>
     </row>
     <row r="485">
-      <c r="A485" s="45"/>
+      <c r="A485" s="44"/>
     </row>
     <row r="486">
-      <c r="A486" s="45"/>
+      <c r="A486" s="44"/>
     </row>
     <row r="487">
-      <c r="A487" s="45"/>
+      <c r="A487" s="44"/>
     </row>
     <row r="488">
-      <c r="A488" s="45"/>
+      <c r="A488" s="44"/>
     </row>
     <row r="489">
-      <c r="A489" s="45"/>
+      <c r="A489" s="44"/>
     </row>
     <row r="490">
-      <c r="A490" s="45"/>
+      <c r="A490" s="44"/>
     </row>
     <row r="491">
-      <c r="A491" s="45"/>
+      <c r="A491" s="44"/>
     </row>
     <row r="492">
-      <c r="A492" s="45"/>
+      <c r="A492" s="44"/>
     </row>
     <row r="493">
-      <c r="A493" s="45"/>
+      <c r="A493" s="44"/>
     </row>
     <row r="494">
-      <c r="A494" s="45"/>
+      <c r="A494" s="44"/>
     </row>
     <row r="495">
-      <c r="A495" s="45"/>
+      <c r="A495" s="44"/>
     </row>
     <row r="496">
-      <c r="A496" s="45"/>
+      <c r="A496" s="44"/>
     </row>
     <row r="497">
-      <c r="A497" s="45"/>
+      <c r="A497" s="44"/>
     </row>
     <row r="498">
-      <c r="A498" s="45"/>
+      <c r="A498" s="44"/>
     </row>
     <row r="499">
-      <c r="A499" s="45"/>
+      <c r="A499" s="44"/>
     </row>
     <row r="500">
-      <c r="A500" s="45"/>
+      <c r="A500" s="44"/>
     </row>
     <row r="501">
-      <c r="A501" s="45"/>
+      <c r="A501" s="44"/>
     </row>
     <row r="502">
-      <c r="A502" s="45"/>
+      <c r="A502" s="44"/>
     </row>
     <row r="503">
-      <c r="A503" s="45"/>
+      <c r="A503" s="44"/>
     </row>
     <row r="504">
-      <c r="A504" s="45"/>
+      <c r="A504" s="44"/>
     </row>
     <row r="505">
-      <c r="A505" s="45"/>
+      <c r="A505" s="44"/>
     </row>
     <row r="506">
-      <c r="A506" s="45"/>
+      <c r="A506" s="44"/>
     </row>
     <row r="507">
-      <c r="A507" s="45"/>
+      <c r="A507" s="44"/>
     </row>
     <row r="508">
-      <c r="A508" s="45"/>
+      <c r="A508" s="44"/>
     </row>
     <row r="509">
-      <c r="A509" s="45"/>
+      <c r="A509" s="44"/>
     </row>
     <row r="510">
-      <c r="A510" s="45"/>
+      <c r="A510" s="44"/>
     </row>
     <row r="511">
-      <c r="A511" s="45"/>
+      <c r="A511" s="44"/>
     </row>
     <row r="512">
-      <c r="A512" s="45"/>
+      <c r="A512" s="44"/>
     </row>
     <row r="513">
-      <c r="A513" s="45"/>
+      <c r="A513" s="44"/>
     </row>
     <row r="514">
-      <c r="A514" s="45"/>
+      <c r="A514" s="44"/>
     </row>
     <row r="515">
-      <c r="A515" s="45"/>
+      <c r="A515" s="44"/>
     </row>
     <row r="516">
-      <c r="A516" s="45"/>
+      <c r="A516" s="44"/>
     </row>
     <row r="517">
-      <c r="A517" s="45"/>
+      <c r="A517" s="44"/>
     </row>
     <row r="518">
-      <c r="A518" s="45"/>
+      <c r="A518" s="44"/>
     </row>
     <row r="519">
-      <c r="A519" s="45"/>
+      <c r="A519" s="44"/>
     </row>
     <row r="520">
-      <c r="A520" s="45"/>
+      <c r="A520" s="44"/>
     </row>
     <row r="521">
-      <c r="A521" s="45"/>
+      <c r="A521" s="44"/>
     </row>
     <row r="522">
-      <c r="A522" s="45"/>
+      <c r="A522" s="44"/>
     </row>
     <row r="523">
-      <c r="A523" s="45"/>
+      <c r="A523" s="44"/>
     </row>
     <row r="524">
-      <c r="A524" s="45"/>
+      <c r="A524" s="44"/>
     </row>
     <row r="525">
-      <c r="A525" s="45"/>
+      <c r="A525" s="44"/>
     </row>
     <row r="526">
-      <c r="A526" s="45"/>
+      <c r="A526" s="44"/>
     </row>
     <row r="527">
-      <c r="A527" s="45"/>
+      <c r="A527" s="44"/>
     </row>
     <row r="528">
-      <c r="A528" s="45"/>
+      <c r="A528" s="44"/>
     </row>
     <row r="529">
-      <c r="A529" s="45"/>
+      <c r="A529" s="44"/>
     </row>
     <row r="530">
-      <c r="A530" s="45"/>
+      <c r="A530" s="44"/>
     </row>
     <row r="531">
-      <c r="A531" s="45"/>
+      <c r="A531" s="44"/>
     </row>
     <row r="532">
-      <c r="A532" s="45"/>
+      <c r="A532" s="44"/>
     </row>
     <row r="533">
-      <c r="A533" s="45"/>
+      <c r="A533" s="44"/>
     </row>
     <row r="534">
-      <c r="A534" s="45"/>
+      <c r="A534" s="44"/>
     </row>
     <row r="535">
-      <c r="A535" s="45"/>
+      <c r="A535" s="44"/>
     </row>
     <row r="536">
-      <c r="A536" s="45"/>
+      <c r="A536" s="44"/>
     </row>
     <row r="537">
-      <c r="A537" s="45"/>
+      <c r="A537" s="44"/>
     </row>
     <row r="538">
-      <c r="A538" s="45"/>
+      <c r="A538" s="44"/>
     </row>
     <row r="539">
-      <c r="A539" s="45"/>
+      <c r="A539" s="44"/>
     </row>
     <row r="540">
-      <c r="A540" s="45"/>
+      <c r="A540" s="44"/>
     </row>
     <row r="541">
-      <c r="A541" s="45"/>
+      <c r="A541" s="44"/>
     </row>
     <row r="542">
-      <c r="A542" s="45"/>
+      <c r="A542" s="44"/>
     </row>
     <row r="543">
-      <c r="A543" s="45"/>
+      <c r="A543" s="44"/>
     </row>
     <row r="544">
-      <c r="A544" s="45"/>
+      <c r="A544" s="44"/>
     </row>
     <row r="545">
-      <c r="A545" s="45"/>
+      <c r="A545" s="44"/>
     </row>
     <row r="546">
-      <c r="A546" s="45"/>
+      <c r="A546" s="44"/>
     </row>
     <row r="547">
-      <c r="A547" s="45"/>
+      <c r="A547" s="44"/>
     </row>
     <row r="548">
-      <c r="A548" s="45"/>
+      <c r="A548" s="44"/>
     </row>
     <row r="549">
-      <c r="A549" s="45"/>
+      <c r="A549" s="44"/>
     </row>
     <row r="550">
-      <c r="A550" s="45"/>
+      <c r="A550" s="44"/>
     </row>
     <row r="551">
-      <c r="A551" s="45"/>
+      <c r="A551" s="44"/>
     </row>
     <row r="552">
-      <c r="A552" s="45"/>
+      <c r="A552" s="44"/>
     </row>
     <row r="553">
-      <c r="A553" s="45"/>
+      <c r="A553" s="44"/>
     </row>
     <row r="554">
-      <c r="A554" s="45"/>
+      <c r="A554" s="44"/>
     </row>
     <row r="555">
-      <c r="A555" s="45"/>
+      <c r="A555" s="44"/>
     </row>
     <row r="556">
-      <c r="A556" s="45"/>
+      <c r="A556" s="44"/>
     </row>
     <row r="557">
-      <c r="A557" s="45"/>
+      <c r="A557" s="44"/>
     </row>
     <row r="558">
-      <c r="A558" s="45"/>
+      <c r="A558" s="44"/>
     </row>
     <row r="559">
-      <c r="A559" s="45"/>
+      <c r="A559" s="44"/>
     </row>
     <row r="560">
-      <c r="A560" s="45"/>
+      <c r="A560" s="44"/>
     </row>
     <row r="561">
-      <c r="A561" s="45"/>
+      <c r="A561" s="44"/>
     </row>
     <row r="562">
-      <c r="A562" s="45"/>
+      <c r="A562" s="44"/>
     </row>
     <row r="563">
-      <c r="A563" s="45"/>
+      <c r="A563" s="44"/>
     </row>
     <row r="564">
-      <c r="A564" s="45"/>
+      <c r="A564" s="44"/>
     </row>
     <row r="565">
-      <c r="A565" s="45"/>
+      <c r="A565" s="44"/>
     </row>
     <row r="566">
-      <c r="A566" s="45"/>
+      <c r="A566" s="44"/>
     </row>
     <row r="567">
-      <c r="A567" s="45"/>
+      <c r="A567" s="44"/>
     </row>
     <row r="568">
-      <c r="A568" s="45"/>
+      <c r="A568" s="44"/>
     </row>
     <row r="569">
-      <c r="A569" s="45"/>
+      <c r="A569" s="44"/>
     </row>
     <row r="570">
-      <c r="A570" s="45"/>
+      <c r="A570" s="44"/>
     </row>
     <row r="571">
-      <c r="A571" s="45"/>
+      <c r="A571" s="44"/>
     </row>
     <row r="572">
-      <c r="A572" s="45"/>
+      <c r="A572" s="44"/>
     </row>
     <row r="573">
-      <c r="A573" s="45"/>
+      <c r="A573" s="44"/>
     </row>
     <row r="574">
-      <c r="A574" s="45"/>
+      <c r="A574" s="44"/>
     </row>
     <row r="575">
-      <c r="A575" s="45"/>
+      <c r="A575" s="44"/>
     </row>
     <row r="576">
-      <c r="A576" s="45"/>
+      <c r="A576" s="44"/>
     </row>
     <row r="577">
-      <c r="A577" s="45"/>
+      <c r="A577" s="44"/>
     </row>
     <row r="578">
-      <c r="A578" s="45"/>
+      <c r="A578" s="44"/>
     </row>
     <row r="579">
-      <c r="A579" s="45"/>
+      <c r="A579" s="44"/>
     </row>
     <row r="580">
-      <c r="A580" s="45"/>
+      <c r="A580" s="44"/>
     </row>
     <row r="581">
-      <c r="A581" s="45"/>
+      <c r="A581" s="44"/>
     </row>
     <row r="582">
-      <c r="A582" s="45"/>
+      <c r="A582" s="44"/>
     </row>
     <row r="583">
-      <c r="A583" s="45"/>
+      <c r="A583" s="44"/>
     </row>
     <row r="584">
-      <c r="A584" s="45"/>
+      <c r="A584" s="44"/>
     </row>
     <row r="585">
-      <c r="A585" s="45"/>
+      <c r="A585" s="44"/>
     </row>
     <row r="586">
-      <c r="A586" s="45"/>
+      <c r="A586" s="44"/>
     </row>
     <row r="587">
-      <c r="A587" s="45"/>
+      <c r="A587" s="44"/>
     </row>
     <row r="588">
-      <c r="A588" s="45"/>
+      <c r="A588" s="44"/>
     </row>
     <row r="589">
-      <c r="A589" s="45"/>
+      <c r="A589" s="44"/>
     </row>
     <row r="590">
-      <c r="A590" s="45"/>
+      <c r="A590" s="44"/>
     </row>
     <row r="591">
-      <c r="A591" s="45"/>
+      <c r="A591" s="44"/>
     </row>
     <row r="592">
-      <c r="A592" s="45"/>
+      <c r="A592" s="44"/>
     </row>
     <row r="593">
-      <c r="A593" s="45"/>
+      <c r="A593" s="44"/>
     </row>
     <row r="594">
-      <c r="A594" s="45"/>
+      <c r="A594" s="44"/>
     </row>
     <row r="595">
-      <c r="A595" s="45"/>
+      <c r="A595" s="44"/>
     </row>
     <row r="596">
-      <c r="A596" s="45"/>
+      <c r="A596" s="44"/>
     </row>
     <row r="597">
-      <c r="A597" s="45"/>
+      <c r="A597" s="44"/>
     </row>
     <row r="598">
-      <c r="A598" s="45"/>
+      <c r="A598" s="44"/>
     </row>
     <row r="599">
-      <c r="A599" s="45"/>
+      <c r="A599" s="44"/>
     </row>
     <row r="600">
-      <c r="A600" s="45"/>
+      <c r="A600" s="44"/>
     </row>
     <row r="601">
-      <c r="A601" s="45"/>
+      <c r="A601" s="44"/>
     </row>
     <row r="602">
-      <c r="A602" s="45"/>
+      <c r="A602" s="44"/>
     </row>
     <row r="603">
-      <c r="A603" s="45"/>
+      <c r="A603" s="44"/>
     </row>
     <row r="604">
-      <c r="A604" s="45"/>
+      <c r="A604" s="44"/>
     </row>
     <row r="605">
-      <c r="A605" s="45"/>
+      <c r="A605" s="44"/>
     </row>
     <row r="606">
-      <c r="A606" s="45"/>
+      <c r="A606" s="44"/>
     </row>
     <row r="607">
-      <c r="A607" s="45"/>
+      <c r="A607" s="44"/>
     </row>
     <row r="608">
-      <c r="A608" s="45"/>
+      <c r="A608" s="44"/>
     </row>
     <row r="609">
-      <c r="A609" s="45"/>
+      <c r="A609" s="44"/>
     </row>
     <row r="610">
-      <c r="A610" s="45"/>
+      <c r="A610" s="44"/>
     </row>
     <row r="611">
-      <c r="A611" s="45"/>
+      <c r="A611" s="44"/>
     </row>
     <row r="612">
-      <c r="A612" s="45"/>
+      <c r="A612" s="44"/>
     </row>
     <row r="613">
-      <c r="A613" s="45"/>
+      <c r="A613" s="44"/>
     </row>
     <row r="614">
-      <c r="A614" s="45"/>
+      <c r="A614" s="44"/>
     </row>
     <row r="615">
-      <c r="A615" s="45"/>
+      <c r="A615" s="44"/>
     </row>
     <row r="616">
-      <c r="A616" s="45"/>
+      <c r="A616" s="44"/>
     </row>
     <row r="617">
-      <c r="A617" s="45"/>
+      <c r="A617" s="44"/>
     </row>
     <row r="618">
-      <c r="A618" s="45"/>
+      <c r="A618" s="44"/>
     </row>
     <row r="619">
-      <c r="A619" s="45"/>
+      <c r="A619" s="44"/>
     </row>
     <row r="620">
-      <c r="A620" s="45"/>
+      <c r="A620" s="44"/>
     </row>
     <row r="621">
-      <c r="A621" s="45"/>
+      <c r="A621" s="44"/>
     </row>
     <row r="622">
-      <c r="A622" s="45"/>
+      <c r="A622" s="44"/>
     </row>
     <row r="623">
-      <c r="A623" s="45"/>
+      <c r="A623" s="44"/>
     </row>
     <row r="624">
-      <c r="A624" s="45"/>
+      <c r="A624" s="44"/>
     </row>
     <row r="625">
-      <c r="A625" s="45"/>
+      <c r="A625" s="44"/>
     </row>
     <row r="626">
-      <c r="A626" s="45"/>
+      <c r="A626" s="44"/>
     </row>
     <row r="627">
-      <c r="A627" s="45"/>
+      <c r="A627" s="44"/>
     </row>
     <row r="628">
-      <c r="A628" s="45"/>
+      <c r="A628" s="44"/>
     </row>
     <row r="629">
-      <c r="A629" s="45"/>
+      <c r="A629" s="44"/>
     </row>
     <row r="630">
-      <c r="A630" s="45"/>
+      <c r="A630" s="44"/>
     </row>
     <row r="631">
-      <c r="A631" s="45"/>
+      <c r="A631" s="44"/>
     </row>
     <row r="632">
-      <c r="A632" s="45"/>
+      <c r="A632" s="44"/>
     </row>
     <row r="633">
-      <c r="A633" s="45"/>
+      <c r="A633" s="44"/>
     </row>
     <row r="634">
-      <c r="A634" s="45"/>
+      <c r="A634" s="44"/>
     </row>
     <row r="635">
-      <c r="A635" s="45"/>
+      <c r="A635" s="44"/>
     </row>
     <row r="636">
-      <c r="A636" s="45"/>
+      <c r="A636" s="44"/>
     </row>
     <row r="637">
-      <c r="A637" s="45"/>
+      <c r="A637" s="44"/>
     </row>
     <row r="638">
-      <c r="A638" s="45"/>
+      <c r="A638" s="44"/>
     </row>
     <row r="639">
-      <c r="A639" s="45"/>
+      <c r="A639" s="44"/>
     </row>
     <row r="640">
-      <c r="A640" s="45"/>
+      <c r="A640" s="44"/>
     </row>
     <row r="641">
-      <c r="A641" s="45"/>
+      <c r="A641" s="44"/>
     </row>
     <row r="642">
-      <c r="A642" s="45"/>
+      <c r="A642" s="44"/>
     </row>
     <row r="643">
-      <c r="A643" s="45"/>
+      <c r="A643" s="44"/>
     </row>
     <row r="644">
-      <c r="A644" s="45"/>
+      <c r="A644" s="44"/>
     </row>
     <row r="645">
-      <c r="A645" s="45"/>
+      <c r="A645" s="44"/>
     </row>
     <row r="646">
-      <c r="A646" s="45"/>
+      <c r="A646" s="44"/>
     </row>
     <row r="647">
-      <c r="A647" s="45"/>
+      <c r="A647" s="44"/>
     </row>
     <row r="648">
-      <c r="A648" s="45"/>
+      <c r="A648" s="44"/>
     </row>
     <row r="649">
-      <c r="A649" s="45"/>
+      <c r="A649" s="44"/>
     </row>
     <row r="650">
-      <c r="A650" s="45"/>
+      <c r="A650" s="44"/>
     </row>
     <row r="651">
-      <c r="A651" s="45"/>
+      <c r="A651" s="44"/>
     </row>
     <row r="652">
-      <c r="A652" s="45"/>
+      <c r="A652" s="44"/>
     </row>
     <row r="653">
-      <c r="A653" s="45"/>
+      <c r="A653" s="44"/>
     </row>
     <row r="654">
-      <c r="A654" s="45"/>
+      <c r="A654" s="44"/>
     </row>
     <row r="655">
-      <c r="A655" s="45"/>
+      <c r="A655" s="44"/>
     </row>
     <row r="656">
-      <c r="A656" s="45"/>
+      <c r="A656" s="44"/>
     </row>
     <row r="657">
-      <c r="A657" s="45"/>
+      <c r="A657" s="44"/>
     </row>
     <row r="658">
-      <c r="A658" s="45"/>
+      <c r="A658" s="44"/>
     </row>
     <row r="659">
-      <c r="A659" s="45"/>
+      <c r="A659" s="44"/>
     </row>
     <row r="660">
-      <c r="A660" s="45"/>
+      <c r="A660" s="44"/>
     </row>
     <row r="661">
-      <c r="A661" s="45"/>
+      <c r="A661" s="44"/>
     </row>
     <row r="662">
-      <c r="A662" s="45"/>
+      <c r="A662" s="44"/>
     </row>
     <row r="663">
-      <c r="A663" s="45"/>
+      <c r="A663" s="44"/>
     </row>
     <row r="664">
-      <c r="A664" s="45"/>
+      <c r="A664" s="44"/>
     </row>
     <row r="665">
-      <c r="A665" s="45"/>
+      <c r="A665" s="44"/>
     </row>
     <row r="666">
-      <c r="A666" s="45"/>
+      <c r="A666" s="44"/>
     </row>
     <row r="667">
-      <c r="A667" s="45"/>
+      <c r="A667" s="44"/>
     </row>
     <row r="668">
-      <c r="A668" s="45"/>
+      <c r="A668" s="44"/>
     </row>
     <row r="669">
-      <c r="A669" s="45"/>
+      <c r="A669" s="44"/>
     </row>
     <row r="670">
-      <c r="A670" s="45"/>
+      <c r="A670" s="44"/>
     </row>
     <row r="671">
-      <c r="A671" s="45"/>
+      <c r="A671" s="44"/>
     </row>
     <row r="672">
-      <c r="A672" s="45"/>
+      <c r="A672" s="44"/>
     </row>
     <row r="673">
-      <c r="A673" s="45"/>
+      <c r="A673" s="44"/>
     </row>
     <row r="674">
-      <c r="A674" s="45"/>
+      <c r="A674" s="44"/>
     </row>
     <row r="675">
-      <c r="A675" s="45"/>
+      <c r="A675" s="44"/>
     </row>
     <row r="676">
-      <c r="A676" s="45"/>
+      <c r="A676" s="44"/>
     </row>
     <row r="677">
-      <c r="A677" s="45"/>
+      <c r="A677" s="44"/>
     </row>
     <row r="678">
-      <c r="A678" s="45"/>
+      <c r="A678" s="44"/>
     </row>
     <row r="679">
-      <c r="A679" s="45"/>
+      <c r="A679" s="44"/>
     </row>
     <row r="680">
-      <c r="A680" s="45"/>
+      <c r="A680" s="44"/>
     </row>
     <row r="681">
-      <c r="A681" s="45"/>
+      <c r="A681" s="44"/>
     </row>
     <row r="682">
-      <c r="A682" s="45"/>
+      <c r="A682" s="44"/>
     </row>
     <row r="683">
-      <c r="A683" s="45"/>
+      <c r="A683" s="44"/>
     </row>
     <row r="684">
-      <c r="A684" s="45"/>
+      <c r="A684" s="44"/>
     </row>
     <row r="685">
-      <c r="A685" s="45"/>
+      <c r="A685" s="44"/>
     </row>
     <row r="686">
-      <c r="A686" s="45"/>
+      <c r="A686" s="44"/>
     </row>
     <row r="687">
-      <c r="A687" s="45"/>
+      <c r="A687" s="44"/>
     </row>
     <row r="688">
-      <c r="A688" s="45"/>
+      <c r="A688" s="44"/>
     </row>
     <row r="689">
-      <c r="A689" s="45"/>
+      <c r="A689" s="44"/>
     </row>
     <row r="690">
-      <c r="A690" s="45"/>
+      <c r="A690" s="44"/>
     </row>
     <row r="691">
-      <c r="A691" s="45"/>
+      <c r="A691" s="44"/>
     </row>
     <row r="692">
-      <c r="A692" s="45"/>
+      <c r="A692" s="44"/>
     </row>
     <row r="693">
-      <c r="A693" s="45"/>
+      <c r="A693" s="44"/>
     </row>
     <row r="694">
-      <c r="A694" s="45"/>
+      <c r="A694" s="44"/>
     </row>
     <row r="695">
-      <c r="A695" s="45"/>
+      <c r="A695" s="44"/>
     </row>
     <row r="696">
-      <c r="A696" s="45"/>
+      <c r="A696" s="44"/>
     </row>
     <row r="697">
-      <c r="A697" s="45"/>
+      <c r="A697" s="44"/>
     </row>
     <row r="698">
-      <c r="A698" s="45"/>
+      <c r="A698" s="44"/>
     </row>
     <row r="699">
-      <c r="A699" s="45"/>
+      <c r="A699" s="44"/>
     </row>
     <row r="700">
-      <c r="A700" s="45"/>
+      <c r="A700" s="44"/>
     </row>
     <row r="701">
-      <c r="A701" s="45"/>
+      <c r="A701" s="44"/>
     </row>
     <row r="702">
-      <c r="A702" s="45"/>
+      <c r="A702" s="44"/>
     </row>
     <row r="703">
-      <c r="A703" s="45"/>
+      <c r="A703" s="44"/>
     </row>
     <row r="704">
-      <c r="A704" s="45"/>
+      <c r="A704" s="44"/>
     </row>
     <row r="705">
-      <c r="A705" s="45"/>
+      <c r="A705" s="44"/>
     </row>
     <row r="706">
-      <c r="A706" s="45"/>
+      <c r="A706" s="44"/>
     </row>
     <row r="707">
-      <c r="A707" s="45"/>
+      <c r="A707" s="44"/>
     </row>
     <row r="708">
-      <c r="A708" s="45"/>
+      <c r="A708" s="44"/>
     </row>
     <row r="709">
-      <c r="A709" s="45"/>
+      <c r="A709" s="44"/>
     </row>
     <row r="710">
-      <c r="A710" s="45"/>
+      <c r="A710" s="44"/>
     </row>
     <row r="711">
-      <c r="A711" s="45"/>
+      <c r="A711" s="44"/>
     </row>
     <row r="712">
-      <c r="A712" s="45"/>
+      <c r="A712" s="44"/>
     </row>
     <row r="713">
-      <c r="A713" s="45"/>
+      <c r="A713" s="44"/>
     </row>
     <row r="714">
-      <c r="A714" s="45"/>
+      <c r="A714" s="44"/>
     </row>
     <row r="715">
-      <c r="A715" s="45"/>
+      <c r="A715" s="44"/>
     </row>
     <row r="716">
-      <c r="A716" s="45"/>
+      <c r="A716" s="44"/>
     </row>
     <row r="717">
-      <c r="A717" s="45"/>
+      <c r="A717" s="44"/>
     </row>
     <row r="718">
-      <c r="A718" s="45"/>
+      <c r="A718" s="44"/>
     </row>
     <row r="719">
-      <c r="A719" s="45"/>
+      <c r="A719" s="44"/>
     </row>
     <row r="720">
-      <c r="A720" s="45"/>
+      <c r="A720" s="44"/>
     </row>
     <row r="721">
-      <c r="A721" s="45"/>
+      <c r="A721" s="44"/>
     </row>
     <row r="722">
-      <c r="A722" s="45"/>
+      <c r="A722" s="44"/>
     </row>
     <row r="723">
-      <c r="A723" s="45"/>
+      <c r="A723" s="44"/>
     </row>
     <row r="724">
-      <c r="A724" s="45"/>
+      <c r="A724" s="44"/>
     </row>
     <row r="725">
-      <c r="A725" s="45"/>
+      <c r="A725" s="44"/>
     </row>
     <row r="726">
-      <c r="A726" s="45"/>
+      <c r="A726" s="44"/>
     </row>
     <row r="727">
-      <c r="A727" s="45"/>
+      <c r="A727" s="44"/>
     </row>
     <row r="728">
-      <c r="A728" s="45"/>
+      <c r="A728" s="44"/>
     </row>
     <row r="729">
-      <c r="A729" s="45"/>
+      <c r="A729" s="44"/>
     </row>
     <row r="730">
-      <c r="A730" s="45"/>
+      <c r="A730" s="44"/>
     </row>
     <row r="731">
-      <c r="A731" s="45"/>
+      <c r="A731" s="44"/>
     </row>
     <row r="732">
-      <c r="A732" s="45"/>
+      <c r="A732" s="44"/>
     </row>
     <row r="733">
-      <c r="A733" s="45"/>
+      <c r="A733" s="44"/>
     </row>
     <row r="734">
-      <c r="A734" s="45"/>
+      <c r="A734" s="44"/>
     </row>
     <row r="735">
-      <c r="A735" s="45"/>
+      <c r="A735" s="44"/>
     </row>
     <row r="736">
-      <c r="A736" s="45"/>
+      <c r="A736" s="44"/>
     </row>
     <row r="737">
-      <c r="A737" s="45"/>
+      <c r="A737" s="44"/>
     </row>
     <row r="738">
-      <c r="A738" s="45"/>
+      <c r="A738" s="44"/>
     </row>
     <row r="739">
-      <c r="A739" s="45"/>
+      <c r="A739" s="44"/>
     </row>
     <row r="740">
-      <c r="A740" s="45"/>
+      <c r="A740" s="44"/>
     </row>
     <row r="741">
-      <c r="A741" s="45"/>
+      <c r="A741" s="44"/>
     </row>
     <row r="742">
-      <c r="A742" s="45"/>
+      <c r="A742" s="44"/>
     </row>
     <row r="743">
-      <c r="A743" s="45"/>
+      <c r="A743" s="44"/>
     </row>
     <row r="744">
-      <c r="A744" s="45"/>
+      <c r="A744" s="44"/>
     </row>
     <row r="745">
-      <c r="A745" s="45"/>
+      <c r="A745" s="44"/>
     </row>
     <row r="746">
-      <c r="A746" s="45"/>
+      <c r="A746" s="44"/>
     </row>
     <row r="747">
-      <c r="A747" s="45"/>
+      <c r="A747" s="44"/>
     </row>
     <row r="748">
-      <c r="A748" s="45"/>
+      <c r="A748" s="44"/>
     </row>
     <row r="749">
-      <c r="A749" s="45"/>
+      <c r="A749" s="44"/>
     </row>
     <row r="750">
-      <c r="A750" s="45"/>
+      <c r="A750" s="44"/>
     </row>
     <row r="751">
-      <c r="A751" s="45"/>
+      <c r="A751" s="44"/>
     </row>
     <row r="752">
-      <c r="A752" s="45"/>
+      <c r="A752" s="44"/>
     </row>
     <row r="753">
-      <c r="A753" s="45"/>
+      <c r="A753" s="44"/>
     </row>
     <row r="754">
-      <c r="A754" s="45"/>
+      <c r="A754" s="44"/>
     </row>
     <row r="755">
-      <c r="A755" s="45"/>
+      <c r="A755" s="44"/>
     </row>
     <row r="756">
-      <c r="A756" s="45"/>
+      <c r="A756" s="44"/>
     </row>
     <row r="757">
-      <c r="A757" s="45"/>
+      <c r="A757" s="44"/>
     </row>
     <row r="758">
-      <c r="A758" s="45"/>
+      <c r="A758" s="44"/>
     </row>
     <row r="759">
-      <c r="A759" s="45"/>
+      <c r="A759" s="44"/>
     </row>
     <row r="760">
-      <c r="A760" s="45"/>
+      <c r="A760" s="44"/>
     </row>
     <row r="761">
-      <c r="A761" s="45"/>
+      <c r="A761" s="44"/>
     </row>
     <row r="762">
-      <c r="A762" s="45"/>
+      <c r="A762" s="44"/>
     </row>
     <row r="763">
-      <c r="A763" s="45"/>
+      <c r="A763" s="44"/>
     </row>
     <row r="764">
-      <c r="A764" s="45"/>
+      <c r="A764" s="44"/>
     </row>
     <row r="765">
-      <c r="A765" s="45"/>
+      <c r="A765" s="44"/>
     </row>
     <row r="766">
-      <c r="A766" s="45"/>
+      <c r="A766" s="44"/>
     </row>
     <row r="767">
-      <c r="A767" s="45"/>
+      <c r="A767" s="44"/>
     </row>
     <row r="768">
-      <c r="A768" s="45"/>
+      <c r="A768" s="44"/>
     </row>
     <row r="769">
-      <c r="A769" s="45"/>
+      <c r="A769" s="44"/>
     </row>
     <row r="770">
-      <c r="A770" s="45"/>
+      <c r="A770" s="44"/>
     </row>
     <row r="771">
-      <c r="A771" s="45"/>
+      <c r="A771" s="44"/>
     </row>
     <row r="772">
-      <c r="A772" s="45"/>
+      <c r="A772" s="44"/>
     </row>
     <row r="773">
-      <c r="A773" s="45"/>
+      <c r="A773" s="44"/>
     </row>
     <row r="774">
-      <c r="A774" s="45"/>
+      <c r="A774" s="44"/>
     </row>
     <row r="775">
-      <c r="A775" s="45"/>
+      <c r="A775" s="44"/>
     </row>
     <row r="776">
-      <c r="A776" s="45"/>
+      <c r="A776" s="44"/>
     </row>
     <row r="777">
-      <c r="A777" s="45"/>
+      <c r="A777" s="44"/>
     </row>
     <row r="778">
-      <c r="A778" s="45"/>
+      <c r="A778" s="44"/>
     </row>
     <row r="779">
-      <c r="A779" s="45"/>
+      <c r="A779" s="44"/>
     </row>
     <row r="780">
-      <c r="A780" s="45"/>
+      <c r="A780" s="44"/>
     </row>
     <row r="781">
-      <c r="A781" s="45"/>
+      <c r="A781" s="44"/>
     </row>
     <row r="782">
-      <c r="A782" s="45"/>
+      <c r="A782" s="44"/>
     </row>
     <row r="783">
-      <c r="A783" s="45"/>
+      <c r="A783" s="44"/>
     </row>
     <row r="784">
-      <c r="A784" s="45"/>
+      <c r="A784" s="44"/>
     </row>
     <row r="785">
-      <c r="A785" s="45"/>
+      <c r="A785" s="44"/>
     </row>
     <row r="786">
-      <c r="A786" s="45"/>
+      <c r="A786" s="44"/>
     </row>
     <row r="787">
-      <c r="A787" s="45"/>
+      <c r="A787" s="44"/>
     </row>
     <row r="788">
-      <c r="A788" s="45"/>
+      <c r="A788" s="44"/>
     </row>
     <row r="789">
-      <c r="A789" s="45"/>
+      <c r="A789" s="44"/>
     </row>
     <row r="790">
-      <c r="A790" s="45"/>
+      <c r="A790" s="44"/>
     </row>
     <row r="791">
-      <c r="A791" s="45"/>
+      <c r="A791" s="44"/>
     </row>
     <row r="792">
-      <c r="A792" s="45"/>
+      <c r="A792" s="44"/>
     </row>
     <row r="793">
-      <c r="A793" s="45"/>
+      <c r="A793" s="44"/>
     </row>
     <row r="794">
-      <c r="A794" s="45"/>
+      <c r="A794" s="44"/>
     </row>
     <row r="795">
-      <c r="A795" s="45"/>
+      <c r="A795" s="44"/>
     </row>
     <row r="796">
-      <c r="A796" s="45"/>
+      <c r="A796" s="44"/>
     </row>
     <row r="797">
-      <c r="A797" s="45"/>
+      <c r="A797" s="44"/>
     </row>
     <row r="798">
-      <c r="A798" s="45"/>
+      <c r="A798" s="44"/>
     </row>
     <row r="799">
-      <c r="A799" s="45"/>
+      <c r="A799" s="44"/>
     </row>
     <row r="800">
-      <c r="A800" s="45"/>
+      <c r="A800" s="44"/>
     </row>
     <row r="801">
-      <c r="A801" s="45"/>
+      <c r="A801" s="44"/>
     </row>
     <row r="802">
-      <c r="A802" s="45"/>
+      <c r="A802" s="44"/>
     </row>
     <row r="803">
-      <c r="A803" s="45"/>
+      <c r="A803" s="44"/>
     </row>
     <row r="804">
-      <c r="A804" s="45"/>
+      <c r="A804" s="44"/>
     </row>
     <row r="805">
-      <c r="A805" s="45"/>
+      <c r="A805" s="44"/>
     </row>
     <row r="806">
-      <c r="A806" s="45"/>
+      <c r="A806" s="44"/>
     </row>
     <row r="807">
-      <c r="A807" s="45"/>
+      <c r="A807" s="44"/>
     </row>
     <row r="808">
-      <c r="A808" s="45"/>
+      <c r="A808" s="44"/>
     </row>
     <row r="809">
-      <c r="A809" s="45"/>
+      <c r="A809" s="44"/>
     </row>
     <row r="810">
-      <c r="A810" s="45"/>
+      <c r="A810" s="44"/>
     </row>
     <row r="811">
-      <c r="A811" s="45"/>
+      <c r="A811" s="44"/>
     </row>
     <row r="812">
-      <c r="A812" s="45"/>
+      <c r="A812" s="44"/>
     </row>
     <row r="813">
-      <c r="A813" s="45"/>
+      <c r="A813" s="44"/>
     </row>
     <row r="814">
-      <c r="A814" s="45"/>
+      <c r="A814" s="44"/>
     </row>
     <row r="815">
-      <c r="A815" s="45"/>
+      <c r="A815" s="44"/>
     </row>
     <row r="816">
-      <c r="A816" s="45"/>
+      <c r="A816" s="44"/>
     </row>
     <row r="817">
-      <c r="A817" s="45"/>
+      <c r="A817" s="44"/>
     </row>
     <row r="818">
-      <c r="A818" s="45"/>
+      <c r="A818" s="44"/>
     </row>
     <row r="819">
-      <c r="A819" s="45"/>
+      <c r="A819" s="44"/>
     </row>
     <row r="820">
-      <c r="A820" s="45"/>
+      <c r="A820" s="44"/>
     </row>
     <row r="821">
-      <c r="A821" s="45"/>
+      <c r="A821" s="44"/>
     </row>
     <row r="822">
-      <c r="A822" s="45"/>
+      <c r="A822" s="44"/>
     </row>
     <row r="823">
-      <c r="A823" s="45"/>
+      <c r="A823" s="44"/>
     </row>
     <row r="824">
-      <c r="A824" s="45"/>
+      <c r="A824" s="44"/>
     </row>
     <row r="825">
-      <c r="A825" s="45"/>
+      <c r="A825" s="44"/>
     </row>
     <row r="826">
-      <c r="A826" s="45"/>
+      <c r="A826" s="44"/>
     </row>
     <row r="827">
-      <c r="A827" s="45"/>
+      <c r="A827" s="44"/>
     </row>
     <row r="828">
-      <c r="A828" s="45"/>
+      <c r="A828" s="44"/>
     </row>
     <row r="829">
-      <c r="A829" s="45"/>
+      <c r="A829" s="44"/>
     </row>
     <row r="830">
-      <c r="A830" s="45"/>
+      <c r="A830" s="44"/>
     </row>
     <row r="831">
-      <c r="A831" s="45"/>
+      <c r="A831" s="44"/>
     </row>
     <row r="832">
-      <c r="A832" s="45"/>
+      <c r="A832" s="44"/>
     </row>
     <row r="833">
-      <c r="A833" s="45"/>
+      <c r="A833" s="44"/>
     </row>
     <row r="834">
-      <c r="A834" s="45"/>
+      <c r="A834" s="44"/>
     </row>
     <row r="835">
-      <c r="A835" s="45"/>
+      <c r="A835" s="44"/>
     </row>
     <row r="836">
-      <c r="A836" s="45"/>
+      <c r="A836" s="44"/>
     </row>
     <row r="837">
-      <c r="A837" s="45"/>
+      <c r="A837" s="44"/>
     </row>
     <row r="838">
-      <c r="A838" s="45"/>
+      <c r="A838" s="44"/>
     </row>
     <row r="839">
-      <c r="A839" s="45"/>
+      <c r="A839" s="44"/>
     </row>
     <row r="840">
-      <c r="A840" s="45"/>
+      <c r="A840" s="44"/>
     </row>
     <row r="841">
-      <c r="A841" s="45"/>
+      <c r="A841" s="44"/>
     </row>
     <row r="842">
-      <c r="A842" s="45"/>
+      <c r="A842" s="44"/>
     </row>
     <row r="843">
-      <c r="A843" s="45"/>
+      <c r="A843" s="44"/>
     </row>
     <row r="844">
-      <c r="A844" s="45"/>
+      <c r="A844" s="44"/>
     </row>
     <row r="845">
-      <c r="A845" s="45"/>
+      <c r="A845" s="44"/>
     </row>
     <row r="846">
-      <c r="A846" s="45"/>
+      <c r="A846" s="44"/>
     </row>
     <row r="847">
-      <c r="A847" s="45"/>
+      <c r="A847" s="44"/>
     </row>
     <row r="848">
-      <c r="A848" s="45"/>
+      <c r="A848" s="44"/>
     </row>
     <row r="849">
-      <c r="A849" s="45"/>
+      <c r="A849" s="44"/>
     </row>
     <row r="850">
-      <c r="A850" s="45"/>
+      <c r="A850" s="44"/>
     </row>
     <row r="851">
-      <c r="A851" s="45"/>
+      <c r="A851" s="44"/>
     </row>
     <row r="852">
-      <c r="A852" s="45"/>
+      <c r="A852" s="44"/>
     </row>
     <row r="853">
-      <c r="A853" s="45"/>
+      <c r="A853" s="44"/>
     </row>
     <row r="854">
-      <c r="A854" s="45"/>
+      <c r="A854" s="44"/>
     </row>
     <row r="855">
-      <c r="A855" s="45"/>
+      <c r="A855" s="44"/>
     </row>
     <row r="856">
-      <c r="A856" s="45"/>
+      <c r="A856" s="44"/>
     </row>
     <row r="857">
-      <c r="A857" s="45"/>
+      <c r="A857" s="44"/>
     </row>
     <row r="858">
-      <c r="A858" s="45"/>
+      <c r="A858" s="44"/>
     </row>
     <row r="859">
-      <c r="A859" s="45"/>
+      <c r="A859" s="44"/>
     </row>
     <row r="860">
-      <c r="A860" s="45"/>
+      <c r="A860" s="44"/>
     </row>
     <row r="861">
-      <c r="A861" s="45"/>
+      <c r="A861" s="44"/>
     </row>
     <row r="862">
-      <c r="A862" s="45"/>
+      <c r="A862" s="44"/>
     </row>
     <row r="863">
-      <c r="A863" s="45"/>
+      <c r="A863" s="44"/>
     </row>
     <row r="864">
-      <c r="A864" s="45"/>
+      <c r="A864" s="44"/>
     </row>
     <row r="865">
-      <c r="A865" s="45"/>
+      <c r="A865" s="44"/>
     </row>
     <row r="866">
-      <c r="A866" s="45"/>
+      <c r="A866" s="44"/>
     </row>
     <row r="867">
-      <c r="A867" s="45"/>
+      <c r="A867" s="44"/>
     </row>
     <row r="868">
-      <c r="A868" s="45"/>
+      <c r="A868" s="44"/>
     </row>
     <row r="869">
-      <c r="A869" s="45"/>
+      <c r="A869" s="44"/>
     </row>
     <row r="870">
-      <c r="A870" s="45"/>
+      <c r="A870" s="44"/>
     </row>
     <row r="871">
-      <c r="A871" s="45"/>
+      <c r="A871" s="44"/>
     </row>
     <row r="872">
-      <c r="A872" s="45"/>
+      <c r="A872" s="44"/>
     </row>
     <row r="873">
-      <c r="A873" s="45"/>
+      <c r="A873" s="44"/>
     </row>
     <row r="874">
-      <c r="A874" s="45"/>
+      <c r="A874" s="44"/>
     </row>
     <row r="875">
-      <c r="A875" s="45"/>
+      <c r="A875" s="44"/>
     </row>
     <row r="876">
-      <c r="A876" s="45"/>
+      <c r="A876" s="44"/>
     </row>
     <row r="877">
-      <c r="A877" s="45"/>
+      <c r="A877" s="44"/>
     </row>
     <row r="878">
-      <c r="A878" s="45"/>
+      <c r="A878" s="44"/>
     </row>
     <row r="879">
-      <c r="A879" s="45"/>
+      <c r="A879" s="44"/>
     </row>
     <row r="880">
-      <c r="A880" s="45"/>
+      <c r="A880" s="44"/>
     </row>
     <row r="881">
-      <c r="A881" s="45"/>
+      <c r="A881" s="44"/>
     </row>
     <row r="882">
-      <c r="A882" s="45"/>
+      <c r="A882" s="44"/>
     </row>
     <row r="883">
-      <c r="A883" s="45"/>
+      <c r="A883" s="44"/>
     </row>
     <row r="884">
-      <c r="A884" s="45"/>
+      <c r="A884" s="44"/>
     </row>
     <row r="885">
-      <c r="A885" s="45"/>
+      <c r="A885" s="44"/>
     </row>
     <row r="886">
-      <c r="A886" s="45"/>
+      <c r="A886" s="44"/>
     </row>
     <row r="887">
-      <c r="A887" s="45"/>
+      <c r="A887" s="44"/>
     </row>
     <row r="888">
-      <c r="A888" s="45"/>
+      <c r="A888" s="44"/>
     </row>
     <row r="889">
-      <c r="A889" s="45"/>
+      <c r="A889" s="44"/>
     </row>
     <row r="890">
-      <c r="A890" s="45"/>
+      <c r="A890" s="44"/>
     </row>
     <row r="891">
-      <c r="A891" s="45"/>
+      <c r="A891" s="44"/>
     </row>
     <row r="892">
-      <c r="A892" s="45"/>
+      <c r="A892" s="44"/>
     </row>
     <row r="893">
-      <c r="A893" s="45"/>
+      <c r="A893" s="44"/>
     </row>
     <row r="894">
-      <c r="A894" s="45"/>
+      <c r="A894" s="44"/>
     </row>
     <row r="895">
-      <c r="A895" s="45"/>
+      <c r="A895" s="44"/>
     </row>
     <row r="896">
-      <c r="A896" s="45"/>
+      <c r="A896" s="44"/>
     </row>
     <row r="897">
-      <c r="A897" s="45"/>
+      <c r="A897" s="44"/>
     </row>
     <row r="898">
-      <c r="A898" s="45"/>
+      <c r="A898" s="44"/>
     </row>
     <row r="899">
-      <c r="A899" s="45"/>
+      <c r="A899" s="44"/>
     </row>
     <row r="900">
-      <c r="A900" s="45"/>
+      <c r="A900" s="44"/>
     </row>
     <row r="901">
-      <c r="A901" s="45"/>
+      <c r="A901" s="44"/>
     </row>
     <row r="902">
-      <c r="A902" s="45"/>
+      <c r="A902" s="44"/>
     </row>
     <row r="903">
-      <c r="A903" s="45"/>
+      <c r="A903" s="44"/>
     </row>
     <row r="904">
-      <c r="A904" s="45"/>
+      <c r="A904" s="44"/>
     </row>
     <row r="905">
-      <c r="A905" s="45"/>
+      <c r="A905" s="44"/>
     </row>
     <row r="906">
-      <c r="A906" s="45"/>
+      <c r="A906" s="44"/>
     </row>
     <row r="907">
-      <c r="A907" s="45"/>
+      <c r="A907" s="44"/>
     </row>
     <row r="908">
-      <c r="A908" s="45"/>
+      <c r="A908" s="44"/>
     </row>
     <row r="909">
-      <c r="A909" s="45"/>
+      <c r="A909" s="44"/>
     </row>
     <row r="910">
-      <c r="A910" s="45"/>
+      <c r="A910" s="44"/>
     </row>
     <row r="911">
-      <c r="A911" s="45"/>
+      <c r="A911" s="44"/>
     </row>
     <row r="912">
-      <c r="A912" s="45"/>
+      <c r="A912" s="44"/>
     </row>
     <row r="913">
-      <c r="A913" s="45"/>
+      <c r="A913" s="44"/>
     </row>
     <row r="914">
-      <c r="A914" s="45"/>
+      <c r="A914" s="44"/>
     </row>
     <row r="915">
-      <c r="A915" s="45"/>
+      <c r="A915" s="44"/>
     </row>
     <row r="916">
-      <c r="A916" s="45"/>
+      <c r="A916" s="44"/>
     </row>
     <row r="917">
-      <c r="A917" s="45"/>
+      <c r="A917" s="44"/>
     </row>
     <row r="918">
-      <c r="A918" s="45"/>
+      <c r="A918" s="44"/>
     </row>
     <row r="919">
-      <c r="A919" s="45"/>
+      <c r="A919" s="44"/>
     </row>
     <row r="920">
-      <c r="A920" s="45"/>
+      <c r="A920" s="44"/>
     </row>
     <row r="921">
-      <c r="A921" s="45"/>
+      <c r="A921" s="44"/>
     </row>
     <row r="922">
-      <c r="A922" s="45"/>
+      <c r="A922" s="44"/>
     </row>
     <row r="923">
-      <c r="A923" s="45"/>
+      <c r="A923" s="44"/>
     </row>
     <row r="924">
-      <c r="A924" s="45"/>
+      <c r="A924" s="44"/>
     </row>
     <row r="925">
-      <c r="A925" s="45"/>
+      <c r="A925" s="44"/>
     </row>
     <row r="926">
-      <c r="A926" s="45"/>
+      <c r="A926" s="44"/>
     </row>
     <row r="927">
-      <c r="A927" s="45"/>
+      <c r="A927" s="44"/>
     </row>
     <row r="928">
-      <c r="A928" s="45"/>
+      <c r="A928" s="44"/>
     </row>
     <row r="929">
-      <c r="A929" s="45"/>
+      <c r="A929" s="44"/>
     </row>
     <row r="930">
-      <c r="A930" s="45"/>
+      <c r="A930" s="44"/>
     </row>
     <row r="931">
-      <c r="A931" s="45"/>
+      <c r="A931" s="44"/>
     </row>
     <row r="932">
-      <c r="A932" s="45"/>
+      <c r="A932" s="44"/>
     </row>
     <row r="933">
-      <c r="A933" s="45"/>
+      <c r="A933" s="44"/>
     </row>
     <row r="934">
-      <c r="A934" s="45"/>
+      <c r="A934" s="44"/>
     </row>
     <row r="935">
-      <c r="A935" s="45"/>
+      <c r="A935" s="44"/>
     </row>
     <row r="936">
-      <c r="A936" s="45"/>
+      <c r="A936" s="44"/>
     </row>
     <row r="937">
-      <c r="A937" s="45"/>
+      <c r="A937" s="44"/>
     </row>
     <row r="938">
-      <c r="A938" s="45"/>
+      <c r="A938" s="44"/>
     </row>
     <row r="939">
-      <c r="A939" s="45"/>
+      <c r="A939" s="44"/>
     </row>
     <row r="940">
-      <c r="A940" s="45"/>
+      <c r="A940" s="44"/>
     </row>
     <row r="941">
-      <c r="A941" s="45"/>
+      <c r="A941" s="44"/>
     </row>
     <row r="942">
-      <c r="A942" s="45"/>
+      <c r="A942" s="44"/>
     </row>
     <row r="943">
-      <c r="A943" s="45"/>
+      <c r="A943" s="44"/>
     </row>
     <row r="944">
-      <c r="A944" s="45"/>
+      <c r="A944" s="44"/>
     </row>
     <row r="945">
-      <c r="A945" s="45"/>
+      <c r="A945" s="44"/>
     </row>
     <row r="946">
-      <c r="A946" s="45"/>
+      <c r="A946" s="44"/>
     </row>
     <row r="947">
-      <c r="A947" s="45"/>
+      <c r="A947" s="44"/>
     </row>
     <row r="948">
-      <c r="A948" s="45"/>
+      <c r="A948" s="44"/>
     </row>
     <row r="949">
-      <c r="A949" s="45"/>
+      <c r="A949" s="44"/>
     </row>
     <row r="950">
-      <c r="A950" s="45"/>
+      <c r="A950" s="44"/>
     </row>
     <row r="951">
-      <c r="A951" s="45"/>
+      <c r="A951" s="44"/>
     </row>
     <row r="952">
-      <c r="A952" s="45"/>
+      <c r="A952" s="44"/>
     </row>
     <row r="953">
-      <c r="A953" s="45"/>
+      <c r="A953" s="44"/>
     </row>
     <row r="954">
-      <c r="A954" s="45"/>
+      <c r="A954" s="44"/>
     </row>
     <row r="955">
-      <c r="A955" s="45"/>
+      <c r="A955" s="44"/>
     </row>
     <row r="956">
-      <c r="A956" s="45"/>
+      <c r="A956" s="44"/>
     </row>
     <row r="957">
-      <c r="A957" s="45"/>
+      <c r="A957" s="44"/>
     </row>
     <row r="958">
-      <c r="A958" s="45"/>
+      <c r="A958" s="44"/>
     </row>
     <row r="959">
-      <c r="A959" s="45"/>
+      <c r="A959" s="44"/>
     </row>
     <row r="960">
-      <c r="A960" s="45"/>
+      <c r="A960" s="44"/>
     </row>
     <row r="961">
-      <c r="A961" s="45"/>
+      <c r="A961" s="44"/>
     </row>
     <row r="962">
-      <c r="A962" s="45"/>
+      <c r="A962" s="44"/>
     </row>
     <row r="963">
-      <c r="A963" s="45"/>
+      <c r="A963" s="44"/>
     </row>
     <row r="964">
-      <c r="A964" s="45"/>
+      <c r="A964" s="44"/>
     </row>
     <row r="965">
-      <c r="A965" s="45"/>
+      <c r="A965" s="44"/>
     </row>
     <row r="966">
-      <c r="A966" s="45"/>
+      <c r="A966" s="44"/>
     </row>
     <row r="967">
-      <c r="A967" s="45"/>
+      <c r="A967" s="44"/>
     </row>
     <row r="968">
-      <c r="A968" s="45"/>
+      <c r="A968" s="44"/>
     </row>
     <row r="969">
-      <c r="A969" s="45"/>
+      <c r="A969" s="44"/>
     </row>
     <row r="970">
-      <c r="A970" s="45"/>
+      <c r="A970" s="44"/>
     </row>
     <row r="971">
-      <c r="A971" s="45"/>
+      <c r="A971" s="44"/>
     </row>
     <row r="972">
-      <c r="A972" s="45"/>
+      <c r="A972" s="44"/>
     </row>
     <row r="973">
-      <c r="A973" s="45"/>
+      <c r="A973" s="44"/>
     </row>
     <row r="974">
-      <c r="A974" s="45"/>
+      <c r="A974" s="44"/>
     </row>
     <row r="975">
-      <c r="A975" s="45"/>
+      <c r="A975" s="44"/>
     </row>
     <row r="976">
-      <c r="A976" s="45"/>
+      <c r="A976" s="44"/>
     </row>
     <row r="977">
-      <c r="A977" s="45"/>
+      <c r="A977" s="44"/>
     </row>
     <row r="978">
-      <c r="A978" s="45"/>
+      <c r="A978" s="44"/>
     </row>
     <row r="979">
-      <c r="A979" s="45"/>
+      <c r="A979" s="44"/>
     </row>
     <row r="980">
-      <c r="A980" s="45"/>
+      <c r="A980" s="44"/>
     </row>
     <row r="981">
-      <c r="A981" s="45"/>
+      <c r="A981" s="44"/>
     </row>
     <row r="982">
-      <c r="A982" s="45"/>
+      <c r="A982" s="44"/>
     </row>
     <row r="983">
-      <c r="A983" s="45"/>
+      <c r="A983" s="44"/>
     </row>
     <row r="984">
-      <c r="A984" s="45"/>
+      <c r="A984" s="44"/>
     </row>
     <row r="985">
-      <c r="A985" s="45"/>
+      <c r="A985" s="44"/>
     </row>
     <row r="986">
-      <c r="A986" s="45"/>
+      <c r="A986" s="44"/>
     </row>
     <row r="987">
-      <c r="A987" s="45"/>
+      <c r="A987" s="44"/>
     </row>
     <row r="988">
-      <c r="A988" s="45"/>
+      <c r="A988" s="44"/>
     </row>
     <row r="989">
-      <c r="A989" s="45"/>
+      <c r="A989" s="44"/>
     </row>
     <row r="990">
-      <c r="A990" s="45"/>
+      <c r="A990" s="44"/>
     </row>
     <row r="991">
-      <c r="A991" s="45"/>
+      <c r="A991" s="44"/>
     </row>
     <row r="992">
-      <c r="A992" s="45"/>
+      <c r="A992" s="44"/>
     </row>
     <row r="993">
-      <c r="A993" s="45"/>
+      <c r="A993" s="44"/>
     </row>
     <row r="994">
-      <c r="A994" s="45"/>
+      <c r="A994" s="44"/>
     </row>
     <row r="995">
-      <c r="A995" s="45"/>
+      <c r="A995" s="44"/>
     </row>
     <row r="996">
-      <c r="A996" s="45"/>
+      <c r="A996" s="44"/>
     </row>
     <row r="997">
-      <c r="A997" s="45"/>
+      <c r="A997" s="44"/>
     </row>
     <row r="998">
-      <c r="A998" s="45"/>
+      <c r="A998" s="44"/>
     </row>
     <row r="999">
-      <c r="A999" s="45"/>
+      <c r="A999" s="44"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="45"/>
+      <c r="A1000" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/meta/alignment-matrix.xlsx
+++ b/meta/alignment-matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>GRADE BAND 5-6</t>
   </si>
@@ -35,7 +35,7 @@
     <t>C3 Social Studies</t>
   </si>
   <si>
-    <t>Learning Targets (I Can):</t>
+    <t>Learning Targets (SWBAT):</t>
   </si>
   <si>
     <t>Target?</t>
@@ -56,10 +56,7 @@
     <t>GRADE BAND 9-12</t>
   </si>
   <si>
-    <t>Learning Targets:</t>
-  </si>
-  <si>
-    <t>Explain how variation affects evolution.</t>
+    <t xml:space="preserve">Explain how variation affects evolution. </t>
   </si>
   <si>
     <t>y</t>
@@ -75,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -123,14 +120,6 @@
     </font>
     <font>
       <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -223,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,7 +240,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -336,22 +325,19 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2626,8 +2612,8 @@
       <c r="Z1" s="39"/>
     </row>
     <row r="2" ht="51.0" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>12</v>
+      <c r="A2" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
@@ -2681,25 +2667,25 @@
       <c r="U2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="2"/>
@@ -3536,2908 +3522,2908 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="45"/>
+      <c r="A33" s="44"/>
     </row>
     <row r="34">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
     </row>
     <row r="35">
-      <c r="A35" s="45"/>
+      <c r="A35" s="44"/>
     </row>
     <row r="36">
-      <c r="A36" s="45"/>
+      <c r="A36" s="44"/>
     </row>
     <row r="37">
-      <c r="A37" s="45"/>
+      <c r="A37" s="44"/>
     </row>
     <row r="38">
-      <c r="A38" s="45"/>
+      <c r="A38" s="44"/>
     </row>
     <row r="39">
-      <c r="A39" s="45"/>
+      <c r="A39" s="44"/>
     </row>
     <row r="40">
-      <c r="A40" s="45"/>
+      <c r="A40" s="44"/>
     </row>
     <row r="41">
-      <c r="A41" s="45"/>
+      <c r="A41" s="44"/>
     </row>
     <row r="42">
-      <c r="A42" s="45"/>
+      <c r="A42" s="44"/>
     </row>
     <row r="43">
-      <c r="A43" s="45"/>
+      <c r="A43" s="44"/>
     </row>
     <row r="44">
-      <c r="A44" s="45"/>
+      <c r="A44" s="44"/>
     </row>
     <row r="45">
-      <c r="A45" s="45"/>
+      <c r="A45" s="44"/>
     </row>
     <row r="46">
-      <c r="A46" s="45"/>
+      <c r="A46" s="44"/>
     </row>
     <row r="47">
-      <c r="A47" s="45"/>
+      <c r="A47" s="44"/>
     </row>
     <row r="48">
-      <c r="A48" s="45"/>
+      <c r="A48" s="44"/>
     </row>
     <row r="49">
-      <c r="A49" s="45"/>
+      <c r="A49" s="44"/>
     </row>
     <row r="50">
-      <c r="A50" s="45"/>
+      <c r="A50" s="44"/>
     </row>
     <row r="51">
-      <c r="A51" s="45"/>
+      <c r="A51" s="44"/>
     </row>
     <row r="52">
-      <c r="A52" s="45"/>
+      <c r="A52" s="44"/>
     </row>
     <row r="53">
-      <c r="A53" s="45"/>
+      <c r="A53" s="44"/>
     </row>
     <row r="54">
-      <c r="A54" s="45"/>
+      <c r="A54" s="44"/>
     </row>
     <row r="55">
-      <c r="A55" s="45"/>
+      <c r="A55" s="44"/>
     </row>
     <row r="56">
-      <c r="A56" s="45"/>
+      <c r="A56" s="44"/>
     </row>
     <row r="57">
-      <c r="A57" s="45"/>
+      <c r="A57" s="44"/>
     </row>
     <row r="58">
-      <c r="A58" s="45"/>
+      <c r="A58" s="44"/>
     </row>
     <row r="59">
-      <c r="A59" s="45"/>
+      <c r="A59" s="44"/>
     </row>
     <row r="60">
-      <c r="A60" s="45"/>
+      <c r="A60" s="44"/>
     </row>
     <row r="61">
-      <c r="A61" s="45"/>
+      <c r="A61" s="44"/>
     </row>
     <row r="62">
-      <c r="A62" s="45"/>
+      <c r="A62" s="44"/>
     </row>
     <row r="63">
-      <c r="A63" s="45"/>
+      <c r="A63" s="44"/>
     </row>
     <row r="64">
-      <c r="A64" s="45"/>
+      <c r="A64" s="44"/>
     </row>
     <row r="65">
-      <c r="A65" s="45"/>
+      <c r="A65" s="44"/>
     </row>
     <row r="66">
-      <c r="A66" s="45"/>
+      <c r="A66" s="44"/>
     </row>
     <row r="67">
-      <c r="A67" s="45"/>
+      <c r="A67" s="44"/>
     </row>
     <row r="68">
-      <c r="A68" s="45"/>
+      <c r="A68" s="44"/>
     </row>
     <row r="69">
-      <c r="A69" s="45"/>
+      <c r="A69" s="44"/>
     </row>
     <row r="70">
-      <c r="A70" s="45"/>
+      <c r="A70" s="44"/>
     </row>
     <row r="71">
-      <c r="A71" s="45"/>
+      <c r="A71" s="44"/>
     </row>
     <row r="72">
-      <c r="A72" s="45"/>
+      <c r="A72" s="44"/>
     </row>
     <row r="73">
-      <c r="A73" s="45"/>
+      <c r="A73" s="44"/>
     </row>
     <row r="74">
-      <c r="A74" s="45"/>
+      <c r="A74" s="44"/>
     </row>
     <row r="75">
-      <c r="A75" s="45"/>
+      <c r="A75" s="44"/>
     </row>
     <row r="76">
-      <c r="A76" s="45"/>
+      <c r="A76" s="44"/>
     </row>
     <row r="77">
-      <c r="A77" s="45"/>
+      <c r="A77" s="44"/>
     </row>
     <row r="78">
-      <c r="A78" s="45"/>
+      <c r="A78" s="44"/>
     </row>
     <row r="79">
-      <c r="A79" s="45"/>
+      <c r="A79" s="44"/>
     </row>
     <row r="80">
-      <c r="A80" s="45"/>
+      <c r="A80" s="44"/>
     </row>
     <row r="81">
-      <c r="A81" s="45"/>
+      <c r="A81" s="44"/>
     </row>
     <row r="82">
-      <c r="A82" s="45"/>
+      <c r="A82" s="44"/>
     </row>
     <row r="83">
-      <c r="A83" s="45"/>
+      <c r="A83" s="44"/>
     </row>
     <row r="84">
-      <c r="A84" s="45"/>
+      <c r="A84" s="44"/>
     </row>
     <row r="85">
-      <c r="A85" s="45"/>
+      <c r="A85" s="44"/>
     </row>
     <row r="86">
-      <c r="A86" s="45"/>
+      <c r="A86" s="44"/>
     </row>
     <row r="87">
-      <c r="A87" s="45"/>
+      <c r="A87" s="44"/>
     </row>
     <row r="88">
-      <c r="A88" s="45"/>
+      <c r="A88" s="44"/>
     </row>
     <row r="89">
-      <c r="A89" s="45"/>
+      <c r="A89" s="44"/>
     </row>
     <row r="90">
-      <c r="A90" s="45"/>
+      <c r="A90" s="44"/>
     </row>
     <row r="91">
-      <c r="A91" s="45"/>
+      <c r="A91" s="44"/>
     </row>
     <row r="92">
-      <c r="A92" s="45"/>
+      <c r="A92" s="44"/>
     </row>
     <row r="93">
-      <c r="A93" s="45"/>
+      <c r="A93" s="44"/>
     </row>
     <row r="94">
-      <c r="A94" s="45"/>
+      <c r="A94" s="44"/>
     </row>
     <row r="95">
-      <c r="A95" s="45"/>
+      <c r="A95" s="44"/>
     </row>
     <row r="96">
-      <c r="A96" s="45"/>
+      <c r="A96" s="44"/>
     </row>
     <row r="97">
-      <c r="A97" s="45"/>
+      <c r="A97" s="44"/>
     </row>
     <row r="98">
-      <c r="A98" s="45"/>
+      <c r="A98" s="44"/>
     </row>
     <row r="99">
-      <c r="A99" s="45"/>
+      <c r="A99" s="44"/>
     </row>
     <row r="100">
-      <c r="A100" s="45"/>
+      <c r="A100" s="44"/>
     </row>
     <row r="101">
-      <c r="A101" s="45"/>
+      <c r="A101" s="44"/>
     </row>
     <row r="102">
-      <c r="A102" s="45"/>
+      <c r="A102" s="44"/>
     </row>
     <row r="103">
-      <c r="A103" s="45"/>
+      <c r="A103" s="44"/>
     </row>
     <row r="104">
-      <c r="A104" s="45"/>
+      <c r="A104" s="44"/>
     </row>
     <row r="105">
-      <c r="A105" s="45"/>
+      <c r="A105" s="44"/>
     </row>
     <row r="106">
-      <c r="A106" s="45"/>
+      <c r="A106" s="44"/>
     </row>
     <row r="107">
-      <c r="A107" s="45"/>
+      <c r="A107" s="44"/>
     </row>
     <row r="108">
-      <c r="A108" s="45"/>
+      <c r="A108" s="44"/>
     </row>
     <row r="109">
-      <c r="A109" s="45"/>
+      <c r="A109" s="44"/>
     </row>
     <row r="110">
-      <c r="A110" s="45"/>
+      <c r="A110" s="44"/>
     </row>
     <row r="111">
-      <c r="A111" s="45"/>
+      <c r="A111" s="44"/>
     </row>
     <row r="112">
-      <c r="A112" s="45"/>
+      <c r="A112" s="44"/>
     </row>
     <row r="113">
-      <c r="A113" s="45"/>
+      <c r="A113" s="44"/>
     </row>
     <row r="114">
-      <c r="A114" s="45"/>
+      <c r="A114" s="44"/>
     </row>
     <row r="115">
-      <c r="A115" s="45"/>
+      <c r="A115" s="44"/>
     </row>
     <row r="116">
-      <c r="A116" s="45"/>
+      <c r="A116" s="44"/>
     </row>
     <row r="117">
-      <c r="A117" s="45"/>
+      <c r="A117" s="44"/>
     </row>
     <row r="118">
-      <c r="A118" s="45"/>
+      <c r="A118" s="44"/>
     </row>
     <row r="119">
-      <c r="A119" s="45"/>
+      <c r="A119" s="44"/>
     </row>
     <row r="120">
-      <c r="A120" s="45"/>
+      <c r="A120" s="44"/>
     </row>
     <row r="121">
-      <c r="A121" s="45"/>
+      <c r="A121" s="44"/>
     </row>
     <row r="122">
-      <c r="A122" s="45"/>
+      <c r="A122" s="44"/>
     </row>
     <row r="123">
-      <c r="A123" s="45"/>
+      <c r="A123" s="44"/>
     </row>
     <row r="124">
-      <c r="A124" s="45"/>
+      <c r="A124" s="44"/>
     </row>
     <row r="125">
-      <c r="A125" s="45"/>
+      <c r="A125" s="44"/>
     </row>
     <row r="126">
-      <c r="A126" s="45"/>
+      <c r="A126" s="44"/>
     </row>
     <row r="127">
-      <c r="A127" s="45"/>
+      <c r="A127" s="44"/>
     </row>
     <row r="128">
-      <c r="A128" s="45"/>
+      <c r="A128" s="44"/>
     </row>
     <row r="129">
-      <c r="A129" s="45"/>
+      <c r="A129" s="44"/>
     </row>
     <row r="130">
-      <c r="A130" s="45"/>
+      <c r="A130" s="44"/>
     </row>
     <row r="131">
-      <c r="A131" s="45"/>
+      <c r="A131" s="44"/>
     </row>
     <row r="132">
-      <c r="A132" s="45"/>
+      <c r="A132" s="44"/>
     </row>
     <row r="133">
-      <c r="A133" s="45"/>
+      <c r="A133" s="44"/>
     </row>
     <row r="134">
-      <c r="A134" s="45"/>
+      <c r="A134" s="44"/>
     </row>
     <row r="135">
-      <c r="A135" s="45"/>
+      <c r="A135" s="44"/>
     </row>
     <row r="136">
-      <c r="A136" s="45"/>
+      <c r="A136" s="44"/>
     </row>
     <row r="137">
-      <c r="A137" s="45"/>
+      <c r="A137" s="44"/>
     </row>
     <row r="138">
-      <c r="A138" s="45"/>
+      <c r="A138" s="44"/>
     </row>
     <row r="139">
-      <c r="A139" s="45"/>
+      <c r="A139" s="44"/>
     </row>
     <row r="140">
-      <c r="A140" s="45"/>
+      <c r="A140" s="44"/>
     </row>
     <row r="141">
-      <c r="A141" s="45"/>
+      <c r="A141" s="44"/>
     </row>
     <row r="142">
-      <c r="A142" s="45"/>
+      <c r="A142" s="44"/>
     </row>
     <row r="143">
-      <c r="A143" s="45"/>
+      <c r="A143" s="44"/>
     </row>
     <row r="144">
-      <c r="A144" s="45"/>
+      <c r="A144" s="44"/>
     </row>
     <row r="145">
-      <c r="A145" s="45"/>
+      <c r="A145" s="44"/>
     </row>
     <row r="146">
-      <c r="A146" s="45"/>
+      <c r="A146" s="44"/>
     </row>
     <row r="147">
-      <c r="A147" s="45"/>
+      <c r="A147" s="44"/>
     </row>
     <row r="148">
-      <c r="A148" s="45"/>
+      <c r="A148" s="44"/>
     </row>
     <row r="149">
-      <c r="A149" s="45"/>
+      <c r="A149" s="44"/>
     </row>
     <row r="150">
-      <c r="A150" s="45"/>
+      <c r="A150" s="44"/>
     </row>
     <row r="151">
-      <c r="A151" s="45"/>
+      <c r="A151" s="44"/>
     </row>
     <row r="152">
-      <c r="A152" s="45"/>
+      <c r="A152" s="44"/>
     </row>
     <row r="153">
-      <c r="A153" s="45"/>
+      <c r="A153" s="44"/>
     </row>
     <row r="154">
-      <c r="A154" s="45"/>
+      <c r="A154" s="44"/>
     </row>
     <row r="155">
-      <c r="A155" s="45"/>
+      <c r="A155" s="44"/>
     </row>
     <row r="156">
-      <c r="A156" s="45"/>
+      <c r="A156" s="44"/>
     </row>
     <row r="157">
-      <c r="A157" s="45"/>
+      <c r="A157" s="44"/>
     </row>
     <row r="158">
-      <c r="A158" s="45"/>
+      <c r="A158" s="44"/>
     </row>
     <row r="159">
-      <c r="A159" s="45"/>
+      <c r="A159" s="44"/>
     </row>
     <row r="160">
-      <c r="A160" s="45"/>
+      <c r="A160" s="44"/>
     </row>
     <row r="161">
-      <c r="A161" s="45"/>
+      <c r="A161" s="44"/>
     </row>
     <row r="162">
-      <c r="A162" s="45"/>
+      <c r="A162" s="44"/>
     </row>
     <row r="163">
-      <c r="A163" s="45"/>
+      <c r="A163" s="44"/>
     </row>
     <row r="164">
-      <c r="A164" s="45"/>
+      <c r="A164" s="44"/>
     </row>
     <row r="165">
-      <c r="A165" s="45"/>
+      <c r="A165" s="44"/>
     </row>
     <row r="166">
-      <c r="A166" s="45"/>
+      <c r="A166" s="44"/>
     </row>
     <row r="167">
-      <c r="A167" s="45"/>
+      <c r="A167" s="44"/>
     </row>
     <row r="168">
-      <c r="A168" s="45"/>
+      <c r="A168" s="44"/>
     </row>
     <row r="169">
-      <c r="A169" s="45"/>
+      <c r="A169" s="44"/>
     </row>
     <row r="170">
-      <c r="A170" s="45"/>
+      <c r="A170" s="44"/>
     </row>
     <row r="171">
-      <c r="A171" s="45"/>
+      <c r="A171" s="44"/>
     </row>
     <row r="172">
-      <c r="A172" s="45"/>
+      <c r="A172" s="44"/>
     </row>
     <row r="173">
-      <c r="A173" s="45"/>
+      <c r="A173" s="44"/>
     </row>
     <row r="174">
-      <c r="A174" s="45"/>
+      <c r="A174" s="44"/>
     </row>
     <row r="175">
-      <c r="A175" s="45"/>
+      <c r="A175" s="44"/>
     </row>
     <row r="176">
-      <c r="A176" s="45"/>
+      <c r="A176" s="44"/>
     </row>
     <row r="177">
-      <c r="A177" s="45"/>
+      <c r="A177" s="44"/>
     </row>
     <row r="178">
-      <c r="A178" s="45"/>
+      <c r="A178" s="44"/>
     </row>
     <row r="179">
-      <c r="A179" s="45"/>
+      <c r="A179" s="44"/>
     </row>
     <row r="180">
-      <c r="A180" s="45"/>
+      <c r="A180" s="44"/>
     </row>
     <row r="181">
-      <c r="A181" s="45"/>
+      <c r="A181" s="44"/>
     </row>
     <row r="182">
-      <c r="A182" s="45"/>
+      <c r="A182" s="44"/>
     </row>
     <row r="183">
-      <c r="A183" s="45"/>
+      <c r="A183" s="44"/>
     </row>
     <row r="184">
-      <c r="A184" s="45"/>
+      <c r="A184" s="44"/>
     </row>
     <row r="185">
-      <c r="A185" s="45"/>
+      <c r="A185" s="44"/>
     </row>
     <row r="186">
-      <c r="A186" s="45"/>
+      <c r="A186" s="44"/>
     </row>
     <row r="187">
-      <c r="A187" s="45"/>
+      <c r="A187" s="44"/>
     </row>
     <row r="188">
-      <c r="A188" s="45"/>
+      <c r="A188" s="44"/>
     </row>
     <row r="189">
-      <c r="A189" s="45"/>
+      <c r="A189" s="44"/>
     </row>
     <row r="190">
-      <c r="A190" s="45"/>
+      <c r="A190" s="44"/>
     </row>
     <row r="191">
-      <c r="A191" s="45"/>
+      <c r="A191" s="44"/>
     </row>
     <row r="192">
-      <c r="A192" s="45"/>
+      <c r="A192" s="44"/>
     </row>
     <row r="193">
-      <c r="A193" s="45"/>
+      <c r="A193" s="44"/>
     </row>
     <row r="194">
-      <c r="A194" s="45"/>
+      <c r="A194" s="44"/>
     </row>
     <row r="195">
-      <c r="A195" s="45"/>
+      <c r="A195" s="44"/>
     </row>
     <row r="196">
-      <c r="A196" s="45"/>
+      <c r="A196" s="44"/>
     </row>
     <row r="197">
-      <c r="A197" s="45"/>
+      <c r="A197" s="44"/>
     </row>
     <row r="198">
-      <c r="A198" s="45"/>
+      <c r="A198" s="44"/>
     </row>
     <row r="199">
-      <c r="A199" s="45"/>
+      <c r="A199" s="44"/>
     </row>
     <row r="200">
-      <c r="A200" s="45"/>
+      <c r="A200" s="44"/>
     </row>
     <row r="201">
-      <c r="A201" s="45"/>
+      <c r="A201" s="44"/>
     </row>
     <row r="202">
-      <c r="A202" s="45"/>
+      <c r="A202" s="44"/>
     </row>
     <row r="203">
-      <c r="A203" s="45"/>
+      <c r="A203" s="44"/>
     </row>
     <row r="204">
-      <c r="A204" s="45"/>
+      <c r="A204" s="44"/>
     </row>
     <row r="205">
-      <c r="A205" s="45"/>
+      <c r="A205" s="44"/>
     </row>
     <row r="206">
-      <c r="A206" s="45"/>
+      <c r="A206" s="44"/>
     </row>
     <row r="207">
-      <c r="A207" s="45"/>
+      <c r="A207" s="44"/>
     </row>
     <row r="208">
-      <c r="A208" s="45"/>
+      <c r="A208" s="44"/>
     </row>
     <row r="209">
-      <c r="A209" s="45"/>
+      <c r="A209" s="44"/>
     </row>
     <row r="210">
-      <c r="A210" s="45"/>
+      <c r="A210" s="44"/>
     </row>
     <row r="211">
-      <c r="A211" s="45"/>
+      <c r="A211" s="44"/>
     </row>
     <row r="212">
-      <c r="A212" s="45"/>
+      <c r="A212" s="44"/>
     </row>
     <row r="213">
-      <c r="A213" s="45"/>
+      <c r="A213" s="44"/>
     </row>
     <row r="214">
-      <c r="A214" s="45"/>
+      <c r="A214" s="44"/>
     </row>
     <row r="215">
-      <c r="A215" s="45"/>
+      <c r="A215" s="44"/>
     </row>
     <row r="216">
-      <c r="A216" s="45"/>
+      <c r="A216" s="44"/>
     </row>
     <row r="217">
-      <c r="A217" s="45"/>
+      <c r="A217" s="44"/>
     </row>
     <row r="218">
-      <c r="A218" s="45"/>
+      <c r="A218" s="44"/>
     </row>
     <row r="219">
-      <c r="A219" s="45"/>
+      <c r="A219" s="44"/>
     </row>
     <row r="220">
-      <c r="A220" s="45"/>
+      <c r="A220" s="44"/>
     </row>
     <row r="221">
-      <c r="A221" s="45"/>
+      <c r="A221" s="44"/>
     </row>
     <row r="222">
-      <c r="A222" s="45"/>
+      <c r="A222" s="44"/>
     </row>
     <row r="223">
-      <c r="A223" s="45"/>
+      <c r="A223" s="44"/>
     </row>
     <row r="224">
-      <c r="A224" s="45"/>
+      <c r="A224" s="44"/>
     </row>
     <row r="225">
-      <c r="A225" s="45"/>
+      <c r="A225" s="44"/>
     </row>
     <row r="226">
-      <c r="A226" s="45"/>
+      <c r="A226" s="44"/>
     </row>
     <row r="227">
-      <c r="A227" s="45"/>
+      <c r="A227" s="44"/>
     </row>
     <row r="228">
-      <c r="A228" s="45"/>
+      <c r="A228" s="44"/>
     </row>
     <row r="229">
-      <c r="A229" s="45"/>
+      <c r="A229" s="44"/>
     </row>
     <row r="230">
-      <c r="A230" s="45"/>
+      <c r="A230" s="44"/>
     </row>
     <row r="231">
-      <c r="A231" s="45"/>
+      <c r="A231" s="44"/>
     </row>
     <row r="232">
-      <c r="A232" s="45"/>
+      <c r="A232" s="44"/>
     </row>
     <row r="233">
-      <c r="A233" s="45"/>
+      <c r="A233" s="44"/>
     </row>
     <row r="234">
-      <c r="A234" s="45"/>
+      <c r="A234" s="44"/>
     </row>
     <row r="235">
-      <c r="A235" s="45"/>
+      <c r="A235" s="44"/>
     </row>
     <row r="236">
-      <c r="A236" s="45"/>
+      <c r="A236" s="44"/>
     </row>
     <row r="237">
-      <c r="A237" s="45"/>
+      <c r="A237" s="44"/>
     </row>
     <row r="238">
-      <c r="A238" s="45"/>
+      <c r="A238" s="44"/>
     </row>
     <row r="239">
-      <c r="A239" s="45"/>
+      <c r="A239" s="44"/>
     </row>
     <row r="240">
-      <c r="A240" s="45"/>
+      <c r="A240" s="44"/>
     </row>
     <row r="241">
-      <c r="A241" s="45"/>
+      <c r="A241" s="44"/>
     </row>
     <row r="242">
-      <c r="A242" s="45"/>
+      <c r="A242" s="44"/>
     </row>
     <row r="243">
-      <c r="A243" s="45"/>
+      <c r="A243" s="44"/>
     </row>
     <row r="244">
-      <c r="A244" s="45"/>
+      <c r="A244" s="44"/>
     </row>
     <row r="245">
-      <c r="A245" s="45"/>
+      <c r="A245" s="44"/>
     </row>
     <row r="246">
-      <c r="A246" s="45"/>
+      <c r="A246" s="44"/>
     </row>
     <row r="247">
-      <c r="A247" s="45"/>
+      <c r="A247" s="44"/>
     </row>
     <row r="248">
-      <c r="A248" s="45"/>
+      <c r="A248" s="44"/>
     </row>
     <row r="249">
-      <c r="A249" s="45"/>
+      <c r="A249" s="44"/>
     </row>
     <row r="250">
-      <c r="A250" s="45"/>
+      <c r="A250" s="44"/>
     </row>
     <row r="251">
-      <c r="A251" s="45"/>
+      <c r="A251" s="44"/>
     </row>
     <row r="252">
-      <c r="A252" s="45"/>
+      <c r="A252" s="44"/>
     </row>
     <row r="253">
-      <c r="A253" s="45"/>
+      <c r="A253" s="44"/>
     </row>
     <row r="254">
-      <c r="A254" s="45"/>
+      <c r="A254" s="44"/>
     </row>
     <row r="255">
-      <c r="A255" s="45"/>
+      <c r="A255" s="44"/>
     </row>
     <row r="256">
-      <c r="A256" s="45"/>
+      <c r="A256" s="44"/>
     </row>
     <row r="257">
-      <c r="A257" s="45"/>
+      <c r="A257" s="44"/>
     </row>
     <row r="258">
-      <c r="A258" s="45"/>
+      <c r="A258" s="44"/>
     </row>
     <row r="259">
-      <c r="A259" s="45"/>
+      <c r="A259" s="44"/>
     </row>
     <row r="260">
-      <c r="A260" s="45"/>
+      <c r="A260" s="44"/>
     </row>
     <row r="261">
-      <c r="A261" s="45"/>
+      <c r="A261" s="44"/>
     </row>
     <row r="262">
-      <c r="A262" s="45"/>
+      <c r="A262" s="44"/>
     </row>
     <row r="263">
-      <c r="A263" s="45"/>
+      <c r="A263" s="44"/>
     </row>
     <row r="264">
-      <c r="A264" s="45"/>
+      <c r="A264" s="44"/>
     </row>
     <row r="265">
-      <c r="A265" s="45"/>
+      <c r="A265" s="44"/>
     </row>
     <row r="266">
-      <c r="A266" s="45"/>
+      <c r="A266" s="44"/>
     </row>
     <row r="267">
-      <c r="A267" s="45"/>
+      <c r="A267" s="44"/>
     </row>
     <row r="268">
-      <c r="A268" s="45"/>
+      <c r="A268" s="44"/>
     </row>
     <row r="269">
-      <c r="A269" s="45"/>
+      <c r="A269" s="44"/>
     </row>
     <row r="270">
-      <c r="A270" s="45"/>
+      <c r="A270" s="44"/>
     </row>
     <row r="271">
-      <c r="A271" s="45"/>
+      <c r="A271" s="44"/>
     </row>
     <row r="272">
-      <c r="A272" s="45"/>
+      <c r="A272" s="44"/>
     </row>
     <row r="273">
-      <c r="A273" s="45"/>
+      <c r="A273" s="44"/>
     </row>
     <row r="274">
-      <c r="A274" s="45"/>
+      <c r="A274" s="44"/>
     </row>
     <row r="275">
-      <c r="A275" s="45"/>
+      <c r="A275" s="44"/>
     </row>
     <row r="276">
-      <c r="A276" s="45"/>
+      <c r="A276" s="44"/>
     </row>
     <row r="277">
-      <c r="A277" s="45"/>
+      <c r="A277" s="44"/>
     </row>
     <row r="278">
-      <c r="A278" s="45"/>
+      <c r="A278" s="44"/>
     </row>
     <row r="279">
-      <c r="A279" s="45"/>
+      <c r="A279" s="44"/>
     </row>
     <row r="280">
-      <c r="A280" s="45"/>
+      <c r="A280" s="44"/>
     </row>
     <row r="281">
-      <c r="A281" s="45"/>
+      <c r="A281" s="44"/>
     </row>
     <row r="282">
-      <c r="A282" s="45"/>
+      <c r="A282" s="44"/>
     </row>
     <row r="283">
-      <c r="A283" s="45"/>
+      <c r="A283" s="44"/>
     </row>
     <row r="284">
-      <c r="A284" s="45"/>
+      <c r="A284" s="44"/>
     </row>
     <row r="285">
-      <c r="A285" s="45"/>
+      <c r="A285" s="44"/>
     </row>
     <row r="286">
-      <c r="A286" s="45"/>
+      <c r="A286" s="44"/>
     </row>
     <row r="287">
-      <c r="A287" s="45"/>
+      <c r="A287" s="44"/>
     </row>
     <row r="288">
-      <c r="A288" s="45"/>
+      <c r="A288" s="44"/>
     </row>
     <row r="289">
-      <c r="A289" s="45"/>
+      <c r="A289" s="44"/>
     </row>
     <row r="290">
-      <c r="A290" s="45"/>
+      <c r="A290" s="44"/>
     </row>
     <row r="291">
-      <c r="A291" s="45"/>
+      <c r="A291" s="44"/>
     </row>
     <row r="292">
-      <c r="A292" s="45"/>
+      <c r="A292" s="44"/>
     </row>
     <row r="293">
-      <c r="A293" s="45"/>
+      <c r="A293" s="44"/>
     </row>
     <row r="294">
-      <c r="A294" s="45"/>
+      <c r="A294" s="44"/>
     </row>
     <row r="295">
-      <c r="A295" s="45"/>
+      <c r="A295" s="44"/>
     </row>
     <row r="296">
-      <c r="A296" s="45"/>
+      <c r="A296" s="44"/>
     </row>
     <row r="297">
-      <c r="A297" s="45"/>
+      <c r="A297" s="44"/>
     </row>
     <row r="298">
-      <c r="A298" s="45"/>
+      <c r="A298" s="44"/>
     </row>
     <row r="299">
-      <c r="A299" s="45"/>
+      <c r="A299" s="44"/>
     </row>
     <row r="300">
-      <c r="A300" s="45"/>
+      <c r="A300" s="44"/>
     </row>
     <row r="301">
-      <c r="A301" s="45"/>
+      <c r="A301" s="44"/>
     </row>
     <row r="302">
-      <c r="A302" s="45"/>
+      <c r="A302" s="44"/>
     </row>
     <row r="303">
-      <c r="A303" s="45"/>
+      <c r="A303" s="44"/>
     </row>
     <row r="304">
-      <c r="A304" s="45"/>
+      <c r="A304" s="44"/>
     </row>
     <row r="305">
-      <c r="A305" s="45"/>
+      <c r="A305" s="44"/>
     </row>
     <row r="306">
-      <c r="A306" s="45"/>
+      <c r="A306" s="44"/>
     </row>
     <row r="307">
-      <c r="A307" s="45"/>
+      <c r="A307" s="44"/>
     </row>
     <row r="308">
-      <c r="A308" s="45"/>
+      <c r="A308" s="44"/>
     </row>
     <row r="309">
-      <c r="A309" s="45"/>
+      <c r="A309" s="44"/>
     </row>
     <row r="310">
-      <c r="A310" s="45"/>
+      <c r="A310" s="44"/>
     </row>
     <row r="311">
-      <c r="A311" s="45"/>
+      <c r="A311" s="44"/>
     </row>
     <row r="312">
-      <c r="A312" s="45"/>
+      <c r="A312" s="44"/>
     </row>
     <row r="313">
-      <c r="A313" s="45"/>
+      <c r="A313" s="44"/>
     </row>
     <row r="314">
-      <c r="A314" s="45"/>
+      <c r="A314" s="44"/>
     </row>
     <row r="315">
-      <c r="A315" s="45"/>
+      <c r="A315" s="44"/>
     </row>
     <row r="316">
-      <c r="A316" s="45"/>
+      <c r="A316" s="44"/>
     </row>
     <row r="317">
-      <c r="A317" s="45"/>
+      <c r="A317" s="44"/>
     </row>
     <row r="318">
-      <c r="A318" s="45"/>
+      <c r="A318" s="44"/>
     </row>
     <row r="319">
-      <c r="A319" s="45"/>
+      <c r="A319" s="44"/>
     </row>
     <row r="320">
-      <c r="A320" s="45"/>
+      <c r="A320" s="44"/>
     </row>
     <row r="321">
-      <c r="A321" s="45"/>
+      <c r="A321" s="44"/>
     </row>
     <row r="322">
-      <c r="A322" s="45"/>
+      <c r="A322" s="44"/>
     </row>
     <row r="323">
-      <c r="A323" s="45"/>
+      <c r="A323" s="44"/>
     </row>
     <row r="324">
-      <c r="A324" s="45"/>
+      <c r="A324" s="44"/>
     </row>
     <row r="325">
-      <c r="A325" s="45"/>
+      <c r="A325" s="44"/>
     </row>
     <row r="326">
-      <c r="A326" s="45"/>
+      <c r="A326" s="44"/>
     </row>
     <row r="327">
-      <c r="A327" s="45"/>
+      <c r="A327" s="44"/>
     </row>
     <row r="328">
-      <c r="A328" s="45"/>
+      <c r="A328" s="44"/>
     </row>
     <row r="329">
-      <c r="A329" s="45"/>
+      <c r="A329" s="44"/>
     </row>
     <row r="330">
-      <c r="A330" s="45"/>
+      <c r="A330" s="44"/>
     </row>
     <row r="331">
-      <c r="A331" s="45"/>
+      <c r="A331" s="44"/>
     </row>
     <row r="332">
-      <c r="A332" s="45"/>
+      <c r="A332" s="44"/>
     </row>
     <row r="333">
-      <c r="A333" s="45"/>
+      <c r="A333" s="44"/>
     </row>
     <row r="334">
-      <c r="A334" s="45"/>
+      <c r="A334" s="44"/>
     </row>
     <row r="335">
-      <c r="A335" s="45"/>
+      <c r="A335" s="44"/>
     </row>
     <row r="336">
-      <c r="A336" s="45"/>
+      <c r="A336" s="44"/>
     </row>
     <row r="337">
-      <c r="A337" s="45"/>
+      <c r="A337" s="44"/>
     </row>
     <row r="338">
-      <c r="A338" s="45"/>
+      <c r="A338" s="44"/>
     </row>
     <row r="339">
-      <c r="A339" s="45"/>
+      <c r="A339" s="44"/>
     </row>
     <row r="340">
-      <c r="A340" s="45"/>
+      <c r="A340" s="44"/>
     </row>
     <row r="341">
-      <c r="A341" s="45"/>
+      <c r="A341" s="44"/>
     </row>
     <row r="342">
-      <c r="A342" s="45"/>
+      <c r="A342" s="44"/>
     </row>
     <row r="343">
-      <c r="A343" s="45"/>
+      <c r="A343" s="44"/>
     </row>
     <row r="344">
-      <c r="A344" s="45"/>
+      <c r="A344" s="44"/>
     </row>
     <row r="345">
-      <c r="A345" s="45"/>
+      <c r="A345" s="44"/>
     </row>
     <row r="346">
-      <c r="A346" s="45"/>
+      <c r="A346" s="44"/>
     </row>
     <row r="347">
-      <c r="A347" s="45"/>
+      <c r="A347" s="44"/>
     </row>
     <row r="348">
-      <c r="A348" s="45"/>
+      <c r="A348" s="44"/>
     </row>
     <row r="349">
-      <c r="A349" s="45"/>
+      <c r="A349" s="44"/>
     </row>
     <row r="350">
-      <c r="A350" s="45"/>
+      <c r="A350" s="44"/>
     </row>
     <row r="351">
-      <c r="A351" s="45"/>
+      <c r="A351" s="44"/>
     </row>
     <row r="352">
-      <c r="A352" s="45"/>
+      <c r="A352" s="44"/>
     </row>
     <row r="353">
-      <c r="A353" s="45"/>
+      <c r="A353" s="44"/>
     </row>
     <row r="354">
-      <c r="A354" s="45"/>
+      <c r="A354" s="44"/>
     </row>
     <row r="355">
-      <c r="A355" s="45"/>
+      <c r="A355" s="44"/>
     </row>
     <row r="356">
-      <c r="A356" s="45"/>
+      <c r="A356" s="44"/>
     </row>
     <row r="357">
-      <c r="A357" s="45"/>
+      <c r="A357" s="44"/>
     </row>
     <row r="358">
-      <c r="A358" s="45"/>
+      <c r="A358" s="44"/>
     </row>
     <row r="359">
-      <c r="A359" s="45"/>
+      <c r="A359" s="44"/>
     </row>
     <row r="360">
-      <c r="A360" s="45"/>
+      <c r="A360" s="44"/>
     </row>
     <row r="361">
-      <c r="A361" s="45"/>
+      <c r="A361" s="44"/>
     </row>
     <row r="362">
-      <c r="A362" s="45"/>
+      <c r="A362" s="44"/>
     </row>
     <row r="363">
-      <c r="A363" s="45"/>
+      <c r="A363" s="44"/>
     </row>
     <row r="364">
-      <c r="A364" s="45"/>
+      <c r="A364" s="44"/>
     </row>
     <row r="365">
-      <c r="A365" s="45"/>
+      <c r="A365" s="44"/>
     </row>
     <row r="366">
-      <c r="A366" s="45"/>
+      <c r="A366" s="44"/>
     </row>
     <row r="367">
-      <c r="A367" s="45"/>
+      <c r="A367" s="44"/>
     </row>
     <row r="368">
-      <c r="A368" s="45"/>
+      <c r="A368" s="44"/>
     </row>
     <row r="369">
-      <c r="A369" s="45"/>
+      <c r="A369" s="44"/>
     </row>
     <row r="370">
-      <c r="A370" s="45"/>
+      <c r="A370" s="44"/>
     </row>
     <row r="371">
-      <c r="A371" s="45"/>
+      <c r="A371" s="44"/>
     </row>
     <row r="372">
-      <c r="A372" s="45"/>
+      <c r="A372" s="44"/>
     </row>
     <row r="373">
-      <c r="A373" s="45"/>
+      <c r="A373" s="44"/>
     </row>
     <row r="374">
-      <c r="A374" s="45"/>
+      <c r="A374" s="44"/>
     </row>
     <row r="375">
-      <c r="A375" s="45"/>
+      <c r="A375" s="44"/>
     </row>
     <row r="376">
-      <c r="A376" s="45"/>
+      <c r="A376" s="44"/>
     </row>
     <row r="377">
-      <c r="A377" s="45"/>
+      <c r="A377" s="44"/>
     </row>
     <row r="378">
-      <c r="A378" s="45"/>
+      <c r="A378" s="44"/>
     </row>
     <row r="379">
-      <c r="A379" s="45"/>
+      <c r="A379" s="44"/>
     </row>
     <row r="380">
-      <c r="A380" s="45"/>
+      <c r="A380" s="44"/>
     </row>
     <row r="381">
-      <c r="A381" s="45"/>
+      <c r="A381" s="44"/>
     </row>
     <row r="382">
-      <c r="A382" s="45"/>
+      <c r="A382" s="44"/>
     </row>
     <row r="383">
-      <c r="A383" s="45"/>
+      <c r="A383" s="44"/>
     </row>
     <row r="384">
-      <c r="A384" s="45"/>
+      <c r="A384" s="44"/>
     </row>
     <row r="385">
-      <c r="A385" s="45"/>
+      <c r="A385" s="44"/>
     </row>
     <row r="386">
-      <c r="A386" s="45"/>
+      <c r="A386" s="44"/>
     </row>
     <row r="387">
-      <c r="A387" s="45"/>
+      <c r="A387" s="44"/>
     </row>
     <row r="388">
-      <c r="A388" s="45"/>
+      <c r="A388" s="44"/>
     </row>
     <row r="389">
-      <c r="A389" s="45"/>
+      <c r="A389" s="44"/>
     </row>
     <row r="390">
-      <c r="A390" s="45"/>
+      <c r="A390" s="44"/>
     </row>
     <row r="391">
-      <c r="A391" s="45"/>
+      <c r="A391" s="44"/>
     </row>
     <row r="392">
-      <c r="A392" s="45"/>
+      <c r="A392" s="44"/>
     </row>
     <row r="393">
-      <c r="A393" s="45"/>
+      <c r="A393" s="44"/>
     </row>
     <row r="394">
-      <c r="A394" s="45"/>
+      <c r="A394" s="44"/>
     </row>
     <row r="395">
-      <c r="A395" s="45"/>
+      <c r="A395" s="44"/>
     </row>
     <row r="396">
-      <c r="A396" s="45"/>
+      <c r="A396" s="44"/>
     </row>
     <row r="397">
-      <c r="A397" s="45"/>
+      <c r="A397" s="44"/>
     </row>
     <row r="398">
-      <c r="A398" s="45"/>
+      <c r="A398" s="44"/>
     </row>
     <row r="399">
-      <c r="A399" s="45"/>
+      <c r="A399" s="44"/>
     </row>
     <row r="400">
-      <c r="A400" s="45"/>
+      <c r="A400" s="44"/>
     </row>
     <row r="401">
-      <c r="A401" s="45"/>
+      <c r="A401" s="44"/>
     </row>
     <row r="402">
-      <c r="A402" s="45"/>
+      <c r="A402" s="44"/>
     </row>
     <row r="403">
-      <c r="A403" s="45"/>
+      <c r="A403" s="44"/>
     </row>
     <row r="404">
-      <c r="A404" s="45"/>
+      <c r="A404" s="44"/>
     </row>
     <row r="405">
-      <c r="A405" s="45"/>
+      <c r="A405" s="44"/>
     </row>
     <row r="406">
-      <c r="A406" s="45"/>
+      <c r="A406" s="44"/>
     </row>
     <row r="407">
-      <c r="A407" s="45"/>
+      <c r="A407" s="44"/>
     </row>
     <row r="408">
-      <c r="A408" s="45"/>
+      <c r="A408" s="44"/>
     </row>
     <row r="409">
-      <c r="A409" s="45"/>
+      <c r="A409" s="44"/>
     </row>
     <row r="410">
-      <c r="A410" s="45"/>
+      <c r="A410" s="44"/>
     </row>
     <row r="411">
-      <c r="A411" s="45"/>
+      <c r="A411" s="44"/>
     </row>
     <row r="412">
-      <c r="A412" s="45"/>
+      <c r="A412" s="44"/>
     </row>
     <row r="413">
-      <c r="A413" s="45"/>
+      <c r="A413" s="44"/>
     </row>
     <row r="414">
-      <c r="A414" s="45"/>
+      <c r="A414" s="44"/>
     </row>
     <row r="415">
-      <c r="A415" s="45"/>
+      <c r="A415" s="44"/>
     </row>
     <row r="416">
-      <c r="A416" s="45"/>
+      <c r="A416" s="44"/>
     </row>
     <row r="417">
-      <c r="A417" s="45"/>
+      <c r="A417" s="44"/>
     </row>
     <row r="418">
-      <c r="A418" s="45"/>
+      <c r="A418" s="44"/>
     </row>
     <row r="419">
-      <c r="A419" s="45"/>
+      <c r="A419" s="44"/>
     </row>
     <row r="420">
-      <c r="A420" s="45"/>
+      <c r="A420" s="44"/>
     </row>
     <row r="421">
-      <c r="A421" s="45"/>
+      <c r="A421" s="44"/>
     </row>
     <row r="422">
-      <c r="A422" s="45"/>
+      <c r="A422" s="44"/>
     </row>
     <row r="423">
-      <c r="A423" s="45"/>
+      <c r="A423" s="44"/>
     </row>
     <row r="424">
-      <c r="A424" s="45"/>
+      <c r="A424" s="44"/>
     </row>
     <row r="425">
-      <c r="A425" s="45"/>
+      <c r="A425" s="44"/>
     </row>
     <row r="426">
-      <c r="A426" s="45"/>
+      <c r="A426" s="44"/>
     </row>
     <row r="427">
-      <c r="A427" s="45"/>
+      <c r="A427" s="44"/>
     </row>
     <row r="428">
-      <c r="A428" s="45"/>
+      <c r="A428" s="44"/>
     </row>
     <row r="429">
-      <c r="A429" s="45"/>
+      <c r="A429" s="44"/>
     </row>
     <row r="430">
-      <c r="A430" s="45"/>
+      <c r="A430" s="44"/>
     </row>
     <row r="431">
-      <c r="A431" s="45"/>
+      <c r="A431" s="44"/>
     </row>
     <row r="432">
-      <c r="A432" s="45"/>
+      <c r="A432" s="44"/>
     </row>
     <row r="433">
-      <c r="A433" s="45"/>
+      <c r="A433" s="44"/>
     </row>
     <row r="434">
-      <c r="A434" s="45"/>
+      <c r="A434" s="44"/>
     </row>
     <row r="435">
-      <c r="A435" s="45"/>
+      <c r="A435" s="44"/>
     </row>
     <row r="436">
-      <c r="A436" s="45"/>
+      <c r="A436" s="44"/>
     </row>
     <row r="437">
-      <c r="A437" s="45"/>
+      <c r="A437" s="44"/>
     </row>
     <row r="438">
-      <c r="A438" s="45"/>
+      <c r="A438" s="44"/>
     </row>
     <row r="439">
-      <c r="A439" s="45"/>
+      <c r="A439" s="44"/>
     </row>
     <row r="440">
-      <c r="A440" s="45"/>
+      <c r="A440" s="44"/>
     </row>
     <row r="441">
-      <c r="A441" s="45"/>
+      <c r="A441" s="44"/>
     </row>
     <row r="442">
-      <c r="A442" s="45"/>
+      <c r="A442" s="44"/>
     </row>
     <row r="443">
-      <c r="A443" s="45"/>
+      <c r="A443" s="44"/>
     </row>
     <row r="444">
-      <c r="A444" s="45"/>
+      <c r="A444" s="44"/>
     </row>
     <row r="445">
-      <c r="A445" s="45"/>
+      <c r="A445" s="44"/>
     </row>
     <row r="446">
-      <c r="A446" s="45"/>
+      <c r="A446" s="44"/>
     </row>
     <row r="447">
-      <c r="A447" s="45"/>
+      <c r="A447" s="44"/>
     </row>
     <row r="448">
-      <c r="A448" s="45"/>
+      <c r="A448" s="44"/>
     </row>
     <row r="449">
-      <c r="A449" s="45"/>
+      <c r="A449" s="44"/>
     </row>
     <row r="450">
-      <c r="A450" s="45"/>
+      <c r="A450" s="44"/>
     </row>
     <row r="451">
-      <c r="A451" s="45"/>
+      <c r="A451" s="44"/>
     </row>
     <row r="452">
-      <c r="A452" s="45"/>
+      <c r="A452" s="44"/>
     </row>
     <row r="453">
-      <c r="A453" s="45"/>
+      <c r="A453" s="44"/>
     </row>
     <row r="454">
-      <c r="A454" s="45"/>
+      <c r="A454" s="44"/>
     </row>
     <row r="455">
-      <c r="A455" s="45"/>
+      <c r="A455" s="44"/>
     </row>
     <row r="456">
-      <c r="A456" s="45"/>
+      <c r="A456" s="44"/>
     </row>
     <row r="457">
-      <c r="A457" s="45"/>
+      <c r="A457" s="44"/>
     </row>
     <row r="458">
-      <c r="A458" s="45"/>
+      <c r="A458" s="44"/>
     </row>
     <row r="459">
-      <c r="A459" s="45"/>
+      <c r="A459" s="44"/>
     </row>
     <row r="460">
-      <c r="A460" s="45"/>
+      <c r="A460" s="44"/>
     </row>
     <row r="461">
-      <c r="A461" s="45"/>
+      <c r="A461" s="44"/>
     </row>
     <row r="462">
-      <c r="A462" s="45"/>
+      <c r="A462" s="44"/>
     </row>
     <row r="463">
-      <c r="A463" s="45"/>
+      <c r="A463" s="44"/>
     </row>
     <row r="464">
-      <c r="A464" s="45"/>
+      <c r="A464" s="44"/>
     </row>
     <row r="465">
-      <c r="A465" s="45"/>
+      <c r="A465" s="44"/>
     </row>
     <row r="466">
-      <c r="A466" s="45"/>
+      <c r="A466" s="44"/>
     </row>
     <row r="467">
-      <c r="A467" s="45"/>
+      <c r="A467" s="44"/>
     </row>
     <row r="468">
-      <c r="A468" s="45"/>
+      <c r="A468" s="44"/>
     </row>
     <row r="469">
-      <c r="A469" s="45"/>
+      <c r="A469" s="44"/>
     </row>
     <row r="470">
-      <c r="A470" s="45"/>
+      <c r="A470" s="44"/>
     </row>
     <row r="471">
-      <c r="A471" s="45"/>
+      <c r="A471" s="44"/>
     </row>
     <row r="472">
-      <c r="A472" s="45"/>
+      <c r="A472" s="44"/>
     </row>
     <row r="473">
-      <c r="A473" s="45"/>
+      <c r="A473" s="44"/>
     </row>
     <row r="474">
-      <c r="A474" s="45"/>
+      <c r="A474" s="44"/>
     </row>
     <row r="475">
-      <c r="A475" s="45"/>
+      <c r="A475" s="44"/>
     </row>
     <row r="476">
-      <c r="A476" s="45"/>
+      <c r="A476" s="44"/>
     </row>
     <row r="477">
-      <c r="A477" s="45"/>
+      <c r="A477" s="44"/>
     </row>
     <row r="478">
-      <c r="A478" s="45"/>
+      <c r="A478" s="44"/>
     </row>
     <row r="479">
-      <c r="A479" s="45"/>
+      <c r="A479" s="44"/>
     </row>
     <row r="480">
-      <c r="A480" s="45"/>
+      <c r="A480" s="44"/>
     </row>
     <row r="481">
-      <c r="A481" s="45"/>
+      <c r="A481" s="44"/>
     </row>
     <row r="482">
-      <c r="A482" s="45"/>
+      <c r="A482" s="44"/>
     </row>
     <row r="483">
-      <c r="A483" s="45"/>
+      <c r="A483" s="44"/>
     </row>
     <row r="484">
-      <c r="A484" s="45"/>
+      <c r="A484" s="44"/>
     </row>
     <row r="485">
-      <c r="A485" s="45"/>
+      <c r="A485" s="44"/>
     </row>
     <row r="486">
-      <c r="A486" s="45"/>
+      <c r="A486" s="44"/>
     </row>
     <row r="487">
-      <c r="A487" s="45"/>
+      <c r="A487" s="44"/>
     </row>
     <row r="488">
-      <c r="A488" s="45"/>
+      <c r="A488" s="44"/>
     </row>
     <row r="489">
-      <c r="A489" s="45"/>
+      <c r="A489" s="44"/>
     </row>
     <row r="490">
-      <c r="A490" s="45"/>
+      <c r="A490" s="44"/>
     </row>
     <row r="491">
-      <c r="A491" s="45"/>
+      <c r="A491" s="44"/>
     </row>
     <row r="492">
-      <c r="A492" s="45"/>
+      <c r="A492" s="44"/>
     </row>
     <row r="493">
-      <c r="A493" s="45"/>
+      <c r="A493" s="44"/>
     </row>
     <row r="494">
-      <c r="A494" s="45"/>
+      <c r="A494" s="44"/>
     </row>
     <row r="495">
-      <c r="A495" s="45"/>
+      <c r="A495" s="44"/>
     </row>
     <row r="496">
-      <c r="A496" s="45"/>
+      <c r="A496" s="44"/>
     </row>
     <row r="497">
-      <c r="A497" s="45"/>
+      <c r="A497" s="44"/>
     </row>
     <row r="498">
-      <c r="A498" s="45"/>
+      <c r="A498" s="44"/>
     </row>
     <row r="499">
-      <c r="A499" s="45"/>
+      <c r="A499" s="44"/>
     </row>
     <row r="500">
-      <c r="A500" s="45"/>
+      <c r="A500" s="44"/>
     </row>
     <row r="501">
-      <c r="A501" s="45"/>
+      <c r="A501" s="44"/>
     </row>
     <row r="502">
-      <c r="A502" s="45"/>
+      <c r="A502" s="44"/>
     </row>
     <row r="503">
-      <c r="A503" s="45"/>
+      <c r="A503" s="44"/>
     </row>
     <row r="504">
-      <c r="A504" s="45"/>
+      <c r="A504" s="44"/>
     </row>
     <row r="505">
-      <c r="A505" s="45"/>
+      <c r="A505" s="44"/>
     </row>
     <row r="506">
-      <c r="A506" s="45"/>
+      <c r="A506" s="44"/>
     </row>
     <row r="507">
-      <c r="A507" s="45"/>
+      <c r="A507" s="44"/>
     </row>
     <row r="508">
-      <c r="A508" s="45"/>
+      <c r="A508" s="44"/>
     </row>
     <row r="509">
-      <c r="A509" s="45"/>
+      <c r="A509" s="44"/>
     </row>
     <row r="510">
-      <c r="A510" s="45"/>
+      <c r="A510" s="44"/>
     </row>
     <row r="511">
-      <c r="A511" s="45"/>
+      <c r="A511" s="44"/>
     </row>
     <row r="512">
-      <c r="A512" s="45"/>
+      <c r="A512" s="44"/>
     </row>
     <row r="513">
-      <c r="A513" s="45"/>
+      <c r="A513" s="44"/>
     </row>
     <row r="514">
-      <c r="A514" s="45"/>
+      <c r="A514" s="44"/>
     </row>
     <row r="515">
-      <c r="A515" s="45"/>
+      <c r="A515" s="44"/>
     </row>
     <row r="516">
-      <c r="A516" s="45"/>
+      <c r="A516" s="44"/>
     </row>
     <row r="517">
-      <c r="A517" s="45"/>
+      <c r="A517" s="44"/>
     </row>
     <row r="518">
-      <c r="A518" s="45"/>
+      <c r="A518" s="44"/>
     </row>
     <row r="519">
-      <c r="A519" s="45"/>
+      <c r="A519" s="44"/>
     </row>
     <row r="520">
-      <c r="A520" s="45"/>
+      <c r="A520" s="44"/>
     </row>
     <row r="521">
-      <c r="A521" s="45"/>
+      <c r="A521" s="44"/>
     </row>
     <row r="522">
-      <c r="A522" s="45"/>
+      <c r="A522" s="44"/>
     </row>
     <row r="523">
-      <c r="A523" s="45"/>
+      <c r="A523" s="44"/>
     </row>
     <row r="524">
-      <c r="A524" s="45"/>
+      <c r="A524" s="44"/>
     </row>
     <row r="525">
-      <c r="A525" s="45"/>
+      <c r="A525" s="44"/>
     </row>
     <row r="526">
-      <c r="A526" s="45"/>
+      <c r="A526" s="44"/>
     </row>
     <row r="527">
-      <c r="A527" s="45"/>
+      <c r="A527" s="44"/>
     </row>
     <row r="528">
-      <c r="A528" s="45"/>
+      <c r="A528" s="44"/>
     </row>
     <row r="529">
-      <c r="A529" s="45"/>
+      <c r="A529" s="44"/>
     </row>
     <row r="530">
-      <c r="A530" s="45"/>
+      <c r="A530" s="44"/>
     </row>
     <row r="531">
-      <c r="A531" s="45"/>
+      <c r="A531" s="44"/>
     </row>
     <row r="532">
-      <c r="A532" s="45"/>
+      <c r="A532" s="44"/>
     </row>
     <row r="533">
-      <c r="A533" s="45"/>
+      <c r="A533" s="44"/>
     </row>
     <row r="534">
-      <c r="A534" s="45"/>
+      <c r="A534" s="44"/>
     </row>
     <row r="535">
-      <c r="A535" s="45"/>
+      <c r="A535" s="44"/>
     </row>
     <row r="536">
-      <c r="A536" s="45"/>
+      <c r="A536" s="44"/>
     </row>
     <row r="537">
-      <c r="A537" s="45"/>
+      <c r="A537" s="44"/>
     </row>
     <row r="538">
-      <c r="A538" s="45"/>
+      <c r="A538" s="44"/>
     </row>
     <row r="539">
-      <c r="A539" s="45"/>
+      <c r="A539" s="44"/>
     </row>
     <row r="540">
-      <c r="A540" s="45"/>
+      <c r="A540" s="44"/>
     </row>
     <row r="541">
-      <c r="A541" s="45"/>
+      <c r="A541" s="44"/>
     </row>
     <row r="542">
-      <c r="A542" s="45"/>
+      <c r="A542" s="44"/>
     </row>
     <row r="543">
-      <c r="A543" s="45"/>
+      <c r="A543" s="44"/>
     </row>
     <row r="544">
-      <c r="A544" s="45"/>
+      <c r="A544" s="44"/>
     </row>
     <row r="545">
-      <c r="A545" s="45"/>
+      <c r="A545" s="44"/>
     </row>
     <row r="546">
-      <c r="A546" s="45"/>
+      <c r="A546" s="44"/>
     </row>
     <row r="547">
-      <c r="A547" s="45"/>
+      <c r="A547" s="44"/>
     </row>
     <row r="548">
-      <c r="A548" s="45"/>
+      <c r="A548" s="44"/>
     </row>
     <row r="549">
-      <c r="A549" s="45"/>
+      <c r="A549" s="44"/>
     </row>
     <row r="550">
-      <c r="A550" s="45"/>
+      <c r="A550" s="44"/>
     </row>
     <row r="551">
-      <c r="A551" s="45"/>
+      <c r="A551" s="44"/>
     </row>
     <row r="552">
-      <c r="A552" s="45"/>
+      <c r="A552" s="44"/>
     </row>
     <row r="553">
-      <c r="A553" s="45"/>
+      <c r="A553" s="44"/>
     </row>
     <row r="554">
-      <c r="A554" s="45"/>
+      <c r="A554" s="44"/>
     </row>
     <row r="555">
-      <c r="A555" s="45"/>
+      <c r="A555" s="44"/>
     </row>
     <row r="556">
-      <c r="A556" s="45"/>
+      <c r="A556" s="44"/>
     </row>
     <row r="557">
-      <c r="A557" s="45"/>
+      <c r="A557" s="44"/>
     </row>
     <row r="558">
-      <c r="A558" s="45"/>
+      <c r="A558" s="44"/>
     </row>
     <row r="559">
-      <c r="A559" s="45"/>
+      <c r="A559" s="44"/>
     </row>
     <row r="560">
-      <c r="A560" s="45"/>
+      <c r="A560" s="44"/>
     </row>
     <row r="561">
-      <c r="A561" s="45"/>
+      <c r="A561" s="44"/>
     </row>
     <row r="562">
-      <c r="A562" s="45"/>
+      <c r="A562" s="44"/>
     </row>
     <row r="563">
-      <c r="A563" s="45"/>
+      <c r="A563" s="44"/>
     </row>
     <row r="564">
-      <c r="A564" s="45"/>
+      <c r="A564" s="44"/>
     </row>
     <row r="565">
-      <c r="A565" s="45"/>
+      <c r="A565" s="44"/>
     </row>
     <row r="566">
-      <c r="A566" s="45"/>
+      <c r="A566" s="44"/>
     </row>
     <row r="567">
-      <c r="A567" s="45"/>
+      <c r="A567" s="44"/>
     </row>
     <row r="568">
-      <c r="A568" s="45"/>
+      <c r="A568" s="44"/>
     </row>
     <row r="569">
-      <c r="A569" s="45"/>
+      <c r="A569" s="44"/>
     </row>
     <row r="570">
-      <c r="A570" s="45"/>
+      <c r="A570" s="44"/>
     </row>
     <row r="571">
-      <c r="A571" s="45"/>
+      <c r="A571" s="44"/>
     </row>
     <row r="572">
-      <c r="A572" s="45"/>
+      <c r="A572" s="44"/>
     </row>
     <row r="573">
-      <c r="A573" s="45"/>
+      <c r="A573" s="44"/>
     </row>
     <row r="574">
-      <c r="A574" s="45"/>
+      <c r="A574" s="44"/>
     </row>
     <row r="575">
-      <c r="A575" s="45"/>
+      <c r="A575" s="44"/>
     </row>
     <row r="576">
-      <c r="A576" s="45"/>
+      <c r="A576" s="44"/>
     </row>
     <row r="577">
-      <c r="A577" s="45"/>
+      <c r="A577" s="44"/>
     </row>
     <row r="578">
-      <c r="A578" s="45"/>
+      <c r="A578" s="44"/>
     </row>
     <row r="579">
-      <c r="A579" s="45"/>
+      <c r="A579" s="44"/>
     </row>
     <row r="580">
-      <c r="A580" s="45"/>
+      <c r="A580" s="44"/>
     </row>
     <row r="581">
-      <c r="A581" s="45"/>
+      <c r="A581" s="44"/>
     </row>
     <row r="582">
-      <c r="A582" s="45"/>
+      <c r="A582" s="44"/>
     </row>
     <row r="583">
-      <c r="A583" s="45"/>
+      <c r="A583" s="44"/>
     </row>
     <row r="584">
-      <c r="A584" s="45"/>
+      <c r="A584" s="44"/>
     </row>
     <row r="585">
-      <c r="A585" s="45"/>
+      <c r="A585" s="44"/>
     </row>
     <row r="586">
-      <c r="A586" s="45"/>
+      <c r="A586" s="44"/>
     </row>
     <row r="587">
-      <c r="A587" s="45"/>
+      <c r="A587" s="44"/>
     </row>
     <row r="588">
-      <c r="A588" s="45"/>
+      <c r="A588" s="44"/>
     </row>
     <row r="589">
-      <c r="A589" s="45"/>
+      <c r="A589" s="44"/>
     </row>
     <row r="590">
-      <c r="A590" s="45"/>
+      <c r="A590" s="44"/>
     </row>
     <row r="591">
-      <c r="A591" s="45"/>
+      <c r="A591" s="44"/>
     </row>
     <row r="592">
-      <c r="A592" s="45"/>
+      <c r="A592" s="44"/>
     </row>
     <row r="593">
-      <c r="A593" s="45"/>
+      <c r="A593" s="44"/>
     </row>
     <row r="594">
-      <c r="A594" s="45"/>
+      <c r="A594" s="44"/>
     </row>
     <row r="595">
-      <c r="A595" s="45"/>
+      <c r="A595" s="44"/>
     </row>
     <row r="596">
-      <c r="A596" s="45"/>
+      <c r="A596" s="44"/>
     </row>
     <row r="597">
-      <c r="A597" s="45"/>
+      <c r="A597" s="44"/>
     </row>
     <row r="598">
-      <c r="A598" s="45"/>
+      <c r="A598" s="44"/>
     </row>
     <row r="599">
-      <c r="A599" s="45"/>
+      <c r="A599" s="44"/>
     </row>
     <row r="600">
-      <c r="A600" s="45"/>
+      <c r="A600" s="44"/>
     </row>
     <row r="601">
-      <c r="A601" s="45"/>
+      <c r="A601" s="44"/>
     </row>
     <row r="602">
-      <c r="A602" s="45"/>
+      <c r="A602" s="44"/>
     </row>
     <row r="603">
-      <c r="A603" s="45"/>
+      <c r="A603" s="44"/>
     </row>
     <row r="604">
-      <c r="A604" s="45"/>
+      <c r="A604" s="44"/>
     </row>
     <row r="605">
-      <c r="A605" s="45"/>
+      <c r="A605" s="44"/>
     </row>
     <row r="606">
-      <c r="A606" s="45"/>
+      <c r="A606" s="44"/>
     </row>
     <row r="607">
-      <c r="A607" s="45"/>
+      <c r="A607" s="44"/>
     </row>
     <row r="608">
-      <c r="A608" s="45"/>
+      <c r="A608" s="44"/>
     </row>
     <row r="609">
-      <c r="A609" s="45"/>
+      <c r="A609" s="44"/>
     </row>
     <row r="610">
-      <c r="A610" s="45"/>
+      <c r="A610" s="44"/>
     </row>
     <row r="611">
-      <c r="A611" s="45"/>
+      <c r="A611" s="44"/>
     </row>
     <row r="612">
-      <c r="A612" s="45"/>
+      <c r="A612" s="44"/>
     </row>
     <row r="613">
-      <c r="A613" s="45"/>
+      <c r="A613" s="44"/>
     </row>
     <row r="614">
-      <c r="A614" s="45"/>
+      <c r="A614" s="44"/>
     </row>
     <row r="615">
-      <c r="A615" s="45"/>
+      <c r="A615" s="44"/>
     </row>
     <row r="616">
-      <c r="A616" s="45"/>
+      <c r="A616" s="44"/>
     </row>
     <row r="617">
-      <c r="A617" s="45"/>
+      <c r="A617" s="44"/>
     </row>
     <row r="618">
-      <c r="A618" s="45"/>
+      <c r="A618" s="44"/>
     </row>
     <row r="619">
-      <c r="A619" s="45"/>
+      <c r="A619" s="44"/>
     </row>
     <row r="620">
-      <c r="A620" s="45"/>
+      <c r="A620" s="44"/>
     </row>
     <row r="621">
-      <c r="A621" s="45"/>
+      <c r="A621" s="44"/>
     </row>
     <row r="622">
-      <c r="A622" s="45"/>
+      <c r="A622" s="44"/>
     </row>
     <row r="623">
-      <c r="A623" s="45"/>
+      <c r="A623" s="44"/>
     </row>
     <row r="624">
-      <c r="A624" s="45"/>
+      <c r="A624" s="44"/>
     </row>
     <row r="625">
-      <c r="A625" s="45"/>
+      <c r="A625" s="44"/>
     </row>
     <row r="626">
-      <c r="A626" s="45"/>
+      <c r="A626" s="44"/>
     </row>
     <row r="627">
-      <c r="A627" s="45"/>
+      <c r="A627" s="44"/>
     </row>
     <row r="628">
-      <c r="A628" s="45"/>
+      <c r="A628" s="44"/>
     </row>
     <row r="629">
-      <c r="A629" s="45"/>
+      <c r="A629" s="44"/>
     </row>
     <row r="630">
-      <c r="A630" s="45"/>
+      <c r="A630" s="44"/>
     </row>
     <row r="631">
-      <c r="A631" s="45"/>
+      <c r="A631" s="44"/>
     </row>
     <row r="632">
-      <c r="A632" s="45"/>
+      <c r="A632" s="44"/>
     </row>
     <row r="633">
-      <c r="A633" s="45"/>
+      <c r="A633" s="44"/>
     </row>
     <row r="634">
-      <c r="A634" s="45"/>
+      <c r="A634" s="44"/>
     </row>
     <row r="635">
-      <c r="A635" s="45"/>
+      <c r="A635" s="44"/>
     </row>
     <row r="636">
-      <c r="A636" s="45"/>
+      <c r="A636" s="44"/>
     </row>
     <row r="637">
-      <c r="A637" s="45"/>
+      <c r="A637" s="44"/>
     </row>
     <row r="638">
-      <c r="A638" s="45"/>
+      <c r="A638" s="44"/>
     </row>
     <row r="639">
-      <c r="A639" s="45"/>
+      <c r="A639" s="44"/>
     </row>
     <row r="640">
-      <c r="A640" s="45"/>
+      <c r="A640" s="44"/>
     </row>
     <row r="641">
-      <c r="A641" s="45"/>
+      <c r="A641" s="44"/>
     </row>
     <row r="642">
-      <c r="A642" s="45"/>
+      <c r="A642" s="44"/>
     </row>
     <row r="643">
-      <c r="A643" s="45"/>
+      <c r="A643" s="44"/>
     </row>
     <row r="644">
-      <c r="A644" s="45"/>
+      <c r="A644" s="44"/>
     </row>
     <row r="645">
-      <c r="A645" s="45"/>
+      <c r="A645" s="44"/>
     </row>
     <row r="646">
-      <c r="A646" s="45"/>
+      <c r="A646" s="44"/>
     </row>
     <row r="647">
-      <c r="A647" s="45"/>
+      <c r="A647" s="44"/>
     </row>
     <row r="648">
-      <c r="A648" s="45"/>
+      <c r="A648" s="44"/>
     </row>
     <row r="649">
-      <c r="A649" s="45"/>
+      <c r="A649" s="44"/>
     </row>
     <row r="650">
-      <c r="A650" s="45"/>
+      <c r="A650" s="44"/>
     </row>
     <row r="651">
-      <c r="A651" s="45"/>
+      <c r="A651" s="44"/>
     </row>
     <row r="652">
-      <c r="A652" s="45"/>
+      <c r="A652" s="44"/>
     </row>
     <row r="653">
-      <c r="A653" s="45"/>
+      <c r="A653" s="44"/>
     </row>
     <row r="654">
-      <c r="A654" s="45"/>
+      <c r="A654" s="44"/>
     </row>
     <row r="655">
-      <c r="A655" s="45"/>
+      <c r="A655" s="44"/>
     </row>
     <row r="656">
-      <c r="A656" s="45"/>
+      <c r="A656" s="44"/>
     </row>
     <row r="657">
-      <c r="A657" s="45"/>
+      <c r="A657" s="44"/>
     </row>
     <row r="658">
-      <c r="A658" s="45"/>
+      <c r="A658" s="44"/>
     </row>
     <row r="659">
-      <c r="A659" s="45"/>
+      <c r="A659" s="44"/>
     </row>
     <row r="660">
-      <c r="A660" s="45"/>
+      <c r="A660" s="44"/>
     </row>
     <row r="661">
-      <c r="A661" s="45"/>
+      <c r="A661" s="44"/>
     </row>
     <row r="662">
-      <c r="A662" s="45"/>
+      <c r="A662" s="44"/>
     </row>
     <row r="663">
-      <c r="A663" s="45"/>
+      <c r="A663" s="44"/>
     </row>
     <row r="664">
-      <c r="A664" s="45"/>
+      <c r="A664" s="44"/>
     </row>
     <row r="665">
-      <c r="A665" s="45"/>
+      <c r="A665" s="44"/>
     </row>
     <row r="666">
-      <c r="A666" s="45"/>
+      <c r="A666" s="44"/>
     </row>
     <row r="667">
-      <c r="A667" s="45"/>
+      <c r="A667" s="44"/>
     </row>
     <row r="668">
-      <c r="A668" s="45"/>
+      <c r="A668" s="44"/>
     </row>
     <row r="669">
-      <c r="A669" s="45"/>
+      <c r="A669" s="44"/>
     </row>
     <row r="670">
-      <c r="A670" s="45"/>
+      <c r="A670" s="44"/>
     </row>
     <row r="671">
-      <c r="A671" s="45"/>
+      <c r="A671" s="44"/>
     </row>
     <row r="672">
-      <c r="A672" s="45"/>
+      <c r="A672" s="44"/>
     </row>
     <row r="673">
-      <c r="A673" s="45"/>
+      <c r="A673" s="44"/>
     </row>
     <row r="674">
-      <c r="A674" s="45"/>
+      <c r="A674" s="44"/>
     </row>
     <row r="675">
-      <c r="A675" s="45"/>
+      <c r="A675" s="44"/>
     </row>
     <row r="676">
-      <c r="A676" s="45"/>
+      <c r="A676" s="44"/>
     </row>
     <row r="677">
-      <c r="A677" s="45"/>
+      <c r="A677" s="44"/>
     </row>
     <row r="678">
-      <c r="A678" s="45"/>
+      <c r="A678" s="44"/>
     </row>
     <row r="679">
-      <c r="A679" s="45"/>
+      <c r="A679" s="44"/>
     </row>
     <row r="680">
-      <c r="A680" s="45"/>
+      <c r="A680" s="44"/>
     </row>
     <row r="681">
-      <c r="A681" s="45"/>
+      <c r="A681" s="44"/>
     </row>
     <row r="682">
-      <c r="A682" s="45"/>
+      <c r="A682" s="44"/>
     </row>
     <row r="683">
-      <c r="A683" s="45"/>
+      <c r="A683" s="44"/>
     </row>
     <row r="684">
-      <c r="A684" s="45"/>
+      <c r="A684" s="44"/>
     </row>
     <row r="685">
-      <c r="A685" s="45"/>
+      <c r="A685" s="44"/>
     </row>
     <row r="686">
-      <c r="A686" s="45"/>
+      <c r="A686" s="44"/>
     </row>
     <row r="687">
-      <c r="A687" s="45"/>
+      <c r="A687" s="44"/>
     </row>
     <row r="688">
-      <c r="A688" s="45"/>
+      <c r="A688" s="44"/>
     </row>
     <row r="689">
-      <c r="A689" s="45"/>
+      <c r="A689" s="44"/>
     </row>
     <row r="690">
-      <c r="A690" s="45"/>
+      <c r="A690" s="44"/>
     </row>
     <row r="691">
-      <c r="A691" s="45"/>
+      <c r="A691" s="44"/>
     </row>
     <row r="692">
-      <c r="A692" s="45"/>
+      <c r="A692" s="44"/>
     </row>
     <row r="693">
-      <c r="A693" s="45"/>
+      <c r="A693" s="44"/>
     </row>
     <row r="694">
-      <c r="A694" s="45"/>
+      <c r="A694" s="44"/>
     </row>
     <row r="695">
-      <c r="A695" s="45"/>
+      <c r="A695" s="44"/>
     </row>
     <row r="696">
-      <c r="A696" s="45"/>
+      <c r="A696" s="44"/>
     </row>
     <row r="697">
-      <c r="A697" s="45"/>
+      <c r="A697" s="44"/>
     </row>
     <row r="698">
-      <c r="A698" s="45"/>
+      <c r="A698" s="44"/>
     </row>
     <row r="699">
-      <c r="A699" s="45"/>
+      <c r="A699" s="44"/>
     </row>
     <row r="700">
-      <c r="A700" s="45"/>
+      <c r="A700" s="44"/>
     </row>
     <row r="701">
-      <c r="A701" s="45"/>
+      <c r="A701" s="44"/>
     </row>
     <row r="702">
-      <c r="A702" s="45"/>
+      <c r="A702" s="44"/>
     </row>
     <row r="703">
-      <c r="A703" s="45"/>
+      <c r="A703" s="44"/>
     </row>
     <row r="704">
-      <c r="A704" s="45"/>
+      <c r="A704" s="44"/>
     </row>
     <row r="705">
-      <c r="A705" s="45"/>
+      <c r="A705" s="44"/>
     </row>
     <row r="706">
-      <c r="A706" s="45"/>
+      <c r="A706" s="44"/>
     </row>
     <row r="707">
-      <c r="A707" s="45"/>
+      <c r="A707" s="44"/>
     </row>
     <row r="708">
-      <c r="A708" s="45"/>
+      <c r="A708" s="44"/>
     </row>
     <row r="709">
-      <c r="A709" s="45"/>
+      <c r="A709" s="44"/>
     </row>
     <row r="710">
-      <c r="A710" s="45"/>
+      <c r="A710" s="44"/>
     </row>
     <row r="711">
-      <c r="A711" s="45"/>
+      <c r="A711" s="44"/>
     </row>
     <row r="712">
-      <c r="A712" s="45"/>
+      <c r="A712" s="44"/>
     </row>
     <row r="713">
-      <c r="A713" s="45"/>
+      <c r="A713" s="44"/>
     </row>
     <row r="714">
-      <c r="A714" s="45"/>
+      <c r="A714" s="44"/>
     </row>
     <row r="715">
-      <c r="A715" s="45"/>
+      <c r="A715" s="44"/>
     </row>
     <row r="716">
-      <c r="A716" s="45"/>
+      <c r="A716" s="44"/>
     </row>
     <row r="717">
-      <c r="A717" s="45"/>
+      <c r="A717" s="44"/>
     </row>
     <row r="718">
-      <c r="A718" s="45"/>
+      <c r="A718" s="44"/>
     </row>
     <row r="719">
-      <c r="A719" s="45"/>
+      <c r="A719" s="44"/>
     </row>
     <row r="720">
-      <c r="A720" s="45"/>
+      <c r="A720" s="44"/>
     </row>
     <row r="721">
-      <c r="A721" s="45"/>
+      <c r="A721" s="44"/>
     </row>
     <row r="722">
-      <c r="A722" s="45"/>
+      <c r="A722" s="44"/>
     </row>
     <row r="723">
-      <c r="A723" s="45"/>
+      <c r="A723" s="44"/>
     </row>
     <row r="724">
-      <c r="A724" s="45"/>
+      <c r="A724" s="44"/>
     </row>
     <row r="725">
-      <c r="A725" s="45"/>
+      <c r="A725" s="44"/>
     </row>
     <row r="726">
-      <c r="A726" s="45"/>
+      <c r="A726" s="44"/>
     </row>
     <row r="727">
-      <c r="A727" s="45"/>
+      <c r="A727" s="44"/>
     </row>
     <row r="728">
-      <c r="A728" s="45"/>
+      <c r="A728" s="44"/>
     </row>
     <row r="729">
-      <c r="A729" s="45"/>
+      <c r="A729" s="44"/>
     </row>
     <row r="730">
-      <c r="A730" s="45"/>
+      <c r="A730" s="44"/>
     </row>
     <row r="731">
-      <c r="A731" s="45"/>
+      <c r="A731" s="44"/>
     </row>
     <row r="732">
-      <c r="A732" s="45"/>
+      <c r="A732" s="44"/>
     </row>
     <row r="733">
-      <c r="A733" s="45"/>
+      <c r="A733" s="44"/>
     </row>
     <row r="734">
-      <c r="A734" s="45"/>
+      <c r="A734" s="44"/>
     </row>
     <row r="735">
-      <c r="A735" s="45"/>
+      <c r="A735" s="44"/>
     </row>
     <row r="736">
-      <c r="A736" s="45"/>
+      <c r="A736" s="44"/>
     </row>
     <row r="737">
-      <c r="A737" s="45"/>
+      <c r="A737" s="44"/>
     </row>
     <row r="738">
-      <c r="A738" s="45"/>
+      <c r="A738" s="44"/>
     </row>
     <row r="739">
-      <c r="A739" s="45"/>
+      <c r="A739" s="44"/>
     </row>
     <row r="740">
-      <c r="A740" s="45"/>
+      <c r="A740" s="44"/>
     </row>
     <row r="741">
-      <c r="A741" s="45"/>
+      <c r="A741" s="44"/>
     </row>
     <row r="742">
-      <c r="A742" s="45"/>
+      <c r="A742" s="44"/>
     </row>
     <row r="743">
-      <c r="A743" s="45"/>
+      <c r="A743" s="44"/>
     </row>
     <row r="744">
-      <c r="A744" s="45"/>
+      <c r="A744" s="44"/>
     </row>
     <row r="745">
-      <c r="A745" s="45"/>
+      <c r="A745" s="44"/>
     </row>
     <row r="746">
-      <c r="A746" s="45"/>
+      <c r="A746" s="44"/>
     </row>
     <row r="747">
-      <c r="A747" s="45"/>
+      <c r="A747" s="44"/>
     </row>
     <row r="748">
-      <c r="A748" s="45"/>
+      <c r="A748" s="44"/>
     </row>
     <row r="749">
-      <c r="A749" s="45"/>
+      <c r="A749" s="44"/>
     </row>
     <row r="750">
-      <c r="A750" s="45"/>
+      <c r="A750" s="44"/>
     </row>
     <row r="751">
-      <c r="A751" s="45"/>
+      <c r="A751" s="44"/>
     </row>
     <row r="752">
-      <c r="A752" s="45"/>
+      <c r="A752" s="44"/>
     </row>
     <row r="753">
-      <c r="A753" s="45"/>
+      <c r="A753" s="44"/>
     </row>
     <row r="754">
-      <c r="A754" s="45"/>
+      <c r="A754" s="44"/>
     </row>
     <row r="755">
-      <c r="A755" s="45"/>
+      <c r="A755" s="44"/>
     </row>
     <row r="756">
-      <c r="A756" s="45"/>
+      <c r="A756" s="44"/>
     </row>
     <row r="757">
-      <c r="A757" s="45"/>
+      <c r="A757" s="44"/>
     </row>
     <row r="758">
-      <c r="A758" s="45"/>
+      <c r="A758" s="44"/>
     </row>
     <row r="759">
-      <c r="A759" s="45"/>
+      <c r="A759" s="44"/>
     </row>
     <row r="760">
-      <c r="A760" s="45"/>
+      <c r="A760" s="44"/>
     </row>
     <row r="761">
-      <c r="A761" s="45"/>
+      <c r="A761" s="44"/>
     </row>
     <row r="762">
-      <c r="A762" s="45"/>
+      <c r="A762" s="44"/>
     </row>
     <row r="763">
-      <c r="A763" s="45"/>
+      <c r="A763" s="44"/>
     </row>
     <row r="764">
-      <c r="A764" s="45"/>
+      <c r="A764" s="44"/>
     </row>
     <row r="765">
-      <c r="A765" s="45"/>
+      <c r="A765" s="44"/>
     </row>
     <row r="766">
-      <c r="A766" s="45"/>
+      <c r="A766" s="44"/>
     </row>
     <row r="767">
-      <c r="A767" s="45"/>
+      <c r="A767" s="44"/>
     </row>
     <row r="768">
-      <c r="A768" s="45"/>
+      <c r="A768" s="44"/>
     </row>
     <row r="769">
-      <c r="A769" s="45"/>
+      <c r="A769" s="44"/>
     </row>
     <row r="770">
-      <c r="A770" s="45"/>
+      <c r="A770" s="44"/>
     </row>
     <row r="771">
-      <c r="A771" s="45"/>
+      <c r="A771" s="44"/>
     </row>
     <row r="772">
-      <c r="A772" s="45"/>
+      <c r="A772" s="44"/>
     </row>
     <row r="773">
-      <c r="A773" s="45"/>
+      <c r="A773" s="44"/>
     </row>
     <row r="774">
-      <c r="A774" s="45"/>
+      <c r="A774" s="44"/>
     </row>
     <row r="775">
-      <c r="A775" s="45"/>
+      <c r="A775" s="44"/>
     </row>
     <row r="776">
-      <c r="A776" s="45"/>
+      <c r="A776" s="44"/>
     </row>
     <row r="777">
-      <c r="A777" s="45"/>
+      <c r="A777" s="44"/>
     </row>
     <row r="778">
-      <c r="A778" s="45"/>
+      <c r="A778" s="44"/>
     </row>
     <row r="779">
-      <c r="A779" s="45"/>
+      <c r="A779" s="44"/>
     </row>
     <row r="780">
-      <c r="A780" s="45"/>
+      <c r="A780" s="44"/>
     </row>
     <row r="781">
-      <c r="A781" s="45"/>
+      <c r="A781" s="44"/>
     </row>
     <row r="782">
-      <c r="A782" s="45"/>
+      <c r="A782" s="44"/>
     </row>
     <row r="783">
-      <c r="A783" s="45"/>
+      <c r="A783" s="44"/>
     </row>
     <row r="784">
-      <c r="A784" s="45"/>
+      <c r="A784" s="44"/>
     </row>
     <row r="785">
-      <c r="A785" s="45"/>
+      <c r="A785" s="44"/>
     </row>
     <row r="786">
-      <c r="A786" s="45"/>
+      <c r="A786" s="44"/>
     </row>
     <row r="787">
-      <c r="A787" s="45"/>
+      <c r="A787" s="44"/>
     </row>
     <row r="788">
-      <c r="A788" s="45"/>
+      <c r="A788" s="44"/>
     </row>
     <row r="789">
-      <c r="A789" s="45"/>
+      <c r="A789" s="44"/>
     </row>
     <row r="790">
-      <c r="A790" s="45"/>
+      <c r="A790" s="44"/>
     </row>
     <row r="791">
-      <c r="A791" s="45"/>
+      <c r="A791" s="44"/>
     </row>
     <row r="792">
-      <c r="A792" s="45"/>
+      <c r="A792" s="44"/>
     </row>
     <row r="793">
-      <c r="A793" s="45"/>
+      <c r="A793" s="44"/>
     </row>
     <row r="794">
-      <c r="A794" s="45"/>
+      <c r="A794" s="44"/>
     </row>
     <row r="795">
-      <c r="A795" s="45"/>
+      <c r="A795" s="44"/>
     </row>
     <row r="796">
-      <c r="A796" s="45"/>
+      <c r="A796" s="44"/>
     </row>
     <row r="797">
-      <c r="A797" s="45"/>
+      <c r="A797" s="44"/>
     </row>
     <row r="798">
-      <c r="A798" s="45"/>
+      <c r="A798" s="44"/>
     </row>
     <row r="799">
-      <c r="A799" s="45"/>
+      <c r="A799" s="44"/>
     </row>
     <row r="800">
-      <c r="A800" s="45"/>
+      <c r="A800" s="44"/>
     </row>
     <row r="801">
-      <c r="A801" s="45"/>
+      <c r="A801" s="44"/>
     </row>
     <row r="802">
-      <c r="A802" s="45"/>
+      <c r="A802" s="44"/>
     </row>
     <row r="803">
-      <c r="A803" s="45"/>
+      <c r="A803" s="44"/>
     </row>
     <row r="804">
-      <c r="A804" s="45"/>
+      <c r="A804" s="44"/>
     </row>
     <row r="805">
-      <c r="A805" s="45"/>
+      <c r="A805" s="44"/>
     </row>
     <row r="806">
-      <c r="A806" s="45"/>
+      <c r="A806" s="44"/>
     </row>
     <row r="807">
-      <c r="A807" s="45"/>
+      <c r="A807" s="44"/>
     </row>
     <row r="808">
-      <c r="A808" s="45"/>
+      <c r="A808" s="44"/>
     </row>
     <row r="809">
-      <c r="A809" s="45"/>
+      <c r="A809" s="44"/>
     </row>
     <row r="810">
-      <c r="A810" s="45"/>
+      <c r="A810" s="44"/>
     </row>
     <row r="811">
-      <c r="A811" s="45"/>
+      <c r="A811" s="44"/>
     </row>
     <row r="812">
-      <c r="A812" s="45"/>
+      <c r="A812" s="44"/>
     </row>
     <row r="813">
-      <c r="A813" s="45"/>
+      <c r="A813" s="44"/>
     </row>
     <row r="814">
-      <c r="A814" s="45"/>
+      <c r="A814" s="44"/>
     </row>
     <row r="815">
-      <c r="A815" s="45"/>
+      <c r="A815" s="44"/>
     </row>
     <row r="816">
-      <c r="A816" s="45"/>
+      <c r="A816" s="44"/>
     </row>
     <row r="817">
-      <c r="A817" s="45"/>
+      <c r="A817" s="44"/>
     </row>
     <row r="818">
-      <c r="A818" s="45"/>
+      <c r="A818" s="44"/>
     </row>
     <row r="819">
-      <c r="A819" s="45"/>
+      <c r="A819" s="44"/>
     </row>
     <row r="820">
-      <c r="A820" s="45"/>
+      <c r="A820" s="44"/>
     </row>
     <row r="821">
-      <c r="A821" s="45"/>
+      <c r="A821" s="44"/>
     </row>
     <row r="822">
-      <c r="A822" s="45"/>
+      <c r="A822" s="44"/>
     </row>
     <row r="823">
-      <c r="A823" s="45"/>
+      <c r="A823" s="44"/>
     </row>
     <row r="824">
-      <c r="A824" s="45"/>
+      <c r="A824" s="44"/>
     </row>
     <row r="825">
-      <c r="A825" s="45"/>
+      <c r="A825" s="44"/>
     </row>
     <row r="826">
-      <c r="A826" s="45"/>
+      <c r="A826" s="44"/>
     </row>
     <row r="827">
-      <c r="A827" s="45"/>
+      <c r="A827" s="44"/>
     </row>
     <row r="828">
-      <c r="A828" s="45"/>
+      <c r="A828" s="44"/>
     </row>
     <row r="829">
-      <c r="A829" s="45"/>
+      <c r="A829" s="44"/>
     </row>
     <row r="830">
-      <c r="A830" s="45"/>
+      <c r="A830" s="44"/>
     </row>
     <row r="831">
-      <c r="A831" s="45"/>
+      <c r="A831" s="44"/>
     </row>
     <row r="832">
-      <c r="A832" s="45"/>
+      <c r="A832" s="44"/>
     </row>
     <row r="833">
-      <c r="A833" s="45"/>
+      <c r="A833" s="44"/>
     </row>
     <row r="834">
-      <c r="A834" s="45"/>
+      <c r="A834" s="44"/>
     </row>
     <row r="835">
-      <c r="A835" s="45"/>
+      <c r="A835" s="44"/>
     </row>
     <row r="836">
-      <c r="A836" s="45"/>
+      <c r="A836" s="44"/>
     </row>
     <row r="837">
-      <c r="A837" s="45"/>
+      <c r="A837" s="44"/>
     </row>
     <row r="838">
-      <c r="A838" s="45"/>
+      <c r="A838" s="44"/>
     </row>
     <row r="839">
-      <c r="A839" s="45"/>
+      <c r="A839" s="44"/>
     </row>
     <row r="840">
-      <c r="A840" s="45"/>
+      <c r="A840" s="44"/>
     </row>
     <row r="841">
-      <c r="A841" s="45"/>
+      <c r="A841" s="44"/>
     </row>
     <row r="842">
-      <c r="A842" s="45"/>
+      <c r="A842" s="44"/>
     </row>
     <row r="843">
-      <c r="A843" s="45"/>
+      <c r="A843" s="44"/>
     </row>
     <row r="844">
-      <c r="A844" s="45"/>
+      <c r="A844" s="44"/>
     </row>
     <row r="845">
-      <c r="A845" s="45"/>
+      <c r="A845" s="44"/>
     </row>
     <row r="846">
-      <c r="A846" s="45"/>
+      <c r="A846" s="44"/>
     </row>
     <row r="847">
-      <c r="A847" s="45"/>
+      <c r="A847" s="44"/>
     </row>
     <row r="848">
-      <c r="A848" s="45"/>
+      <c r="A848" s="44"/>
     </row>
     <row r="849">
-      <c r="A849" s="45"/>
+      <c r="A849" s="44"/>
     </row>
     <row r="850">
-      <c r="A850" s="45"/>
+      <c r="A850" s="44"/>
     </row>
     <row r="851">
-      <c r="A851" s="45"/>
+      <c r="A851" s="44"/>
     </row>
     <row r="852">
-      <c r="A852" s="45"/>
+      <c r="A852" s="44"/>
     </row>
     <row r="853">
-      <c r="A853" s="45"/>
+      <c r="A853" s="44"/>
     </row>
     <row r="854">
-      <c r="A854" s="45"/>
+      <c r="A854" s="44"/>
     </row>
     <row r="855">
-      <c r="A855" s="45"/>
+      <c r="A855" s="44"/>
     </row>
     <row r="856">
-      <c r="A856" s="45"/>
+      <c r="A856" s="44"/>
     </row>
     <row r="857">
-      <c r="A857" s="45"/>
+      <c r="A857" s="44"/>
     </row>
     <row r="858">
-      <c r="A858" s="45"/>
+      <c r="A858" s="44"/>
     </row>
     <row r="859">
-      <c r="A859" s="45"/>
+      <c r="A859" s="44"/>
     </row>
     <row r="860">
-      <c r="A860" s="45"/>
+      <c r="A860" s="44"/>
     </row>
     <row r="861">
-      <c r="A861" s="45"/>
+      <c r="A861" s="44"/>
     </row>
     <row r="862">
-      <c r="A862" s="45"/>
+      <c r="A862" s="44"/>
     </row>
     <row r="863">
-      <c r="A863" s="45"/>
+      <c r="A863" s="44"/>
     </row>
     <row r="864">
-      <c r="A864" s="45"/>
+      <c r="A864" s="44"/>
     </row>
     <row r="865">
-      <c r="A865" s="45"/>
+      <c r="A865" s="44"/>
     </row>
     <row r="866">
-      <c r="A866" s="45"/>
+      <c r="A866" s="44"/>
     </row>
     <row r="867">
-      <c r="A867" s="45"/>
+      <c r="A867" s="44"/>
     </row>
     <row r="868">
-      <c r="A868" s="45"/>
+      <c r="A868" s="44"/>
     </row>
     <row r="869">
-      <c r="A869" s="45"/>
+      <c r="A869" s="44"/>
     </row>
     <row r="870">
-      <c r="A870" s="45"/>
+      <c r="A870" s="44"/>
     </row>
     <row r="871">
-      <c r="A871" s="45"/>
+      <c r="A871" s="44"/>
     </row>
     <row r="872">
-      <c r="A872" s="45"/>
+      <c r="A872" s="44"/>
     </row>
     <row r="873">
-      <c r="A873" s="45"/>
+      <c r="A873" s="44"/>
     </row>
     <row r="874">
-      <c r="A874" s="45"/>
+      <c r="A874" s="44"/>
     </row>
     <row r="875">
-      <c r="A875" s="45"/>
+      <c r="A875" s="44"/>
     </row>
     <row r="876">
-      <c r="A876" s="45"/>
+      <c r="A876" s="44"/>
     </row>
     <row r="877">
-      <c r="A877" s="45"/>
+      <c r="A877" s="44"/>
     </row>
     <row r="878">
-      <c r="A878" s="45"/>
+      <c r="A878" s="44"/>
     </row>
     <row r="879">
-      <c r="A879" s="45"/>
+      <c r="A879" s="44"/>
     </row>
     <row r="880">
-      <c r="A880" s="45"/>
+      <c r="A880" s="44"/>
     </row>
     <row r="881">
-      <c r="A881" s="45"/>
+      <c r="A881" s="44"/>
     </row>
     <row r="882">
-      <c r="A882" s="45"/>
+      <c r="A882" s="44"/>
     </row>
     <row r="883">
-      <c r="A883" s="45"/>
+      <c r="A883" s="44"/>
     </row>
     <row r="884">
-      <c r="A884" s="45"/>
+      <c r="A884" s="44"/>
     </row>
     <row r="885">
-      <c r="A885" s="45"/>
+      <c r="A885" s="44"/>
     </row>
     <row r="886">
-      <c r="A886" s="45"/>
+      <c r="A886" s="44"/>
     </row>
     <row r="887">
-      <c r="A887" s="45"/>
+      <c r="A887" s="44"/>
     </row>
     <row r="888">
-      <c r="A888" s="45"/>
+      <c r="A888" s="44"/>
     </row>
     <row r="889">
-      <c r="A889" s="45"/>
+      <c r="A889" s="44"/>
     </row>
     <row r="890">
-      <c r="A890" s="45"/>
+      <c r="A890" s="44"/>
     </row>
     <row r="891">
-      <c r="A891" s="45"/>
+      <c r="A891" s="44"/>
     </row>
     <row r="892">
-      <c r="A892" s="45"/>
+      <c r="A892" s="44"/>
     </row>
     <row r="893">
-      <c r="A893" s="45"/>
+      <c r="A893" s="44"/>
     </row>
     <row r="894">
-      <c r="A894" s="45"/>
+      <c r="A894" s="44"/>
     </row>
     <row r="895">
-      <c r="A895" s="45"/>
+      <c r="A895" s="44"/>
     </row>
     <row r="896">
-      <c r="A896" s="45"/>
+      <c r="A896" s="44"/>
     </row>
     <row r="897">
-      <c r="A897" s="45"/>
+      <c r="A897" s="44"/>
     </row>
     <row r="898">
-      <c r="A898" s="45"/>
+      <c r="A898" s="44"/>
     </row>
     <row r="899">
-      <c r="A899" s="45"/>
+      <c r="A899" s="44"/>
     </row>
     <row r="900">
-      <c r="A900" s="45"/>
+      <c r="A900" s="44"/>
     </row>
     <row r="901">
-      <c r="A901" s="45"/>
+      <c r="A901" s="44"/>
     </row>
     <row r="902">
-      <c r="A902" s="45"/>
+      <c r="A902" s="44"/>
     </row>
     <row r="903">
-      <c r="A903" s="45"/>
+      <c r="A903" s="44"/>
     </row>
     <row r="904">
-      <c r="A904" s="45"/>
+      <c r="A904" s="44"/>
     </row>
     <row r="905">
-      <c r="A905" s="45"/>
+      <c r="A905" s="44"/>
     </row>
     <row r="906">
-      <c r="A906" s="45"/>
+      <c r="A906" s="44"/>
     </row>
     <row r="907">
-      <c r="A907" s="45"/>
+      <c r="A907" s="44"/>
     </row>
     <row r="908">
-      <c r="A908" s="45"/>
+      <c r="A908" s="44"/>
     </row>
     <row r="909">
-      <c r="A909" s="45"/>
+      <c r="A909" s="44"/>
     </row>
     <row r="910">
-      <c r="A910" s="45"/>
+      <c r="A910" s="44"/>
     </row>
     <row r="911">
-      <c r="A911" s="45"/>
+      <c r="A911" s="44"/>
     </row>
     <row r="912">
-      <c r="A912" s="45"/>
+      <c r="A912" s="44"/>
     </row>
     <row r="913">
-      <c r="A913" s="45"/>
+      <c r="A913" s="44"/>
     </row>
     <row r="914">
-      <c r="A914" s="45"/>
+      <c r="A914" s="44"/>
     </row>
     <row r="915">
-      <c r="A915" s="45"/>
+      <c r="A915" s="44"/>
     </row>
     <row r="916">
-      <c r="A916" s="45"/>
+      <c r="A916" s="44"/>
     </row>
     <row r="917">
-      <c r="A917" s="45"/>
+      <c r="A917" s="44"/>
     </row>
     <row r="918">
-      <c r="A918" s="45"/>
+      <c r="A918" s="44"/>
     </row>
     <row r="919">
-      <c r="A919" s="45"/>
+      <c r="A919" s="44"/>
     </row>
     <row r="920">
-      <c r="A920" s="45"/>
+      <c r="A920" s="44"/>
     </row>
     <row r="921">
-      <c r="A921" s="45"/>
+      <c r="A921" s="44"/>
     </row>
     <row r="922">
-      <c r="A922" s="45"/>
+      <c r="A922" s="44"/>
     </row>
     <row r="923">
-      <c r="A923" s="45"/>
+      <c r="A923" s="44"/>
     </row>
     <row r="924">
-      <c r="A924" s="45"/>
+      <c r="A924" s="44"/>
     </row>
     <row r="925">
-      <c r="A925" s="45"/>
+      <c r="A925" s="44"/>
     </row>
     <row r="926">
-      <c r="A926" s="45"/>
+      <c r="A926" s="44"/>
     </row>
     <row r="927">
-      <c r="A927" s="45"/>
+      <c r="A927" s="44"/>
     </row>
     <row r="928">
-      <c r="A928" s="45"/>
+      <c r="A928" s="44"/>
     </row>
     <row r="929">
-      <c r="A929" s="45"/>
+      <c r="A929" s="44"/>
     </row>
     <row r="930">
-      <c r="A930" s="45"/>
+      <c r="A930" s="44"/>
     </row>
     <row r="931">
-      <c r="A931" s="45"/>
+      <c r="A931" s="44"/>
     </row>
     <row r="932">
-      <c r="A932" s="45"/>
+      <c r="A932" s="44"/>
     </row>
     <row r="933">
-      <c r="A933" s="45"/>
+      <c r="A933" s="44"/>
     </row>
     <row r="934">
-      <c r="A934" s="45"/>
+      <c r="A934" s="44"/>
     </row>
     <row r="935">
-      <c r="A935" s="45"/>
+      <c r="A935" s="44"/>
     </row>
     <row r="936">
-      <c r="A936" s="45"/>
+      <c r="A936" s="44"/>
     </row>
     <row r="937">
-      <c r="A937" s="45"/>
+      <c r="A937" s="44"/>
     </row>
     <row r="938">
-      <c r="A938" s="45"/>
+      <c r="A938" s="44"/>
     </row>
     <row r="939">
-      <c r="A939" s="45"/>
+      <c r="A939" s="44"/>
     </row>
     <row r="940">
-      <c r="A940" s="45"/>
+      <c r="A940" s="44"/>
     </row>
     <row r="941">
-      <c r="A941" s="45"/>
+      <c r="A941" s="44"/>
     </row>
     <row r="942">
-      <c r="A942" s="45"/>
+      <c r="A942" s="44"/>
     </row>
     <row r="943">
-      <c r="A943" s="45"/>
+      <c r="A943" s="44"/>
     </row>
     <row r="944">
-      <c r="A944" s="45"/>
+      <c r="A944" s="44"/>
     </row>
     <row r="945">
-      <c r="A945" s="45"/>
+      <c r="A945" s="44"/>
     </row>
     <row r="946">
-      <c r="A946" s="45"/>
+      <c r="A946" s="44"/>
     </row>
     <row r="947">
-      <c r="A947" s="45"/>
+      <c r="A947" s="44"/>
     </row>
     <row r="948">
-      <c r="A948" s="45"/>
+      <c r="A948" s="44"/>
     </row>
     <row r="949">
-      <c r="A949" s="45"/>
+      <c r="A949" s="44"/>
     </row>
     <row r="950">
-      <c r="A950" s="45"/>
+      <c r="A950" s="44"/>
     </row>
     <row r="951">
-      <c r="A951" s="45"/>
+      <c r="A951" s="44"/>
     </row>
     <row r="952">
-      <c r="A952" s="45"/>
+      <c r="A952" s="44"/>
     </row>
     <row r="953">
-      <c r="A953" s="45"/>
+      <c r="A953" s="44"/>
     </row>
     <row r="954">
-      <c r="A954" s="45"/>
+      <c r="A954" s="44"/>
     </row>
     <row r="955">
-      <c r="A955" s="45"/>
+      <c r="A955" s="44"/>
     </row>
     <row r="956">
-      <c r="A956" s="45"/>
+      <c r="A956" s="44"/>
     </row>
     <row r="957">
-      <c r="A957" s="45"/>
+      <c r="A957" s="44"/>
     </row>
     <row r="958">
-      <c r="A958" s="45"/>
+      <c r="A958" s="44"/>
     </row>
     <row r="959">
-      <c r="A959" s="45"/>
+      <c r="A959" s="44"/>
     </row>
     <row r="960">
-      <c r="A960" s="45"/>
+      <c r="A960" s="44"/>
     </row>
     <row r="961">
-      <c r="A961" s="45"/>
+      <c r="A961" s="44"/>
     </row>
     <row r="962">
-      <c r="A962" s="45"/>
+      <c r="A962" s="44"/>
     </row>
     <row r="963">
-      <c r="A963" s="45"/>
+      <c r="A963" s="44"/>
     </row>
     <row r="964">
-      <c r="A964" s="45"/>
+      <c r="A964" s="44"/>
     </row>
     <row r="965">
-      <c r="A965" s="45"/>
+      <c r="A965" s="44"/>
     </row>
     <row r="966">
-      <c r="A966" s="45"/>
+      <c r="A966" s="44"/>
     </row>
     <row r="967">
-      <c r="A967" s="45"/>
+      <c r="A967" s="44"/>
     </row>
     <row r="968">
-      <c r="A968" s="45"/>
+      <c r="A968" s="44"/>
     </row>
     <row r="969">
-      <c r="A969" s="45"/>
+      <c r="A969" s="44"/>
     </row>
     <row r="970">
-      <c r="A970" s="45"/>
+      <c r="A970" s="44"/>
     </row>
     <row r="971">
-      <c r="A971" s="45"/>
+      <c r="A971" s="44"/>
     </row>
     <row r="972">
-      <c r="A972" s="45"/>
+      <c r="A972" s="44"/>
     </row>
     <row r="973">
-      <c r="A973" s="45"/>
+      <c r="A973" s="44"/>
     </row>
     <row r="974">
-      <c r="A974" s="45"/>
+      <c r="A974" s="44"/>
     </row>
     <row r="975">
-      <c r="A975" s="45"/>
+      <c r="A975" s="44"/>
     </row>
     <row r="976">
-      <c r="A976" s="45"/>
+      <c r="A976" s="44"/>
     </row>
     <row r="977">
-      <c r="A977" s="45"/>
+      <c r="A977" s="44"/>
     </row>
     <row r="978">
-      <c r="A978" s="45"/>
+      <c r="A978" s="44"/>
     </row>
     <row r="979">
-      <c r="A979" s="45"/>
+      <c r="A979" s="44"/>
     </row>
     <row r="980">
-      <c r="A980" s="45"/>
+      <c r="A980" s="44"/>
     </row>
     <row r="981">
-      <c r="A981" s="45"/>
+      <c r="A981" s="44"/>
     </row>
     <row r="982">
-      <c r="A982" s="45"/>
+      <c r="A982" s="44"/>
     </row>
     <row r="983">
-      <c r="A983" s="45"/>
+      <c r="A983" s="44"/>
     </row>
     <row r="984">
-      <c r="A984" s="45"/>
+      <c r="A984" s="44"/>
     </row>
     <row r="985">
-      <c r="A985" s="45"/>
+      <c r="A985" s="44"/>
     </row>
     <row r="986">
-      <c r="A986" s="45"/>
+      <c r="A986" s="44"/>
     </row>
     <row r="987">
-      <c r="A987" s="45"/>
+      <c r="A987" s="44"/>
     </row>
     <row r="988">
-      <c r="A988" s="45"/>
+      <c r="A988" s="44"/>
     </row>
     <row r="989">
-      <c r="A989" s="45"/>
+      <c r="A989" s="44"/>
     </row>
     <row r="990">
-      <c r="A990" s="45"/>
+      <c r="A990" s="44"/>
     </row>
     <row r="991">
-      <c r="A991" s="45"/>
+      <c r="A991" s="44"/>
     </row>
     <row r="992">
-      <c r="A992" s="45"/>
+      <c r="A992" s="44"/>
     </row>
     <row r="993">
-      <c r="A993" s="45"/>
+      <c r="A993" s="44"/>
     </row>
     <row r="994">
-      <c r="A994" s="45"/>
+      <c r="A994" s="44"/>
     </row>
     <row r="995">
-      <c r="A995" s="45"/>
+      <c r="A995" s="44"/>
     </row>
     <row r="996">
-      <c r="A996" s="45"/>
+      <c r="A996" s="44"/>
     </row>
     <row r="997">
-      <c r="A997" s="45"/>
+      <c r="A997" s="44"/>
     </row>
     <row r="998">
-      <c r="A998" s="45"/>
+      <c r="A998" s="44"/>
     </row>
     <row r="999">
-      <c r="A999" s="45"/>
+      <c r="A999" s="44"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="45"/>
+      <c r="A1000" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/meta/alignment-matrix.xlsx
+++ b/meta/alignment-matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
   <si>
     <t>GRADE BAND 5-6</t>
   </si>
@@ -56,7 +56,8 @@
     <t>GRADE BAND 9-12</t>
   </si>
   <si>
-    <t xml:space="preserve">Explain how variation affects evolution. </t>
+    <t xml:space="preserve">Explain how variation affects evolution. 
+Create a logic model showing how genetic rescue occurs. </t>
   </si>
   <si>
     <t>y</t>
@@ -67,12 +68,164 @@
   <si>
     <t>LS4.B-H1 - Natural selection occurs only if there is both (1) variation in the genetic information between organisms in a population and (2) variation in the expression of that genetic information–that is, trait variation–that leads to differences in performance among individuals.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Students use information to complete a logic model depicting genetic rescue. </t>
+  </si>
+  <si>
+    <t>Provide examples of variation in genes, traits, and individual survival, and why each is important for a species to persist and evolve.
+Predict how increasing genetic variation by introducing new individuals (i.e. by conducting genetic rescue) will impact population size.</t>
+  </si>
+  <si>
+    <t>LS4.C-H1</t>
+  </si>
+  <si>
+    <t>LS4.C-H1 - Evolution is a consequence of the interaction of four factors: (1) the potential for a species to increase in number, (2) the genetic variation of individuals in a species due to mutation and sexual reproduction, (3) competition for an environment’s limited supply of the resources that individuals need in order to survive and reproduce, and (4) the ensuing proliferation of those organisms that are better able to survive and reproduce in that environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students participate in a genotype and phenotype activity and discuss the changes they see in Florida panther offspring. </t>
+  </si>
+  <si>
+    <t>Create a logic model showing how genetic rescue occurs</t>
+  </si>
+  <si>
+    <t>W.9-10.3c</t>
+  </si>
+  <si>
+    <t>W.9-10.3c - Use a variety of techniques to sequence events so that they build on one another to create a coherent whole.</t>
+  </si>
+  <si>
+    <t>Predict how increasing genetic variation by introducing new individuals (i.e. by conducting genetic rescue) will impact population size.</t>
+  </si>
+  <si>
+    <t>CEDS-H1</t>
+  </si>
+  <si>
+    <t>CEDS-H1 - Make a quantitative and/or qualitative claim regarding the relationship between dependent and independent variables.</t>
+  </si>
+  <si>
+    <t>Summarize how human activities fragment animal populations and how habitat fragmentation limits gene flow, reducing genetic variation.</t>
+  </si>
+  <si>
+    <t>LS4.D-H2</t>
+  </si>
+  <si>
+    <t>LS4.D-H2 - Humans depend on the living world for the resources and other benefits provided by biodiversity. But human activity is also having adverse impacts on biodiversity through overpopulation, overexploitation, habitat destruction, pollution, introduction of invasive species, and climate change. Thus, sustaining biodiversity so that ecosystem functioning and productivity are maintained is essential to supporting and enhancing life on Earth. Sustaining biodiversity also aids humanity by preserving landscapes of recreational or inspirational value.</t>
+  </si>
+  <si>
+    <t>D2.Geo.6.9-12</t>
+  </si>
+  <si>
+    <t>D2.Geo.6.9-12 - Evaluate the impact of human settlement activities on the environmental and cultural characteristics of specific places and regions.</t>
+  </si>
+  <si>
+    <t>Summarize how human activities fragment animal populations and how habitat fragmentation limits gene flow, reducing genetic variation.
+Demonstrate understanding of how reduction in both population size and genetic variation in endangered species lead to the "extinction vortex"—the increasing likelihood of small populations to blink out due to low population size and recessive genetics from inbreeding.</t>
+  </si>
+  <si>
+    <t>LS4.C-H5</t>
+  </si>
+  <si>
+    <t>LS4.C-H5 - Species become extinct because they can no longer survive and reproduce in their altered environment. If members cannot adjust to change that is too fast or drastic, the opportunity for the species’ evolution is lost.</t>
+  </si>
+  <si>
+    <t>Demonstrate understanding of how reduction in both population size and genetic variation in endangered species lead to the "extinction vortex"—the increasing likelihood of small populations to blink out due to low population size and recessive genetics from inbreeding.</t>
+  </si>
+  <si>
+    <t>INFO-H5</t>
+  </si>
+  <si>
+    <t>INFO-H5 - Communicate scientific and/or technical information or ideas (e.g. about phenomena and/or the process of development and the design and performance of a proposed process or system) in multiple formats (including orally, graphically, textually, and mathematically).</t>
+  </si>
+  <si>
+    <t>Propose a model organism to use for research on species that are endangered or infeasible to study.</t>
+  </si>
+  <si>
+    <t>SYS-H1</t>
+  </si>
+  <si>
+    <t>SYS-H1 - Systems can be designed to do specific tasks.</t>
+  </si>
+  <si>
+    <t>SYS-H4</t>
+  </si>
+  <si>
+    <t>SYS-H4 - Models can be used to predict the behavior of a system, but these predictions have limited precision and reliability due to the assumptions and approximations inherent in models.</t>
+  </si>
+  <si>
+    <t>Students will evaluate the characteristics of a variety of commonly used model organisms and select the ones that best fit for studying the problem in Florida panthers</t>
+  </si>
+  <si>
+    <t>SYS-H3</t>
+  </si>
+  <si>
+    <t>SYS-H3 - Models (e.g., physical, mathematical, computer models) can be used to simulate systems and interactions–including energy, matter, and information flows– within and between systems at different scales.</t>
+  </si>
+  <si>
+    <t>Interpret scatter plot data from a model organism (Trinidadian guppies) and compare to related data in an endangered species (Florida panthers) to draw broader conclusions about the effectiveness of genetic rescue.</t>
+  </si>
+  <si>
+    <t>HSS-ID.B.6</t>
+  </si>
+  <si>
+    <t>HSS-ID.B.6 - Represent data on two quantitative variables on a scatter plot, and describe how the variables are related.</t>
+  </si>
+  <si>
+    <t>W.9-10.7</t>
+  </si>
+  <si>
+    <t>W.9-10.7 - Conduct short as well as more sustained research projects to answer a question (including a self-generated question) or solve a problem; narrow or broaden the inquiry when appropriate; synthesize multiple sources on the subject, demonstrating understanding of the subject under investigation.</t>
+  </si>
+  <si>
+    <t>HSS-ID.C.7</t>
+  </si>
+  <si>
+    <t>HSS-ID.C.7 - Interpret the slope (rate of change) and the intercept (constant term) of a linear model in the context of the data.</t>
+  </si>
+  <si>
+    <t>DATA-H5</t>
+  </si>
+  <si>
+    <t>DATA-H5 - Evaluate the impact of new data on a working explanation and/or model of a proposed process or system.</t>
+  </si>
+  <si>
+    <t>SPQ-H5</t>
+  </si>
+  <si>
+    <t>SPQ-H5 - Algebraic thinking is used to examine scientific data and predict the effect of a change in one variable on another (e.g., linear growth vs. exponential growth).</t>
+  </si>
+  <si>
+    <t>Assess the potential risks and benefits of genetic rescue for a particular species, and propose a course of action.</t>
+  </si>
+  <si>
+    <t>CEDS-H5</t>
+  </si>
+  <si>
+    <t>CEDS-H5 - Design, evaluate, and/or refine a solution to a complex real-world problem, based on scientific knowledge, student-generated sources of evidence, prioritized criteria, and tradeoff considerations.</t>
+  </si>
+  <si>
+    <t>ARG-H1</t>
+  </si>
+  <si>
+    <t>ARG-H1 - Compare and evaluate competing arguments or design solutions in light of currently accepted explanations, new evidence, limitations (e.g., trade-offs), constraints, and ethical issues.</t>
+  </si>
+  <si>
+    <t>ARG-H5</t>
+  </si>
+  <si>
+    <t>ARG-H5 - Make and defend a claim based on evidence about the natural world or the effectiveness of a design solution that reflects scientific knowledge, and student-generated evidence.</t>
+  </si>
+  <si>
+    <t>ARG-H6</t>
+  </si>
+  <si>
+    <t>ARG-H6 - Evaluate competing design solutions to a real-world problem based on scientific ideas and principles, empirical evidence, and logical arguments regarding relevant factors (e.g., economic, societal, environmental, ethical considerations).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -120,6 +273,23 @@
     </font>
     <font>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -212,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -325,19 +495,62 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2622,10 +2835,10 @@
       <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="11"/>
@@ -2648,10 +2861,10 @@
       <c r="N2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="11"/>
@@ -2667,37 +2880,39 @@
       <c r="U2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
     </row>
     <row r="3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="23"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="2"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="M3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
@@ -2709,23 +2924,33 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22"/>
+    <row r="4">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="2"/>
       <c r="H4" s="24"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" s="32"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="M4" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>20</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
@@ -2737,23 +2962,39 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22"/>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="2"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="M5" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>16</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="29"/>
       <c r="S5" s="34"/>
@@ -2765,23 +3006,29 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22"/>
+    <row r="6">
+      <c r="A6" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="23"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="2"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="32"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="48"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="34"/>
@@ -2793,13 +3040,15 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22"/>
+    <row r="7">
+      <c r="A7" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="23"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="2"/>
       <c r="H7" s="24"/>
       <c r="I7" s="30"/>
@@ -2807,13 +3056,21 @@
       <c r="K7" s="32"/>
       <c r="L7" s="2"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="N7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="48"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
+      <c r="S7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="U7" s="29"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
@@ -2821,12 +3078,14 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
+    <row r="8">
+      <c r="A8" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="23"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="2"/>
       <c r="H8" s="24"/>
@@ -2836,8 +3095,8 @@
       <c r="L8" s="2"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
@@ -2849,12 +3108,14 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
+    <row r="9">
+      <c r="A9" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="23"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="2"/>
       <c r="H9" s="24"/>
@@ -2863,9 +3124,13 @@
       <c r="K9" s="32"/>
       <c r="L9" s="2"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="N9" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="48"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
@@ -2877,12 +3142,12 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
+    <row r="10">
+      <c r="A10" s="43"/>
       <c r="B10" s="2"/>
       <c r="C10" s="23"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="2"/>
       <c r="H10" s="24"/>
@@ -2892,8 +3157,8 @@
       <c r="L10" s="2"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
@@ -2905,12 +3170,14 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22"/>
+    <row r="11">
+      <c r="A11" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="23"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="38"/>
       <c r="G11" s="2"/>
       <c r="H11" s="24"/>
@@ -2919,9 +3186,13 @@
       <c r="K11" s="32"/>
       <c r="L11" s="2"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="N11" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="48"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="29"/>
       <c r="S11" s="29"/>
@@ -2933,12 +3204,14 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22"/>
+    <row r="12">
+      <c r="A12" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="23"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="2"/>
       <c r="H12" s="24"/>
@@ -2947,9 +3220,13 @@
       <c r="K12" s="32"/>
       <c r="L12" s="2"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="N12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="48"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
@@ -2961,12 +3238,14 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22"/>
+    <row r="13">
+      <c r="A13" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="23"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="2"/>
       <c r="H13" s="24"/>
@@ -2975,9 +3254,15 @@
       <c r="K13" s="32"/>
       <c r="L13" s="2"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="N13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
@@ -2989,12 +3274,14 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22"/>
+    <row r="14">
+      <c r="A14" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="23"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="2"/>
       <c r="H14" s="24"/>
@@ -3003,9 +3290,15 @@
       <c r="K14" s="32"/>
       <c r="L14" s="2"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="N14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="29"/>
       <c r="S14" s="29"/>
@@ -3017,23 +3310,33 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22"/>
+    <row r="15">
+      <c r="A15" s="43" t="s">
+        <v>46</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="38"/>
       <c r="G15" s="2"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>50</v>
+      </c>
       <c r="K15" s="32"/>
       <c r="L15" s="2"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
@@ -3045,12 +3348,18 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22"/>
+    <row r="16">
+      <c r="A16" s="43" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="38"/>
       <c r="G16" s="2"/>
       <c r="H16" s="24"/>
@@ -3060,8 +3369,8 @@
       <c r="L16" s="2"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
@@ -3073,12 +3382,14 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
+    <row r="17">
+      <c r="A17" s="43" t="s">
+        <v>46</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="23"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="2"/>
       <c r="H17" s="24"/>
@@ -3087,9 +3398,13 @@
       <c r="K17" s="32"/>
       <c r="L17" s="2"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="N17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="48"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
@@ -3101,12 +3416,14 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22"/>
+    <row r="18">
+      <c r="A18" s="43" t="s">
+        <v>46</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="23"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="2"/>
       <c r="H18" s="24"/>
@@ -3115,9 +3432,13 @@
       <c r="K18" s="32"/>
       <c r="L18" s="2"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="N18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="48"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
@@ -3129,12 +3450,12 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22"/>
+    <row r="19">
+      <c r="A19" s="43"/>
       <c r="B19" s="2"/>
       <c r="C19" s="23"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="2"/>
       <c r="H19" s="24"/>
@@ -3144,8 +3465,8 @@
       <c r="L19" s="2"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
@@ -3157,12 +3478,14 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22"/>
+    <row r="20">
+      <c r="A20" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="23"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="2"/>
       <c r="H20" s="24"/>
@@ -3171,9 +3494,13 @@
       <c r="K20" s="32"/>
       <c r="L20" s="2"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
+      <c r="N20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="48"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
@@ -3185,12 +3512,14 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22"/>
+    <row r="21">
+      <c r="A21" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="23"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="2"/>
       <c r="H21" s="24"/>
@@ -3199,9 +3528,13 @@
       <c r="K21" s="32"/>
       <c r="L21" s="2"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
+      <c r="N21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="48"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
@@ -3213,12 +3546,14 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22"/>
+    <row r="22">
+      <c r="A22" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="23"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="2"/>
       <c r="H22" s="24"/>
@@ -3227,9 +3562,13 @@
       <c r="K22" s="32"/>
       <c r="L22" s="2"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
+      <c r="N22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="48"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
@@ -3241,12 +3580,14 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22"/>
+    <row r="23">
+      <c r="A23" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="23"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="2"/>
       <c r="H23" s="24"/>
@@ -3255,9 +3596,13 @@
       <c r="K23" s="32"/>
       <c r="L23" s="2"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
+      <c r="N23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="48"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
@@ -3269,12 +3614,14 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
+    <row r="24">
+      <c r="A24" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="23"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="2"/>
       <c r="H24" s="24"/>
@@ -3284,8 +3631,8 @@
       <c r="L24" s="2"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
@@ -3302,7 +3649,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="23"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="2"/>
       <c r="H25" s="24"/>
@@ -3312,8 +3659,8 @@
       <c r="L25" s="2"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
@@ -3330,7 +3677,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="23"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="2"/>
       <c r="H26" s="24"/>
@@ -3340,8 +3687,8 @@
       <c r="L26" s="2"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
@@ -3358,7 +3705,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="23"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="38"/>
       <c r="G27" s="2"/>
       <c r="H27" s="24"/>
@@ -3368,8 +3715,8 @@
       <c r="L27" s="2"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
@@ -3386,7 +3733,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="23"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="38"/>
       <c r="G28" s="2"/>
       <c r="H28" s="24"/>
@@ -3396,8 +3743,8 @@
       <c r="L28" s="2"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
@@ -3414,7 +3761,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="23"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="38"/>
       <c r="G29" s="2"/>
       <c r="H29" s="24"/>
@@ -3424,8 +3771,8 @@
       <c r="L29" s="2"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
@@ -3442,7 +3789,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="23"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="38"/>
       <c r="G30" s="2"/>
       <c r="H30" s="24"/>
@@ -3452,8 +3799,8 @@
       <c r="L30" s="2"/>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
@@ -3470,7 +3817,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="23"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="38"/>
       <c r="G31" s="2"/>
       <c r="H31" s="24"/>
@@ -3480,8 +3827,8 @@
       <c r="L31" s="2"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
@@ -3498,7 +3845,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="23"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="38"/>
       <c r="G32" s="2"/>
       <c r="H32" s="24"/>
@@ -3508,8 +3855,8 @@
       <c r="L32" s="2"/>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
@@ -3522,2908 +3869,6780 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="44"/>
+      <c r="A33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34">
-      <c r="A34" s="44"/>
+      <c r="A34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
     </row>
     <row r="35">
-      <c r="A35" s="44"/>
+      <c r="A35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
     </row>
     <row r="36">
-      <c r="A36" s="44"/>
+      <c r="A36" s="57"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
     </row>
     <row r="37">
-      <c r="A37" s="44"/>
+      <c r="A37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
     </row>
     <row r="38">
-      <c r="A38" s="44"/>
+      <c r="A38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
     </row>
     <row r="39">
-      <c r="A39" s="44"/>
+      <c r="A39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
     </row>
     <row r="40">
-      <c r="A40" s="44"/>
+      <c r="A40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
     </row>
     <row r="41">
-      <c r="A41" s="44"/>
+      <c r="A41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
     </row>
     <row r="42">
-      <c r="A42" s="44"/>
+      <c r="A42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
     </row>
     <row r="43">
-      <c r="A43" s="44"/>
+      <c r="A43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
     </row>
     <row r="44">
-      <c r="A44" s="44"/>
+      <c r="A44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
     </row>
     <row r="45">
-      <c r="A45" s="44"/>
+      <c r="A45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
     </row>
     <row r="46">
-      <c r="A46" s="44"/>
+      <c r="A46" s="57"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
     </row>
     <row r="47">
-      <c r="A47" s="44"/>
+      <c r="A47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
     </row>
     <row r="48">
-      <c r="A48" s="44"/>
+      <c r="A48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
     </row>
     <row r="49">
-      <c r="A49" s="44"/>
+      <c r="A49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50">
-      <c r="A50" s="44"/>
+      <c r="A50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
     </row>
     <row r="51">
-      <c r="A51" s="44"/>
+      <c r="A51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
     </row>
     <row r="52">
-      <c r="A52" s="44"/>
+      <c r="A52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53">
-      <c r="A53" s="44"/>
+      <c r="A53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
     </row>
     <row r="54">
-      <c r="A54" s="44"/>
+      <c r="A54" s="57"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
     </row>
     <row r="55">
-      <c r="A55" s="44"/>
+      <c r="A55" s="57"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
     </row>
     <row r="56">
-      <c r="A56" s="44"/>
+      <c r="A56" s="57"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
     </row>
     <row r="57">
-      <c r="A57" s="44"/>
+      <c r="A57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
     </row>
     <row r="58">
-      <c r="A58" s="44"/>
+      <c r="A58" s="57"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
     </row>
     <row r="59">
-      <c r="A59" s="44"/>
+      <c r="A59" s="57"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
     </row>
     <row r="60">
-      <c r="A60" s="44"/>
+      <c r="A60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
     </row>
     <row r="61">
-      <c r="A61" s="44"/>
+      <c r="A61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
     </row>
     <row r="62">
-      <c r="A62" s="44"/>
+      <c r="A62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
     </row>
     <row r="63">
-      <c r="A63" s="44"/>
+      <c r="A63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
     </row>
     <row r="64">
-      <c r="A64" s="44"/>
+      <c r="A64" s="57"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
     </row>
     <row r="65">
-      <c r="A65" s="44"/>
+      <c r="A65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
     </row>
     <row r="66">
-      <c r="A66" s="44"/>
+      <c r="A66" s="57"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
     </row>
     <row r="67">
-      <c r="A67" s="44"/>
+      <c r="A67" s="57"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
     </row>
     <row r="68">
-      <c r="A68" s="44"/>
+      <c r="A68" s="57"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
     </row>
     <row r="69">
-      <c r="A69" s="44"/>
+      <c r="A69" s="57"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
     </row>
     <row r="70">
-      <c r="A70" s="44"/>
+      <c r="A70" s="57"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
     </row>
     <row r="71">
-      <c r="A71" s="44"/>
+      <c r="A71" s="57"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
     </row>
     <row r="72">
-      <c r="A72" s="44"/>
+      <c r="A72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
     </row>
     <row r="73">
-      <c r="A73" s="44"/>
+      <c r="A73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="59"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="59"/>
     </row>
     <row r="74">
-      <c r="A74" s="44"/>
+      <c r="A74" s="57"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="59"/>
+      <c r="O74" s="59"/>
+      <c r="P74" s="59"/>
     </row>
     <row r="75">
-      <c r="A75" s="44"/>
+      <c r="A75" s="57"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
     </row>
     <row r="76">
-      <c r="A76" s="44"/>
+      <c r="A76" s="57"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="59"/>
+      <c r="O76" s="59"/>
+      <c r="P76" s="59"/>
     </row>
     <row r="77">
-      <c r="A77" s="44"/>
+      <c r="A77" s="57"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="59"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="59"/>
     </row>
     <row r="78">
-      <c r="A78" s="44"/>
+      <c r="A78" s="57"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="59"/>
+      <c r="O78" s="59"/>
+      <c r="P78" s="59"/>
     </row>
     <row r="79">
-      <c r="A79" s="44"/>
+      <c r="A79" s="57"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="59"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="59"/>
     </row>
     <row r="80">
-      <c r="A80" s="44"/>
+      <c r="A80" s="57"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="59"/>
+      <c r="O80" s="59"/>
+      <c r="P80" s="59"/>
     </row>
     <row r="81">
-      <c r="A81" s="44"/>
+      <c r="A81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
     </row>
     <row r="82">
-      <c r="A82" s="44"/>
+      <c r="A82" s="57"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
     </row>
     <row r="83">
-      <c r="A83" s="44"/>
+      <c r="A83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
     </row>
     <row r="84">
-      <c r="A84" s="44"/>
+      <c r="A84" s="57"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
     </row>
     <row r="85">
-      <c r="A85" s="44"/>
+      <c r="A85" s="57"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
     </row>
     <row r="86">
-      <c r="A86" s="44"/>
+      <c r="A86" s="57"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
     </row>
     <row r="87">
-      <c r="A87" s="44"/>
+      <c r="A87" s="57"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
     </row>
     <row r="88">
-      <c r="A88" s="44"/>
+      <c r="A88" s="57"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
     </row>
     <row r="89">
-      <c r="A89" s="44"/>
+      <c r="A89" s="57"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
     </row>
     <row r="90">
-      <c r="A90" s="44"/>
+      <c r="A90" s="57"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
     </row>
     <row r="91">
-      <c r="A91" s="44"/>
+      <c r="A91" s="57"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
     </row>
     <row r="92">
-      <c r="A92" s="44"/>
+      <c r="A92" s="57"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
     </row>
     <row r="93">
-      <c r="A93" s="44"/>
+      <c r="A93" s="57"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
     </row>
     <row r="94">
-      <c r="A94" s="44"/>
+      <c r="A94" s="57"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
     </row>
     <row r="95">
-      <c r="A95" s="44"/>
+      <c r="A95" s="57"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
     </row>
     <row r="96">
-      <c r="A96" s="44"/>
+      <c r="A96" s="57"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="59"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
     </row>
     <row r="97">
-      <c r="A97" s="44"/>
+      <c r="A97" s="57"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
     </row>
     <row r="98">
-      <c r="A98" s="44"/>
+      <c r="A98" s="57"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
     </row>
     <row r="99">
-      <c r="A99" s="44"/>
+      <c r="A99" s="57"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
     </row>
     <row r="100">
-      <c r="A100" s="44"/>
+      <c r="A100" s="57"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
     </row>
     <row r="101">
-      <c r="A101" s="44"/>
+      <c r="A101" s="57"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="59"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="59"/>
     </row>
     <row r="102">
-      <c r="A102" s="44"/>
+      <c r="A102" s="57"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="59"/>
+      <c r="O102" s="59"/>
+      <c r="P102" s="59"/>
     </row>
     <row r="103">
-      <c r="A103" s="44"/>
+      <c r="A103" s="57"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="59"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
     </row>
     <row r="104">
-      <c r="A104" s="44"/>
+      <c r="A104" s="57"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="59"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
     </row>
     <row r="105">
-      <c r="A105" s="44"/>
+      <c r="A105" s="57"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="59"/>
     </row>
     <row r="106">
-      <c r="A106" s="44"/>
+      <c r="A106" s="57"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="59"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
     </row>
     <row r="107">
-      <c r="A107" s="44"/>
+      <c r="A107" s="57"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="59"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="59"/>
     </row>
     <row r="108">
-      <c r="A108" s="44"/>
+      <c r="A108" s="57"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="59"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
     </row>
     <row r="109">
-      <c r="A109" s="44"/>
+      <c r="A109" s="57"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="59"/>
+      <c r="O109" s="59"/>
+      <c r="P109" s="59"/>
     </row>
     <row r="110">
-      <c r="A110" s="44"/>
+      <c r="A110" s="57"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
     </row>
     <row r="111">
-      <c r="A111" s="44"/>
+      <c r="A111" s="57"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
     </row>
     <row r="112">
-      <c r="A112" s="44"/>
+      <c r="A112" s="57"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="59"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="59"/>
     </row>
     <row r="113">
-      <c r="A113" s="44"/>
+      <c r="A113" s="57"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="59"/>
+      <c r="O113" s="59"/>
+      <c r="P113" s="59"/>
     </row>
     <row r="114">
-      <c r="A114" s="44"/>
+      <c r="A114" s="57"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="59"/>
+      <c r="O114" s="59"/>
+      <c r="P114" s="59"/>
     </row>
     <row r="115">
-      <c r="A115" s="44"/>
+      <c r="A115" s="57"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="59"/>
+      <c r="O115" s="59"/>
+      <c r="P115" s="59"/>
     </row>
     <row r="116">
-      <c r="A116" s="44"/>
+      <c r="A116" s="57"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="59"/>
+      <c r="O116" s="59"/>
+      <c r="P116" s="59"/>
     </row>
     <row r="117">
-      <c r="A117" s="44"/>
+      <c r="A117" s="57"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="59"/>
+      <c r="O117" s="59"/>
+      <c r="P117" s="59"/>
     </row>
     <row r="118">
-      <c r="A118" s="44"/>
+      <c r="A118" s="57"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="59"/>
     </row>
     <row r="119">
-      <c r="A119" s="44"/>
+      <c r="A119" s="57"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="59"/>
+      <c r="O119" s="59"/>
+      <c r="P119" s="59"/>
     </row>
     <row r="120">
-      <c r="A120" s="44"/>
+      <c r="A120" s="57"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="59"/>
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
     </row>
     <row r="121">
-      <c r="A121" s="44"/>
+      <c r="A121" s="57"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="59"/>
+      <c r="O121" s="59"/>
+      <c r="P121" s="59"/>
     </row>
     <row r="122">
-      <c r="A122" s="44"/>
+      <c r="A122" s="57"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="59"/>
+      <c r="O122" s="59"/>
+      <c r="P122" s="59"/>
     </row>
     <row r="123">
-      <c r="A123" s="44"/>
+      <c r="A123" s="57"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="59"/>
+      <c r="O123" s="59"/>
+      <c r="P123" s="59"/>
     </row>
     <row r="124">
-      <c r="A124" s="44"/>
+      <c r="A124" s="57"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="59"/>
+      <c r="O124" s="59"/>
+      <c r="P124" s="59"/>
     </row>
     <row r="125">
-      <c r="A125" s="44"/>
+      <c r="A125" s="57"/>
+      <c r="E125" s="58"/>
+      <c r="F125" s="59"/>
+      <c r="O125" s="59"/>
+      <c r="P125" s="59"/>
     </row>
     <row r="126">
-      <c r="A126" s="44"/>
+      <c r="A126" s="57"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="59"/>
+      <c r="O126" s="59"/>
+      <c r="P126" s="59"/>
     </row>
     <row r="127">
-      <c r="A127" s="44"/>
+      <c r="A127" s="57"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="59"/>
+      <c r="O127" s="59"/>
+      <c r="P127" s="59"/>
     </row>
     <row r="128">
-      <c r="A128" s="44"/>
+      <c r="A128" s="57"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="59"/>
+      <c r="O128" s="59"/>
+      <c r="P128" s="59"/>
     </row>
     <row r="129">
-      <c r="A129" s="44"/>
+      <c r="A129" s="57"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="59"/>
+      <c r="O129" s="59"/>
+      <c r="P129" s="59"/>
     </row>
     <row r="130">
-      <c r="A130" s="44"/>
+      <c r="A130" s="57"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="59"/>
+      <c r="O130" s="59"/>
+      <c r="P130" s="59"/>
     </row>
     <row r="131">
-      <c r="A131" s="44"/>
+      <c r="A131" s="57"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="59"/>
+      <c r="O131" s="59"/>
+      <c r="P131" s="59"/>
     </row>
     <row r="132">
-      <c r="A132" s="44"/>
+      <c r="A132" s="57"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="59"/>
+      <c r="O132" s="59"/>
+      <c r="P132" s="59"/>
     </row>
     <row r="133">
-      <c r="A133" s="44"/>
+      <c r="A133" s="57"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="59"/>
+      <c r="O133" s="59"/>
+      <c r="P133" s="59"/>
     </row>
     <row r="134">
-      <c r="A134" s="44"/>
+      <c r="A134" s="57"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="59"/>
+      <c r="O134" s="59"/>
+      <c r="P134" s="59"/>
     </row>
     <row r="135">
-      <c r="A135" s="44"/>
+      <c r="A135" s="57"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="59"/>
+      <c r="O135" s="59"/>
+      <c r="P135" s="59"/>
     </row>
     <row r="136">
-      <c r="A136" s="44"/>
+      <c r="A136" s="57"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="59"/>
+      <c r="O136" s="59"/>
+      <c r="P136" s="59"/>
     </row>
     <row r="137">
-      <c r="A137" s="44"/>
+      <c r="A137" s="57"/>
+      <c r="E137" s="58"/>
+      <c r="F137" s="59"/>
+      <c r="O137" s="59"/>
+      <c r="P137" s="59"/>
     </row>
     <row r="138">
-      <c r="A138" s="44"/>
+      <c r="A138" s="57"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="59"/>
+      <c r="O138" s="59"/>
+      <c r="P138" s="59"/>
     </row>
     <row r="139">
-      <c r="A139" s="44"/>
+      <c r="A139" s="57"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="59"/>
+      <c r="O139" s="59"/>
+      <c r="P139" s="59"/>
     </row>
     <row r="140">
-      <c r="A140" s="44"/>
+      <c r="A140" s="57"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="59"/>
+      <c r="O140" s="59"/>
+      <c r="P140" s="59"/>
     </row>
     <row r="141">
-      <c r="A141" s="44"/>
+      <c r="A141" s="57"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="59"/>
+      <c r="O141" s="59"/>
+      <c r="P141" s="59"/>
     </row>
     <row r="142">
-      <c r="A142" s="44"/>
+      <c r="A142" s="57"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="59"/>
+      <c r="O142" s="59"/>
+      <c r="P142" s="59"/>
     </row>
     <row r="143">
-      <c r="A143" s="44"/>
+      <c r="A143" s="57"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="59"/>
+      <c r="O143" s="59"/>
+      <c r="P143" s="59"/>
     </row>
     <row r="144">
-      <c r="A144" s="44"/>
+      <c r="A144" s="57"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="59"/>
+      <c r="O144" s="59"/>
+      <c r="P144" s="59"/>
     </row>
     <row r="145">
-      <c r="A145" s="44"/>
+      <c r="A145" s="57"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="59"/>
+      <c r="O145" s="59"/>
+      <c r="P145" s="59"/>
     </row>
     <row r="146">
-      <c r="A146" s="44"/>
+      <c r="A146" s="57"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="59"/>
+      <c r="O146" s="59"/>
+      <c r="P146" s="59"/>
     </row>
     <row r="147">
-      <c r="A147" s="44"/>
+      <c r="A147" s="57"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="59"/>
+      <c r="O147" s="59"/>
+      <c r="P147" s="59"/>
     </row>
     <row r="148">
-      <c r="A148" s="44"/>
+      <c r="A148" s="57"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="59"/>
+      <c r="O148" s="59"/>
+      <c r="P148" s="59"/>
     </row>
     <row r="149">
-      <c r="A149" s="44"/>
+      <c r="A149" s="57"/>
+      <c r="E149" s="58"/>
+      <c r="F149" s="59"/>
+      <c r="O149" s="59"/>
+      <c r="P149" s="59"/>
     </row>
     <row r="150">
-      <c r="A150" s="44"/>
+      <c r="A150" s="57"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="59"/>
+      <c r="O150" s="59"/>
+      <c r="P150" s="59"/>
     </row>
     <row r="151">
-      <c r="A151" s="44"/>
+      <c r="A151" s="57"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="59"/>
+      <c r="O151" s="59"/>
+      <c r="P151" s="59"/>
     </row>
     <row r="152">
-      <c r="A152" s="44"/>
+      <c r="A152" s="57"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="59"/>
+      <c r="O152" s="59"/>
+      <c r="P152" s="59"/>
     </row>
     <row r="153">
-      <c r="A153" s="44"/>
+      <c r="A153" s="57"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="59"/>
+      <c r="O153" s="59"/>
+      <c r="P153" s="59"/>
     </row>
     <row r="154">
-      <c r="A154" s="44"/>
+      <c r="A154" s="57"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="59"/>
+      <c r="O154" s="59"/>
+      <c r="P154" s="59"/>
     </row>
     <row r="155">
-      <c r="A155" s="44"/>
+      <c r="A155" s="57"/>
+      <c r="E155" s="58"/>
+      <c r="F155" s="59"/>
+      <c r="O155" s="59"/>
+      <c r="P155" s="59"/>
     </row>
     <row r="156">
-      <c r="A156" s="44"/>
+      <c r="A156" s="57"/>
+      <c r="E156" s="58"/>
+      <c r="F156" s="59"/>
+      <c r="O156" s="59"/>
+      <c r="P156" s="59"/>
     </row>
     <row r="157">
-      <c r="A157" s="44"/>
+      <c r="A157" s="57"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="59"/>
+      <c r="O157" s="59"/>
+      <c r="P157" s="59"/>
     </row>
     <row r="158">
-      <c r="A158" s="44"/>
+      <c r="A158" s="57"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="59"/>
+      <c r="O158" s="59"/>
+      <c r="P158" s="59"/>
     </row>
     <row r="159">
-      <c r="A159" s="44"/>
+      <c r="A159" s="57"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="59"/>
+      <c r="O159" s="59"/>
+      <c r="P159" s="59"/>
     </row>
     <row r="160">
-      <c r="A160" s="44"/>
+      <c r="A160" s="57"/>
+      <c r="E160" s="58"/>
+      <c r="F160" s="59"/>
+      <c r="O160" s="59"/>
+      <c r="P160" s="59"/>
     </row>
     <row r="161">
-      <c r="A161" s="44"/>
+      <c r="A161" s="57"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="59"/>
+      <c r="O161" s="59"/>
+      <c r="P161" s="59"/>
     </row>
     <row r="162">
-      <c r="A162" s="44"/>
+      <c r="A162" s="57"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="59"/>
+      <c r="O162" s="59"/>
+      <c r="P162" s="59"/>
     </row>
     <row r="163">
-      <c r="A163" s="44"/>
+      <c r="A163" s="57"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="59"/>
+      <c r="O163" s="59"/>
+      <c r="P163" s="59"/>
     </row>
     <row r="164">
-      <c r="A164" s="44"/>
+      <c r="A164" s="57"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="59"/>
+      <c r="O164" s="59"/>
+      <c r="P164" s="59"/>
     </row>
     <row r="165">
-      <c r="A165" s="44"/>
+      <c r="A165" s="57"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="59"/>
+      <c r="O165" s="59"/>
+      <c r="P165" s="59"/>
     </row>
     <row r="166">
-      <c r="A166" s="44"/>
+      <c r="A166" s="57"/>
+      <c r="E166" s="58"/>
+      <c r="F166" s="59"/>
+      <c r="O166" s="59"/>
+      <c r="P166" s="59"/>
     </row>
     <row r="167">
-      <c r="A167" s="44"/>
+      <c r="A167" s="57"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="59"/>
+      <c r="O167" s="59"/>
+      <c r="P167" s="59"/>
     </row>
     <row r="168">
-      <c r="A168" s="44"/>
+      <c r="A168" s="57"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="59"/>
+      <c r="O168" s="59"/>
+      <c r="P168" s="59"/>
     </row>
     <row r="169">
-      <c r="A169" s="44"/>
+      <c r="A169" s="57"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="59"/>
+      <c r="O169" s="59"/>
+      <c r="P169" s="59"/>
     </row>
     <row r="170">
-      <c r="A170" s="44"/>
+      <c r="A170" s="57"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="59"/>
+      <c r="O170" s="59"/>
+      <c r="P170" s="59"/>
     </row>
     <row r="171">
-      <c r="A171" s="44"/>
+      <c r="A171" s="57"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="59"/>
+      <c r="O171" s="59"/>
+      <c r="P171" s="59"/>
     </row>
     <row r="172">
-      <c r="A172" s="44"/>
+      <c r="A172" s="57"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
     </row>
     <row r="173">
-      <c r="A173" s="44"/>
+      <c r="A173" s="57"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="59"/>
+      <c r="O173" s="59"/>
+      <c r="P173" s="59"/>
     </row>
     <row r="174">
-      <c r="A174" s="44"/>
+      <c r="A174" s="57"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="59"/>
+      <c r="O174" s="59"/>
+      <c r="P174" s="59"/>
     </row>
     <row r="175">
-      <c r="A175" s="44"/>
+      <c r="A175" s="57"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="59"/>
+      <c r="O175" s="59"/>
+      <c r="P175" s="59"/>
     </row>
     <row r="176">
-      <c r="A176" s="44"/>
+      <c r="A176" s="57"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="59"/>
+      <c r="O176" s="59"/>
+      <c r="P176" s="59"/>
     </row>
     <row r="177">
-      <c r="A177" s="44"/>
+      <c r="A177" s="57"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="59"/>
+      <c r="O177" s="59"/>
+      <c r="P177" s="59"/>
     </row>
     <row r="178">
-      <c r="A178" s="44"/>
+      <c r="A178" s="57"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="59"/>
+      <c r="O178" s="59"/>
+      <c r="P178" s="59"/>
     </row>
     <row r="179">
-      <c r="A179" s="44"/>
+      <c r="A179" s="57"/>
+      <c r="E179" s="58"/>
+      <c r="F179" s="59"/>
+      <c r="O179" s="59"/>
+      <c r="P179" s="59"/>
     </row>
     <row r="180">
-      <c r="A180" s="44"/>
+      <c r="A180" s="57"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="59"/>
+      <c r="O180" s="59"/>
+      <c r="P180" s="59"/>
     </row>
     <row r="181">
-      <c r="A181" s="44"/>
+      <c r="A181" s="57"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="59"/>
+      <c r="O181" s="59"/>
+      <c r="P181" s="59"/>
     </row>
     <row r="182">
-      <c r="A182" s="44"/>
+      <c r="A182" s="57"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="59"/>
+      <c r="O182" s="59"/>
+      <c r="P182" s="59"/>
     </row>
     <row r="183">
-      <c r="A183" s="44"/>
+      <c r="A183" s="57"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="59"/>
+      <c r="O183" s="59"/>
+      <c r="P183" s="59"/>
     </row>
     <row r="184">
-      <c r="A184" s="44"/>
+      <c r="A184" s="57"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="59"/>
+      <c r="O184" s="59"/>
+      <c r="P184" s="59"/>
     </row>
     <row r="185">
-      <c r="A185" s="44"/>
+      <c r="A185" s="57"/>
+      <c r="E185" s="58"/>
+      <c r="F185" s="59"/>
+      <c r="O185" s="59"/>
+      <c r="P185" s="59"/>
     </row>
     <row r="186">
-      <c r="A186" s="44"/>
+      <c r="A186" s="57"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="59"/>
+      <c r="O186" s="59"/>
+      <c r="P186" s="59"/>
     </row>
     <row r="187">
-      <c r="A187" s="44"/>
+      <c r="A187" s="57"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="59"/>
+      <c r="O187" s="59"/>
+      <c r="P187" s="59"/>
     </row>
     <row r="188">
-      <c r="A188" s="44"/>
+      <c r="A188" s="57"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="59"/>
+      <c r="O188" s="59"/>
+      <c r="P188" s="59"/>
     </row>
     <row r="189">
-      <c r="A189" s="44"/>
+      <c r="A189" s="57"/>
+      <c r="E189" s="58"/>
+      <c r="F189" s="59"/>
+      <c r="O189" s="59"/>
+      <c r="P189" s="59"/>
     </row>
     <row r="190">
-      <c r="A190" s="44"/>
+      <c r="A190" s="57"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="59"/>
+      <c r="O190" s="59"/>
+      <c r="P190" s="59"/>
     </row>
     <row r="191">
-      <c r="A191" s="44"/>
+      <c r="A191" s="57"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="59"/>
+      <c r="O191" s="59"/>
+      <c r="P191" s="59"/>
     </row>
     <row r="192">
-      <c r="A192" s="44"/>
+      <c r="A192" s="57"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="59"/>
+      <c r="O192" s="59"/>
+      <c r="P192" s="59"/>
     </row>
     <row r="193">
-      <c r="A193" s="44"/>
+      <c r="A193" s="57"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="59"/>
+      <c r="O193" s="59"/>
+      <c r="P193" s="59"/>
     </row>
     <row r="194">
-      <c r="A194" s="44"/>
+      <c r="A194" s="57"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="59"/>
+      <c r="O194" s="59"/>
+      <c r="P194" s="59"/>
     </row>
     <row r="195">
-      <c r="A195" s="44"/>
+      <c r="A195" s="57"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="59"/>
+      <c r="O195" s="59"/>
+      <c r="P195" s="59"/>
     </row>
     <row r="196">
-      <c r="A196" s="44"/>
+      <c r="A196" s="57"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="59"/>
+      <c r="O196" s="59"/>
+      <c r="P196" s="59"/>
     </row>
     <row r="197">
-      <c r="A197" s="44"/>
+      <c r="A197" s="57"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="59"/>
+      <c r="O197" s="59"/>
+      <c r="P197" s="59"/>
     </row>
     <row r="198">
-      <c r="A198" s="44"/>
+      <c r="A198" s="57"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="59"/>
+      <c r="O198" s="59"/>
+      <c r="P198" s="59"/>
     </row>
     <row r="199">
-      <c r="A199" s="44"/>
+      <c r="A199" s="57"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="59"/>
+      <c r="O199" s="59"/>
+      <c r="P199" s="59"/>
     </row>
     <row r="200">
-      <c r="A200" s="44"/>
+      <c r="A200" s="57"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="59"/>
+      <c r="O200" s="59"/>
+      <c r="P200" s="59"/>
     </row>
     <row r="201">
-      <c r="A201" s="44"/>
+      <c r="A201" s="57"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="59"/>
+      <c r="O201" s="59"/>
+      <c r="P201" s="59"/>
     </row>
     <row r="202">
-      <c r="A202" s="44"/>
+      <c r="A202" s="57"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="59"/>
+      <c r="O202" s="59"/>
+      <c r="P202" s="59"/>
     </row>
     <row r="203">
-      <c r="A203" s="44"/>
+      <c r="A203" s="57"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="59"/>
+      <c r="O203" s="59"/>
+      <c r="P203" s="59"/>
     </row>
     <row r="204">
-      <c r="A204" s="44"/>
+      <c r="A204" s="57"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="59"/>
+      <c r="O204" s="59"/>
+      <c r="P204" s="59"/>
     </row>
     <row r="205">
-      <c r="A205" s="44"/>
+      <c r="A205" s="57"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="59"/>
+      <c r="O205" s="59"/>
+      <c r="P205" s="59"/>
     </row>
     <row r="206">
-      <c r="A206" s="44"/>
+      <c r="A206" s="57"/>
+      <c r="E206" s="58"/>
+      <c r="F206" s="59"/>
+      <c r="O206" s="59"/>
+      <c r="P206" s="59"/>
     </row>
     <row r="207">
-      <c r="A207" s="44"/>
+      <c r="A207" s="57"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="59"/>
+      <c r="O207" s="59"/>
+      <c r="P207" s="59"/>
     </row>
     <row r="208">
-      <c r="A208" s="44"/>
+      <c r="A208" s="57"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="59"/>
+      <c r="O208" s="59"/>
+      <c r="P208" s="59"/>
     </row>
     <row r="209">
-      <c r="A209" s="44"/>
+      <c r="A209" s="57"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="59"/>
+      <c r="O209" s="59"/>
+      <c r="P209" s="59"/>
     </row>
     <row r="210">
-      <c r="A210" s="44"/>
+      <c r="A210" s="57"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="59"/>
+      <c r="O210" s="59"/>
+      <c r="P210" s="59"/>
     </row>
     <row r="211">
-      <c r="A211" s="44"/>
+      <c r="A211" s="57"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="59"/>
+      <c r="O211" s="59"/>
+      <c r="P211" s="59"/>
     </row>
     <row r="212">
-      <c r="A212" s="44"/>
+      <c r="A212" s="57"/>
+      <c r="E212" s="58"/>
+      <c r="F212" s="59"/>
+      <c r="O212" s="59"/>
+      <c r="P212" s="59"/>
     </row>
     <row r="213">
-      <c r="A213" s="44"/>
+      <c r="A213" s="57"/>
+      <c r="E213" s="58"/>
+      <c r="F213" s="59"/>
+      <c r="O213" s="59"/>
+      <c r="P213" s="59"/>
     </row>
     <row r="214">
-      <c r="A214" s="44"/>
+      <c r="A214" s="57"/>
+      <c r="E214" s="58"/>
+      <c r="F214" s="59"/>
+      <c r="O214" s="59"/>
+      <c r="P214" s="59"/>
     </row>
     <row r="215">
-      <c r="A215" s="44"/>
+      <c r="A215" s="57"/>
+      <c r="E215" s="58"/>
+      <c r="F215" s="59"/>
+      <c r="O215" s="59"/>
+      <c r="P215" s="59"/>
     </row>
     <row r="216">
-      <c r="A216" s="44"/>
+      <c r="A216" s="57"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="59"/>
+      <c r="O216" s="59"/>
+      <c r="P216" s="59"/>
     </row>
     <row r="217">
-      <c r="A217" s="44"/>
+      <c r="A217" s="57"/>
+      <c r="E217" s="58"/>
+      <c r="F217" s="59"/>
+      <c r="O217" s="59"/>
+      <c r="P217" s="59"/>
     </row>
     <row r="218">
-      <c r="A218" s="44"/>
+      <c r="A218" s="57"/>
+      <c r="E218" s="58"/>
+      <c r="F218" s="59"/>
+      <c r="O218" s="59"/>
+      <c r="P218" s="59"/>
     </row>
     <row r="219">
-      <c r="A219" s="44"/>
+      <c r="A219" s="57"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="59"/>
+      <c r="O219" s="59"/>
+      <c r="P219" s="59"/>
     </row>
     <row r="220">
-      <c r="A220" s="44"/>
+      <c r="A220" s="57"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="59"/>
+      <c r="O220" s="59"/>
+      <c r="P220" s="59"/>
     </row>
     <row r="221">
-      <c r="A221" s="44"/>
+      <c r="A221" s="57"/>
+      <c r="E221" s="58"/>
+      <c r="F221" s="59"/>
+      <c r="O221" s="59"/>
+      <c r="P221" s="59"/>
     </row>
     <row r="222">
-      <c r="A222" s="44"/>
+      <c r="A222" s="57"/>
+      <c r="E222" s="58"/>
+      <c r="F222" s="59"/>
+      <c r="O222" s="59"/>
+      <c r="P222" s="59"/>
     </row>
     <row r="223">
-      <c r="A223" s="44"/>
+      <c r="A223" s="57"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="59"/>
+      <c r="O223" s="59"/>
+      <c r="P223" s="59"/>
     </row>
     <row r="224">
-      <c r="A224" s="44"/>
+      <c r="A224" s="57"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="59"/>
+      <c r="O224" s="59"/>
+      <c r="P224" s="59"/>
     </row>
     <row r="225">
-      <c r="A225" s="44"/>
+      <c r="A225" s="57"/>
+      <c r="E225" s="58"/>
+      <c r="F225" s="59"/>
+      <c r="O225" s="59"/>
+      <c r="P225" s="59"/>
     </row>
     <row r="226">
-      <c r="A226" s="44"/>
+      <c r="A226" s="57"/>
+      <c r="E226" s="58"/>
+      <c r="F226" s="59"/>
+      <c r="O226" s="59"/>
+      <c r="P226" s="59"/>
     </row>
     <row r="227">
-      <c r="A227" s="44"/>
+      <c r="A227" s="57"/>
+      <c r="E227" s="58"/>
+      <c r="F227" s="59"/>
+      <c r="O227" s="59"/>
+      <c r="P227" s="59"/>
     </row>
     <row r="228">
-      <c r="A228" s="44"/>
+      <c r="A228" s="57"/>
+      <c r="E228" s="58"/>
+      <c r="F228" s="59"/>
+      <c r="O228" s="59"/>
+      <c r="P228" s="59"/>
     </row>
     <row r="229">
-      <c r="A229" s="44"/>
+      <c r="A229" s="57"/>
+      <c r="E229" s="58"/>
+      <c r="F229" s="59"/>
+      <c r="O229" s="59"/>
+      <c r="P229" s="59"/>
     </row>
     <row r="230">
-      <c r="A230" s="44"/>
+      <c r="A230" s="57"/>
+      <c r="E230" s="58"/>
+      <c r="F230" s="59"/>
+      <c r="O230" s="59"/>
+      <c r="P230" s="59"/>
     </row>
     <row r="231">
-      <c r="A231" s="44"/>
+      <c r="A231" s="57"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="59"/>
+      <c r="O231" s="59"/>
+      <c r="P231" s="59"/>
     </row>
     <row r="232">
-      <c r="A232" s="44"/>
+      <c r="A232" s="57"/>
+      <c r="E232" s="58"/>
+      <c r="F232" s="59"/>
+      <c r="O232" s="59"/>
+      <c r="P232" s="59"/>
     </row>
     <row r="233">
-      <c r="A233" s="44"/>
+      <c r="A233" s="57"/>
+      <c r="E233" s="58"/>
+      <c r="F233" s="59"/>
+      <c r="O233" s="59"/>
+      <c r="P233" s="59"/>
     </row>
     <row r="234">
-      <c r="A234" s="44"/>
+      <c r="A234" s="57"/>
+      <c r="E234" s="58"/>
+      <c r="F234" s="59"/>
+      <c r="O234" s="59"/>
+      <c r="P234" s="59"/>
     </row>
     <row r="235">
-      <c r="A235" s="44"/>
+      <c r="A235" s="57"/>
+      <c r="E235" s="58"/>
+      <c r="F235" s="59"/>
+      <c r="O235" s="59"/>
+      <c r="P235" s="59"/>
     </row>
     <row r="236">
-      <c r="A236" s="44"/>
+      <c r="A236" s="57"/>
+      <c r="E236" s="58"/>
+      <c r="F236" s="59"/>
+      <c r="O236" s="59"/>
+      <c r="P236" s="59"/>
     </row>
     <row r="237">
-      <c r="A237" s="44"/>
+      <c r="A237" s="57"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="59"/>
+      <c r="O237" s="59"/>
+      <c r="P237" s="59"/>
     </row>
     <row r="238">
-      <c r="A238" s="44"/>
+      <c r="A238" s="57"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="59"/>
+      <c r="O238" s="59"/>
+      <c r="P238" s="59"/>
     </row>
     <row r="239">
-      <c r="A239" s="44"/>
+      <c r="A239" s="57"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="O239" s="59"/>
+      <c r="P239" s="59"/>
     </row>
     <row r="240">
-      <c r="A240" s="44"/>
+      <c r="A240" s="57"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="59"/>
+      <c r="O240" s="59"/>
+      <c r="P240" s="59"/>
     </row>
     <row r="241">
-      <c r="A241" s="44"/>
+      <c r="A241" s="57"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="59"/>
+      <c r="O241" s="59"/>
+      <c r="P241" s="59"/>
     </row>
     <row r="242">
-      <c r="A242" s="44"/>
+      <c r="A242" s="57"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="59"/>
+      <c r="O242" s="59"/>
+      <c r="P242" s="59"/>
     </row>
     <row r="243">
-      <c r="A243" s="44"/>
+      <c r="A243" s="57"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="59"/>
+      <c r="O243" s="59"/>
+      <c r="P243" s="59"/>
     </row>
     <row r="244">
-      <c r="A244" s="44"/>
+      <c r="A244" s="57"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="59"/>
+      <c r="O244" s="59"/>
+      <c r="P244" s="59"/>
     </row>
     <row r="245">
-      <c r="A245" s="44"/>
+      <c r="A245" s="57"/>
+      <c r="E245" s="58"/>
+      <c r="F245" s="59"/>
+      <c r="O245" s="59"/>
+      <c r="P245" s="59"/>
     </row>
     <row r="246">
-      <c r="A246" s="44"/>
+      <c r="A246" s="57"/>
+      <c r="E246" s="58"/>
+      <c r="F246" s="59"/>
+      <c r="O246" s="59"/>
+      <c r="P246" s="59"/>
     </row>
     <row r="247">
-      <c r="A247" s="44"/>
+      <c r="A247" s="57"/>
+      <c r="E247" s="58"/>
+      <c r="F247" s="59"/>
+      <c r="O247" s="59"/>
+      <c r="P247" s="59"/>
     </row>
     <row r="248">
-      <c r="A248" s="44"/>
+      <c r="A248" s="57"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="59"/>
+      <c r="O248" s="59"/>
+      <c r="P248" s="59"/>
     </row>
     <row r="249">
-      <c r="A249" s="44"/>
+      <c r="A249" s="57"/>
+      <c r="E249" s="58"/>
+      <c r="F249" s="59"/>
+      <c r="O249" s="59"/>
+      <c r="P249" s="59"/>
     </row>
     <row r="250">
-      <c r="A250" s="44"/>
+      <c r="A250" s="57"/>
+      <c r="E250" s="58"/>
+      <c r="F250" s="59"/>
+      <c r="O250" s="59"/>
+      <c r="P250" s="59"/>
     </row>
     <row r="251">
-      <c r="A251" s="44"/>
+      <c r="A251" s="57"/>
+      <c r="E251" s="58"/>
+      <c r="F251" s="59"/>
+      <c r="O251" s="59"/>
+      <c r="P251" s="59"/>
     </row>
     <row r="252">
-      <c r="A252" s="44"/>
+      <c r="A252" s="57"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="59"/>
+      <c r="O252" s="59"/>
+      <c r="P252" s="59"/>
     </row>
     <row r="253">
-      <c r="A253" s="44"/>
+      <c r="A253" s="57"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="59"/>
+      <c r="O253" s="59"/>
+      <c r="P253" s="59"/>
     </row>
     <row r="254">
-      <c r="A254" s="44"/>
+      <c r="A254" s="57"/>
+      <c r="E254" s="58"/>
+      <c r="F254" s="59"/>
+      <c r="O254" s="59"/>
+      <c r="P254" s="59"/>
     </row>
     <row r="255">
-      <c r="A255" s="44"/>
+      <c r="A255" s="57"/>
+      <c r="E255" s="58"/>
+      <c r="F255" s="59"/>
+      <c r="O255" s="59"/>
+      <c r="P255" s="59"/>
     </row>
     <row r="256">
-      <c r="A256" s="44"/>
+      <c r="A256" s="57"/>
+      <c r="E256" s="58"/>
+      <c r="F256" s="59"/>
+      <c r="O256" s="59"/>
+      <c r="P256" s="59"/>
     </row>
     <row r="257">
-      <c r="A257" s="44"/>
+      <c r="A257" s="57"/>
+      <c r="E257" s="58"/>
+      <c r="F257" s="59"/>
+      <c r="O257" s="59"/>
+      <c r="P257" s="59"/>
     </row>
     <row r="258">
-      <c r="A258" s="44"/>
+      <c r="A258" s="57"/>
+      <c r="E258" s="58"/>
+      <c r="F258" s="59"/>
+      <c r="O258" s="59"/>
+      <c r="P258" s="59"/>
     </row>
     <row r="259">
-      <c r="A259" s="44"/>
+      <c r="A259" s="57"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="59"/>
+      <c r="O259" s="59"/>
+      <c r="P259" s="59"/>
     </row>
     <row r="260">
-      <c r="A260" s="44"/>
+      <c r="A260" s="57"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="59"/>
+      <c r="O260" s="59"/>
+      <c r="P260" s="59"/>
     </row>
     <row r="261">
-      <c r="A261" s="44"/>
+      <c r="A261" s="57"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="59"/>
+      <c r="O261" s="59"/>
+      <c r="P261" s="59"/>
     </row>
     <row r="262">
-      <c r="A262" s="44"/>
+      <c r="A262" s="57"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="59"/>
+      <c r="O262" s="59"/>
+      <c r="P262" s="59"/>
     </row>
     <row r="263">
-      <c r="A263" s="44"/>
+      <c r="A263" s="57"/>
+      <c r="E263" s="58"/>
+      <c r="F263" s="59"/>
+      <c r="O263" s="59"/>
+      <c r="P263" s="59"/>
     </row>
     <row r="264">
-      <c r="A264" s="44"/>
+      <c r="A264" s="57"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="59"/>
+      <c r="O264" s="59"/>
+      <c r="P264" s="59"/>
     </row>
     <row r="265">
-      <c r="A265" s="44"/>
+      <c r="A265" s="57"/>
+      <c r="E265" s="58"/>
+      <c r="F265" s="59"/>
+      <c r="O265" s="59"/>
+      <c r="P265" s="59"/>
     </row>
     <row r="266">
-      <c r="A266" s="44"/>
+      <c r="A266" s="57"/>
+      <c r="E266" s="58"/>
+      <c r="F266" s="59"/>
+      <c r="O266" s="59"/>
+      <c r="P266" s="59"/>
     </row>
     <row r="267">
-      <c r="A267" s="44"/>
+      <c r="A267" s="57"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="59"/>
+      <c r="O267" s="59"/>
+      <c r="P267" s="59"/>
     </row>
     <row r="268">
-      <c r="A268" s="44"/>
+      <c r="A268" s="57"/>
+      <c r="E268" s="58"/>
+      <c r="F268" s="59"/>
+      <c r="O268" s="59"/>
+      <c r="P268" s="59"/>
     </row>
     <row r="269">
-      <c r="A269" s="44"/>
+      <c r="A269" s="57"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="59"/>
+      <c r="O269" s="59"/>
+      <c r="P269" s="59"/>
     </row>
     <row r="270">
-      <c r="A270" s="44"/>
+      <c r="A270" s="57"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="59"/>
+      <c r="O270" s="59"/>
+      <c r="P270" s="59"/>
     </row>
     <row r="271">
-      <c r="A271" s="44"/>
+      <c r="A271" s="57"/>
+      <c r="E271" s="58"/>
+      <c r="F271" s="59"/>
+      <c r="O271" s="59"/>
+      <c r="P271" s="59"/>
     </row>
     <row r="272">
-      <c r="A272" s="44"/>
+      <c r="A272" s="57"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="59"/>
+      <c r="O272" s="59"/>
+      <c r="P272" s="59"/>
     </row>
     <row r="273">
-      <c r="A273" s="44"/>
+      <c r="A273" s="57"/>
+      <c r="E273" s="58"/>
+      <c r="F273" s="59"/>
+      <c r="O273" s="59"/>
+      <c r="P273" s="59"/>
     </row>
     <row r="274">
-      <c r="A274" s="44"/>
+      <c r="A274" s="57"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="59"/>
+      <c r="O274" s="59"/>
+      <c r="P274" s="59"/>
     </row>
     <row r="275">
-      <c r="A275" s="44"/>
+      <c r="A275" s="57"/>
+      <c r="E275" s="58"/>
+      <c r="F275" s="59"/>
+      <c r="O275" s="59"/>
+      <c r="P275" s="59"/>
     </row>
     <row r="276">
-      <c r="A276" s="44"/>
+      <c r="A276" s="57"/>
+      <c r="E276" s="58"/>
+      <c r="F276" s="59"/>
+      <c r="O276" s="59"/>
+      <c r="P276" s="59"/>
     </row>
     <row r="277">
-      <c r="A277" s="44"/>
+      <c r="A277" s="57"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="59"/>
+      <c r="O277" s="59"/>
+      <c r="P277" s="59"/>
     </row>
     <row r="278">
-      <c r="A278" s="44"/>
+      <c r="A278" s="57"/>
+      <c r="E278" s="58"/>
+      <c r="F278" s="59"/>
+      <c r="O278" s="59"/>
+      <c r="P278" s="59"/>
     </row>
     <row r="279">
-      <c r="A279" s="44"/>
+      <c r="A279" s="57"/>
+      <c r="E279" s="58"/>
+      <c r="F279" s="59"/>
+      <c r="O279" s="59"/>
+      <c r="P279" s="59"/>
     </row>
     <row r="280">
-      <c r="A280" s="44"/>
+      <c r="A280" s="57"/>
+      <c r="E280" s="58"/>
+      <c r="F280" s="59"/>
+      <c r="O280" s="59"/>
+      <c r="P280" s="59"/>
     </row>
     <row r="281">
-      <c r="A281" s="44"/>
+      <c r="A281" s="57"/>
+      <c r="E281" s="58"/>
+      <c r="F281" s="59"/>
+      <c r="O281" s="59"/>
+      <c r="P281" s="59"/>
     </row>
     <row r="282">
-      <c r="A282" s="44"/>
+      <c r="A282" s="57"/>
+      <c r="E282" s="58"/>
+      <c r="F282" s="59"/>
+      <c r="O282" s="59"/>
+      <c r="P282" s="59"/>
     </row>
     <row r="283">
-      <c r="A283" s="44"/>
+      <c r="A283" s="57"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="59"/>
+      <c r="O283" s="59"/>
+      <c r="P283" s="59"/>
     </row>
     <row r="284">
-      <c r="A284" s="44"/>
+      <c r="A284" s="57"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="59"/>
+      <c r="O284" s="59"/>
+      <c r="P284" s="59"/>
     </row>
     <row r="285">
-      <c r="A285" s="44"/>
+      <c r="A285" s="57"/>
+      <c r="E285" s="58"/>
+      <c r="F285" s="59"/>
+      <c r="O285" s="59"/>
+      <c r="P285" s="59"/>
     </row>
     <row r="286">
-      <c r="A286" s="44"/>
+      <c r="A286" s="57"/>
+      <c r="E286" s="58"/>
+      <c r="F286" s="59"/>
+      <c r="O286" s="59"/>
+      <c r="P286" s="59"/>
     </row>
     <row r="287">
-      <c r="A287" s="44"/>
+      <c r="A287" s="57"/>
+      <c r="E287" s="58"/>
+      <c r="F287" s="59"/>
+      <c r="O287" s="59"/>
+      <c r="P287" s="59"/>
     </row>
     <row r="288">
-      <c r="A288" s="44"/>
+      <c r="A288" s="57"/>
+      <c r="E288" s="58"/>
+      <c r="F288" s="59"/>
+      <c r="O288" s="59"/>
+      <c r="P288" s="59"/>
     </row>
     <row r="289">
-      <c r="A289" s="44"/>
+      <c r="A289" s="57"/>
+      <c r="E289" s="58"/>
+      <c r="F289" s="59"/>
+      <c r="O289" s="59"/>
+      <c r="P289" s="59"/>
     </row>
     <row r="290">
-      <c r="A290" s="44"/>
+      <c r="A290" s="57"/>
+      <c r="E290" s="58"/>
+      <c r="F290" s="59"/>
+      <c r="O290" s="59"/>
+      <c r="P290" s="59"/>
     </row>
     <row r="291">
-      <c r="A291" s="44"/>
+      <c r="A291" s="57"/>
+      <c r="E291" s="58"/>
+      <c r="F291" s="59"/>
+      <c r="O291" s="59"/>
+      <c r="P291" s="59"/>
     </row>
     <row r="292">
-      <c r="A292" s="44"/>
+      <c r="A292" s="57"/>
+      <c r="E292" s="58"/>
+      <c r="F292" s="59"/>
+      <c r="O292" s="59"/>
+      <c r="P292" s="59"/>
     </row>
     <row r="293">
-      <c r="A293" s="44"/>
+      <c r="A293" s="57"/>
+      <c r="E293" s="58"/>
+      <c r="F293" s="59"/>
+      <c r="O293" s="59"/>
+      <c r="P293" s="59"/>
     </row>
     <row r="294">
-      <c r="A294" s="44"/>
+      <c r="A294" s="57"/>
+      <c r="E294" s="58"/>
+      <c r="F294" s="59"/>
+      <c r="O294" s="59"/>
+      <c r="P294" s="59"/>
     </row>
     <row r="295">
-      <c r="A295" s="44"/>
+      <c r="A295" s="57"/>
+      <c r="E295" s="58"/>
+      <c r="F295" s="59"/>
+      <c r="O295" s="59"/>
+      <c r="P295" s="59"/>
     </row>
     <row r="296">
-      <c r="A296" s="44"/>
+      <c r="A296" s="57"/>
+      <c r="E296" s="58"/>
+      <c r="F296" s="59"/>
+      <c r="O296" s="59"/>
+      <c r="P296" s="59"/>
     </row>
     <row r="297">
-      <c r="A297" s="44"/>
+      <c r="A297" s="57"/>
+      <c r="E297" s="58"/>
+      <c r="F297" s="59"/>
+      <c r="O297" s="59"/>
+      <c r="P297" s="59"/>
     </row>
     <row r="298">
-      <c r="A298" s="44"/>
+      <c r="A298" s="57"/>
+      <c r="E298" s="58"/>
+      <c r="F298" s="59"/>
+      <c r="O298" s="59"/>
+      <c r="P298" s="59"/>
     </row>
     <row r="299">
-      <c r="A299" s="44"/>
+      <c r="A299" s="57"/>
+      <c r="E299" s="58"/>
+      <c r="F299" s="59"/>
+      <c r="O299" s="59"/>
+      <c r="P299" s="59"/>
     </row>
     <row r="300">
-      <c r="A300" s="44"/>
+      <c r="A300" s="57"/>
+      <c r="E300" s="58"/>
+      <c r="F300" s="59"/>
+      <c r="O300" s="59"/>
+      <c r="P300" s="59"/>
     </row>
     <row r="301">
-      <c r="A301" s="44"/>
+      <c r="A301" s="57"/>
+      <c r="E301" s="58"/>
+      <c r="F301" s="59"/>
+      <c r="O301" s="59"/>
+      <c r="P301" s="59"/>
     </row>
     <row r="302">
-      <c r="A302" s="44"/>
+      <c r="A302" s="57"/>
+      <c r="E302" s="58"/>
+      <c r="F302" s="59"/>
+      <c r="O302" s="59"/>
+      <c r="P302" s="59"/>
     </row>
     <row r="303">
-      <c r="A303" s="44"/>
+      <c r="A303" s="57"/>
+      <c r="E303" s="58"/>
+      <c r="F303" s="59"/>
+      <c r="O303" s="59"/>
+      <c r="P303" s="59"/>
     </row>
     <row r="304">
-      <c r="A304" s="44"/>
+      <c r="A304" s="57"/>
+      <c r="E304" s="58"/>
+      <c r="F304" s="59"/>
+      <c r="O304" s="59"/>
+      <c r="P304" s="59"/>
     </row>
     <row r="305">
-      <c r="A305" s="44"/>
+      <c r="A305" s="57"/>
+      <c r="E305" s="58"/>
+      <c r="F305" s="59"/>
+      <c r="O305" s="59"/>
+      <c r="P305" s="59"/>
     </row>
     <row r="306">
-      <c r="A306" s="44"/>
+      <c r="A306" s="57"/>
+      <c r="E306" s="58"/>
+      <c r="F306" s="59"/>
+      <c r="O306" s="59"/>
+      <c r="P306" s="59"/>
     </row>
     <row r="307">
-      <c r="A307" s="44"/>
+      <c r="A307" s="57"/>
+      <c r="E307" s="58"/>
+      <c r="F307" s="59"/>
+      <c r="O307" s="59"/>
+      <c r="P307" s="59"/>
     </row>
     <row r="308">
-      <c r="A308" s="44"/>
+      <c r="A308" s="57"/>
+      <c r="E308" s="58"/>
+      <c r="F308" s="59"/>
+      <c r="O308" s="59"/>
+      <c r="P308" s="59"/>
     </row>
     <row r="309">
-      <c r="A309" s="44"/>
+      <c r="A309" s="57"/>
+      <c r="E309" s="58"/>
+      <c r="F309" s="59"/>
+      <c r="O309" s="59"/>
+      <c r="P309" s="59"/>
     </row>
     <row r="310">
-      <c r="A310" s="44"/>
+      <c r="A310" s="57"/>
+      <c r="E310" s="58"/>
+      <c r="F310" s="59"/>
+      <c r="O310" s="59"/>
+      <c r="P310" s="59"/>
     </row>
     <row r="311">
-      <c r="A311" s="44"/>
+      <c r="A311" s="57"/>
+      <c r="E311" s="58"/>
+      <c r="F311" s="59"/>
+      <c r="O311" s="59"/>
+      <c r="P311" s="59"/>
     </row>
     <row r="312">
-      <c r="A312" s="44"/>
+      <c r="A312" s="57"/>
+      <c r="E312" s="58"/>
+      <c r="F312" s="59"/>
+      <c r="O312" s="59"/>
+      <c r="P312" s="59"/>
     </row>
     <row r="313">
-      <c r="A313" s="44"/>
+      <c r="A313" s="57"/>
+      <c r="E313" s="58"/>
+      <c r="F313" s="59"/>
+      <c r="O313" s="59"/>
+      <c r="P313" s="59"/>
     </row>
     <row r="314">
-      <c r="A314" s="44"/>
+      <c r="A314" s="57"/>
+      <c r="E314" s="58"/>
+      <c r="F314" s="59"/>
+      <c r="O314" s="59"/>
+      <c r="P314" s="59"/>
     </row>
     <row r="315">
-      <c r="A315" s="44"/>
+      <c r="A315" s="57"/>
+      <c r="E315" s="58"/>
+      <c r="F315" s="59"/>
+      <c r="O315" s="59"/>
+      <c r="P315" s="59"/>
     </row>
     <row r="316">
-      <c r="A316" s="44"/>
+      <c r="A316" s="57"/>
+      <c r="E316" s="58"/>
+      <c r="F316" s="59"/>
+      <c r="O316" s="59"/>
+      <c r="P316" s="59"/>
     </row>
     <row r="317">
-      <c r="A317" s="44"/>
+      <c r="A317" s="57"/>
+      <c r="E317" s="58"/>
+      <c r="F317" s="59"/>
+      <c r="O317" s="59"/>
+      <c r="P317" s="59"/>
     </row>
     <row r="318">
-      <c r="A318" s="44"/>
+      <c r="A318" s="57"/>
+      <c r="E318" s="58"/>
+      <c r="F318" s="59"/>
+      <c r="O318" s="59"/>
+      <c r="P318" s="59"/>
     </row>
     <row r="319">
-      <c r="A319" s="44"/>
+      <c r="A319" s="57"/>
+      <c r="E319" s="58"/>
+      <c r="F319" s="59"/>
+      <c r="O319" s="59"/>
+      <c r="P319" s="59"/>
     </row>
     <row r="320">
-      <c r="A320" s="44"/>
+      <c r="A320" s="57"/>
+      <c r="E320" s="58"/>
+      <c r="F320" s="59"/>
+      <c r="O320" s="59"/>
+      <c r="P320" s="59"/>
     </row>
     <row r="321">
-      <c r="A321" s="44"/>
+      <c r="A321" s="57"/>
+      <c r="E321" s="58"/>
+      <c r="F321" s="59"/>
+      <c r="O321" s="59"/>
+      <c r="P321" s="59"/>
     </row>
     <row r="322">
-      <c r="A322" s="44"/>
+      <c r="A322" s="57"/>
+      <c r="E322" s="58"/>
+      <c r="F322" s="59"/>
+      <c r="O322" s="59"/>
+      <c r="P322" s="59"/>
     </row>
     <row r="323">
-      <c r="A323" s="44"/>
+      <c r="A323" s="57"/>
+      <c r="E323" s="58"/>
+      <c r="F323" s="59"/>
+      <c r="O323" s="59"/>
+      <c r="P323" s="59"/>
     </row>
     <row r="324">
-      <c r="A324" s="44"/>
+      <c r="A324" s="57"/>
+      <c r="E324" s="58"/>
+      <c r="F324" s="59"/>
+      <c r="O324" s="59"/>
+      <c r="P324" s="59"/>
     </row>
     <row r="325">
-      <c r="A325" s="44"/>
+      <c r="A325" s="57"/>
+      <c r="E325" s="58"/>
+      <c r="F325" s="59"/>
+      <c r="O325" s="59"/>
+      <c r="P325" s="59"/>
     </row>
     <row r="326">
-      <c r="A326" s="44"/>
+      <c r="A326" s="57"/>
+      <c r="E326" s="58"/>
+      <c r="F326" s="59"/>
+      <c r="O326" s="59"/>
+      <c r="P326" s="59"/>
     </row>
     <row r="327">
-      <c r="A327" s="44"/>
+      <c r="A327" s="57"/>
+      <c r="E327" s="58"/>
+      <c r="F327" s="59"/>
+      <c r="O327" s="59"/>
+      <c r="P327" s="59"/>
     </row>
     <row r="328">
-      <c r="A328" s="44"/>
+      <c r="A328" s="57"/>
+      <c r="E328" s="58"/>
+      <c r="F328" s="59"/>
+      <c r="O328" s="59"/>
+      <c r="P328" s="59"/>
     </row>
     <row r="329">
-      <c r="A329" s="44"/>
+      <c r="A329" s="57"/>
+      <c r="E329" s="58"/>
+      <c r="F329" s="59"/>
+      <c r="O329" s="59"/>
+      <c r="P329" s="59"/>
     </row>
     <row r="330">
-      <c r="A330" s="44"/>
+      <c r="A330" s="57"/>
+      <c r="E330" s="58"/>
+      <c r="F330" s="59"/>
+      <c r="O330" s="59"/>
+      <c r="P330" s="59"/>
     </row>
     <row r="331">
-      <c r="A331" s="44"/>
+      <c r="A331" s="57"/>
+      <c r="E331" s="58"/>
+      <c r="F331" s="59"/>
+      <c r="O331" s="59"/>
+      <c r="P331" s="59"/>
     </row>
     <row r="332">
-      <c r="A332" s="44"/>
+      <c r="A332" s="57"/>
+      <c r="E332" s="58"/>
+      <c r="F332" s="59"/>
+      <c r="O332" s="59"/>
+      <c r="P332" s="59"/>
     </row>
     <row r="333">
-      <c r="A333" s="44"/>
+      <c r="A333" s="57"/>
+      <c r="E333" s="58"/>
+      <c r="F333" s="59"/>
+      <c r="O333" s="59"/>
+      <c r="P333" s="59"/>
     </row>
     <row r="334">
-      <c r="A334" s="44"/>
+      <c r="A334" s="57"/>
+      <c r="E334" s="58"/>
+      <c r="F334" s="59"/>
+      <c r="O334" s="59"/>
+      <c r="P334" s="59"/>
     </row>
     <row r="335">
-      <c r="A335" s="44"/>
+      <c r="A335" s="57"/>
+      <c r="E335" s="58"/>
+      <c r="F335" s="59"/>
+      <c r="O335" s="59"/>
+      <c r="P335" s="59"/>
     </row>
     <row r="336">
-      <c r="A336" s="44"/>
+      <c r="A336" s="57"/>
+      <c r="E336" s="58"/>
+      <c r="F336" s="59"/>
+      <c r="O336" s="59"/>
+      <c r="P336" s="59"/>
     </row>
     <row r="337">
-      <c r="A337" s="44"/>
+      <c r="A337" s="57"/>
+      <c r="E337" s="58"/>
+      <c r="F337" s="59"/>
+      <c r="O337" s="59"/>
+      <c r="P337" s="59"/>
     </row>
     <row r="338">
-      <c r="A338" s="44"/>
+      <c r="A338" s="57"/>
+      <c r="E338" s="58"/>
+      <c r="F338" s="59"/>
+      <c r="O338" s="59"/>
+      <c r="P338" s="59"/>
     </row>
     <row r="339">
-      <c r="A339" s="44"/>
+      <c r="A339" s="57"/>
+      <c r="E339" s="58"/>
+      <c r="F339" s="59"/>
+      <c r="O339" s="59"/>
+      <c r="P339" s="59"/>
     </row>
     <row r="340">
-      <c r="A340" s="44"/>
+      <c r="A340" s="57"/>
+      <c r="E340" s="58"/>
+      <c r="F340" s="59"/>
+      <c r="O340" s="59"/>
+      <c r="P340" s="59"/>
     </row>
     <row r="341">
-      <c r="A341" s="44"/>
+      <c r="A341" s="57"/>
+      <c r="E341" s="58"/>
+      <c r="F341" s="59"/>
+      <c r="O341" s="59"/>
+      <c r="P341" s="59"/>
     </row>
     <row r="342">
-      <c r="A342" s="44"/>
+      <c r="A342" s="57"/>
+      <c r="E342" s="58"/>
+      <c r="F342" s="59"/>
+      <c r="O342" s="59"/>
+      <c r="P342" s="59"/>
     </row>
     <row r="343">
-      <c r="A343" s="44"/>
+      <c r="A343" s="57"/>
+      <c r="E343" s="58"/>
+      <c r="F343" s="59"/>
+      <c r="O343" s="59"/>
+      <c r="P343" s="59"/>
     </row>
     <row r="344">
-      <c r="A344" s="44"/>
+      <c r="A344" s="57"/>
+      <c r="E344" s="58"/>
+      <c r="F344" s="59"/>
+      <c r="O344" s="59"/>
+      <c r="P344" s="59"/>
     </row>
     <row r="345">
-      <c r="A345" s="44"/>
+      <c r="A345" s="57"/>
+      <c r="E345" s="58"/>
+      <c r="F345" s="59"/>
+      <c r="O345" s="59"/>
+      <c r="P345" s="59"/>
     </row>
     <row r="346">
-      <c r="A346" s="44"/>
+      <c r="A346" s="57"/>
+      <c r="E346" s="58"/>
+      <c r="F346" s="59"/>
+      <c r="O346" s="59"/>
+      <c r="P346" s="59"/>
     </row>
     <row r="347">
-      <c r="A347" s="44"/>
+      <c r="A347" s="57"/>
+      <c r="E347" s="58"/>
+      <c r="F347" s="59"/>
+      <c r="O347" s="59"/>
+      <c r="P347" s="59"/>
     </row>
     <row r="348">
-      <c r="A348" s="44"/>
+      <c r="A348" s="57"/>
+      <c r="E348" s="58"/>
+      <c r="F348" s="59"/>
+      <c r="O348" s="59"/>
+      <c r="P348" s="59"/>
     </row>
     <row r="349">
-      <c r="A349" s="44"/>
+      <c r="A349" s="57"/>
+      <c r="E349" s="58"/>
+      <c r="F349" s="59"/>
+      <c r="O349" s="59"/>
+      <c r="P349" s="59"/>
     </row>
     <row r="350">
-      <c r="A350" s="44"/>
+      <c r="A350" s="57"/>
+      <c r="E350" s="58"/>
+      <c r="F350" s="59"/>
+      <c r="O350" s="59"/>
+      <c r="P350" s="59"/>
     </row>
     <row r="351">
-      <c r="A351" s="44"/>
+      <c r="A351" s="57"/>
+      <c r="E351" s="58"/>
+      <c r="F351" s="59"/>
+      <c r="O351" s="59"/>
+      <c r="P351" s="59"/>
     </row>
     <row r="352">
-      <c r="A352" s="44"/>
+      <c r="A352" s="57"/>
+      <c r="E352" s="58"/>
+      <c r="F352" s="59"/>
+      <c r="O352" s="59"/>
+      <c r="P352" s="59"/>
     </row>
     <row r="353">
-      <c r="A353" s="44"/>
+      <c r="A353" s="57"/>
+      <c r="E353" s="58"/>
+      <c r="F353" s="59"/>
+      <c r="O353" s="59"/>
+      <c r="P353" s="59"/>
     </row>
     <row r="354">
-      <c r="A354" s="44"/>
+      <c r="A354" s="57"/>
+      <c r="E354" s="58"/>
+      <c r="F354" s="59"/>
+      <c r="O354" s="59"/>
+      <c r="P354" s="59"/>
     </row>
     <row r="355">
-      <c r="A355" s="44"/>
+      <c r="A355" s="57"/>
+      <c r="E355" s="58"/>
+      <c r="F355" s="59"/>
+      <c r="O355" s="59"/>
+      <c r="P355" s="59"/>
     </row>
     <row r="356">
-      <c r="A356" s="44"/>
+      <c r="A356" s="57"/>
+      <c r="E356" s="58"/>
+      <c r="F356" s="59"/>
+      <c r="O356" s="59"/>
+      <c r="P356" s="59"/>
     </row>
     <row r="357">
-      <c r="A357" s="44"/>
+      <c r="A357" s="57"/>
+      <c r="E357" s="58"/>
+      <c r="F357" s="59"/>
+      <c r="O357" s="59"/>
+      <c r="P357" s="59"/>
     </row>
     <row r="358">
-      <c r="A358" s="44"/>
+      <c r="A358" s="57"/>
+      <c r="E358" s="58"/>
+      <c r="F358" s="59"/>
+      <c r="O358" s="59"/>
+      <c r="P358" s="59"/>
     </row>
     <row r="359">
-      <c r="A359" s="44"/>
+      <c r="A359" s="57"/>
+      <c r="E359" s="58"/>
+      <c r="F359" s="59"/>
+      <c r="O359" s="59"/>
+      <c r="P359" s="59"/>
     </row>
     <row r="360">
-      <c r="A360" s="44"/>
+      <c r="A360" s="57"/>
+      <c r="E360" s="58"/>
+      <c r="F360" s="59"/>
+      <c r="O360" s="59"/>
+      <c r="P360" s="59"/>
     </row>
     <row r="361">
-      <c r="A361" s="44"/>
+      <c r="A361" s="57"/>
+      <c r="E361" s="58"/>
+      <c r="F361" s="59"/>
+      <c r="O361" s="59"/>
+      <c r="P361" s="59"/>
     </row>
     <row r="362">
-      <c r="A362" s="44"/>
+      <c r="A362" s="57"/>
+      <c r="E362" s="58"/>
+      <c r="F362" s="59"/>
+      <c r="O362" s="59"/>
+      <c r="P362" s="59"/>
     </row>
     <row r="363">
-      <c r="A363" s="44"/>
+      <c r="A363" s="57"/>
+      <c r="E363" s="58"/>
+      <c r="F363" s="59"/>
+      <c r="O363" s="59"/>
+      <c r="P363" s="59"/>
     </row>
     <row r="364">
-      <c r="A364" s="44"/>
+      <c r="A364" s="57"/>
+      <c r="E364" s="58"/>
+      <c r="F364" s="59"/>
+      <c r="O364" s="59"/>
+      <c r="P364" s="59"/>
     </row>
     <row r="365">
-      <c r="A365" s="44"/>
+      <c r="A365" s="57"/>
+      <c r="E365" s="58"/>
+      <c r="F365" s="59"/>
+      <c r="O365" s="59"/>
+      <c r="P365" s="59"/>
     </row>
     <row r="366">
-      <c r="A366" s="44"/>
+      <c r="A366" s="57"/>
+      <c r="E366" s="58"/>
+      <c r="F366" s="59"/>
+      <c r="O366" s="59"/>
+      <c r="P366" s="59"/>
     </row>
     <row r="367">
-      <c r="A367" s="44"/>
+      <c r="A367" s="57"/>
+      <c r="E367" s="58"/>
+      <c r="F367" s="59"/>
+      <c r="O367" s="59"/>
+      <c r="P367" s="59"/>
     </row>
     <row r="368">
-      <c r="A368" s="44"/>
+      <c r="A368" s="57"/>
+      <c r="E368" s="58"/>
+      <c r="F368" s="59"/>
+      <c r="O368" s="59"/>
+      <c r="P368" s="59"/>
     </row>
     <row r="369">
-      <c r="A369" s="44"/>
+      <c r="A369" s="57"/>
+      <c r="E369" s="58"/>
+      <c r="F369" s="59"/>
+      <c r="O369" s="59"/>
+      <c r="P369" s="59"/>
     </row>
     <row r="370">
-      <c r="A370" s="44"/>
+      <c r="A370" s="57"/>
+      <c r="E370" s="58"/>
+      <c r="F370" s="59"/>
+      <c r="O370" s="59"/>
+      <c r="P370" s="59"/>
     </row>
     <row r="371">
-      <c r="A371" s="44"/>
+      <c r="A371" s="57"/>
+      <c r="E371" s="58"/>
+      <c r="F371" s="59"/>
+      <c r="O371" s="59"/>
+      <c r="P371" s="59"/>
     </row>
     <row r="372">
-      <c r="A372" s="44"/>
+      <c r="A372" s="57"/>
+      <c r="E372" s="58"/>
+      <c r="F372" s="59"/>
+      <c r="O372" s="59"/>
+      <c r="P372" s="59"/>
     </row>
     <row r="373">
-      <c r="A373" s="44"/>
+      <c r="A373" s="57"/>
+      <c r="E373" s="58"/>
+      <c r="F373" s="59"/>
+      <c r="O373" s="59"/>
+      <c r="P373" s="59"/>
     </row>
     <row r="374">
-      <c r="A374" s="44"/>
+      <c r="A374" s="57"/>
+      <c r="E374" s="58"/>
+      <c r="F374" s="59"/>
+      <c r="O374" s="59"/>
+      <c r="P374" s="59"/>
     </row>
     <row r="375">
-      <c r="A375" s="44"/>
+      <c r="A375" s="57"/>
+      <c r="E375" s="58"/>
+      <c r="F375" s="59"/>
+      <c r="O375" s="59"/>
+      <c r="P375" s="59"/>
     </row>
     <row r="376">
-      <c r="A376" s="44"/>
+      <c r="A376" s="57"/>
+      <c r="E376" s="58"/>
+      <c r="F376" s="59"/>
+      <c r="O376" s="59"/>
+      <c r="P376" s="59"/>
     </row>
     <row r="377">
-      <c r="A377" s="44"/>
+      <c r="A377" s="57"/>
+      <c r="E377" s="58"/>
+      <c r="F377" s="59"/>
+      <c r="O377" s="59"/>
+      <c r="P377" s="59"/>
     </row>
     <row r="378">
-      <c r="A378" s="44"/>
+      <c r="A378" s="57"/>
+      <c r="E378" s="58"/>
+      <c r="F378" s="59"/>
+      <c r="O378" s="59"/>
+      <c r="P378" s="59"/>
     </row>
     <row r="379">
-      <c r="A379" s="44"/>
+      <c r="A379" s="57"/>
+      <c r="E379" s="58"/>
+      <c r="F379" s="59"/>
+      <c r="O379" s="59"/>
+      <c r="P379" s="59"/>
     </row>
     <row r="380">
-      <c r="A380" s="44"/>
+      <c r="A380" s="57"/>
+      <c r="E380" s="58"/>
+      <c r="F380" s="59"/>
+      <c r="O380" s="59"/>
+      <c r="P380" s="59"/>
     </row>
     <row r="381">
-      <c r="A381" s="44"/>
+      <c r="A381" s="57"/>
+      <c r="E381" s="58"/>
+      <c r="F381" s="59"/>
+      <c r="O381" s="59"/>
+      <c r="P381" s="59"/>
     </row>
     <row r="382">
-      <c r="A382" s="44"/>
+      <c r="A382" s="57"/>
+      <c r="E382" s="58"/>
+      <c r="F382" s="59"/>
+      <c r="O382" s="59"/>
+      <c r="P382" s="59"/>
     </row>
     <row r="383">
-      <c r="A383" s="44"/>
+      <c r="A383" s="57"/>
+      <c r="E383" s="58"/>
+      <c r="F383" s="59"/>
+      <c r="O383" s="59"/>
+      <c r="P383" s="59"/>
     </row>
     <row r="384">
-      <c r="A384" s="44"/>
+      <c r="A384" s="57"/>
+      <c r="E384" s="58"/>
+      <c r="F384" s="59"/>
+      <c r="O384" s="59"/>
+      <c r="P384" s="59"/>
     </row>
     <row r="385">
-      <c r="A385" s="44"/>
+      <c r="A385" s="57"/>
+      <c r="E385" s="58"/>
+      <c r="F385" s="59"/>
+      <c r="O385" s="59"/>
+      <c r="P385" s="59"/>
     </row>
     <row r="386">
-      <c r="A386" s="44"/>
+      <c r="A386" s="57"/>
+      <c r="E386" s="58"/>
+      <c r="F386" s="59"/>
+      <c r="O386" s="59"/>
+      <c r="P386" s="59"/>
     </row>
     <row r="387">
-      <c r="A387" s="44"/>
+      <c r="A387" s="57"/>
+      <c r="E387" s="58"/>
+      <c r="F387" s="59"/>
+      <c r="O387" s="59"/>
+      <c r="P387" s="59"/>
     </row>
     <row r="388">
-      <c r="A388" s="44"/>
+      <c r="A388" s="57"/>
+      <c r="E388" s="58"/>
+      <c r="F388" s="59"/>
+      <c r="O388" s="59"/>
+      <c r="P388" s="59"/>
     </row>
     <row r="389">
-      <c r="A389" s="44"/>
+      <c r="A389" s="57"/>
+      <c r="E389" s="58"/>
+      <c r="F389" s="59"/>
+      <c r="O389" s="59"/>
+      <c r="P389" s="59"/>
     </row>
     <row r="390">
-      <c r="A390" s="44"/>
+      <c r="A390" s="57"/>
+      <c r="E390" s="58"/>
+      <c r="F390" s="59"/>
+      <c r="O390" s="59"/>
+      <c r="P390" s="59"/>
     </row>
     <row r="391">
-      <c r="A391" s="44"/>
+      <c r="A391" s="57"/>
+      <c r="E391" s="58"/>
+      <c r="F391" s="59"/>
+      <c r="O391" s="59"/>
+      <c r="P391" s="59"/>
     </row>
     <row r="392">
-      <c r="A392" s="44"/>
+      <c r="A392" s="57"/>
+      <c r="E392" s="58"/>
+      <c r="F392" s="59"/>
+      <c r="O392" s="59"/>
+      <c r="P392" s="59"/>
     </row>
     <row r="393">
-      <c r="A393" s="44"/>
+      <c r="A393" s="57"/>
+      <c r="E393" s="58"/>
+      <c r="F393" s="59"/>
+      <c r="O393" s="59"/>
+      <c r="P393" s="59"/>
     </row>
     <row r="394">
-      <c r="A394" s="44"/>
+      <c r="A394" s="57"/>
+      <c r="E394" s="58"/>
+      <c r="F394" s="59"/>
+      <c r="O394" s="59"/>
+      <c r="P394" s="59"/>
     </row>
     <row r="395">
-      <c r="A395" s="44"/>
+      <c r="A395" s="57"/>
+      <c r="E395" s="58"/>
+      <c r="F395" s="59"/>
+      <c r="O395" s="59"/>
+      <c r="P395" s="59"/>
     </row>
     <row r="396">
-      <c r="A396" s="44"/>
+      <c r="A396" s="57"/>
+      <c r="E396" s="58"/>
+      <c r="F396" s="59"/>
+      <c r="O396" s="59"/>
+      <c r="P396" s="59"/>
     </row>
     <row r="397">
-      <c r="A397" s="44"/>
+      <c r="A397" s="57"/>
+      <c r="E397" s="58"/>
+      <c r="F397" s="59"/>
+      <c r="O397" s="59"/>
+      <c r="P397" s="59"/>
     </row>
     <row r="398">
-      <c r="A398" s="44"/>
+      <c r="A398" s="57"/>
+      <c r="E398" s="58"/>
+      <c r="F398" s="59"/>
+      <c r="O398" s="59"/>
+      <c r="P398" s="59"/>
     </row>
     <row r="399">
-      <c r="A399" s="44"/>
+      <c r="A399" s="57"/>
+      <c r="E399" s="58"/>
+      <c r="F399" s="59"/>
+      <c r="O399" s="59"/>
+      <c r="P399" s="59"/>
     </row>
     <row r="400">
-      <c r="A400" s="44"/>
+      <c r="A400" s="57"/>
+      <c r="E400" s="58"/>
+      <c r="F400" s="59"/>
+      <c r="O400" s="59"/>
+      <c r="P400" s="59"/>
     </row>
     <row r="401">
-      <c r="A401" s="44"/>
+      <c r="A401" s="57"/>
+      <c r="E401" s="58"/>
+      <c r="F401" s="59"/>
+      <c r="O401" s="59"/>
+      <c r="P401" s="59"/>
     </row>
     <row r="402">
-      <c r="A402" s="44"/>
+      <c r="A402" s="57"/>
+      <c r="E402" s="58"/>
+      <c r="F402" s="59"/>
+      <c r="O402" s="59"/>
+      <c r="P402" s="59"/>
     </row>
     <row r="403">
-      <c r="A403" s="44"/>
+      <c r="A403" s="57"/>
+      <c r="E403" s="58"/>
+      <c r="F403" s="59"/>
+      <c r="O403" s="59"/>
+      <c r="P403" s="59"/>
     </row>
     <row r="404">
-      <c r="A404" s="44"/>
+      <c r="A404" s="57"/>
+      <c r="E404" s="58"/>
+      <c r="F404" s="59"/>
+      <c r="O404" s="59"/>
+      <c r="P404" s="59"/>
     </row>
     <row r="405">
-      <c r="A405" s="44"/>
+      <c r="A405" s="57"/>
+      <c r="E405" s="58"/>
+      <c r="F405" s="59"/>
+      <c r="O405" s="59"/>
+      <c r="P405" s="59"/>
     </row>
     <row r="406">
-      <c r="A406" s="44"/>
+      <c r="A406" s="57"/>
+      <c r="E406" s="58"/>
+      <c r="F406" s="59"/>
+      <c r="O406" s="59"/>
+      <c r="P406" s="59"/>
     </row>
     <row r="407">
-      <c r="A407" s="44"/>
+      <c r="A407" s="57"/>
+      <c r="E407" s="58"/>
+      <c r="F407" s="59"/>
+      <c r="O407" s="59"/>
+      <c r="P407" s="59"/>
     </row>
     <row r="408">
-      <c r="A408" s="44"/>
+      <c r="A408" s="57"/>
+      <c r="E408" s="58"/>
+      <c r="F408" s="59"/>
+      <c r="O408" s="59"/>
+      <c r="P408" s="59"/>
     </row>
     <row r="409">
-      <c r="A409" s="44"/>
+      <c r="A409" s="57"/>
+      <c r="E409" s="58"/>
+      <c r="F409" s="59"/>
+      <c r="O409" s="59"/>
+      <c r="P409" s="59"/>
     </row>
     <row r="410">
-      <c r="A410" s="44"/>
+      <c r="A410" s="57"/>
+      <c r="E410" s="58"/>
+      <c r="F410" s="59"/>
+      <c r="O410" s="59"/>
+      <c r="P410" s="59"/>
     </row>
     <row r="411">
-      <c r="A411" s="44"/>
+      <c r="A411" s="57"/>
+      <c r="E411" s="58"/>
+      <c r="F411" s="59"/>
+      <c r="O411" s="59"/>
+      <c r="P411" s="59"/>
     </row>
     <row r="412">
-      <c r="A412" s="44"/>
+      <c r="A412" s="57"/>
+      <c r="E412" s="58"/>
+      <c r="F412" s="59"/>
+      <c r="O412" s="59"/>
+      <c r="P412" s="59"/>
     </row>
     <row r="413">
-      <c r="A413" s="44"/>
+      <c r="A413" s="57"/>
+      <c r="E413" s="58"/>
+      <c r="F413" s="59"/>
+      <c r="O413" s="59"/>
+      <c r="P413" s="59"/>
     </row>
     <row r="414">
-      <c r="A414" s="44"/>
+      <c r="A414" s="57"/>
+      <c r="E414" s="58"/>
+      <c r="F414" s="59"/>
+      <c r="O414" s="59"/>
+      <c r="P414" s="59"/>
     </row>
     <row r="415">
-      <c r="A415" s="44"/>
+      <c r="A415" s="57"/>
+      <c r="E415" s="58"/>
+      <c r="F415" s="59"/>
+      <c r="O415" s="59"/>
+      <c r="P415" s="59"/>
     </row>
     <row r="416">
-      <c r="A416" s="44"/>
+      <c r="A416" s="57"/>
+      <c r="E416" s="58"/>
+      <c r="F416" s="59"/>
+      <c r="O416" s="59"/>
+      <c r="P416" s="59"/>
     </row>
     <row r="417">
-      <c r="A417" s="44"/>
+      <c r="A417" s="57"/>
+      <c r="E417" s="58"/>
+      <c r="F417" s="59"/>
+      <c r="O417" s="59"/>
+      <c r="P417" s="59"/>
     </row>
     <row r="418">
-      <c r="A418" s="44"/>
+      <c r="A418" s="57"/>
+      <c r="E418" s="58"/>
+      <c r="F418" s="59"/>
+      <c r="O418" s="59"/>
+      <c r="P418" s="59"/>
     </row>
     <row r="419">
-      <c r="A419" s="44"/>
+      <c r="A419" s="57"/>
+      <c r="E419" s="58"/>
+      <c r="F419" s="59"/>
+      <c r="O419" s="59"/>
+      <c r="P419" s="59"/>
     </row>
     <row r="420">
-      <c r="A420" s="44"/>
+      <c r="A420" s="57"/>
+      <c r="E420" s="58"/>
+      <c r="F420" s="59"/>
+      <c r="O420" s="59"/>
+      <c r="P420" s="59"/>
     </row>
     <row r="421">
-      <c r="A421" s="44"/>
+      <c r="A421" s="57"/>
+      <c r="E421" s="58"/>
+      <c r="F421" s="59"/>
+      <c r="O421" s="59"/>
+      <c r="P421" s="59"/>
     </row>
     <row r="422">
-      <c r="A422" s="44"/>
+      <c r="A422" s="57"/>
+      <c r="E422" s="58"/>
+      <c r="F422" s="59"/>
+      <c r="O422" s="59"/>
+      <c r="P422" s="59"/>
     </row>
     <row r="423">
-      <c r="A423" s="44"/>
+      <c r="A423" s="57"/>
+      <c r="E423" s="58"/>
+      <c r="F423" s="59"/>
+      <c r="O423" s="59"/>
+      <c r="P423" s="59"/>
     </row>
     <row r="424">
-      <c r="A424" s="44"/>
+      <c r="A424" s="57"/>
+      <c r="E424" s="58"/>
+      <c r="F424" s="59"/>
+      <c r="O424" s="59"/>
+      <c r="P424" s="59"/>
     </row>
     <row r="425">
-      <c r="A425" s="44"/>
+      <c r="A425" s="57"/>
+      <c r="E425" s="58"/>
+      <c r="F425" s="59"/>
+      <c r="O425" s="59"/>
+      <c r="P425" s="59"/>
     </row>
     <row r="426">
-      <c r="A426" s="44"/>
+      <c r="A426" s="57"/>
+      <c r="E426" s="58"/>
+      <c r="F426" s="59"/>
+      <c r="O426" s="59"/>
+      <c r="P426" s="59"/>
     </row>
     <row r="427">
-      <c r="A427" s="44"/>
+      <c r="A427" s="57"/>
+      <c r="E427" s="58"/>
+      <c r="F427" s="59"/>
+      <c r="O427" s="59"/>
+      <c r="P427" s="59"/>
     </row>
     <row r="428">
-      <c r="A428" s="44"/>
+      <c r="A428" s="57"/>
+      <c r="E428" s="58"/>
+      <c r="F428" s="59"/>
+      <c r="O428" s="59"/>
+      <c r="P428" s="59"/>
     </row>
     <row r="429">
-      <c r="A429" s="44"/>
+      <c r="A429" s="57"/>
+      <c r="E429" s="58"/>
+      <c r="F429" s="59"/>
+      <c r="O429" s="59"/>
+      <c r="P429" s="59"/>
     </row>
     <row r="430">
-      <c r="A430" s="44"/>
+      <c r="A430" s="57"/>
+      <c r="E430" s="58"/>
+      <c r="F430" s="59"/>
+      <c r="O430" s="59"/>
+      <c r="P430" s="59"/>
     </row>
     <row r="431">
-      <c r="A431" s="44"/>
+      <c r="A431" s="57"/>
+      <c r="E431" s="58"/>
+      <c r="F431" s="59"/>
+      <c r="O431" s="59"/>
+      <c r="P431" s="59"/>
     </row>
     <row r="432">
-      <c r="A432" s="44"/>
+      <c r="A432" s="57"/>
+      <c r="E432" s="58"/>
+      <c r="F432" s="59"/>
+      <c r="O432" s="59"/>
+      <c r="P432" s="59"/>
     </row>
     <row r="433">
-      <c r="A433" s="44"/>
+      <c r="A433" s="57"/>
+      <c r="E433" s="58"/>
+      <c r="F433" s="59"/>
+      <c r="O433" s="59"/>
+      <c r="P433" s="59"/>
     </row>
     <row r="434">
-      <c r="A434" s="44"/>
+      <c r="A434" s="57"/>
+      <c r="E434" s="58"/>
+      <c r="F434" s="59"/>
+      <c r="O434" s="59"/>
+      <c r="P434" s="59"/>
     </row>
     <row r="435">
-      <c r="A435" s="44"/>
+      <c r="A435" s="57"/>
+      <c r="E435" s="58"/>
+      <c r="F435" s="59"/>
+      <c r="O435" s="59"/>
+      <c r="P435" s="59"/>
     </row>
     <row r="436">
-      <c r="A436" s="44"/>
+      <c r="A436" s="57"/>
+      <c r="E436" s="58"/>
+      <c r="F436" s="59"/>
+      <c r="O436" s="59"/>
+      <c r="P436" s="59"/>
     </row>
     <row r="437">
-      <c r="A437" s="44"/>
+      <c r="A437" s="57"/>
+      <c r="E437" s="58"/>
+      <c r="F437" s="59"/>
+      <c r="O437" s="59"/>
+      <c r="P437" s="59"/>
     </row>
     <row r="438">
-      <c r="A438" s="44"/>
+      <c r="A438" s="57"/>
+      <c r="E438" s="58"/>
+      <c r="F438" s="59"/>
+      <c r="O438" s="59"/>
+      <c r="P438" s="59"/>
     </row>
     <row r="439">
-      <c r="A439" s="44"/>
+      <c r="A439" s="57"/>
+      <c r="E439" s="58"/>
+      <c r="F439" s="59"/>
+      <c r="O439" s="59"/>
+      <c r="P439" s="59"/>
     </row>
     <row r="440">
-      <c r="A440" s="44"/>
+      <c r="A440" s="57"/>
+      <c r="E440" s="58"/>
+      <c r="F440" s="59"/>
+      <c r="O440" s="59"/>
+      <c r="P440" s="59"/>
     </row>
     <row r="441">
-      <c r="A441" s="44"/>
+      <c r="A441" s="57"/>
+      <c r="E441" s="58"/>
+      <c r="F441" s="59"/>
+      <c r="O441" s="59"/>
+      <c r="P441" s="59"/>
     </row>
     <row r="442">
-      <c r="A442" s="44"/>
+      <c r="A442" s="57"/>
+      <c r="E442" s="58"/>
+      <c r="F442" s="59"/>
+      <c r="O442" s="59"/>
+      <c r="P442" s="59"/>
     </row>
     <row r="443">
-      <c r="A443" s="44"/>
+      <c r="A443" s="57"/>
+      <c r="E443" s="58"/>
+      <c r="F443" s="59"/>
+      <c r="O443" s="59"/>
+      <c r="P443" s="59"/>
     </row>
     <row r="444">
-      <c r="A444" s="44"/>
+      <c r="A444" s="57"/>
+      <c r="E444" s="58"/>
+      <c r="F444" s="59"/>
+      <c r="O444" s="59"/>
+      <c r="P444" s="59"/>
     </row>
     <row r="445">
-      <c r="A445" s="44"/>
+      <c r="A445" s="57"/>
+      <c r="E445" s="58"/>
+      <c r="F445" s="59"/>
+      <c r="O445" s="59"/>
+      <c r="P445" s="59"/>
     </row>
     <row r="446">
-      <c r="A446" s="44"/>
+      <c r="A446" s="57"/>
+      <c r="E446" s="58"/>
+      <c r="F446" s="59"/>
+      <c r="O446" s="59"/>
+      <c r="P446" s="59"/>
     </row>
     <row r="447">
-      <c r="A447" s="44"/>
+      <c r="A447" s="57"/>
+      <c r="E447" s="58"/>
+      <c r="F447" s="59"/>
+      <c r="O447" s="59"/>
+      <c r="P447" s="59"/>
     </row>
     <row r="448">
-      <c r="A448" s="44"/>
+      <c r="A448" s="57"/>
+      <c r="E448" s="58"/>
+      <c r="F448" s="59"/>
+      <c r="O448" s="59"/>
+      <c r="P448" s="59"/>
     </row>
     <row r="449">
-      <c r="A449" s="44"/>
+      <c r="A449" s="57"/>
+      <c r="E449" s="58"/>
+      <c r="F449" s="59"/>
+      <c r="O449" s="59"/>
+      <c r="P449" s="59"/>
     </row>
     <row r="450">
-      <c r="A450" s="44"/>
+      <c r="A450" s="57"/>
+      <c r="E450" s="58"/>
+      <c r="F450" s="59"/>
+      <c r="O450" s="59"/>
+      <c r="P450" s="59"/>
     </row>
     <row r="451">
-      <c r="A451" s="44"/>
+      <c r="A451" s="57"/>
+      <c r="E451" s="58"/>
+      <c r="F451" s="59"/>
+      <c r="O451" s="59"/>
+      <c r="P451" s="59"/>
     </row>
     <row r="452">
-      <c r="A452" s="44"/>
+      <c r="A452" s="57"/>
+      <c r="E452" s="58"/>
+      <c r="F452" s="59"/>
+      <c r="O452" s="59"/>
+      <c r="P452" s="59"/>
     </row>
     <row r="453">
-      <c r="A453" s="44"/>
+      <c r="A453" s="57"/>
+      <c r="E453" s="58"/>
+      <c r="F453" s="59"/>
+      <c r="O453" s="59"/>
+      <c r="P453" s="59"/>
     </row>
     <row r="454">
-      <c r="A454" s="44"/>
+      <c r="A454" s="57"/>
+      <c r="E454" s="58"/>
+      <c r="F454" s="59"/>
+      <c r="O454" s="59"/>
+      <c r="P454" s="59"/>
     </row>
     <row r="455">
-      <c r="A455" s="44"/>
+      <c r="A455" s="57"/>
+      <c r="E455" s="58"/>
+      <c r="F455" s="59"/>
+      <c r="O455" s="59"/>
+      <c r="P455" s="59"/>
     </row>
     <row r="456">
-      <c r="A456" s="44"/>
+      <c r="A456" s="57"/>
+      <c r="E456" s="58"/>
+      <c r="F456" s="59"/>
+      <c r="O456" s="59"/>
+      <c r="P456" s="59"/>
     </row>
     <row r="457">
-      <c r="A457" s="44"/>
+      <c r="A457" s="57"/>
+      <c r="E457" s="58"/>
+      <c r="F457" s="59"/>
+      <c r="O457" s="59"/>
+      <c r="P457" s="59"/>
     </row>
     <row r="458">
-      <c r="A458" s="44"/>
+      <c r="A458" s="57"/>
+      <c r="E458" s="58"/>
+      <c r="F458" s="59"/>
+      <c r="O458" s="59"/>
+      <c r="P458" s="59"/>
     </row>
     <row r="459">
-      <c r="A459" s="44"/>
+      <c r="A459" s="57"/>
+      <c r="E459" s="58"/>
+      <c r="F459" s="59"/>
+      <c r="O459" s="59"/>
+      <c r="P459" s="59"/>
     </row>
     <row r="460">
-      <c r="A460" s="44"/>
+      <c r="A460" s="57"/>
+      <c r="E460" s="58"/>
+      <c r="F460" s="59"/>
+      <c r="O460" s="59"/>
+      <c r="P460" s="59"/>
     </row>
     <row r="461">
-      <c r="A461" s="44"/>
+      <c r="A461" s="57"/>
+      <c r="E461" s="58"/>
+      <c r="F461" s="59"/>
+      <c r="O461" s="59"/>
+      <c r="P461" s="59"/>
     </row>
     <row r="462">
-      <c r="A462" s="44"/>
+      <c r="A462" s="57"/>
+      <c r="E462" s="58"/>
+      <c r="F462" s="59"/>
+      <c r="O462" s="59"/>
+      <c r="P462" s="59"/>
     </row>
     <row r="463">
-      <c r="A463" s="44"/>
+      <c r="A463" s="57"/>
+      <c r="E463" s="58"/>
+      <c r="F463" s="59"/>
+      <c r="O463" s="59"/>
+      <c r="P463" s="59"/>
     </row>
     <row r="464">
-      <c r="A464" s="44"/>
+      <c r="A464" s="57"/>
+      <c r="E464" s="58"/>
+      <c r="F464" s="59"/>
+      <c r="O464" s="59"/>
+      <c r="P464" s="59"/>
     </row>
     <row r="465">
-      <c r="A465" s="44"/>
+      <c r="A465" s="57"/>
+      <c r="E465" s="58"/>
+      <c r="F465" s="59"/>
+      <c r="O465" s="59"/>
+      <c r="P465" s="59"/>
     </row>
     <row r="466">
-      <c r="A466" s="44"/>
+      <c r="A466" s="57"/>
+      <c r="E466" s="58"/>
+      <c r="F466" s="59"/>
+      <c r="O466" s="59"/>
+      <c r="P466" s="59"/>
     </row>
     <row r="467">
-      <c r="A467" s="44"/>
+      <c r="A467" s="57"/>
+      <c r="E467" s="58"/>
+      <c r="F467" s="59"/>
+      <c r="O467" s="59"/>
+      <c r="P467" s="59"/>
     </row>
     <row r="468">
-      <c r="A468" s="44"/>
+      <c r="A468" s="57"/>
+      <c r="E468" s="58"/>
+      <c r="F468" s="59"/>
+      <c r="O468" s="59"/>
+      <c r="P468" s="59"/>
     </row>
     <row r="469">
-      <c r="A469" s="44"/>
+      <c r="A469" s="57"/>
+      <c r="E469" s="58"/>
+      <c r="F469" s="59"/>
+      <c r="O469" s="59"/>
+      <c r="P469" s="59"/>
     </row>
     <row r="470">
-      <c r="A470" s="44"/>
+      <c r="A470" s="57"/>
+      <c r="E470" s="58"/>
+      <c r="F470" s="59"/>
+      <c r="O470" s="59"/>
+      <c r="P470" s="59"/>
     </row>
     <row r="471">
-      <c r="A471" s="44"/>
+      <c r="A471" s="57"/>
+      <c r="E471" s="58"/>
+      <c r="F471" s="59"/>
+      <c r="O471" s="59"/>
+      <c r="P471" s="59"/>
     </row>
     <row r="472">
-      <c r="A472" s="44"/>
+      <c r="A472" s="57"/>
+      <c r="E472" s="58"/>
+      <c r="F472" s="59"/>
+      <c r="O472" s="59"/>
+      <c r="P472" s="59"/>
     </row>
     <row r="473">
-      <c r="A473" s="44"/>
+      <c r="A473" s="57"/>
+      <c r="E473" s="58"/>
+      <c r="F473" s="59"/>
+      <c r="O473" s="59"/>
+      <c r="P473" s="59"/>
     </row>
     <row r="474">
-      <c r="A474" s="44"/>
+      <c r="A474" s="57"/>
+      <c r="E474" s="58"/>
+      <c r="F474" s="59"/>
+      <c r="O474" s="59"/>
+      <c r="P474" s="59"/>
     </row>
     <row r="475">
-      <c r="A475" s="44"/>
+      <c r="A475" s="57"/>
+      <c r="E475" s="58"/>
+      <c r="F475" s="59"/>
+      <c r="O475" s="59"/>
+      <c r="P475" s="59"/>
     </row>
     <row r="476">
-      <c r="A476" s="44"/>
+      <c r="A476" s="57"/>
+      <c r="E476" s="58"/>
+      <c r="F476" s="59"/>
+      <c r="O476" s="59"/>
+      <c r="P476" s="59"/>
     </row>
     <row r="477">
-      <c r="A477" s="44"/>
+      <c r="A477" s="57"/>
+      <c r="E477" s="58"/>
+      <c r="F477" s="59"/>
+      <c r="O477" s="59"/>
+      <c r="P477" s="59"/>
     </row>
     <row r="478">
-      <c r="A478" s="44"/>
+      <c r="A478" s="57"/>
+      <c r="E478" s="58"/>
+      <c r="F478" s="59"/>
+      <c r="O478" s="59"/>
+      <c r="P478" s="59"/>
     </row>
     <row r="479">
-      <c r="A479" s="44"/>
+      <c r="A479" s="57"/>
+      <c r="E479" s="58"/>
+      <c r="F479" s="59"/>
+      <c r="O479" s="59"/>
+      <c r="P479" s="59"/>
     </row>
     <row r="480">
-      <c r="A480" s="44"/>
+      <c r="A480" s="57"/>
+      <c r="E480" s="58"/>
+      <c r="F480" s="59"/>
+      <c r="O480" s="59"/>
+      <c r="P480" s="59"/>
     </row>
     <row r="481">
-      <c r="A481" s="44"/>
+      <c r="A481" s="57"/>
+      <c r="E481" s="58"/>
+      <c r="F481" s="59"/>
+      <c r="O481" s="59"/>
+      <c r="P481" s="59"/>
     </row>
     <row r="482">
-      <c r="A482" s="44"/>
+      <c r="A482" s="57"/>
+      <c r="E482" s="58"/>
+      <c r="F482" s="59"/>
+      <c r="O482" s="59"/>
+      <c r="P482" s="59"/>
     </row>
     <row r="483">
-      <c r="A483" s="44"/>
+      <c r="A483" s="57"/>
+      <c r="E483" s="58"/>
+      <c r="F483" s="59"/>
+      <c r="O483" s="59"/>
+      <c r="P483" s="59"/>
     </row>
     <row r="484">
-      <c r="A484" s="44"/>
+      <c r="A484" s="57"/>
+      <c r="E484" s="58"/>
+      <c r="F484" s="59"/>
+      <c r="O484" s="59"/>
+      <c r="P484" s="59"/>
     </row>
     <row r="485">
-      <c r="A485" s="44"/>
+      <c r="A485" s="57"/>
+      <c r="E485" s="58"/>
+      <c r="F485" s="59"/>
+      <c r="O485" s="59"/>
+      <c r="P485" s="59"/>
     </row>
     <row r="486">
-      <c r="A486" s="44"/>
+      <c r="A486" s="57"/>
+      <c r="E486" s="58"/>
+      <c r="F486" s="59"/>
+      <c r="O486" s="59"/>
+      <c r="P486" s="59"/>
     </row>
     <row r="487">
-      <c r="A487" s="44"/>
+      <c r="A487" s="57"/>
+      <c r="E487" s="58"/>
+      <c r="F487" s="59"/>
+      <c r="O487" s="59"/>
+      <c r="P487" s="59"/>
     </row>
     <row r="488">
-      <c r="A488" s="44"/>
+      <c r="A488" s="57"/>
+      <c r="E488" s="58"/>
+      <c r="F488" s="59"/>
+      <c r="O488" s="59"/>
+      <c r="P488" s="59"/>
     </row>
     <row r="489">
-      <c r="A489" s="44"/>
+      <c r="A489" s="57"/>
+      <c r="E489" s="58"/>
+      <c r="F489" s="59"/>
+      <c r="O489" s="59"/>
+      <c r="P489" s="59"/>
     </row>
     <row r="490">
-      <c r="A490" s="44"/>
+      <c r="A490" s="57"/>
+      <c r="E490" s="58"/>
+      <c r="F490" s="59"/>
+      <c r="O490" s="59"/>
+      <c r="P490" s="59"/>
     </row>
     <row r="491">
-      <c r="A491" s="44"/>
+      <c r="A491" s="57"/>
+      <c r="E491" s="58"/>
+      <c r="F491" s="59"/>
+      <c r="O491" s="59"/>
+      <c r="P491" s="59"/>
     </row>
     <row r="492">
-      <c r="A492" s="44"/>
+      <c r="A492" s="57"/>
+      <c r="E492" s="58"/>
+      <c r="F492" s="59"/>
+      <c r="O492" s="59"/>
+      <c r="P492" s="59"/>
     </row>
     <row r="493">
-      <c r="A493" s="44"/>
+      <c r="A493" s="57"/>
+      <c r="E493" s="58"/>
+      <c r="F493" s="59"/>
+      <c r="O493" s="59"/>
+      <c r="P493" s="59"/>
     </row>
     <row r="494">
-      <c r="A494" s="44"/>
+      <c r="A494" s="57"/>
+      <c r="E494" s="58"/>
+      <c r="F494" s="59"/>
+      <c r="O494" s="59"/>
+      <c r="P494" s="59"/>
     </row>
     <row r="495">
-      <c r="A495" s="44"/>
+      <c r="A495" s="57"/>
+      <c r="E495" s="58"/>
+      <c r="F495" s="59"/>
+      <c r="O495" s="59"/>
+      <c r="P495" s="59"/>
     </row>
     <row r="496">
-      <c r="A496" s="44"/>
+      <c r="A496" s="57"/>
+      <c r="E496" s="58"/>
+      <c r="F496" s="59"/>
+      <c r="O496" s="59"/>
+      <c r="P496" s="59"/>
     </row>
     <row r="497">
-      <c r="A497" s="44"/>
+      <c r="A497" s="57"/>
+      <c r="E497" s="58"/>
+      <c r="F497" s="59"/>
+      <c r="O497" s="59"/>
+      <c r="P497" s="59"/>
     </row>
     <row r="498">
-      <c r="A498" s="44"/>
+      <c r="A498" s="57"/>
+      <c r="E498" s="58"/>
+      <c r="F498" s="59"/>
+      <c r="O498" s="59"/>
+      <c r="P498" s="59"/>
     </row>
     <row r="499">
-      <c r="A499" s="44"/>
+      <c r="A499" s="57"/>
+      <c r="E499" s="58"/>
+      <c r="F499" s="59"/>
+      <c r="O499" s="59"/>
+      <c r="P499" s="59"/>
     </row>
     <row r="500">
-      <c r="A500" s="44"/>
+      <c r="A500" s="57"/>
+      <c r="E500" s="58"/>
+      <c r="F500" s="59"/>
+      <c r="O500" s="59"/>
+      <c r="P500" s="59"/>
     </row>
     <row r="501">
-      <c r="A501" s="44"/>
+      <c r="A501" s="57"/>
+      <c r="E501" s="58"/>
+      <c r="F501" s="59"/>
+      <c r="O501" s="59"/>
+      <c r="P501" s="59"/>
     </row>
     <row r="502">
-      <c r="A502" s="44"/>
+      <c r="A502" s="57"/>
+      <c r="E502" s="58"/>
+      <c r="F502" s="59"/>
+      <c r="O502" s="59"/>
+      <c r="P502" s="59"/>
     </row>
     <row r="503">
-      <c r="A503" s="44"/>
+      <c r="A503" s="57"/>
+      <c r="E503" s="58"/>
+      <c r="F503" s="59"/>
+      <c r="O503" s="59"/>
+      <c r="P503" s="59"/>
     </row>
     <row r="504">
-      <c r="A504" s="44"/>
+      <c r="A504" s="57"/>
+      <c r="E504" s="58"/>
+      <c r="F504" s="59"/>
+      <c r="O504" s="59"/>
+      <c r="P504" s="59"/>
     </row>
     <row r="505">
-      <c r="A505" s="44"/>
+      <c r="A505" s="57"/>
+      <c r="E505" s="58"/>
+      <c r="F505" s="59"/>
+      <c r="O505" s="59"/>
+      <c r="P505" s="59"/>
     </row>
     <row r="506">
-      <c r="A506" s="44"/>
+      <c r="A506" s="57"/>
+      <c r="E506" s="58"/>
+      <c r="F506" s="59"/>
+      <c r="O506" s="59"/>
+      <c r="P506" s="59"/>
     </row>
     <row r="507">
-      <c r="A507" s="44"/>
+      <c r="A507" s="57"/>
+      <c r="E507" s="58"/>
+      <c r="F507" s="59"/>
+      <c r="O507" s="59"/>
+      <c r="P507" s="59"/>
     </row>
     <row r="508">
-      <c r="A508" s="44"/>
+      <c r="A508" s="57"/>
+      <c r="E508" s="58"/>
+      <c r="F508" s="59"/>
+      <c r="O508" s="59"/>
+      <c r="P508" s="59"/>
     </row>
     <row r="509">
-      <c r="A509" s="44"/>
+      <c r="A509" s="57"/>
+      <c r="E509" s="58"/>
+      <c r="F509" s="59"/>
+      <c r="O509" s="59"/>
+      <c r="P509" s="59"/>
     </row>
     <row r="510">
-      <c r="A510" s="44"/>
+      <c r="A510" s="57"/>
+      <c r="E510" s="58"/>
+      <c r="F510" s="59"/>
+      <c r="O510" s="59"/>
+      <c r="P510" s="59"/>
     </row>
     <row r="511">
-      <c r="A511" s="44"/>
+      <c r="A511" s="57"/>
+      <c r="E511" s="58"/>
+      <c r="F511" s="59"/>
+      <c r="O511" s="59"/>
+      <c r="P511" s="59"/>
     </row>
     <row r="512">
-      <c r="A512" s="44"/>
+      <c r="A512" s="57"/>
+      <c r="E512" s="58"/>
+      <c r="F512" s="59"/>
+      <c r="O512" s="59"/>
+      <c r="P512" s="59"/>
     </row>
     <row r="513">
-      <c r="A513" s="44"/>
+      <c r="A513" s="57"/>
+      <c r="E513" s="58"/>
+      <c r="F513" s="59"/>
+      <c r="O513" s="59"/>
+      <c r="P513" s="59"/>
     </row>
     <row r="514">
-      <c r="A514" s="44"/>
+      <c r="A514" s="57"/>
+      <c r="E514" s="58"/>
+      <c r="F514" s="59"/>
+      <c r="O514" s="59"/>
+      <c r="P514" s="59"/>
     </row>
     <row r="515">
-      <c r="A515" s="44"/>
+      <c r="A515" s="57"/>
+      <c r="E515" s="58"/>
+      <c r="F515" s="59"/>
+      <c r="O515" s="59"/>
+      <c r="P515" s="59"/>
     </row>
     <row r="516">
-      <c r="A516" s="44"/>
+      <c r="A516" s="57"/>
+      <c r="E516" s="58"/>
+      <c r="F516" s="59"/>
+      <c r="O516" s="59"/>
+      <c r="P516" s="59"/>
     </row>
     <row r="517">
-      <c r="A517" s="44"/>
+      <c r="A517" s="57"/>
+      <c r="E517" s="58"/>
+      <c r="F517" s="59"/>
+      <c r="O517" s="59"/>
+      <c r="P517" s="59"/>
     </row>
     <row r="518">
-      <c r="A518" s="44"/>
+      <c r="A518" s="57"/>
+      <c r="E518" s="58"/>
+      <c r="F518" s="59"/>
+      <c r="O518" s="59"/>
+      <c r="P518" s="59"/>
     </row>
     <row r="519">
-      <c r="A519" s="44"/>
+      <c r="A519" s="57"/>
+      <c r="E519" s="58"/>
+      <c r="F519" s="59"/>
+      <c r="O519" s="59"/>
+      <c r="P519" s="59"/>
     </row>
     <row r="520">
-      <c r="A520" s="44"/>
+      <c r="A520" s="57"/>
+      <c r="E520" s="58"/>
+      <c r="F520" s="59"/>
+      <c r="O520" s="59"/>
+      <c r="P520" s="59"/>
     </row>
     <row r="521">
-      <c r="A521" s="44"/>
+      <c r="A521" s="57"/>
+      <c r="E521" s="58"/>
+      <c r="F521" s="59"/>
+      <c r="O521" s="59"/>
+      <c r="P521" s="59"/>
     </row>
     <row r="522">
-      <c r="A522" s="44"/>
+      <c r="A522" s="57"/>
+      <c r="E522" s="58"/>
+      <c r="F522" s="59"/>
+      <c r="O522" s="59"/>
+      <c r="P522" s="59"/>
     </row>
     <row r="523">
-      <c r="A523" s="44"/>
+      <c r="A523" s="57"/>
+      <c r="E523" s="58"/>
+      <c r="F523" s="59"/>
+      <c r="O523" s="59"/>
+      <c r="P523" s="59"/>
     </row>
     <row r="524">
-      <c r="A524" s="44"/>
+      <c r="A524" s="57"/>
+      <c r="E524" s="58"/>
+      <c r="F524" s="59"/>
+      <c r="O524" s="59"/>
+      <c r="P524" s="59"/>
     </row>
     <row r="525">
-      <c r="A525" s="44"/>
+      <c r="A525" s="57"/>
+      <c r="E525" s="58"/>
+      <c r="F525" s="59"/>
+      <c r="O525" s="59"/>
+      <c r="P525" s="59"/>
     </row>
     <row r="526">
-      <c r="A526" s="44"/>
+      <c r="A526" s="57"/>
+      <c r="E526" s="58"/>
+      <c r="F526" s="59"/>
+      <c r="O526" s="59"/>
+      <c r="P526" s="59"/>
     </row>
     <row r="527">
-      <c r="A527" s="44"/>
+      <c r="A527" s="57"/>
+      <c r="E527" s="58"/>
+      <c r="F527" s="59"/>
+      <c r="O527" s="59"/>
+      <c r="P527" s="59"/>
     </row>
     <row r="528">
-      <c r="A528" s="44"/>
+      <c r="A528" s="57"/>
+      <c r="E528" s="58"/>
+      <c r="F528" s="59"/>
+      <c r="O528" s="59"/>
+      <c r="P528" s="59"/>
     </row>
     <row r="529">
-      <c r="A529" s="44"/>
+      <c r="A529" s="57"/>
+      <c r="E529" s="58"/>
+      <c r="F529" s="59"/>
+      <c r="O529" s="59"/>
+      <c r="P529" s="59"/>
     </row>
     <row r="530">
-      <c r="A530" s="44"/>
+      <c r="A530" s="57"/>
+      <c r="E530" s="58"/>
+      <c r="F530" s="59"/>
+      <c r="O530" s="59"/>
+      <c r="P530" s="59"/>
     </row>
     <row r="531">
-      <c r="A531" s="44"/>
+      <c r="A531" s="57"/>
+      <c r="E531" s="58"/>
+      <c r="F531" s="59"/>
+      <c r="O531" s="59"/>
+      <c r="P531" s="59"/>
     </row>
     <row r="532">
-      <c r="A532" s="44"/>
+      <c r="A532" s="57"/>
+      <c r="E532" s="58"/>
+      <c r="F532" s="59"/>
+      <c r="O532" s="59"/>
+      <c r="P532" s="59"/>
     </row>
     <row r="533">
-      <c r="A533" s="44"/>
+      <c r="A533" s="57"/>
+      <c r="E533" s="58"/>
+      <c r="F533" s="59"/>
+      <c r="O533" s="59"/>
+      <c r="P533" s="59"/>
     </row>
     <row r="534">
-      <c r="A534" s="44"/>
+      <c r="A534" s="57"/>
+      <c r="E534" s="58"/>
+      <c r="F534" s="59"/>
+      <c r="O534" s="59"/>
+      <c r="P534" s="59"/>
     </row>
     <row r="535">
-      <c r="A535" s="44"/>
+      <c r="A535" s="57"/>
+      <c r="E535" s="58"/>
+      <c r="F535" s="59"/>
+      <c r="O535" s="59"/>
+      <c r="P535" s="59"/>
     </row>
     <row r="536">
-      <c r="A536" s="44"/>
+      <c r="A536" s="57"/>
+      <c r="E536" s="58"/>
+      <c r="F536" s="59"/>
+      <c r="O536" s="59"/>
+      <c r="P536" s="59"/>
     </row>
     <row r="537">
-      <c r="A537" s="44"/>
+      <c r="A537" s="57"/>
+      <c r="E537" s="58"/>
+      <c r="F537" s="59"/>
+      <c r="O537" s="59"/>
+      <c r="P537" s="59"/>
     </row>
     <row r="538">
-      <c r="A538" s="44"/>
+      <c r="A538" s="57"/>
+      <c r="E538" s="58"/>
+      <c r="F538" s="59"/>
+      <c r="O538" s="59"/>
+      <c r="P538" s="59"/>
     </row>
     <row r="539">
-      <c r="A539" s="44"/>
+      <c r="A539" s="57"/>
+      <c r="E539" s="58"/>
+      <c r="F539" s="59"/>
+      <c r="O539" s="59"/>
+      <c r="P539" s="59"/>
     </row>
     <row r="540">
-      <c r="A540" s="44"/>
+      <c r="A540" s="57"/>
+      <c r="E540" s="58"/>
+      <c r="F540" s="59"/>
+      <c r="O540" s="59"/>
+      <c r="P540" s="59"/>
     </row>
     <row r="541">
-      <c r="A541" s="44"/>
+      <c r="A541" s="57"/>
+      <c r="E541" s="58"/>
+      <c r="F541" s="59"/>
+      <c r="O541" s="59"/>
+      <c r="P541" s="59"/>
     </row>
     <row r="542">
-      <c r="A542" s="44"/>
+      <c r="A542" s="57"/>
+      <c r="E542" s="58"/>
+      <c r="F542" s="59"/>
+      <c r="O542" s="59"/>
+      <c r="P542" s="59"/>
     </row>
     <row r="543">
-      <c r="A543" s="44"/>
+      <c r="A543" s="57"/>
+      <c r="E543" s="58"/>
+      <c r="F543" s="59"/>
+      <c r="O543" s="59"/>
+      <c r="P543" s="59"/>
     </row>
     <row r="544">
-      <c r="A544" s="44"/>
+      <c r="A544" s="57"/>
+      <c r="E544" s="58"/>
+      <c r="F544" s="59"/>
+      <c r="O544" s="59"/>
+      <c r="P544" s="59"/>
     </row>
     <row r="545">
-      <c r="A545" s="44"/>
+      <c r="A545" s="57"/>
+      <c r="E545" s="58"/>
+      <c r="F545" s="59"/>
+      <c r="O545" s="59"/>
+      <c r="P545" s="59"/>
     </row>
     <row r="546">
-      <c r="A546" s="44"/>
+      <c r="A546" s="57"/>
+      <c r="E546" s="58"/>
+      <c r="F546" s="59"/>
+      <c r="O546" s="59"/>
+      <c r="P546" s="59"/>
     </row>
     <row r="547">
-      <c r="A547" s="44"/>
+      <c r="A547" s="57"/>
+      <c r="E547" s="58"/>
+      <c r="F547" s="59"/>
+      <c r="O547" s="59"/>
+      <c r="P547" s="59"/>
     </row>
     <row r="548">
-      <c r="A548" s="44"/>
+      <c r="A548" s="57"/>
+      <c r="E548" s="58"/>
+      <c r="F548" s="59"/>
+      <c r="O548" s="59"/>
+      <c r="P548" s="59"/>
     </row>
     <row r="549">
-      <c r="A549" s="44"/>
+      <c r="A549" s="57"/>
+      <c r="E549" s="58"/>
+      <c r="F549" s="59"/>
+      <c r="O549" s="59"/>
+      <c r="P549" s="59"/>
     </row>
     <row r="550">
-      <c r="A550" s="44"/>
+      <c r="A550" s="57"/>
+      <c r="E550" s="58"/>
+      <c r="F550" s="59"/>
+      <c r="O550" s="59"/>
+      <c r="P550" s="59"/>
     </row>
     <row r="551">
-      <c r="A551" s="44"/>
+      <c r="A551" s="57"/>
+      <c r="E551" s="58"/>
+      <c r="F551" s="59"/>
+      <c r="O551" s="59"/>
+      <c r="P551" s="59"/>
     </row>
     <row r="552">
-      <c r="A552" s="44"/>
+      <c r="A552" s="57"/>
+      <c r="E552" s="58"/>
+      <c r="F552" s="59"/>
+      <c r="O552" s="59"/>
+      <c r="P552" s="59"/>
     </row>
     <row r="553">
-      <c r="A553" s="44"/>
+      <c r="A553" s="57"/>
+      <c r="E553" s="58"/>
+      <c r="F553" s="59"/>
+      <c r="O553" s="59"/>
+      <c r="P553" s="59"/>
     </row>
     <row r="554">
-      <c r="A554" s="44"/>
+      <c r="A554" s="57"/>
+      <c r="E554" s="58"/>
+      <c r="F554" s="59"/>
+      <c r="O554" s="59"/>
+      <c r="P554" s="59"/>
     </row>
     <row r="555">
-      <c r="A555" s="44"/>
+      <c r="A555" s="57"/>
+      <c r="E555" s="58"/>
+      <c r="F555" s="59"/>
+      <c r="O555" s="59"/>
+      <c r="P555" s="59"/>
     </row>
     <row r="556">
-      <c r="A556" s="44"/>
+      <c r="A556" s="57"/>
+      <c r="E556" s="58"/>
+      <c r="F556" s="59"/>
+      <c r="O556" s="59"/>
+      <c r="P556" s="59"/>
     </row>
     <row r="557">
-      <c r="A557" s="44"/>
+      <c r="A557" s="57"/>
+      <c r="E557" s="58"/>
+      <c r="F557" s="59"/>
+      <c r="O557" s="59"/>
+      <c r="P557" s="59"/>
     </row>
     <row r="558">
-      <c r="A558" s="44"/>
+      <c r="A558" s="57"/>
+      <c r="E558" s="58"/>
+      <c r="F558" s="59"/>
+      <c r="O558" s="59"/>
+      <c r="P558" s="59"/>
     </row>
     <row r="559">
-      <c r="A559" s="44"/>
+      <c r="A559" s="57"/>
+      <c r="E559" s="58"/>
+      <c r="F559" s="59"/>
+      <c r="O559" s="59"/>
+      <c r="P559" s="59"/>
     </row>
     <row r="560">
-      <c r="A560" s="44"/>
+      <c r="A560" s="57"/>
+      <c r="E560" s="58"/>
+      <c r="F560" s="59"/>
+      <c r="O560" s="59"/>
+      <c r="P560" s="59"/>
     </row>
     <row r="561">
-      <c r="A561" s="44"/>
+      <c r="A561" s="57"/>
+      <c r="E561" s="58"/>
+      <c r="F561" s="59"/>
+      <c r="O561" s="59"/>
+      <c r="P561" s="59"/>
     </row>
     <row r="562">
-      <c r="A562" s="44"/>
+      <c r="A562" s="57"/>
+      <c r="E562" s="58"/>
+      <c r="F562" s="59"/>
+      <c r="O562" s="59"/>
+      <c r="P562" s="59"/>
     </row>
     <row r="563">
-      <c r="A563" s="44"/>
+      <c r="A563" s="57"/>
+      <c r="E563" s="58"/>
+      <c r="F563" s="59"/>
+      <c r="O563" s="59"/>
+      <c r="P563" s="59"/>
     </row>
     <row r="564">
-      <c r="A564" s="44"/>
+      <c r="A564" s="57"/>
+      <c r="E564" s="58"/>
+      <c r="F564" s="59"/>
+      <c r="O564" s="59"/>
+      <c r="P564" s="59"/>
     </row>
     <row r="565">
-      <c r="A565" s="44"/>
+      <c r="A565" s="57"/>
+      <c r="E565" s="58"/>
+      <c r="F565" s="59"/>
+      <c r="O565" s="59"/>
+      <c r="P565" s="59"/>
     </row>
     <row r="566">
-      <c r="A566" s="44"/>
+      <c r="A566" s="57"/>
+      <c r="E566" s="58"/>
+      <c r="F566" s="59"/>
+      <c r="O566" s="59"/>
+      <c r="P566" s="59"/>
     </row>
     <row r="567">
-      <c r="A567" s="44"/>
+      <c r="A567" s="57"/>
+      <c r="E567" s="58"/>
+      <c r="F567" s="59"/>
+      <c r="O567" s="59"/>
+      <c r="P567" s="59"/>
     </row>
     <row r="568">
-      <c r="A568" s="44"/>
+      <c r="A568" s="57"/>
+      <c r="E568" s="58"/>
+      <c r="F568" s="59"/>
+      <c r="O568" s="59"/>
+      <c r="P568" s="59"/>
     </row>
     <row r="569">
-      <c r="A569" s="44"/>
+      <c r="A569" s="57"/>
+      <c r="E569" s="58"/>
+      <c r="F569" s="59"/>
+      <c r="O569" s="59"/>
+      <c r="P569" s="59"/>
     </row>
     <row r="570">
-      <c r="A570" s="44"/>
+      <c r="A570" s="57"/>
+      <c r="E570" s="58"/>
+      <c r="F570" s="59"/>
+      <c r="O570" s="59"/>
+      <c r="P570" s="59"/>
     </row>
     <row r="571">
-      <c r="A571" s="44"/>
+      <c r="A571" s="57"/>
+      <c r="E571" s="58"/>
+      <c r="F571" s="59"/>
+      <c r="O571" s="59"/>
+      <c r="P571" s="59"/>
     </row>
     <row r="572">
-      <c r="A572" s="44"/>
+      <c r="A572" s="57"/>
+      <c r="E572" s="58"/>
+      <c r="F572" s="59"/>
+      <c r="O572" s="59"/>
+      <c r="P572" s="59"/>
     </row>
     <row r="573">
-      <c r="A573" s="44"/>
+      <c r="A573" s="57"/>
+      <c r="E573" s="58"/>
+      <c r="F573" s="59"/>
+      <c r="O573" s="59"/>
+      <c r="P573" s="59"/>
     </row>
     <row r="574">
-      <c r="A574" s="44"/>
+      <c r="A574" s="57"/>
+      <c r="E574" s="58"/>
+      <c r="F574" s="59"/>
+      <c r="O574" s="59"/>
+      <c r="P574" s="59"/>
     </row>
     <row r="575">
-      <c r="A575" s="44"/>
+      <c r="A575" s="57"/>
+      <c r="E575" s="58"/>
+      <c r="F575" s="59"/>
+      <c r="O575" s="59"/>
+      <c r="P575" s="59"/>
     </row>
     <row r="576">
-      <c r="A576" s="44"/>
+      <c r="A576" s="57"/>
+      <c r="E576" s="58"/>
+      <c r="F576" s="59"/>
+      <c r="O576" s="59"/>
+      <c r="P576" s="59"/>
     </row>
     <row r="577">
-      <c r="A577" s="44"/>
+      <c r="A577" s="57"/>
+      <c r="E577" s="58"/>
+      <c r="F577" s="59"/>
+      <c r="O577" s="59"/>
+      <c r="P577" s="59"/>
     </row>
     <row r="578">
-      <c r="A578" s="44"/>
+      <c r="A578" s="57"/>
+      <c r="E578" s="58"/>
+      <c r="F578" s="59"/>
+      <c r="O578" s="59"/>
+      <c r="P578" s="59"/>
     </row>
     <row r="579">
-      <c r="A579" s="44"/>
+      <c r="A579" s="57"/>
+      <c r="E579" s="58"/>
+      <c r="F579" s="59"/>
+      <c r="O579" s="59"/>
+      <c r="P579" s="59"/>
     </row>
     <row r="580">
-      <c r="A580" s="44"/>
+      <c r="A580" s="57"/>
+      <c r="E580" s="58"/>
+      <c r="F580" s="59"/>
+      <c r="O580" s="59"/>
+      <c r="P580" s="59"/>
     </row>
     <row r="581">
-      <c r="A581" s="44"/>
+      <c r="A581" s="57"/>
+      <c r="E581" s="58"/>
+      <c r="F581" s="59"/>
+      <c r="O581" s="59"/>
+      <c r="P581" s="59"/>
     </row>
     <row r="582">
-      <c r="A582" s="44"/>
+      <c r="A582" s="57"/>
+      <c r="E582" s="58"/>
+      <c r="F582" s="59"/>
+      <c r="O582" s="59"/>
+      <c r="P582" s="59"/>
     </row>
     <row r="583">
-      <c r="A583" s="44"/>
+      <c r="A583" s="57"/>
+      <c r="E583" s="58"/>
+      <c r="F583" s="59"/>
+      <c r="O583" s="59"/>
+      <c r="P583" s="59"/>
     </row>
     <row r="584">
-      <c r="A584" s="44"/>
+      <c r="A584" s="57"/>
+      <c r="E584" s="58"/>
+      <c r="F584" s="59"/>
+      <c r="O584" s="59"/>
+      <c r="P584" s="59"/>
     </row>
     <row r="585">
-      <c r="A585" s="44"/>
+      <c r="A585" s="57"/>
+      <c r="E585" s="58"/>
+      <c r="F585" s="59"/>
+      <c r="O585" s="59"/>
+      <c r="P585" s="59"/>
     </row>
     <row r="586">
-      <c r="A586" s="44"/>
+      <c r="A586" s="57"/>
+      <c r="E586" s="58"/>
+      <c r="F586" s="59"/>
+      <c r="O586" s="59"/>
+      <c r="P586" s="59"/>
     </row>
     <row r="587">
-      <c r="A587" s="44"/>
+      <c r="A587" s="57"/>
+      <c r="E587" s="58"/>
+      <c r="F587" s="59"/>
+      <c r="O587" s="59"/>
+      <c r="P587" s="59"/>
     </row>
     <row r="588">
-      <c r="A588" s="44"/>
+      <c r="A588" s="57"/>
+      <c r="E588" s="58"/>
+      <c r="F588" s="59"/>
+      <c r="O588" s="59"/>
+      <c r="P588" s="59"/>
     </row>
     <row r="589">
-      <c r="A589" s="44"/>
+      <c r="A589" s="57"/>
+      <c r="E589" s="58"/>
+      <c r="F589" s="59"/>
+      <c r="O589" s="59"/>
+      <c r="P589" s="59"/>
     </row>
     <row r="590">
-      <c r="A590" s="44"/>
+      <c r="A590" s="57"/>
+      <c r="E590" s="58"/>
+      <c r="F590" s="59"/>
+      <c r="O590" s="59"/>
+      <c r="P590" s="59"/>
     </row>
     <row r="591">
-      <c r="A591" s="44"/>
+      <c r="A591" s="57"/>
+      <c r="E591" s="58"/>
+      <c r="F591" s="59"/>
+      <c r="O591" s="59"/>
+      <c r="P591" s="59"/>
     </row>
     <row r="592">
-      <c r="A592" s="44"/>
+      <c r="A592" s="57"/>
+      <c r="E592" s="58"/>
+      <c r="F592" s="59"/>
+      <c r="O592" s="59"/>
+      <c r="P592" s="59"/>
     </row>
     <row r="593">
-      <c r="A593" s="44"/>
+      <c r="A593" s="57"/>
+      <c r="E593" s="58"/>
+      <c r="F593" s="59"/>
+      <c r="O593" s="59"/>
+      <c r="P593" s="59"/>
     </row>
     <row r="594">
-      <c r="A594" s="44"/>
+      <c r="A594" s="57"/>
+      <c r="E594" s="58"/>
+      <c r="F594" s="59"/>
+      <c r="O594" s="59"/>
+      <c r="P594" s="59"/>
     </row>
     <row r="595">
-      <c r="A595" s="44"/>
+      <c r="A595" s="57"/>
+      <c r="E595" s="58"/>
+      <c r="F595" s="59"/>
+      <c r="O595" s="59"/>
+      <c r="P595" s="59"/>
     </row>
     <row r="596">
-      <c r="A596" s="44"/>
+      <c r="A596" s="57"/>
+      <c r="E596" s="58"/>
+      <c r="F596" s="59"/>
+      <c r="O596" s="59"/>
+      <c r="P596" s="59"/>
     </row>
     <row r="597">
-      <c r="A597" s="44"/>
+      <c r="A597" s="57"/>
+      <c r="E597" s="58"/>
+      <c r="F597" s="59"/>
+      <c r="O597" s="59"/>
+      <c r="P597" s="59"/>
     </row>
     <row r="598">
-      <c r="A598" s="44"/>
+      <c r="A598" s="57"/>
+      <c r="E598" s="58"/>
+      <c r="F598" s="59"/>
+      <c r="O598" s="59"/>
+      <c r="P598" s="59"/>
     </row>
     <row r="599">
-      <c r="A599" s="44"/>
+      <c r="A599" s="57"/>
+      <c r="E599" s="58"/>
+      <c r="F599" s="59"/>
+      <c r="O599" s="59"/>
+      <c r="P599" s="59"/>
     </row>
     <row r="600">
-      <c r="A600" s="44"/>
+      <c r="A600" s="57"/>
+      <c r="E600" s="58"/>
+      <c r="F600" s="59"/>
+      <c r="O600" s="59"/>
+      <c r="P600" s="59"/>
     </row>
     <row r="601">
-      <c r="A601" s="44"/>
+      <c r="A601" s="57"/>
+      <c r="E601" s="58"/>
+      <c r="F601" s="59"/>
+      <c r="O601" s="59"/>
+      <c r="P601" s="59"/>
     </row>
     <row r="602">
-      <c r="A602" s="44"/>
+      <c r="A602" s="57"/>
+      <c r="E602" s="58"/>
+      <c r="F602" s="59"/>
+      <c r="O602" s="59"/>
+      <c r="P602" s="59"/>
     </row>
     <row r="603">
-      <c r="A603" s="44"/>
+      <c r="A603" s="57"/>
+      <c r="E603" s="58"/>
+      <c r="F603" s="59"/>
+      <c r="O603" s="59"/>
+      <c r="P603" s="59"/>
     </row>
     <row r="604">
-      <c r="A604" s="44"/>
+      <c r="A604" s="57"/>
+      <c r="E604" s="58"/>
+      <c r="F604" s="59"/>
+      <c r="O604" s="59"/>
+      <c r="P604" s="59"/>
     </row>
     <row r="605">
-      <c r="A605" s="44"/>
+      <c r="A605" s="57"/>
+      <c r="E605" s="58"/>
+      <c r="F605" s="59"/>
+      <c r="O605" s="59"/>
+      <c r="P605" s="59"/>
     </row>
     <row r="606">
-      <c r="A606" s="44"/>
+      <c r="A606" s="57"/>
+      <c r="E606" s="58"/>
+      <c r="F606" s="59"/>
+      <c r="O606" s="59"/>
+      <c r="P606" s="59"/>
     </row>
     <row r="607">
-      <c r="A607" s="44"/>
+      <c r="A607" s="57"/>
+      <c r="E607" s="58"/>
+      <c r="F607" s="59"/>
+      <c r="O607" s="59"/>
+      <c r="P607" s="59"/>
     </row>
     <row r="608">
-      <c r="A608" s="44"/>
+      <c r="A608" s="57"/>
+      <c r="E608" s="58"/>
+      <c r="F608" s="59"/>
+      <c r="O608" s="59"/>
+      <c r="P608" s="59"/>
     </row>
     <row r="609">
-      <c r="A609" s="44"/>
+      <c r="A609" s="57"/>
+      <c r="E609" s="58"/>
+      <c r="F609" s="59"/>
+      <c r="O609" s="59"/>
+      <c r="P609" s="59"/>
     </row>
     <row r="610">
-      <c r="A610" s="44"/>
+      <c r="A610" s="57"/>
+      <c r="E610" s="58"/>
+      <c r="F610" s="59"/>
+      <c r="O610" s="59"/>
+      <c r="P610" s="59"/>
     </row>
     <row r="611">
-      <c r="A611" s="44"/>
+      <c r="A611" s="57"/>
+      <c r="E611" s="58"/>
+      <c r="F611" s="59"/>
+      <c r="O611" s="59"/>
+      <c r="P611" s="59"/>
     </row>
     <row r="612">
-      <c r="A612" s="44"/>
+      <c r="A612" s="57"/>
+      <c r="E612" s="58"/>
+      <c r="F612" s="59"/>
+      <c r="O612" s="59"/>
+      <c r="P612" s="59"/>
     </row>
     <row r="613">
-      <c r="A613" s="44"/>
+      <c r="A613" s="57"/>
+      <c r="E613" s="58"/>
+      <c r="F613" s="59"/>
+      <c r="O613" s="59"/>
+      <c r="P613" s="59"/>
     </row>
     <row r="614">
-      <c r="A614" s="44"/>
+      <c r="A614" s="57"/>
+      <c r="E614" s="58"/>
+      <c r="F614" s="59"/>
+      <c r="O614" s="59"/>
+      <c r="P614" s="59"/>
     </row>
     <row r="615">
-      <c r="A615" s="44"/>
+      <c r="A615" s="57"/>
+      <c r="E615" s="58"/>
+      <c r="F615" s="59"/>
+      <c r="O615" s="59"/>
+      <c r="P615" s="59"/>
     </row>
     <row r="616">
-      <c r="A616" s="44"/>
+      <c r="A616" s="57"/>
+      <c r="E616" s="58"/>
+      <c r="F616" s="59"/>
+      <c r="O616" s="59"/>
+      <c r="P616" s="59"/>
     </row>
     <row r="617">
-      <c r="A617" s="44"/>
+      <c r="A617" s="57"/>
+      <c r="E617" s="58"/>
+      <c r="F617" s="59"/>
+      <c r="O617" s="59"/>
+      <c r="P617" s="59"/>
     </row>
     <row r="618">
-      <c r="A618" s="44"/>
+      <c r="A618" s="57"/>
+      <c r="E618" s="58"/>
+      <c r="F618" s="59"/>
+      <c r="O618" s="59"/>
+      <c r="P618" s="59"/>
     </row>
     <row r="619">
-      <c r="A619" s="44"/>
+      <c r="A619" s="57"/>
+      <c r="E619" s="58"/>
+      <c r="F619" s="59"/>
+      <c r="O619" s="59"/>
+      <c r="P619" s="59"/>
     </row>
     <row r="620">
-      <c r="A620" s="44"/>
+      <c r="A620" s="57"/>
+      <c r="E620" s="58"/>
+      <c r="F620" s="59"/>
+      <c r="O620" s="59"/>
+      <c r="P620" s="59"/>
     </row>
     <row r="621">
-      <c r="A621" s="44"/>
+      <c r="A621" s="57"/>
+      <c r="E621" s="58"/>
+      <c r="F621" s="59"/>
+      <c r="O621" s="59"/>
+      <c r="P621" s="59"/>
     </row>
     <row r="622">
-      <c r="A622" s="44"/>
+      <c r="A622" s="57"/>
+      <c r="E622" s="58"/>
+      <c r="F622" s="59"/>
+      <c r="O622" s="59"/>
+      <c r="P622" s="59"/>
     </row>
     <row r="623">
-      <c r="A623" s="44"/>
+      <c r="A623" s="57"/>
+      <c r="E623" s="58"/>
+      <c r="F623" s="59"/>
+      <c r="O623" s="59"/>
+      <c r="P623" s="59"/>
     </row>
     <row r="624">
-      <c r="A624" s="44"/>
+      <c r="A624" s="57"/>
+      <c r="E624" s="58"/>
+      <c r="F624" s="59"/>
+      <c r="O624" s="59"/>
+      <c r="P624" s="59"/>
     </row>
     <row r="625">
-      <c r="A625" s="44"/>
+      <c r="A625" s="57"/>
+      <c r="E625" s="58"/>
+      <c r="F625" s="59"/>
+      <c r="O625" s="59"/>
+      <c r="P625" s="59"/>
     </row>
     <row r="626">
-      <c r="A626" s="44"/>
+      <c r="A626" s="57"/>
+      <c r="E626" s="58"/>
+      <c r="F626" s="59"/>
+      <c r="O626" s="59"/>
+      <c r="P626" s="59"/>
     </row>
     <row r="627">
-      <c r="A627" s="44"/>
+      <c r="A627" s="57"/>
+      <c r="E627" s="58"/>
+      <c r="F627" s="59"/>
+      <c r="O627" s="59"/>
+      <c r="P627" s="59"/>
     </row>
     <row r="628">
-      <c r="A628" s="44"/>
+      <c r="A628" s="57"/>
+      <c r="E628" s="58"/>
+      <c r="F628" s="59"/>
+      <c r="O628" s="59"/>
+      <c r="P628" s="59"/>
     </row>
     <row r="629">
-      <c r="A629" s="44"/>
+      <c r="A629" s="57"/>
+      <c r="E629" s="58"/>
+      <c r="F629" s="59"/>
+      <c r="O629" s="59"/>
+      <c r="P629" s="59"/>
     </row>
     <row r="630">
-      <c r="A630" s="44"/>
+      <c r="A630" s="57"/>
+      <c r="E630" s="58"/>
+      <c r="F630" s="59"/>
+      <c r="O630" s="59"/>
+      <c r="P630" s="59"/>
     </row>
     <row r="631">
-      <c r="A631" s="44"/>
+      <c r="A631" s="57"/>
+      <c r="E631" s="58"/>
+      <c r="F631" s="59"/>
+      <c r="O631" s="59"/>
+      <c r="P631" s="59"/>
     </row>
     <row r="632">
-      <c r="A632" s="44"/>
+      <c r="A632" s="57"/>
+      <c r="E632" s="58"/>
+      <c r="F632" s="59"/>
+      <c r="O632" s="59"/>
+      <c r="P632" s="59"/>
     </row>
     <row r="633">
-      <c r="A633" s="44"/>
+      <c r="A633" s="57"/>
+      <c r="E633" s="58"/>
+      <c r="F633" s="59"/>
+      <c r="O633" s="59"/>
+      <c r="P633" s="59"/>
     </row>
     <row r="634">
-      <c r="A634" s="44"/>
+      <c r="A634" s="57"/>
+      <c r="E634" s="58"/>
+      <c r="F634" s="59"/>
+      <c r="O634" s="59"/>
+      <c r="P634" s="59"/>
     </row>
     <row r="635">
-      <c r="A635" s="44"/>
+      <c r="A635" s="57"/>
+      <c r="E635" s="58"/>
+      <c r="F635" s="59"/>
+      <c r="O635" s="59"/>
+      <c r="P635" s="59"/>
     </row>
     <row r="636">
-      <c r="A636" s="44"/>
+      <c r="A636" s="57"/>
+      <c r="E636" s="58"/>
+      <c r="F636" s="59"/>
+      <c r="O636" s="59"/>
+      <c r="P636" s="59"/>
     </row>
     <row r="637">
-      <c r="A637" s="44"/>
+      <c r="A637" s="57"/>
+      <c r="E637" s="58"/>
+      <c r="F637" s="59"/>
+      <c r="O637" s="59"/>
+      <c r="P637" s="59"/>
     </row>
     <row r="638">
-      <c r="A638" s="44"/>
+      <c r="A638" s="57"/>
+      <c r="E638" s="58"/>
+      <c r="F638" s="59"/>
+      <c r="O638" s="59"/>
+      <c r="P638" s="59"/>
     </row>
     <row r="639">
-      <c r="A639" s="44"/>
+      <c r="A639" s="57"/>
+      <c r="E639" s="58"/>
+      <c r="F639" s="59"/>
+      <c r="O639" s="59"/>
+      <c r="P639" s="59"/>
     </row>
     <row r="640">
-      <c r="A640" s="44"/>
+      <c r="A640" s="57"/>
+      <c r="E640" s="58"/>
+      <c r="F640" s="59"/>
+      <c r="O640" s="59"/>
+      <c r="P640" s="59"/>
     </row>
     <row r="641">
-      <c r="A641" s="44"/>
+      <c r="A641" s="57"/>
+      <c r="E641" s="58"/>
+      <c r="F641" s="59"/>
+      <c r="O641" s="59"/>
+      <c r="P641" s="59"/>
     </row>
     <row r="642">
-      <c r="A642" s="44"/>
+      <c r="A642" s="57"/>
+      <c r="E642" s="58"/>
+      <c r="F642" s="59"/>
+      <c r="O642" s="59"/>
+      <c r="P642" s="59"/>
     </row>
     <row r="643">
-      <c r="A643" s="44"/>
+      <c r="A643" s="57"/>
+      <c r="E643" s="58"/>
+      <c r="F643" s="59"/>
+      <c r="O643" s="59"/>
+      <c r="P643" s="59"/>
     </row>
     <row r="644">
-      <c r="A644" s="44"/>
+      <c r="A644" s="57"/>
+      <c r="E644" s="58"/>
+      <c r="F644" s="59"/>
+      <c r="O644" s="59"/>
+      <c r="P644" s="59"/>
     </row>
     <row r="645">
-      <c r="A645" s="44"/>
+      <c r="A645" s="57"/>
+      <c r="E645" s="58"/>
+      <c r="F645" s="59"/>
+      <c r="O645" s="59"/>
+      <c r="P645" s="59"/>
     </row>
     <row r="646">
-      <c r="A646" s="44"/>
+      <c r="A646" s="57"/>
+      <c r="E646" s="58"/>
+      <c r="F646" s="59"/>
+      <c r="O646" s="59"/>
+      <c r="P646" s="59"/>
     </row>
     <row r="647">
-      <c r="A647" s="44"/>
+      <c r="A647" s="57"/>
+      <c r="E647" s="58"/>
+      <c r="F647" s="59"/>
+      <c r="O647" s="59"/>
+      <c r="P647" s="59"/>
     </row>
     <row r="648">
-      <c r="A648" s="44"/>
+      <c r="A648" s="57"/>
+      <c r="E648" s="58"/>
+      <c r="F648" s="59"/>
+      <c r="O648" s="59"/>
+      <c r="P648" s="59"/>
     </row>
     <row r="649">
-      <c r="A649" s="44"/>
+      <c r="A649" s="57"/>
+      <c r="E649" s="58"/>
+      <c r="F649" s="59"/>
+      <c r="O649" s="59"/>
+      <c r="P649" s="59"/>
     </row>
     <row r="650">
-      <c r="A650" s="44"/>
+      <c r="A650" s="57"/>
+      <c r="E650" s="58"/>
+      <c r="F650" s="59"/>
+      <c r="O650" s="59"/>
+      <c r="P650" s="59"/>
     </row>
     <row r="651">
-      <c r="A651" s="44"/>
+      <c r="A651" s="57"/>
+      <c r="E651" s="58"/>
+      <c r="F651" s="59"/>
+      <c r="O651" s="59"/>
+      <c r="P651" s="59"/>
     </row>
     <row r="652">
-      <c r="A652" s="44"/>
+      <c r="A652" s="57"/>
+      <c r="E652" s="58"/>
+      <c r="F652" s="59"/>
+      <c r="O652" s="59"/>
+      <c r="P652" s="59"/>
     </row>
     <row r="653">
-      <c r="A653" s="44"/>
+      <c r="A653" s="57"/>
+      <c r="E653" s="58"/>
+      <c r="F653" s="59"/>
+      <c r="O653" s="59"/>
+      <c r="P653" s="59"/>
     </row>
     <row r="654">
-      <c r="A654" s="44"/>
+      <c r="A654" s="57"/>
+      <c r="E654" s="58"/>
+      <c r="F654" s="59"/>
+      <c r="O654" s="59"/>
+      <c r="P654" s="59"/>
     </row>
     <row r="655">
-      <c r="A655" s="44"/>
+      <c r="A655" s="57"/>
+      <c r="E655" s="58"/>
+      <c r="F655" s="59"/>
+      <c r="O655" s="59"/>
+      <c r="P655" s="59"/>
     </row>
     <row r="656">
-      <c r="A656" s="44"/>
+      <c r="A656" s="57"/>
+      <c r="E656" s="58"/>
+      <c r="F656" s="59"/>
+      <c r="O656" s="59"/>
+      <c r="P656" s="59"/>
     </row>
     <row r="657">
-      <c r="A657" s="44"/>
+      <c r="A657" s="57"/>
+      <c r="E657" s="58"/>
+      <c r="F657" s="59"/>
+      <c r="O657" s="59"/>
+      <c r="P657" s="59"/>
     </row>
     <row r="658">
-      <c r="A658" s="44"/>
+      <c r="A658" s="57"/>
+      <c r="E658" s="58"/>
+      <c r="F658" s="59"/>
+      <c r="O658" s="59"/>
+      <c r="P658" s="59"/>
     </row>
     <row r="659">
-      <c r="A659" s="44"/>
+      <c r="A659" s="57"/>
+      <c r="E659" s="58"/>
+      <c r="F659" s="59"/>
+      <c r="O659" s="59"/>
+      <c r="P659" s="59"/>
     </row>
     <row r="660">
-      <c r="A660" s="44"/>
+      <c r="A660" s="57"/>
+      <c r="E660" s="58"/>
+      <c r="F660" s="59"/>
+      <c r="O660" s="59"/>
+      <c r="P660" s="59"/>
     </row>
     <row r="661">
-      <c r="A661" s="44"/>
+      <c r="A661" s="57"/>
+      <c r="E661" s="58"/>
+      <c r="F661" s="59"/>
+      <c r="O661" s="59"/>
+      <c r="P661" s="59"/>
     </row>
     <row r="662">
-      <c r="A662" s="44"/>
+      <c r="A662" s="57"/>
+      <c r="E662" s="58"/>
+      <c r="F662" s="59"/>
+      <c r="O662" s="59"/>
+      <c r="P662" s="59"/>
     </row>
     <row r="663">
-      <c r="A663" s="44"/>
+      <c r="A663" s="57"/>
+      <c r="E663" s="58"/>
+      <c r="F663" s="59"/>
+      <c r="O663" s="59"/>
+      <c r="P663" s="59"/>
     </row>
     <row r="664">
-      <c r="A664" s="44"/>
+      <c r="A664" s="57"/>
+      <c r="E664" s="58"/>
+      <c r="F664" s="59"/>
+      <c r="O664" s="59"/>
+      <c r="P664" s="59"/>
     </row>
     <row r="665">
-      <c r="A665" s="44"/>
+      <c r="A665" s="57"/>
+      <c r="E665" s="58"/>
+      <c r="F665" s="59"/>
+      <c r="O665" s="59"/>
+      <c r="P665" s="59"/>
     </row>
     <row r="666">
-      <c r="A666" s="44"/>
+      <c r="A666" s="57"/>
+      <c r="E666" s="58"/>
+      <c r="F666" s="59"/>
+      <c r="O666" s="59"/>
+      <c r="P666" s="59"/>
     </row>
     <row r="667">
-      <c r="A667" s="44"/>
+      <c r="A667" s="57"/>
+      <c r="E667" s="58"/>
+      <c r="F667" s="59"/>
+      <c r="O667" s="59"/>
+      <c r="P667" s="59"/>
     </row>
     <row r="668">
-      <c r="A668" s="44"/>
+      <c r="A668" s="57"/>
+      <c r="E668" s="58"/>
+      <c r="F668" s="59"/>
+      <c r="O668" s="59"/>
+      <c r="P668" s="59"/>
     </row>
     <row r="669">
-      <c r="A669" s="44"/>
+      <c r="A669" s="57"/>
+      <c r="E669" s="58"/>
+      <c r="F669" s="59"/>
+      <c r="O669" s="59"/>
+      <c r="P669" s="59"/>
     </row>
     <row r="670">
-      <c r="A670" s="44"/>
+      <c r="A670" s="57"/>
+      <c r="E670" s="58"/>
+      <c r="F670" s="59"/>
+      <c r="O670" s="59"/>
+      <c r="P670" s="59"/>
     </row>
     <row r="671">
-      <c r="A671" s="44"/>
+      <c r="A671" s="57"/>
+      <c r="E671" s="58"/>
+      <c r="F671" s="59"/>
+      <c r="O671" s="59"/>
+      <c r="P671" s="59"/>
     </row>
     <row r="672">
-      <c r="A672" s="44"/>
+      <c r="A672" s="57"/>
+      <c r="E672" s="58"/>
+      <c r="F672" s="59"/>
+      <c r="O672" s="59"/>
+      <c r="P672" s="59"/>
     </row>
     <row r="673">
-      <c r="A673" s="44"/>
+      <c r="A673" s="57"/>
+      <c r="E673" s="58"/>
+      <c r="F673" s="59"/>
+      <c r="O673" s="59"/>
+      <c r="P673" s="59"/>
     </row>
     <row r="674">
-      <c r="A674" s="44"/>
+      <c r="A674" s="57"/>
+      <c r="E674" s="58"/>
+      <c r="F674" s="59"/>
+      <c r="O674" s="59"/>
+      <c r="P674" s="59"/>
     </row>
     <row r="675">
-      <c r="A675" s="44"/>
+      <c r="A675" s="57"/>
+      <c r="E675" s="58"/>
+      <c r="F675" s="59"/>
+      <c r="O675" s="59"/>
+      <c r="P675" s="59"/>
     </row>
     <row r="676">
-      <c r="A676" s="44"/>
+      <c r="A676" s="57"/>
+      <c r="E676" s="58"/>
+      <c r="F676" s="59"/>
+      <c r="O676" s="59"/>
+      <c r="P676" s="59"/>
     </row>
     <row r="677">
-      <c r="A677" s="44"/>
+      <c r="A677" s="57"/>
+      <c r="E677" s="58"/>
+      <c r="F677" s="59"/>
+      <c r="O677" s="59"/>
+      <c r="P677" s="59"/>
     </row>
     <row r="678">
-      <c r="A678" s="44"/>
+      <c r="A678" s="57"/>
+      <c r="E678" s="58"/>
+      <c r="F678" s="59"/>
+      <c r="O678" s="59"/>
+      <c r="P678" s="59"/>
     </row>
     <row r="679">
-      <c r="A679" s="44"/>
+      <c r="A679" s="57"/>
+      <c r="E679" s="58"/>
+      <c r="F679" s="59"/>
+      <c r="O679" s="59"/>
+      <c r="P679" s="59"/>
     </row>
     <row r="680">
-      <c r="A680" s="44"/>
+      <c r="A680" s="57"/>
+      <c r="E680" s="58"/>
+      <c r="F680" s="59"/>
+      <c r="O680" s="59"/>
+      <c r="P680" s="59"/>
     </row>
     <row r="681">
-      <c r="A681" s="44"/>
+      <c r="A681" s="57"/>
+      <c r="E681" s="58"/>
+      <c r="F681" s="59"/>
+      <c r="O681" s="59"/>
+      <c r="P681" s="59"/>
     </row>
     <row r="682">
-      <c r="A682" s="44"/>
+      <c r="A682" s="57"/>
+      <c r="E682" s="58"/>
+      <c r="F682" s="59"/>
+      <c r="O682" s="59"/>
+      <c r="P682" s="59"/>
     </row>
     <row r="683">
-      <c r="A683" s="44"/>
+      <c r="A683" s="57"/>
+      <c r="E683" s="58"/>
+      <c r="F683" s="59"/>
+      <c r="O683" s="59"/>
+      <c r="P683" s="59"/>
     </row>
     <row r="684">
-      <c r="A684" s="44"/>
+      <c r="A684" s="57"/>
+      <c r="E684" s="58"/>
+      <c r="F684" s="59"/>
+      <c r="O684" s="59"/>
+      <c r="P684" s="59"/>
     </row>
     <row r="685">
-      <c r="A685" s="44"/>
+      <c r="A685" s="57"/>
+      <c r="E685" s="58"/>
+      <c r="F685" s="59"/>
+      <c r="O685" s="59"/>
+      <c r="P685" s="59"/>
     </row>
     <row r="686">
-      <c r="A686" s="44"/>
+      <c r="A686" s="57"/>
+      <c r="E686" s="58"/>
+      <c r="F686" s="59"/>
+      <c r="O686" s="59"/>
+      <c r="P686" s="59"/>
     </row>
     <row r="687">
-      <c r="A687" s="44"/>
+      <c r="A687" s="57"/>
+      <c r="E687" s="58"/>
+      <c r="F687" s="59"/>
+      <c r="O687" s="59"/>
+      <c r="P687" s="59"/>
     </row>
     <row r="688">
-      <c r="A688" s="44"/>
+      <c r="A688" s="57"/>
+      <c r="E688" s="58"/>
+      <c r="F688" s="59"/>
+      <c r="O688" s="59"/>
+      <c r="P688" s="59"/>
     </row>
     <row r="689">
-      <c r="A689" s="44"/>
+      <c r="A689" s="57"/>
+      <c r="E689" s="58"/>
+      <c r="F689" s="59"/>
+      <c r="O689" s="59"/>
+      <c r="P689" s="59"/>
     </row>
     <row r="690">
-      <c r="A690" s="44"/>
+      <c r="A690" s="57"/>
+      <c r="E690" s="58"/>
+      <c r="F690" s="59"/>
+      <c r="O690" s="59"/>
+      <c r="P690" s="59"/>
     </row>
     <row r="691">
-      <c r="A691" s="44"/>
+      <c r="A691" s="57"/>
+      <c r="E691" s="58"/>
+      <c r="F691" s="59"/>
+      <c r="O691" s="59"/>
+      <c r="P691" s="59"/>
     </row>
     <row r="692">
-      <c r="A692" s="44"/>
+      <c r="A692" s="57"/>
+      <c r="E692" s="58"/>
+      <c r="F692" s="59"/>
+      <c r="O692" s="59"/>
+      <c r="P692" s="59"/>
     </row>
     <row r="693">
-      <c r="A693" s="44"/>
+      <c r="A693" s="57"/>
+      <c r="E693" s="58"/>
+      <c r="F693" s="59"/>
+      <c r="O693" s="59"/>
+      <c r="P693" s="59"/>
     </row>
     <row r="694">
-      <c r="A694" s="44"/>
+      <c r="A694" s="57"/>
+      <c r="E694" s="58"/>
+      <c r="F694" s="59"/>
+      <c r="O694" s="59"/>
+      <c r="P694" s="59"/>
     </row>
     <row r="695">
-      <c r="A695" s="44"/>
+      <c r="A695" s="57"/>
+      <c r="E695" s="58"/>
+      <c r="F695" s="59"/>
+      <c r="O695" s="59"/>
+      <c r="P695" s="59"/>
     </row>
     <row r="696">
-      <c r="A696" s="44"/>
+      <c r="A696" s="57"/>
+      <c r="E696" s="58"/>
+      <c r="F696" s="59"/>
+      <c r="O696" s="59"/>
+      <c r="P696" s="59"/>
     </row>
     <row r="697">
-      <c r="A697" s="44"/>
+      <c r="A697" s="57"/>
+      <c r="E697" s="58"/>
+      <c r="F697" s="59"/>
+      <c r="O697" s="59"/>
+      <c r="P697" s="59"/>
     </row>
     <row r="698">
-      <c r="A698" s="44"/>
+      <c r="A698" s="57"/>
+      <c r="E698" s="58"/>
+      <c r="F698" s="59"/>
+      <c r="O698" s="59"/>
+      <c r="P698" s="59"/>
     </row>
     <row r="699">
-      <c r="A699" s="44"/>
+      <c r="A699" s="57"/>
+      <c r="E699" s="58"/>
+      <c r="F699" s="59"/>
+      <c r="O699" s="59"/>
+      <c r="P699" s="59"/>
     </row>
     <row r="700">
-      <c r="A700" s="44"/>
+      <c r="A700" s="57"/>
+      <c r="E700" s="58"/>
+      <c r="F700" s="59"/>
+      <c r="O700" s="59"/>
+      <c r="P700" s="59"/>
     </row>
     <row r="701">
-      <c r="A701" s="44"/>
+      <c r="A701" s="57"/>
+      <c r="E701" s="58"/>
+      <c r="F701" s="59"/>
+      <c r="O701" s="59"/>
+      <c r="P701" s="59"/>
     </row>
     <row r="702">
-      <c r="A702" s="44"/>
+      <c r="A702" s="57"/>
+      <c r="E702" s="58"/>
+      <c r="F702" s="59"/>
+      <c r="O702" s="59"/>
+      <c r="P702" s="59"/>
     </row>
     <row r="703">
-      <c r="A703" s="44"/>
+      <c r="A703" s="57"/>
+      <c r="E703" s="58"/>
+      <c r="F703" s="59"/>
+      <c r="O703" s="59"/>
+      <c r="P703" s="59"/>
     </row>
     <row r="704">
-      <c r="A704" s="44"/>
+      <c r="A704" s="57"/>
+      <c r="E704" s="58"/>
+      <c r="F704" s="59"/>
+      <c r="O704" s="59"/>
+      <c r="P704" s="59"/>
     </row>
     <row r="705">
-      <c r="A705" s="44"/>
+      <c r="A705" s="57"/>
+      <c r="E705" s="58"/>
+      <c r="F705" s="59"/>
+      <c r="O705" s="59"/>
+      <c r="P705" s="59"/>
     </row>
     <row r="706">
-      <c r="A706" s="44"/>
+      <c r="A706" s="57"/>
+      <c r="E706" s="58"/>
+      <c r="F706" s="59"/>
+      <c r="O706" s="59"/>
+      <c r="P706" s="59"/>
     </row>
     <row r="707">
-      <c r="A707" s="44"/>
+      <c r="A707" s="57"/>
+      <c r="E707" s="58"/>
+      <c r="F707" s="59"/>
+      <c r="O707" s="59"/>
+      <c r="P707" s="59"/>
     </row>
     <row r="708">
-      <c r="A708" s="44"/>
+      <c r="A708" s="57"/>
+      <c r="E708" s="58"/>
+      <c r="F708" s="59"/>
+      <c r="O708" s="59"/>
+      <c r="P708" s="59"/>
     </row>
     <row r="709">
-      <c r="A709" s="44"/>
+      <c r="A709" s="57"/>
+      <c r="E709" s="58"/>
+      <c r="F709" s="59"/>
+      <c r="O709" s="59"/>
+      <c r="P709" s="59"/>
     </row>
     <row r="710">
-      <c r="A710" s="44"/>
+      <c r="A710" s="57"/>
+      <c r="E710" s="58"/>
+      <c r="F710" s="59"/>
+      <c r="O710" s="59"/>
+      <c r="P710" s="59"/>
     </row>
     <row r="711">
-      <c r="A711" s="44"/>
+      <c r="A711" s="57"/>
+      <c r="E711" s="58"/>
+      <c r="F711" s="59"/>
+      <c r="O711" s="59"/>
+      <c r="P711" s="59"/>
     </row>
     <row r="712">
-      <c r="A712" s="44"/>
+      <c r="A712" s="57"/>
+      <c r="E712" s="58"/>
+      <c r="F712" s="59"/>
+      <c r="O712" s="59"/>
+      <c r="P712" s="59"/>
     </row>
     <row r="713">
-      <c r="A713" s="44"/>
+      <c r="A713" s="57"/>
+      <c r="E713" s="58"/>
+      <c r="F713" s="59"/>
+      <c r="O713" s="59"/>
+      <c r="P713" s="59"/>
     </row>
     <row r="714">
-      <c r="A714" s="44"/>
+      <c r="A714" s="57"/>
+      <c r="E714" s="58"/>
+      <c r="F714" s="59"/>
+      <c r="O714" s="59"/>
+      <c r="P714" s="59"/>
     </row>
     <row r="715">
-      <c r="A715" s="44"/>
+      <c r="A715" s="57"/>
+      <c r="E715" s="58"/>
+      <c r="F715" s="59"/>
+      <c r="O715" s="59"/>
+      <c r="P715" s="59"/>
     </row>
     <row r="716">
-      <c r="A716" s="44"/>
+      <c r="A716" s="57"/>
+      <c r="E716" s="58"/>
+      <c r="F716" s="59"/>
+      <c r="O716" s="59"/>
+      <c r="P716" s="59"/>
     </row>
     <row r="717">
-      <c r="A717" s="44"/>
+      <c r="A717" s="57"/>
+      <c r="E717" s="58"/>
+      <c r="F717" s="59"/>
+      <c r="O717" s="59"/>
+      <c r="P717" s="59"/>
     </row>
     <row r="718">
-      <c r="A718" s="44"/>
+      <c r="A718" s="57"/>
+      <c r="E718" s="58"/>
+      <c r="F718" s="59"/>
+      <c r="O718" s="59"/>
+      <c r="P718" s="59"/>
     </row>
     <row r="719">
-      <c r="A719" s="44"/>
+      <c r="A719" s="57"/>
+      <c r="E719" s="58"/>
+      <c r="F719" s="59"/>
+      <c r="O719" s="59"/>
+      <c r="P719" s="59"/>
     </row>
     <row r="720">
-      <c r="A720" s="44"/>
+      <c r="A720" s="57"/>
+      <c r="E720" s="58"/>
+      <c r="F720" s="59"/>
+      <c r="O720" s="59"/>
+      <c r="P720" s="59"/>
     </row>
     <row r="721">
-      <c r="A721" s="44"/>
+      <c r="A721" s="57"/>
+      <c r="E721" s="58"/>
+      <c r="F721" s="59"/>
+      <c r="O721" s="59"/>
+      <c r="P721" s="59"/>
     </row>
     <row r="722">
-      <c r="A722" s="44"/>
+      <c r="A722" s="57"/>
+      <c r="E722" s="58"/>
+      <c r="F722" s="59"/>
+      <c r="O722" s="59"/>
+      <c r="P722" s="59"/>
     </row>
     <row r="723">
-      <c r="A723" s="44"/>
+      <c r="A723" s="57"/>
+      <c r="E723" s="58"/>
+      <c r="F723" s="59"/>
+      <c r="O723" s="59"/>
+      <c r="P723" s="59"/>
     </row>
     <row r="724">
-      <c r="A724" s="44"/>
+      <c r="A724" s="57"/>
+      <c r="E724" s="58"/>
+      <c r="F724" s="59"/>
+      <c r="O724" s="59"/>
+      <c r="P724" s="59"/>
     </row>
     <row r="725">
-      <c r="A725" s="44"/>
+      <c r="A725" s="57"/>
+      <c r="E725" s="58"/>
+      <c r="F725" s="59"/>
+      <c r="O725" s="59"/>
+      <c r="P725" s="59"/>
     </row>
     <row r="726">
-      <c r="A726" s="44"/>
+      <c r="A726" s="57"/>
+      <c r="E726" s="58"/>
+      <c r="F726" s="59"/>
+      <c r="O726" s="59"/>
+      <c r="P726" s="59"/>
     </row>
     <row r="727">
-      <c r="A727" s="44"/>
+      <c r="A727" s="57"/>
+      <c r="E727" s="58"/>
+      <c r="F727" s="59"/>
+      <c r="O727" s="59"/>
+      <c r="P727" s="59"/>
     </row>
     <row r="728">
-      <c r="A728" s="44"/>
+      <c r="A728" s="57"/>
+      <c r="E728" s="58"/>
+      <c r="F728" s="59"/>
+      <c r="O728" s="59"/>
+      <c r="P728" s="59"/>
     </row>
     <row r="729">
-      <c r="A729" s="44"/>
+      <c r="A729" s="57"/>
+      <c r="E729" s="58"/>
+      <c r="F729" s="59"/>
+      <c r="O729" s="59"/>
+      <c r="P729" s="59"/>
     </row>
     <row r="730">
-      <c r="A730" s="44"/>
+      <c r="A730" s="57"/>
+      <c r="E730" s="58"/>
+      <c r="F730" s="59"/>
+      <c r="O730" s="59"/>
+      <c r="P730" s="59"/>
     </row>
     <row r="731">
-      <c r="A731" s="44"/>
+      <c r="A731" s="57"/>
+      <c r="E731" s="58"/>
+      <c r="F731" s="59"/>
+      <c r="O731" s="59"/>
+      <c r="P731" s="59"/>
     </row>
     <row r="732">
-      <c r="A732" s="44"/>
+      <c r="A732" s="57"/>
+      <c r="E732" s="58"/>
+      <c r="F732" s="59"/>
+      <c r="O732" s="59"/>
+      <c r="P732" s="59"/>
     </row>
     <row r="733">
-      <c r="A733" s="44"/>
+      <c r="A733" s="57"/>
+      <c r="E733" s="58"/>
+      <c r="F733" s="59"/>
+      <c r="O733" s="59"/>
+      <c r="P733" s="59"/>
     </row>
     <row r="734">
-      <c r="A734" s="44"/>
+      <c r="A734" s="57"/>
+      <c r="E734" s="58"/>
+      <c r="F734" s="59"/>
+      <c r="O734" s="59"/>
+      <c r="P734" s="59"/>
     </row>
     <row r="735">
-      <c r="A735" s="44"/>
+      <c r="A735" s="57"/>
+      <c r="E735" s="58"/>
+      <c r="F735" s="59"/>
+      <c r="O735" s="59"/>
+      <c r="P735" s="59"/>
     </row>
     <row r="736">
-      <c r="A736" s="44"/>
+      <c r="A736" s="57"/>
+      <c r="E736" s="58"/>
+      <c r="F736" s="59"/>
+      <c r="O736" s="59"/>
+      <c r="P736" s="59"/>
     </row>
     <row r="737">
-      <c r="A737" s="44"/>
+      <c r="A737" s="57"/>
+      <c r="E737" s="58"/>
+      <c r="F737" s="59"/>
+      <c r="O737" s="59"/>
+      <c r="P737" s="59"/>
     </row>
     <row r="738">
-      <c r="A738" s="44"/>
+      <c r="A738" s="57"/>
+      <c r="E738" s="58"/>
+      <c r="F738" s="59"/>
+      <c r="O738" s="59"/>
+      <c r="P738" s="59"/>
     </row>
     <row r="739">
-      <c r="A739" s="44"/>
+      <c r="A739" s="57"/>
+      <c r="E739" s="58"/>
+      <c r="F739" s="59"/>
+      <c r="O739" s="59"/>
+      <c r="P739" s="59"/>
     </row>
     <row r="740">
-      <c r="A740" s="44"/>
+      <c r="A740" s="57"/>
+      <c r="E740" s="58"/>
+      <c r="F740" s="59"/>
+      <c r="O740" s="59"/>
+      <c r="P740" s="59"/>
     </row>
     <row r="741">
-      <c r="A741" s="44"/>
+      <c r="A741" s="57"/>
+      <c r="E741" s="58"/>
+      <c r="F741" s="59"/>
+      <c r="O741" s="59"/>
+      <c r="P741" s="59"/>
     </row>
     <row r="742">
-      <c r="A742" s="44"/>
+      <c r="A742" s="57"/>
+      <c r="E742" s="58"/>
+      <c r="F742" s="59"/>
+      <c r="O742" s="59"/>
+      <c r="P742" s="59"/>
     </row>
     <row r="743">
-      <c r="A743" s="44"/>
+      <c r="A743" s="57"/>
+      <c r="E743" s="58"/>
+      <c r="F743" s="59"/>
+      <c r="O743" s="59"/>
+      <c r="P743" s="59"/>
     </row>
     <row r="744">
-      <c r="A744" s="44"/>
+      <c r="A744" s="57"/>
+      <c r="E744" s="58"/>
+      <c r="F744" s="59"/>
+      <c r="O744" s="59"/>
+      <c r="P744" s="59"/>
     </row>
     <row r="745">
-      <c r="A745" s="44"/>
+      <c r="A745" s="57"/>
+      <c r="E745" s="58"/>
+      <c r="F745" s="59"/>
+      <c r="O745" s="59"/>
+      <c r="P745" s="59"/>
     </row>
     <row r="746">
-      <c r="A746" s="44"/>
+      <c r="A746" s="57"/>
+      <c r="E746" s="58"/>
+      <c r="F746" s="59"/>
+      <c r="O746" s="59"/>
+      <c r="P746" s="59"/>
     </row>
     <row r="747">
-      <c r="A747" s="44"/>
+      <c r="A747" s="57"/>
+      <c r="E747" s="58"/>
+      <c r="F747" s="59"/>
+      <c r="O747" s="59"/>
+      <c r="P747" s="59"/>
     </row>
     <row r="748">
-      <c r="A748" s="44"/>
+      <c r="A748" s="57"/>
+      <c r="E748" s="58"/>
+      <c r="F748" s="59"/>
+      <c r="O748" s="59"/>
+      <c r="P748" s="59"/>
     </row>
     <row r="749">
-      <c r="A749" s="44"/>
+      <c r="A749" s="57"/>
+      <c r="E749" s="58"/>
+      <c r="F749" s="59"/>
+      <c r="O749" s="59"/>
+      <c r="P749" s="59"/>
     </row>
     <row r="750">
-      <c r="A750" s="44"/>
+      <c r="A750" s="57"/>
+      <c r="E750" s="58"/>
+      <c r="F750" s="59"/>
+      <c r="O750" s="59"/>
+      <c r="P750" s="59"/>
     </row>
     <row r="751">
-      <c r="A751" s="44"/>
+      <c r="A751" s="57"/>
+      <c r="E751" s="58"/>
+      <c r="F751" s="59"/>
+      <c r="O751" s="59"/>
+      <c r="P751" s="59"/>
     </row>
     <row r="752">
-      <c r="A752" s="44"/>
+      <c r="A752" s="57"/>
+      <c r="E752" s="58"/>
+      <c r="F752" s="59"/>
+      <c r="O752" s="59"/>
+      <c r="P752" s="59"/>
     </row>
     <row r="753">
-      <c r="A753" s="44"/>
+      <c r="A753" s="57"/>
+      <c r="E753" s="58"/>
+      <c r="F753" s="59"/>
+      <c r="O753" s="59"/>
+      <c r="P753" s="59"/>
     </row>
     <row r="754">
-      <c r="A754" s="44"/>
+      <c r="A754" s="57"/>
+      <c r="E754" s="58"/>
+      <c r="F754" s="59"/>
+      <c r="O754" s="59"/>
+      <c r="P754" s="59"/>
     </row>
     <row r="755">
-      <c r="A755" s="44"/>
+      <c r="A755" s="57"/>
+      <c r="E755" s="58"/>
+      <c r="F755" s="59"/>
+      <c r="O755" s="59"/>
+      <c r="P755" s="59"/>
     </row>
     <row r="756">
-      <c r="A756" s="44"/>
+      <c r="A756" s="57"/>
+      <c r="E756" s="58"/>
+      <c r="F756" s="59"/>
+      <c r="O756" s="59"/>
+      <c r="P756" s="59"/>
     </row>
     <row r="757">
-      <c r="A757" s="44"/>
+      <c r="A757" s="57"/>
+      <c r="E757" s="58"/>
+      <c r="F757" s="59"/>
+      <c r="O757" s="59"/>
+      <c r="P757" s="59"/>
     </row>
     <row r="758">
-      <c r="A758" s="44"/>
+      <c r="A758" s="57"/>
+      <c r="E758" s="58"/>
+      <c r="F758" s="59"/>
+      <c r="O758" s="59"/>
+      <c r="P758" s="59"/>
     </row>
     <row r="759">
-      <c r="A759" s="44"/>
+      <c r="A759" s="57"/>
+      <c r="E759" s="58"/>
+      <c r="F759" s="59"/>
+      <c r="O759" s="59"/>
+      <c r="P759" s="59"/>
     </row>
     <row r="760">
-      <c r="A760" s="44"/>
+      <c r="A760" s="57"/>
+      <c r="E760" s="58"/>
+      <c r="F760" s="59"/>
+      <c r="O760" s="59"/>
+      <c r="P760" s="59"/>
     </row>
     <row r="761">
-      <c r="A761" s="44"/>
+      <c r="A761" s="57"/>
+      <c r="E761" s="58"/>
+      <c r="F761" s="59"/>
+      <c r="O761" s="59"/>
+      <c r="P761" s="59"/>
     </row>
     <row r="762">
-      <c r="A762" s="44"/>
+      <c r="A762" s="57"/>
+      <c r="E762" s="58"/>
+      <c r="F762" s="59"/>
+      <c r="O762" s="59"/>
+      <c r="P762" s="59"/>
     </row>
     <row r="763">
-      <c r="A763" s="44"/>
+      <c r="A763" s="57"/>
+      <c r="E763" s="58"/>
+      <c r="F763" s="59"/>
+      <c r="O763" s="59"/>
+      <c r="P763" s="59"/>
     </row>
     <row r="764">
-      <c r="A764" s="44"/>
+      <c r="A764" s="57"/>
+      <c r="E764" s="58"/>
+      <c r="F764" s="59"/>
+      <c r="O764" s="59"/>
+      <c r="P764" s="59"/>
     </row>
     <row r="765">
-      <c r="A765" s="44"/>
+      <c r="A765" s="57"/>
+      <c r="E765" s="58"/>
+      <c r="F765" s="59"/>
+      <c r="O765" s="59"/>
+      <c r="P765" s="59"/>
     </row>
     <row r="766">
-      <c r="A766" s="44"/>
+      <c r="A766" s="57"/>
+      <c r="E766" s="58"/>
+      <c r="F766" s="59"/>
+      <c r="O766" s="59"/>
+      <c r="P766" s="59"/>
     </row>
     <row r="767">
-      <c r="A767" s="44"/>
+      <c r="A767" s="57"/>
+      <c r="E767" s="58"/>
+      <c r="F767" s="59"/>
+      <c r="O767" s="59"/>
+      <c r="P767" s="59"/>
     </row>
     <row r="768">
-      <c r="A768" s="44"/>
+      <c r="A768" s="57"/>
+      <c r="E768" s="58"/>
+      <c r="F768" s="59"/>
+      <c r="O768" s="59"/>
+      <c r="P768" s="59"/>
     </row>
     <row r="769">
-      <c r="A769" s="44"/>
+      <c r="A769" s="57"/>
+      <c r="E769" s="58"/>
+      <c r="F769" s="59"/>
+      <c r="O769" s="59"/>
+      <c r="P769" s="59"/>
     </row>
     <row r="770">
-      <c r="A770" s="44"/>
+      <c r="A770" s="57"/>
+      <c r="E770" s="58"/>
+      <c r="F770" s="59"/>
+      <c r="O770" s="59"/>
+      <c r="P770" s="59"/>
     </row>
     <row r="771">
-      <c r="A771" s="44"/>
+      <c r="A771" s="57"/>
+      <c r="E771" s="58"/>
+      <c r="F771" s="59"/>
+      <c r="O771" s="59"/>
+      <c r="P771" s="59"/>
     </row>
     <row r="772">
-      <c r="A772" s="44"/>
+      <c r="A772" s="57"/>
+      <c r="E772" s="58"/>
+      <c r="F772" s="59"/>
+      <c r="O772" s="59"/>
+      <c r="P772" s="59"/>
     </row>
     <row r="773">
-      <c r="A773" s="44"/>
+      <c r="A773" s="57"/>
+      <c r="E773" s="58"/>
+      <c r="F773" s="59"/>
+      <c r="O773" s="59"/>
+      <c r="P773" s="59"/>
     </row>
     <row r="774">
-      <c r="A774" s="44"/>
+      <c r="A774" s="57"/>
+      <c r="E774" s="58"/>
+      <c r="F774" s="59"/>
+      <c r="O774" s="59"/>
+      <c r="P774" s="59"/>
     </row>
     <row r="775">
-      <c r="A775" s="44"/>
+      <c r="A775" s="57"/>
+      <c r="E775" s="58"/>
+      <c r="F775" s="59"/>
+      <c r="O775" s="59"/>
+      <c r="P775" s="59"/>
     </row>
     <row r="776">
-      <c r="A776" s="44"/>
+      <c r="A776" s="57"/>
+      <c r="E776" s="58"/>
+      <c r="F776" s="59"/>
+      <c r="O776" s="59"/>
+      <c r="P776" s="59"/>
     </row>
     <row r="777">
-      <c r="A777" s="44"/>
+      <c r="A777" s="57"/>
+      <c r="E777" s="58"/>
+      <c r="F777" s="59"/>
+      <c r="O777" s="59"/>
+      <c r="P777" s="59"/>
     </row>
     <row r="778">
-      <c r="A778" s="44"/>
+      <c r="A778" s="57"/>
+      <c r="E778" s="58"/>
+      <c r="F778" s="59"/>
+      <c r="O778" s="59"/>
+      <c r="P778" s="59"/>
     </row>
     <row r="779">
-      <c r="A779" s="44"/>
+      <c r="A779" s="57"/>
+      <c r="E779" s="58"/>
+      <c r="F779" s="59"/>
+      <c r="O779" s="59"/>
+      <c r="P779" s="59"/>
     </row>
     <row r="780">
-      <c r="A780" s="44"/>
+      <c r="A780" s="57"/>
+      <c r="E780" s="58"/>
+      <c r="F780" s="59"/>
+      <c r="O780" s="59"/>
+      <c r="P780" s="59"/>
     </row>
     <row r="781">
-      <c r="A781" s="44"/>
+      <c r="A781" s="57"/>
+      <c r="E781" s="58"/>
+      <c r="F781" s="59"/>
+      <c r="O781" s="59"/>
+      <c r="P781" s="59"/>
     </row>
     <row r="782">
-      <c r="A782" s="44"/>
+      <c r="A782" s="57"/>
+      <c r="E782" s="58"/>
+      <c r="F782" s="59"/>
+      <c r="O782" s="59"/>
+      <c r="P782" s="59"/>
     </row>
     <row r="783">
-      <c r="A783" s="44"/>
+      <c r="A783" s="57"/>
+      <c r="E783" s="58"/>
+      <c r="F783" s="59"/>
+      <c r="O783" s="59"/>
+      <c r="P783" s="59"/>
     </row>
     <row r="784">
-      <c r="A784" s="44"/>
+      <c r="A784" s="57"/>
+      <c r="E784" s="58"/>
+      <c r="F784" s="59"/>
+      <c r="O784" s="59"/>
+      <c r="P784" s="59"/>
     </row>
     <row r="785">
-      <c r="A785" s="44"/>
+      <c r="A785" s="57"/>
+      <c r="E785" s="58"/>
+      <c r="F785" s="59"/>
+      <c r="O785" s="59"/>
+      <c r="P785" s="59"/>
     </row>
     <row r="786">
-      <c r="A786" s="44"/>
+      <c r="A786" s="57"/>
+      <c r="E786" s="58"/>
+      <c r="F786" s="59"/>
+      <c r="O786" s="59"/>
+      <c r="P786" s="59"/>
     </row>
     <row r="787">
-      <c r="A787" s="44"/>
+      <c r="A787" s="57"/>
+      <c r="E787" s="58"/>
+      <c r="F787" s="59"/>
+      <c r="O787" s="59"/>
+      <c r="P787" s="59"/>
     </row>
     <row r="788">
-      <c r="A788" s="44"/>
+      <c r="A788" s="57"/>
+      <c r="E788" s="58"/>
+      <c r="F788" s="59"/>
+      <c r="O788" s="59"/>
+      <c r="P788" s="59"/>
     </row>
     <row r="789">
-      <c r="A789" s="44"/>
+      <c r="A789" s="57"/>
+      <c r="E789" s="58"/>
+      <c r="F789" s="59"/>
+      <c r="O789" s="59"/>
+      <c r="P789" s="59"/>
     </row>
     <row r="790">
-      <c r="A790" s="44"/>
+      <c r="A790" s="57"/>
+      <c r="E790" s="58"/>
+      <c r="F790" s="59"/>
+      <c r="O790" s="59"/>
+      <c r="P790" s="59"/>
     </row>
     <row r="791">
-      <c r="A791" s="44"/>
+      <c r="A791" s="57"/>
+      <c r="E791" s="58"/>
+      <c r="F791" s="59"/>
+      <c r="O791" s="59"/>
+      <c r="P791" s="59"/>
     </row>
     <row r="792">
-      <c r="A792" s="44"/>
+      <c r="A792" s="57"/>
+      <c r="E792" s="58"/>
+      <c r="F792" s="59"/>
+      <c r="O792" s="59"/>
+      <c r="P792" s="59"/>
     </row>
     <row r="793">
-      <c r="A793" s="44"/>
+      <c r="A793" s="57"/>
+      <c r="E793" s="58"/>
+      <c r="F793" s="59"/>
+      <c r="O793" s="59"/>
+      <c r="P793" s="59"/>
     </row>
     <row r="794">
-      <c r="A794" s="44"/>
+      <c r="A794" s="57"/>
+      <c r="E794" s="58"/>
+      <c r="F794" s="59"/>
+      <c r="O794" s="59"/>
+      <c r="P794" s="59"/>
     </row>
     <row r="795">
-      <c r="A795" s="44"/>
+      <c r="A795" s="57"/>
+      <c r="E795" s="58"/>
+      <c r="F795" s="59"/>
+      <c r="O795" s="59"/>
+      <c r="P795" s="59"/>
     </row>
     <row r="796">
-      <c r="A796" s="44"/>
+      <c r="A796" s="57"/>
+      <c r="E796" s="58"/>
+      <c r="F796" s="59"/>
+      <c r="O796" s="59"/>
+      <c r="P796" s="59"/>
     </row>
     <row r="797">
-      <c r="A797" s="44"/>
+      <c r="A797" s="57"/>
+      <c r="E797" s="58"/>
+      <c r="F797" s="59"/>
+      <c r="O797" s="59"/>
+      <c r="P797" s="59"/>
     </row>
     <row r="798">
-      <c r="A798" s="44"/>
+      <c r="A798" s="57"/>
+      <c r="E798" s="58"/>
+      <c r="F798" s="59"/>
+      <c r="O798" s="59"/>
+      <c r="P798" s="59"/>
     </row>
     <row r="799">
-      <c r="A799" s="44"/>
+      <c r="A799" s="57"/>
+      <c r="E799" s="58"/>
+      <c r="F799" s="59"/>
+      <c r="O799" s="59"/>
+      <c r="P799" s="59"/>
     </row>
     <row r="800">
-      <c r="A800" s="44"/>
+      <c r="A800" s="57"/>
+      <c r="E800" s="58"/>
+      <c r="F800" s="59"/>
+      <c r="O800" s="59"/>
+      <c r="P800" s="59"/>
     </row>
     <row r="801">
-      <c r="A801" s="44"/>
+      <c r="A801" s="57"/>
+      <c r="E801" s="58"/>
+      <c r="F801" s="59"/>
+      <c r="O801" s="59"/>
+      <c r="P801" s="59"/>
     </row>
     <row r="802">
-      <c r="A802" s="44"/>
+      <c r="A802" s="57"/>
+      <c r="E802" s="58"/>
+      <c r="F802" s="59"/>
+      <c r="O802" s="59"/>
+      <c r="P802" s="59"/>
     </row>
     <row r="803">
-      <c r="A803" s="44"/>
+      <c r="A803" s="57"/>
+      <c r="E803" s="58"/>
+      <c r="F803" s="59"/>
+      <c r="O803" s="59"/>
+      <c r="P803" s="59"/>
     </row>
     <row r="804">
-      <c r="A804" s="44"/>
+      <c r="A804" s="57"/>
+      <c r="E804" s="58"/>
+      <c r="F804" s="59"/>
+      <c r="O804" s="59"/>
+      <c r="P804" s="59"/>
     </row>
     <row r="805">
-      <c r="A805" s="44"/>
+      <c r="A805" s="57"/>
+      <c r="E805" s="58"/>
+      <c r="F805" s="59"/>
+      <c r="O805" s="59"/>
+      <c r="P805" s="59"/>
     </row>
     <row r="806">
-      <c r="A806" s="44"/>
+      <c r="A806" s="57"/>
+      <c r="E806" s="58"/>
+      <c r="F806" s="59"/>
+      <c r="O806" s="59"/>
+      <c r="P806" s="59"/>
     </row>
     <row r="807">
-      <c r="A807" s="44"/>
+      <c r="A807" s="57"/>
+      <c r="E807" s="58"/>
+      <c r="F807" s="59"/>
+      <c r="O807" s="59"/>
+      <c r="P807" s="59"/>
     </row>
     <row r="808">
-      <c r="A808" s="44"/>
+      <c r="A808" s="57"/>
+      <c r="E808" s="58"/>
+      <c r="F808" s="59"/>
+      <c r="O808" s="59"/>
+      <c r="P808" s="59"/>
     </row>
     <row r="809">
-      <c r="A809" s="44"/>
+      <c r="A809" s="57"/>
+      <c r="E809" s="58"/>
+      <c r="F809" s="59"/>
+      <c r="O809" s="59"/>
+      <c r="P809" s="59"/>
     </row>
     <row r="810">
-      <c r="A810" s="44"/>
+      <c r="A810" s="57"/>
+      <c r="E810" s="58"/>
+      <c r="F810" s="59"/>
+      <c r="O810" s="59"/>
+      <c r="P810" s="59"/>
     </row>
     <row r="811">
-      <c r="A811" s="44"/>
+      <c r="A811" s="57"/>
+      <c r="E811" s="58"/>
+      <c r="F811" s="59"/>
+      <c r="O811" s="59"/>
+      <c r="P811" s="59"/>
     </row>
     <row r="812">
-      <c r="A812" s="44"/>
+      <c r="A812" s="57"/>
+      <c r="E812" s="58"/>
+      <c r="F812" s="59"/>
+      <c r="O812" s="59"/>
+      <c r="P812" s="59"/>
     </row>
     <row r="813">
-      <c r="A813" s="44"/>
+      <c r="A813" s="57"/>
+      <c r="E813" s="58"/>
+      <c r="F813" s="59"/>
+      <c r="O813" s="59"/>
+      <c r="P813" s="59"/>
     </row>
     <row r="814">
-      <c r="A814" s="44"/>
+      <c r="A814" s="57"/>
+      <c r="E814" s="58"/>
+      <c r="F814" s="59"/>
+      <c r="O814" s="59"/>
+      <c r="P814" s="59"/>
     </row>
     <row r="815">
-      <c r="A815" s="44"/>
+      <c r="A815" s="57"/>
+      <c r="E815" s="58"/>
+      <c r="F815" s="59"/>
+      <c r="O815" s="59"/>
+      <c r="P815" s="59"/>
     </row>
     <row r="816">
-      <c r="A816" s="44"/>
+      <c r="A816" s="57"/>
+      <c r="E816" s="58"/>
+      <c r="F816" s="59"/>
+      <c r="O816" s="59"/>
+      <c r="P816" s="59"/>
     </row>
     <row r="817">
-      <c r="A817" s="44"/>
+      <c r="A817" s="57"/>
+      <c r="E817" s="58"/>
+      <c r="F817" s="59"/>
+      <c r="O817" s="59"/>
+      <c r="P817" s="59"/>
     </row>
     <row r="818">
-      <c r="A818" s="44"/>
+      <c r="A818" s="57"/>
+      <c r="E818" s="58"/>
+      <c r="F818" s="59"/>
+      <c r="O818" s="59"/>
+      <c r="P818" s="59"/>
     </row>
     <row r="819">
-      <c r="A819" s="44"/>
+      <c r="A819" s="57"/>
+      <c r="E819" s="58"/>
+      <c r="F819" s="59"/>
+      <c r="O819" s="59"/>
+      <c r="P819" s="59"/>
     </row>
     <row r="820">
-      <c r="A820" s="44"/>
+      <c r="A820" s="57"/>
+      <c r="E820" s="58"/>
+      <c r="F820" s="59"/>
+      <c r="O820" s="59"/>
+      <c r="P820" s="59"/>
     </row>
     <row r="821">
-      <c r="A821" s="44"/>
+      <c r="A821" s="57"/>
+      <c r="E821" s="58"/>
+      <c r="F821" s="59"/>
+      <c r="O821" s="59"/>
+      <c r="P821" s="59"/>
     </row>
     <row r="822">
-      <c r="A822" s="44"/>
+      <c r="A822" s="57"/>
+      <c r="E822" s="58"/>
+      <c r="F822" s="59"/>
+      <c r="O822" s="59"/>
+      <c r="P822" s="59"/>
     </row>
     <row r="823">
-      <c r="A823" s="44"/>
+      <c r="A823" s="57"/>
+      <c r="E823" s="58"/>
+      <c r="F823" s="59"/>
+      <c r="O823" s="59"/>
+      <c r="P823" s="59"/>
     </row>
     <row r="824">
-      <c r="A824" s="44"/>
+      <c r="A824" s="57"/>
+      <c r="E824" s="58"/>
+      <c r="F824" s="59"/>
+      <c r="O824" s="59"/>
+      <c r="P824" s="59"/>
     </row>
     <row r="825">
-      <c r="A825" s="44"/>
+      <c r="A825" s="57"/>
+      <c r="E825" s="58"/>
+      <c r="F825" s="59"/>
+      <c r="O825" s="59"/>
+      <c r="P825" s="59"/>
     </row>
     <row r="826">
-      <c r="A826" s="44"/>
+      <c r="A826" s="57"/>
+      <c r="E826" s="58"/>
+      <c r="F826" s="59"/>
+      <c r="O826" s="59"/>
+      <c r="P826" s="59"/>
     </row>
     <row r="827">
-      <c r="A827" s="44"/>
+      <c r="A827" s="57"/>
+      <c r="E827" s="58"/>
+      <c r="F827" s="59"/>
+      <c r="O827" s="59"/>
+      <c r="P827" s="59"/>
     </row>
     <row r="828">
-      <c r="A828" s="44"/>
+      <c r="A828" s="57"/>
+      <c r="E828" s="58"/>
+      <c r="F828" s="59"/>
+      <c r="O828" s="59"/>
+      <c r="P828" s="59"/>
     </row>
     <row r="829">
-      <c r="A829" s="44"/>
+      <c r="A829" s="57"/>
+      <c r="E829" s="58"/>
+      <c r="F829" s="59"/>
+      <c r="O829" s="59"/>
+      <c r="P829" s="59"/>
     </row>
     <row r="830">
-      <c r="A830" s="44"/>
+      <c r="A830" s="57"/>
+      <c r="E830" s="58"/>
+      <c r="F830" s="59"/>
+      <c r="O830" s="59"/>
+      <c r="P830" s="59"/>
     </row>
     <row r="831">
-      <c r="A831" s="44"/>
+      <c r="A831" s="57"/>
+      <c r="E831" s="58"/>
+      <c r="F831" s="59"/>
+      <c r="O831" s="59"/>
+      <c r="P831" s="59"/>
     </row>
     <row r="832">
-      <c r="A832" s="44"/>
+      <c r="A832" s="57"/>
+      <c r="E832" s="58"/>
+      <c r="F832" s="59"/>
+      <c r="O832" s="59"/>
+      <c r="P832" s="59"/>
     </row>
     <row r="833">
-      <c r="A833" s="44"/>
+      <c r="A833" s="57"/>
+      <c r="E833" s="58"/>
+      <c r="F833" s="59"/>
+      <c r="O833" s="59"/>
+      <c r="P833" s="59"/>
     </row>
     <row r="834">
-      <c r="A834" s="44"/>
+      <c r="A834" s="57"/>
+      <c r="E834" s="58"/>
+      <c r="F834" s="59"/>
+      <c r="O834" s="59"/>
+      <c r="P834" s="59"/>
     </row>
     <row r="835">
-      <c r="A835" s="44"/>
+      <c r="A835" s="57"/>
+      <c r="E835" s="58"/>
+      <c r="F835" s="59"/>
+      <c r="O835" s="59"/>
+      <c r="P835" s="59"/>
     </row>
     <row r="836">
-      <c r="A836" s="44"/>
+      <c r="A836" s="57"/>
+      <c r="E836" s="58"/>
+      <c r="F836" s="59"/>
+      <c r="O836" s="59"/>
+      <c r="P836" s="59"/>
     </row>
     <row r="837">
-      <c r="A837" s="44"/>
+      <c r="A837" s="57"/>
+      <c r="E837" s="58"/>
+      <c r="F837" s="59"/>
+      <c r="O837" s="59"/>
+      <c r="P837" s="59"/>
     </row>
     <row r="838">
-      <c r="A838" s="44"/>
+      <c r="A838" s="57"/>
+      <c r="E838" s="58"/>
+      <c r="F838" s="59"/>
+      <c r="O838" s="59"/>
+      <c r="P838" s="59"/>
     </row>
     <row r="839">
-      <c r="A839" s="44"/>
+      <c r="A839" s="57"/>
+      <c r="E839" s="58"/>
+      <c r="F839" s="59"/>
+      <c r="O839" s="59"/>
+      <c r="P839" s="59"/>
     </row>
     <row r="840">
-      <c r="A840" s="44"/>
+      <c r="A840" s="57"/>
+      <c r="E840" s="58"/>
+      <c r="F840" s="59"/>
+      <c r="O840" s="59"/>
+      <c r="P840" s="59"/>
     </row>
     <row r="841">
-      <c r="A841" s="44"/>
+      <c r="A841" s="57"/>
+      <c r="E841" s="58"/>
+      <c r="F841" s="59"/>
+      <c r="O841" s="59"/>
+      <c r="P841" s="59"/>
     </row>
     <row r="842">
-      <c r="A842" s="44"/>
+      <c r="A842" s="57"/>
+      <c r="E842" s="58"/>
+      <c r="F842" s="59"/>
+      <c r="O842" s="59"/>
+      <c r="P842" s="59"/>
     </row>
     <row r="843">
-      <c r="A843" s="44"/>
+      <c r="A843" s="57"/>
+      <c r="E843" s="58"/>
+      <c r="F843" s="59"/>
+      <c r="O843" s="59"/>
+      <c r="P843" s="59"/>
     </row>
     <row r="844">
-      <c r="A844" s="44"/>
+      <c r="A844" s="57"/>
+      <c r="E844" s="58"/>
+      <c r="F844" s="59"/>
+      <c r="O844" s="59"/>
+      <c r="P844" s="59"/>
     </row>
     <row r="845">
-      <c r="A845" s="44"/>
+      <c r="A845" s="57"/>
+      <c r="E845" s="58"/>
+      <c r="F845" s="59"/>
+      <c r="O845" s="59"/>
+      <c r="P845" s="59"/>
     </row>
     <row r="846">
-      <c r="A846" s="44"/>
+      <c r="A846" s="57"/>
+      <c r="E846" s="58"/>
+      <c r="F846" s="59"/>
+      <c r="O846" s="59"/>
+      <c r="P846" s="59"/>
     </row>
     <row r="847">
-      <c r="A847" s="44"/>
+      <c r="A847" s="57"/>
+      <c r="E847" s="58"/>
+      <c r="F847" s="59"/>
+      <c r="O847" s="59"/>
+      <c r="P847" s="59"/>
     </row>
     <row r="848">
-      <c r="A848" s="44"/>
+      <c r="A848" s="57"/>
+      <c r="E848" s="58"/>
+      <c r="F848" s="59"/>
+      <c r="O848" s="59"/>
+      <c r="P848" s="59"/>
     </row>
     <row r="849">
-      <c r="A849" s="44"/>
+      <c r="A849" s="57"/>
+      <c r="E849" s="58"/>
+      <c r="F849" s="59"/>
+      <c r="O849" s="59"/>
+      <c r="P849" s="59"/>
     </row>
     <row r="850">
-      <c r="A850" s="44"/>
+      <c r="A850" s="57"/>
+      <c r="E850" s="58"/>
+      <c r="F850" s="59"/>
+      <c r="O850" s="59"/>
+      <c r="P850" s="59"/>
     </row>
     <row r="851">
-      <c r="A851" s="44"/>
+      <c r="A851" s="57"/>
+      <c r="E851" s="58"/>
+      <c r="F851" s="59"/>
+      <c r="O851" s="59"/>
+      <c r="P851" s="59"/>
     </row>
     <row r="852">
-      <c r="A852" s="44"/>
+      <c r="A852" s="57"/>
+      <c r="E852" s="58"/>
+      <c r="F852" s="59"/>
+      <c r="O852" s="59"/>
+      <c r="P852" s="59"/>
     </row>
     <row r="853">
-      <c r="A853" s="44"/>
+      <c r="A853" s="57"/>
+      <c r="E853" s="58"/>
+      <c r="F853" s="59"/>
+      <c r="O853" s="59"/>
+      <c r="P853" s="59"/>
     </row>
     <row r="854">
-      <c r="A854" s="44"/>
+      <c r="A854" s="57"/>
+      <c r="E854" s="58"/>
+      <c r="F854" s="59"/>
+      <c r="O854" s="59"/>
+      <c r="P854" s="59"/>
     </row>
     <row r="855">
-      <c r="A855" s="44"/>
+      <c r="A855" s="57"/>
+      <c r="E855" s="58"/>
+      <c r="F855" s="59"/>
+      <c r="O855" s="59"/>
+      <c r="P855" s="59"/>
     </row>
     <row r="856">
-      <c r="A856" s="44"/>
+      <c r="A856" s="57"/>
+      <c r="E856" s="58"/>
+      <c r="F856" s="59"/>
+      <c r="O856" s="59"/>
+      <c r="P856" s="59"/>
     </row>
     <row r="857">
-      <c r="A857" s="44"/>
+      <c r="A857" s="57"/>
+      <c r="E857" s="58"/>
+      <c r="F857" s="59"/>
+      <c r="O857" s="59"/>
+      <c r="P857" s="59"/>
     </row>
     <row r="858">
-      <c r="A858" s="44"/>
+      <c r="A858" s="57"/>
+      <c r="E858" s="58"/>
+      <c r="F858" s="59"/>
+      <c r="O858" s="59"/>
+      <c r="P858" s="59"/>
     </row>
     <row r="859">
-      <c r="A859" s="44"/>
+      <c r="A859" s="57"/>
+      <c r="E859" s="58"/>
+      <c r="F859" s="59"/>
+      <c r="O859" s="59"/>
+      <c r="P859" s="59"/>
     </row>
     <row r="860">
-      <c r="A860" s="44"/>
+      <c r="A860" s="57"/>
+      <c r="E860" s="58"/>
+      <c r="F860" s="59"/>
+      <c r="O860" s="59"/>
+      <c r="P860" s="59"/>
     </row>
     <row r="861">
-      <c r="A861" s="44"/>
+      <c r="A861" s="57"/>
+      <c r="E861" s="58"/>
+      <c r="F861" s="59"/>
+      <c r="O861" s="59"/>
+      <c r="P861" s="59"/>
     </row>
     <row r="862">
-      <c r="A862" s="44"/>
+      <c r="A862" s="57"/>
+      <c r="E862" s="58"/>
+      <c r="F862" s="59"/>
+      <c r="O862" s="59"/>
+      <c r="P862" s="59"/>
     </row>
     <row r="863">
-      <c r="A863" s="44"/>
+      <c r="A863" s="57"/>
+      <c r="E863" s="58"/>
+      <c r="F863" s="59"/>
+      <c r="O863" s="59"/>
+      <c r="P863" s="59"/>
     </row>
     <row r="864">
-      <c r="A864" s="44"/>
+      <c r="A864" s="57"/>
+      <c r="E864" s="58"/>
+      <c r="F864" s="59"/>
+      <c r="O864" s="59"/>
+      <c r="P864" s="59"/>
     </row>
     <row r="865">
-      <c r="A865" s="44"/>
+      <c r="A865" s="57"/>
+      <c r="E865" s="58"/>
+      <c r="F865" s="59"/>
+      <c r="O865" s="59"/>
+      <c r="P865" s="59"/>
     </row>
     <row r="866">
-      <c r="A866" s="44"/>
+      <c r="A866" s="57"/>
+      <c r="E866" s="58"/>
+      <c r="F866" s="59"/>
+      <c r="O866" s="59"/>
+      <c r="P866" s="59"/>
     </row>
     <row r="867">
-      <c r="A867" s="44"/>
+      <c r="A867" s="57"/>
+      <c r="E867" s="58"/>
+      <c r="F867" s="59"/>
+      <c r="O867" s="59"/>
+      <c r="P867" s="59"/>
     </row>
     <row r="868">
-      <c r="A868" s="44"/>
+      <c r="A868" s="57"/>
+      <c r="E868" s="58"/>
+      <c r="F868" s="59"/>
+      <c r="O868" s="59"/>
+      <c r="P868" s="59"/>
     </row>
     <row r="869">
-      <c r="A869" s="44"/>
+      <c r="A869" s="57"/>
+      <c r="E869" s="58"/>
+      <c r="F869" s="59"/>
+      <c r="O869" s="59"/>
+      <c r="P869" s="59"/>
     </row>
     <row r="870">
-      <c r="A870" s="44"/>
+      <c r="A870" s="57"/>
+      <c r="E870" s="58"/>
+      <c r="F870" s="59"/>
+      <c r="O870" s="59"/>
+      <c r="P870" s="59"/>
     </row>
     <row r="871">
-      <c r="A871" s="44"/>
+      <c r="A871" s="57"/>
+      <c r="E871" s="58"/>
+      <c r="F871" s="59"/>
+      <c r="O871" s="59"/>
+      <c r="P871" s="59"/>
     </row>
     <row r="872">
-      <c r="A872" s="44"/>
+      <c r="A872" s="57"/>
+      <c r="E872" s="58"/>
+      <c r="F872" s="59"/>
+      <c r="O872" s="59"/>
+      <c r="P872" s="59"/>
     </row>
     <row r="873">
-      <c r="A873" s="44"/>
+      <c r="A873" s="57"/>
+      <c r="E873" s="58"/>
+      <c r="F873" s="59"/>
+      <c r="O873" s="59"/>
+      <c r="P873" s="59"/>
     </row>
     <row r="874">
-      <c r="A874" s="44"/>
+      <c r="A874" s="57"/>
+      <c r="E874" s="58"/>
+      <c r="F874" s="59"/>
+      <c r="O874" s="59"/>
+      <c r="P874" s="59"/>
     </row>
     <row r="875">
-      <c r="A875" s="44"/>
+      <c r="A875" s="57"/>
+      <c r="E875" s="58"/>
+      <c r="F875" s="59"/>
+      <c r="O875" s="59"/>
+      <c r="P875" s="59"/>
     </row>
     <row r="876">
-      <c r="A876" s="44"/>
+      <c r="A876" s="57"/>
+      <c r="E876" s="58"/>
+      <c r="F876" s="59"/>
+      <c r="O876" s="59"/>
+      <c r="P876" s="59"/>
     </row>
     <row r="877">
-      <c r="A877" s="44"/>
+      <c r="A877" s="57"/>
+      <c r="E877" s="58"/>
+      <c r="F877" s="59"/>
+      <c r="O877" s="59"/>
+      <c r="P877" s="59"/>
     </row>
     <row r="878">
-      <c r="A878" s="44"/>
+      <c r="A878" s="57"/>
+      <c r="E878" s="58"/>
+      <c r="F878" s="59"/>
+      <c r="O878" s="59"/>
+      <c r="P878" s="59"/>
     </row>
     <row r="879">
-      <c r="A879" s="44"/>
+      <c r="A879" s="57"/>
+      <c r="E879" s="58"/>
+      <c r="F879" s="59"/>
+      <c r="O879" s="59"/>
+      <c r="P879" s="59"/>
     </row>
     <row r="880">
-      <c r="A880" s="44"/>
+      <c r="A880" s="57"/>
+      <c r="E880" s="58"/>
+      <c r="F880" s="59"/>
+      <c r="O880" s="59"/>
+      <c r="P880" s="59"/>
     </row>
     <row r="881">
-      <c r="A881" s="44"/>
+      <c r="A881" s="57"/>
+      <c r="E881" s="58"/>
+      <c r="F881" s="59"/>
+      <c r="O881" s="59"/>
+      <c r="P881" s="59"/>
     </row>
     <row r="882">
-      <c r="A882" s="44"/>
+      <c r="A882" s="57"/>
+      <c r="E882" s="58"/>
+      <c r="F882" s="59"/>
+      <c r="O882" s="59"/>
+      <c r="P882" s="59"/>
     </row>
     <row r="883">
-      <c r="A883" s="44"/>
+      <c r="A883" s="57"/>
+      <c r="E883" s="58"/>
+      <c r="F883" s="59"/>
+      <c r="O883" s="59"/>
+      <c r="P883" s="59"/>
     </row>
     <row r="884">
-      <c r="A884" s="44"/>
+      <c r="A884" s="57"/>
+      <c r="E884" s="58"/>
+      <c r="F884" s="59"/>
+      <c r="O884" s="59"/>
+      <c r="P884" s="59"/>
     </row>
     <row r="885">
-      <c r="A885" s="44"/>
+      <c r="A885" s="57"/>
+      <c r="E885" s="58"/>
+      <c r="F885" s="59"/>
+      <c r="O885" s="59"/>
+      <c r="P885" s="59"/>
     </row>
     <row r="886">
-      <c r="A886" s="44"/>
+      <c r="A886" s="57"/>
+      <c r="E886" s="58"/>
+      <c r="F886" s="59"/>
+      <c r="O886" s="59"/>
+      <c r="P886" s="59"/>
     </row>
     <row r="887">
-      <c r="A887" s="44"/>
+      <c r="A887" s="57"/>
+      <c r="E887" s="58"/>
+      <c r="F887" s="59"/>
+      <c r="O887" s="59"/>
+      <c r="P887" s="59"/>
     </row>
     <row r="888">
-      <c r="A888" s="44"/>
+      <c r="A888" s="57"/>
+      <c r="E888" s="58"/>
+      <c r="F888" s="59"/>
+      <c r="O888" s="59"/>
+      <c r="P888" s="59"/>
     </row>
     <row r="889">
-      <c r="A889" s="44"/>
+      <c r="A889" s="57"/>
+      <c r="E889" s="58"/>
+      <c r="F889" s="59"/>
+      <c r="O889" s="59"/>
+      <c r="P889" s="59"/>
     </row>
     <row r="890">
-      <c r="A890" s="44"/>
+      <c r="A890" s="57"/>
+      <c r="E890" s="58"/>
+      <c r="F890" s="59"/>
+      <c r="O890" s="59"/>
+      <c r="P890" s="59"/>
     </row>
     <row r="891">
-      <c r="A891" s="44"/>
+      <c r="A891" s="57"/>
+      <c r="E891" s="58"/>
+      <c r="F891" s="59"/>
+      <c r="O891" s="59"/>
+      <c r="P891" s="59"/>
     </row>
     <row r="892">
-      <c r="A892" s="44"/>
+      <c r="A892" s="57"/>
+      <c r="E892" s="58"/>
+      <c r="F892" s="59"/>
+      <c r="O892" s="59"/>
+      <c r="P892" s="59"/>
     </row>
     <row r="893">
-      <c r="A893" s="44"/>
+      <c r="A893" s="57"/>
+      <c r="E893" s="58"/>
+      <c r="F893" s="59"/>
+      <c r="O893" s="59"/>
+      <c r="P893" s="59"/>
     </row>
     <row r="894">
-      <c r="A894" s="44"/>
+      <c r="A894" s="57"/>
+      <c r="E894" s="58"/>
+      <c r="F894" s="59"/>
+      <c r="O894" s="59"/>
+      <c r="P894" s="59"/>
     </row>
     <row r="895">
-      <c r="A895" s="44"/>
+      <c r="A895" s="57"/>
+      <c r="E895" s="58"/>
+      <c r="F895" s="59"/>
+      <c r="O895" s="59"/>
+      <c r="P895" s="59"/>
     </row>
     <row r="896">
-      <c r="A896" s="44"/>
+      <c r="A896" s="57"/>
+      <c r="E896" s="58"/>
+      <c r="F896" s="59"/>
+      <c r="O896" s="59"/>
+      <c r="P896" s="59"/>
     </row>
     <row r="897">
-      <c r="A897" s="44"/>
+      <c r="A897" s="57"/>
+      <c r="E897" s="58"/>
+      <c r="F897" s="59"/>
+      <c r="O897" s="59"/>
+      <c r="P897" s="59"/>
     </row>
     <row r="898">
-      <c r="A898" s="44"/>
+      <c r="A898" s="57"/>
+      <c r="E898" s="58"/>
+      <c r="F898" s="59"/>
+      <c r="O898" s="59"/>
+      <c r="P898" s="59"/>
     </row>
     <row r="899">
-      <c r="A899" s="44"/>
+      <c r="A899" s="57"/>
+      <c r="E899" s="58"/>
+      <c r="F899" s="59"/>
+      <c r="O899" s="59"/>
+      <c r="P899" s="59"/>
     </row>
     <row r="900">
-      <c r="A900" s="44"/>
+      <c r="A900" s="57"/>
+      <c r="E900" s="58"/>
+      <c r="F900" s="59"/>
+      <c r="O900" s="59"/>
+      <c r="P900" s="59"/>
     </row>
     <row r="901">
-      <c r="A901" s="44"/>
+      <c r="A901" s="57"/>
+      <c r="E901" s="58"/>
+      <c r="F901" s="59"/>
+      <c r="O901" s="59"/>
+      <c r="P901" s="59"/>
     </row>
     <row r="902">
-      <c r="A902" s="44"/>
+      <c r="A902" s="57"/>
+      <c r="E902" s="58"/>
+      <c r="F902" s="59"/>
+      <c r="O902" s="59"/>
+      <c r="P902" s="59"/>
     </row>
     <row r="903">
-      <c r="A903" s="44"/>
+      <c r="A903" s="57"/>
+      <c r="E903" s="58"/>
+      <c r="F903" s="59"/>
+      <c r="O903" s="59"/>
+      <c r="P903" s="59"/>
     </row>
     <row r="904">
-      <c r="A904" s="44"/>
+      <c r="A904" s="57"/>
+      <c r="E904" s="58"/>
+      <c r="F904" s="59"/>
+      <c r="O904" s="59"/>
+      <c r="P904" s="59"/>
     </row>
     <row r="905">
-      <c r="A905" s="44"/>
+      <c r="A905" s="57"/>
+      <c r="E905" s="58"/>
+      <c r="F905" s="59"/>
+      <c r="O905" s="59"/>
+      <c r="P905" s="59"/>
     </row>
     <row r="906">
-      <c r="A906" s="44"/>
+      <c r="A906" s="57"/>
+      <c r="E906" s="58"/>
+      <c r="F906" s="59"/>
+      <c r="O906" s="59"/>
+      <c r="P906" s="59"/>
     </row>
     <row r="907">
-      <c r="A907" s="44"/>
+      <c r="A907" s="57"/>
+      <c r="E907" s="58"/>
+      <c r="F907" s="59"/>
+      <c r="O907" s="59"/>
+      <c r="P907" s="59"/>
     </row>
     <row r="908">
-      <c r="A908" s="44"/>
+      <c r="A908" s="57"/>
+      <c r="E908" s="58"/>
+      <c r="F908" s="59"/>
+      <c r="O908" s="59"/>
+      <c r="P908" s="59"/>
     </row>
     <row r="909">
-      <c r="A909" s="44"/>
+      <c r="A909" s="57"/>
+      <c r="E909" s="58"/>
+      <c r="F909" s="59"/>
+      <c r="O909" s="59"/>
+      <c r="P909" s="59"/>
     </row>
     <row r="910">
-      <c r="A910" s="44"/>
+      <c r="A910" s="57"/>
+      <c r="E910" s="58"/>
+      <c r="F910" s="59"/>
+      <c r="O910" s="59"/>
+      <c r="P910" s="59"/>
     </row>
     <row r="911">
-      <c r="A911" s="44"/>
+      <c r="A911" s="57"/>
+      <c r="E911" s="58"/>
+      <c r="F911" s="59"/>
+      <c r="O911" s="59"/>
+      <c r="P911" s="59"/>
     </row>
     <row r="912">
-      <c r="A912" s="44"/>
+      <c r="A912" s="57"/>
+      <c r="E912" s="58"/>
+      <c r="F912" s="59"/>
+      <c r="O912" s="59"/>
+      <c r="P912" s="59"/>
     </row>
     <row r="913">
-      <c r="A913" s="44"/>
+      <c r="A913" s="57"/>
+      <c r="E913" s="58"/>
+      <c r="F913" s="59"/>
+      <c r="O913" s="59"/>
+      <c r="P913" s="59"/>
     </row>
     <row r="914">
-      <c r="A914" s="44"/>
+      <c r="A914" s="57"/>
+      <c r="E914" s="58"/>
+      <c r="F914" s="59"/>
+      <c r="O914" s="59"/>
+      <c r="P914" s="59"/>
     </row>
     <row r="915">
-      <c r="A915" s="44"/>
+      <c r="A915" s="57"/>
+      <c r="E915" s="58"/>
+      <c r="F915" s="59"/>
+      <c r="O915" s="59"/>
+      <c r="P915" s="59"/>
     </row>
     <row r="916">
-      <c r="A916" s="44"/>
+      <c r="A916" s="57"/>
+      <c r="E916" s="58"/>
+      <c r="F916" s="59"/>
+      <c r="O916" s="59"/>
+      <c r="P916" s="59"/>
     </row>
     <row r="917">
-      <c r="A917" s="44"/>
+      <c r="A917" s="57"/>
+      <c r="E917" s="58"/>
+      <c r="F917" s="59"/>
+      <c r="O917" s="59"/>
+      <c r="P917" s="59"/>
     </row>
     <row r="918">
-      <c r="A918" s="44"/>
+      <c r="A918" s="57"/>
+      <c r="E918" s="58"/>
+      <c r="F918" s="59"/>
+      <c r="O918" s="59"/>
+      <c r="P918" s="59"/>
     </row>
     <row r="919">
-      <c r="A919" s="44"/>
+      <c r="A919" s="57"/>
+      <c r="E919" s="58"/>
+      <c r="F919" s="59"/>
+      <c r="O919" s="59"/>
+      <c r="P919" s="59"/>
     </row>
     <row r="920">
-      <c r="A920" s="44"/>
+      <c r="A920" s="57"/>
+      <c r="E920" s="58"/>
+      <c r="F920" s="59"/>
+      <c r="O920" s="59"/>
+      <c r="P920" s="59"/>
     </row>
     <row r="921">
-      <c r="A921" s="44"/>
+      <c r="A921" s="57"/>
+      <c r="E921" s="58"/>
+      <c r="F921" s="59"/>
+      <c r="O921" s="59"/>
+      <c r="P921" s="59"/>
     </row>
     <row r="922">
-      <c r="A922" s="44"/>
+      <c r="A922" s="57"/>
+      <c r="E922" s="58"/>
+      <c r="F922" s="59"/>
+      <c r="O922" s="59"/>
+      <c r="P922" s="59"/>
     </row>
     <row r="923">
-      <c r="A923" s="44"/>
+      <c r="A923" s="57"/>
+      <c r="E923" s="58"/>
+      <c r="F923" s="59"/>
+      <c r="O923" s="59"/>
+      <c r="P923" s="59"/>
     </row>
     <row r="924">
-      <c r="A924" s="44"/>
+      <c r="A924" s="57"/>
+      <c r="E924" s="58"/>
+      <c r="F924" s="59"/>
+      <c r="O924" s="59"/>
+      <c r="P924" s="59"/>
     </row>
     <row r="925">
-      <c r="A925" s="44"/>
+      <c r="A925" s="57"/>
+      <c r="E925" s="58"/>
+      <c r="F925" s="59"/>
+      <c r="O925" s="59"/>
+      <c r="P925" s="59"/>
     </row>
     <row r="926">
-      <c r="A926" s="44"/>
+      <c r="A926" s="57"/>
+      <c r="E926" s="58"/>
+      <c r="F926" s="59"/>
+      <c r="O926" s="59"/>
+      <c r="P926" s="59"/>
     </row>
     <row r="927">
-      <c r="A927" s="44"/>
+      <c r="A927" s="57"/>
+      <c r="E927" s="58"/>
+      <c r="F927" s="59"/>
+      <c r="O927" s="59"/>
+      <c r="P927" s="59"/>
     </row>
     <row r="928">
-      <c r="A928" s="44"/>
+      <c r="A928" s="57"/>
+      <c r="E928" s="58"/>
+      <c r="F928" s="59"/>
+      <c r="O928" s="59"/>
+      <c r="P928" s="59"/>
     </row>
     <row r="929">
-      <c r="A929" s="44"/>
+      <c r="A929" s="57"/>
+      <c r="E929" s="58"/>
+      <c r="F929" s="59"/>
+      <c r="O929" s="59"/>
+      <c r="P929" s="59"/>
     </row>
     <row r="930">
-      <c r="A930" s="44"/>
+      <c r="A930" s="57"/>
+      <c r="E930" s="58"/>
+      <c r="F930" s="59"/>
+      <c r="O930" s="59"/>
+      <c r="P930" s="59"/>
     </row>
     <row r="931">
-      <c r="A931" s="44"/>
+      <c r="A931" s="57"/>
+      <c r="E931" s="58"/>
+      <c r="F931" s="59"/>
+      <c r="O931" s="59"/>
+      <c r="P931" s="59"/>
     </row>
     <row r="932">
-      <c r="A932" s="44"/>
+      <c r="A932" s="57"/>
+      <c r="E932" s="58"/>
+      <c r="F932" s="59"/>
+      <c r="O932" s="59"/>
+      <c r="P932" s="59"/>
     </row>
     <row r="933">
-      <c r="A933" s="44"/>
+      <c r="A933" s="57"/>
+      <c r="E933" s="58"/>
+      <c r="F933" s="59"/>
+      <c r="O933" s="59"/>
+      <c r="P933" s="59"/>
     </row>
     <row r="934">
-      <c r="A934" s="44"/>
+      <c r="A934" s="57"/>
+      <c r="E934" s="58"/>
+      <c r="F934" s="59"/>
+      <c r="O934" s="59"/>
+      <c r="P934" s="59"/>
     </row>
     <row r="935">
-      <c r="A935" s="44"/>
+      <c r="A935" s="57"/>
+      <c r="E935" s="58"/>
+      <c r="F935" s="59"/>
+      <c r="O935" s="59"/>
+      <c r="P935" s="59"/>
     </row>
     <row r="936">
-      <c r="A936" s="44"/>
+      <c r="A936" s="57"/>
+      <c r="E936" s="58"/>
+      <c r="F936" s="59"/>
+      <c r="O936" s="59"/>
+      <c r="P936" s="59"/>
     </row>
     <row r="937">
-      <c r="A937" s="44"/>
+      <c r="A937" s="57"/>
+      <c r="E937" s="58"/>
+      <c r="F937" s="59"/>
+      <c r="O937" s="59"/>
+      <c r="P937" s="59"/>
     </row>
     <row r="938">
-      <c r="A938" s="44"/>
+      <c r="A938" s="57"/>
+      <c r="E938" s="58"/>
+      <c r="F938" s="59"/>
+      <c r="O938" s="59"/>
+      <c r="P938" s="59"/>
     </row>
     <row r="939">
-      <c r="A939" s="44"/>
+      <c r="A939" s="57"/>
+      <c r="E939" s="58"/>
+      <c r="F939" s="59"/>
+      <c r="O939" s="59"/>
+      <c r="P939" s="59"/>
     </row>
     <row r="940">
-      <c r="A940" s="44"/>
+      <c r="A940" s="57"/>
+      <c r="E940" s="58"/>
+      <c r="F940" s="59"/>
+      <c r="O940" s="59"/>
+      <c r="P940" s="59"/>
     </row>
     <row r="941">
-      <c r="A941" s="44"/>
+      <c r="A941" s="57"/>
+      <c r="E941" s="58"/>
+      <c r="F941" s="59"/>
+      <c r="O941" s="59"/>
+      <c r="P941" s="59"/>
     </row>
     <row r="942">
-      <c r="A942" s="44"/>
+      <c r="A942" s="57"/>
+      <c r="E942" s="58"/>
+      <c r="F942" s="59"/>
+      <c r="O942" s="59"/>
+      <c r="P942" s="59"/>
     </row>
     <row r="943">
-      <c r="A943" s="44"/>
+      <c r="A943" s="57"/>
+      <c r="E943" s="58"/>
+      <c r="F943" s="59"/>
+      <c r="O943" s="59"/>
+      <c r="P943" s="59"/>
     </row>
     <row r="944">
-      <c r="A944" s="44"/>
+      <c r="A944" s="57"/>
+      <c r="E944" s="58"/>
+      <c r="F944" s="59"/>
+      <c r="O944" s="59"/>
+      <c r="P944" s="59"/>
     </row>
     <row r="945">
-      <c r="A945" s="44"/>
+      <c r="A945" s="57"/>
+      <c r="E945" s="58"/>
+      <c r="F945" s="59"/>
+      <c r="O945" s="59"/>
+      <c r="P945" s="59"/>
     </row>
     <row r="946">
-      <c r="A946" s="44"/>
+      <c r="A946" s="57"/>
+      <c r="E946" s="58"/>
+      <c r="F946" s="59"/>
+      <c r="O946" s="59"/>
+      <c r="P946" s="59"/>
     </row>
     <row r="947">
-      <c r="A947" s="44"/>
+      <c r="A947" s="57"/>
+      <c r="E947" s="58"/>
+      <c r="F947" s="59"/>
+      <c r="O947" s="59"/>
+      <c r="P947" s="59"/>
     </row>
     <row r="948">
-      <c r="A948" s="44"/>
+      <c r="A948" s="57"/>
+      <c r="E948" s="58"/>
+      <c r="F948" s="59"/>
+      <c r="O948" s="59"/>
+      <c r="P948" s="59"/>
     </row>
     <row r="949">
-      <c r="A949" s="44"/>
+      <c r="A949" s="57"/>
+      <c r="E949" s="58"/>
+      <c r="F949" s="59"/>
+      <c r="O949" s="59"/>
+      <c r="P949" s="59"/>
     </row>
     <row r="950">
-      <c r="A950" s="44"/>
+      <c r="A950" s="57"/>
+      <c r="E950" s="58"/>
+      <c r="F950" s="59"/>
+      <c r="O950" s="59"/>
+      <c r="P950" s="59"/>
     </row>
     <row r="951">
-      <c r="A951" s="44"/>
+      <c r="A951" s="57"/>
+      <c r="E951" s="58"/>
+      <c r="F951" s="59"/>
+      <c r="O951" s="59"/>
+      <c r="P951" s="59"/>
     </row>
     <row r="952">
-      <c r="A952" s="44"/>
+      <c r="A952" s="57"/>
+      <c r="E952" s="58"/>
+      <c r="F952" s="59"/>
+      <c r="O952" s="59"/>
+      <c r="P952" s="59"/>
     </row>
     <row r="953">
-      <c r="A953" s="44"/>
+      <c r="A953" s="57"/>
+      <c r="E953" s="58"/>
+      <c r="F953" s="59"/>
+      <c r="O953" s="59"/>
+      <c r="P953" s="59"/>
     </row>
     <row r="954">
-      <c r="A954" s="44"/>
+      <c r="A954" s="57"/>
+      <c r="E954" s="58"/>
+      <c r="F954" s="59"/>
+      <c r="O954" s="59"/>
+      <c r="P954" s="59"/>
     </row>
     <row r="955">
-      <c r="A955" s="44"/>
+      <c r="A955" s="57"/>
+      <c r="E955" s="58"/>
+      <c r="F955" s="59"/>
+      <c r="O955" s="59"/>
+      <c r="P955" s="59"/>
     </row>
     <row r="956">
-      <c r="A956" s="44"/>
+      <c r="A956" s="57"/>
+      <c r="E956" s="58"/>
+      <c r="F956" s="59"/>
+      <c r="O956" s="59"/>
+      <c r="P956" s="59"/>
     </row>
     <row r="957">
-      <c r="A957" s="44"/>
+      <c r="A957" s="57"/>
+      <c r="E957" s="58"/>
+      <c r="F957" s="59"/>
+      <c r="O957" s="59"/>
+      <c r="P957" s="59"/>
     </row>
     <row r="958">
-      <c r="A958" s="44"/>
+      <c r="A958" s="57"/>
+      <c r="E958" s="58"/>
+      <c r="F958" s="59"/>
+      <c r="O958" s="59"/>
+      <c r="P958" s="59"/>
     </row>
     <row r="959">
-      <c r="A959" s="44"/>
+      <c r="A959" s="57"/>
+      <c r="E959" s="58"/>
+      <c r="F959" s="59"/>
+      <c r="O959" s="59"/>
+      <c r="P959" s="59"/>
     </row>
     <row r="960">
-      <c r="A960" s="44"/>
+      <c r="A960" s="57"/>
+      <c r="E960" s="58"/>
+      <c r="F960" s="59"/>
+      <c r="O960" s="59"/>
+      <c r="P960" s="59"/>
     </row>
     <row r="961">
-      <c r="A961" s="44"/>
+      <c r="A961" s="57"/>
+      <c r="E961" s="58"/>
+      <c r="F961" s="59"/>
+      <c r="O961" s="59"/>
+      <c r="P961" s="59"/>
     </row>
     <row r="962">
-      <c r="A962" s="44"/>
+      <c r="A962" s="57"/>
+      <c r="E962" s="58"/>
+      <c r="F962" s="59"/>
+      <c r="O962" s="59"/>
+      <c r="P962" s="59"/>
     </row>
     <row r="963">
-      <c r="A963" s="44"/>
+      <c r="A963" s="57"/>
+      <c r="E963" s="58"/>
+      <c r="F963" s="59"/>
+      <c r="O963" s="59"/>
+      <c r="P963" s="59"/>
     </row>
     <row r="964">
-      <c r="A964" s="44"/>
+      <c r="A964" s="57"/>
+      <c r="E964" s="58"/>
+      <c r="F964" s="59"/>
+      <c r="O964" s="59"/>
+      <c r="P964" s="59"/>
     </row>
     <row r="965">
-      <c r="A965" s="44"/>
+      <c r="A965" s="57"/>
+      <c r="E965" s="58"/>
+      <c r="F965" s="59"/>
+      <c r="O965" s="59"/>
+      <c r="P965" s="59"/>
     </row>
     <row r="966">
-      <c r="A966" s="44"/>
+      <c r="A966" s="57"/>
+      <c r="E966" s="58"/>
+      <c r="F966" s="59"/>
+      <c r="O966" s="59"/>
+      <c r="P966" s="59"/>
     </row>
     <row r="967">
-      <c r="A967" s="44"/>
+      <c r="A967" s="57"/>
+      <c r="E967" s="58"/>
+      <c r="F967" s="59"/>
+      <c r="O967" s="59"/>
+      <c r="P967" s="59"/>
     </row>
     <row r="968">
-      <c r="A968" s="44"/>
+      <c r="A968" s="57"/>
+      <c r="E968" s="58"/>
+      <c r="F968" s="59"/>
+      <c r="O968" s="59"/>
+      <c r="P968" s="59"/>
     </row>
     <row r="969">
-      <c r="A969" s="44"/>
+      <c r="A969" s="57"/>
+      <c r="E969" s="58"/>
+      <c r="F969" s="59"/>
+      <c r="O969" s="59"/>
+      <c r="P969" s="59"/>
     </row>
     <row r="970">
-      <c r="A970" s="44"/>
+      <c r="A970" s="57"/>
+      <c r="E970" s="58"/>
+      <c r="F970" s="59"/>
+      <c r="O970" s="59"/>
+      <c r="P970" s="59"/>
     </row>
     <row r="971">
-      <c r="A971" s="44"/>
+      <c r="A971" s="57"/>
+      <c r="E971" s="58"/>
+      <c r="F971" s="59"/>
+      <c r="O971" s="59"/>
+      <c r="P971" s="59"/>
     </row>
     <row r="972">
-      <c r="A972" s="44"/>
+      <c r="A972" s="57"/>
+      <c r="E972" s="58"/>
+      <c r="F972" s="59"/>
+      <c r="O972" s="59"/>
+      <c r="P972" s="59"/>
     </row>
     <row r="973">
-      <c r="A973" s="44"/>
+      <c r="A973" s="57"/>
+      <c r="E973" s="58"/>
+      <c r="F973" s="59"/>
+      <c r="O973" s="59"/>
+      <c r="P973" s="59"/>
     </row>
     <row r="974">
-      <c r="A974" s="44"/>
+      <c r="A974" s="57"/>
+      <c r="E974" s="58"/>
+      <c r="F974" s="59"/>
+      <c r="O974" s="59"/>
+      <c r="P974" s="59"/>
     </row>
     <row r="975">
-      <c r="A975" s="44"/>
+      <c r="A975" s="57"/>
+      <c r="E975" s="58"/>
+      <c r="F975" s="59"/>
+      <c r="O975" s="59"/>
+      <c r="P975" s="59"/>
     </row>
     <row r="976">
-      <c r="A976" s="44"/>
+      <c r="A976" s="57"/>
+      <c r="E976" s="58"/>
+      <c r="F976" s="59"/>
+      <c r="O976" s="59"/>
+      <c r="P976" s="59"/>
     </row>
     <row r="977">
-      <c r="A977" s="44"/>
+      <c r="A977" s="57"/>
+      <c r="E977" s="58"/>
+      <c r="F977" s="59"/>
+      <c r="O977" s="59"/>
+      <c r="P977" s="59"/>
     </row>
     <row r="978">
-      <c r="A978" s="44"/>
+      <c r="A978" s="57"/>
+      <c r="E978" s="58"/>
+      <c r="F978" s="59"/>
+      <c r="O978" s="59"/>
+      <c r="P978" s="59"/>
     </row>
     <row r="979">
-      <c r="A979" s="44"/>
+      <c r="A979" s="57"/>
+      <c r="E979" s="58"/>
+      <c r="F979" s="59"/>
+      <c r="O979" s="59"/>
+      <c r="P979" s="59"/>
     </row>
     <row r="980">
-      <c r="A980" s="44"/>
+      <c r="A980" s="57"/>
+      <c r="E980" s="58"/>
+      <c r="F980" s="59"/>
+      <c r="O980" s="59"/>
+      <c r="P980" s="59"/>
     </row>
     <row r="981">
-      <c r="A981" s="44"/>
+      <c r="A981" s="57"/>
+      <c r="E981" s="58"/>
+      <c r="F981" s="59"/>
+      <c r="O981" s="59"/>
+      <c r="P981" s="59"/>
     </row>
     <row r="982">
-      <c r="A982" s="44"/>
+      <c r="A982" s="57"/>
+      <c r="E982" s="58"/>
+      <c r="F982" s="59"/>
+      <c r="O982" s="59"/>
+      <c r="P982" s="59"/>
     </row>
     <row r="983">
-      <c r="A983" s="44"/>
+      <c r="A983" s="57"/>
+      <c r="E983" s="58"/>
+      <c r="F983" s="59"/>
+      <c r="O983" s="59"/>
+      <c r="P983" s="59"/>
     </row>
     <row r="984">
-      <c r="A984" s="44"/>
+      <c r="A984" s="57"/>
+      <c r="E984" s="58"/>
+      <c r="F984" s="59"/>
+      <c r="O984" s="59"/>
+      <c r="P984" s="59"/>
     </row>
     <row r="985">
-      <c r="A985" s="44"/>
+      <c r="A985" s="57"/>
+      <c r="E985" s="58"/>
+      <c r="F985" s="59"/>
+      <c r="O985" s="59"/>
+      <c r="P985" s="59"/>
     </row>
     <row r="986">
-      <c r="A986" s="44"/>
+      <c r="A986" s="57"/>
+      <c r="E986" s="58"/>
+      <c r="F986" s="59"/>
+      <c r="O986" s="59"/>
+      <c r="P986" s="59"/>
     </row>
     <row r="987">
-      <c r="A987" s="44"/>
+      <c r="A987" s="57"/>
+      <c r="E987" s="58"/>
+      <c r="F987" s="59"/>
+      <c r="O987" s="59"/>
+      <c r="P987" s="59"/>
     </row>
     <row r="988">
-      <c r="A988" s="44"/>
+      <c r="A988" s="57"/>
+      <c r="E988" s="58"/>
+      <c r="F988" s="59"/>
+      <c r="O988" s="59"/>
+      <c r="P988" s="59"/>
     </row>
     <row r="989">
-      <c r="A989" s="44"/>
+      <c r="A989" s="57"/>
+      <c r="E989" s="58"/>
+      <c r="F989" s="59"/>
+      <c r="O989" s="59"/>
+      <c r="P989" s="59"/>
     </row>
     <row r="990">
-      <c r="A990" s="44"/>
+      <c r="A990" s="57"/>
+      <c r="E990" s="58"/>
+      <c r="F990" s="59"/>
+      <c r="O990" s="59"/>
+      <c r="P990" s="59"/>
     </row>
     <row r="991">
-      <c r="A991" s="44"/>
+      <c r="A991" s="57"/>
+      <c r="E991" s="58"/>
+      <c r="F991" s="59"/>
+      <c r="O991" s="59"/>
+      <c r="P991" s="59"/>
     </row>
     <row r="992">
-      <c r="A992" s="44"/>
+      <c r="A992" s="57"/>
+      <c r="E992" s="58"/>
+      <c r="F992" s="59"/>
+      <c r="O992" s="59"/>
+      <c r="P992" s="59"/>
     </row>
     <row r="993">
-      <c r="A993" s="44"/>
+      <c r="A993" s="57"/>
+      <c r="E993" s="58"/>
+      <c r="F993" s="59"/>
+      <c r="O993" s="59"/>
+      <c r="P993" s="59"/>
     </row>
     <row r="994">
-      <c r="A994" s="44"/>
+      <c r="A994" s="57"/>
+      <c r="E994" s="58"/>
+      <c r="F994" s="59"/>
+      <c r="O994" s="59"/>
+      <c r="P994" s="59"/>
     </row>
     <row r="995">
-      <c r="A995" s="44"/>
+      <c r="A995" s="57"/>
+      <c r="E995" s="58"/>
+      <c r="F995" s="59"/>
+      <c r="O995" s="59"/>
+      <c r="P995" s="59"/>
     </row>
     <row r="996">
-      <c r="A996" s="44"/>
+      <c r="A996" s="57"/>
+      <c r="E996" s="58"/>
+      <c r="F996" s="59"/>
+      <c r="O996" s="59"/>
+      <c r="P996" s="59"/>
     </row>
     <row r="997">
-      <c r="A997" s="44"/>
+      <c r="A997" s="57"/>
+      <c r="E997" s="58"/>
+      <c r="F997" s="59"/>
+      <c r="O997" s="59"/>
+      <c r="P997" s="59"/>
     </row>
     <row r="998">
-      <c r="A998" s="44"/>
+      <c r="A998" s="57"/>
+      <c r="E998" s="58"/>
+      <c r="F998" s="59"/>
+      <c r="O998" s="59"/>
+      <c r="P998" s="59"/>
     </row>
     <row r="999">
-      <c r="A999" s="44"/>
+      <c r="A999" s="57"/>
+      <c r="E999" s="58"/>
+      <c r="F999" s="59"/>
+      <c r="O999" s="59"/>
+      <c r="P999" s="59"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="44"/>
+      <c r="A1000" s="57"/>
+      <c r="E1000" s="58"/>
+      <c r="F1000" s="59"/>
+      <c r="O1000" s="59"/>
+      <c r="P1000" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
